--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Google Drive\PROROB\09 CLIENTI\Mind Music Lab AB\SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Google Drive\PROROB\09 CLIENTI\Mind Music Lab AB\GIT\sensei\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="655" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="655" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GENERIC PACKET" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="173">
   <si>
     <t>CMD</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t># IEEE Float 32 bit little-endian</t>
+  </si>
+  <si>
+    <t>SLIDER_THRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -940,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1202,165 +1205,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,53 +1218,23 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1423,62 +1243,257 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1869,350 +1884,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="100" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100" t="s">
+      <c r="C7" s="138"/>
+      <c r="D7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="105"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="133"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="105"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="105"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="133"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="100" t="s">
+      <c r="C12" s="128"/>
+      <c r="D12" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="100" t="s">
+      <c r="C13" s="127"/>
+      <c r="D13" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="100" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="88" t="s">
         <v>0</v>
       </c>
@@ -2271,24 +2286,24 @@
       <c r="BF17" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="112" t="s">
+      <c r="BG17" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="112"/>
-      <c r="BI17" s="112"/>
-      <c r="BJ17" s="112"/>
-      <c r="BK17" s="111" t="s">
+      <c r="BH17" s="128"/>
+      <c r="BI17" s="128"/>
+      <c r="BJ17" s="128"/>
+      <c r="BK17" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="111"/>
-      <c r="BM17" s="108" t="s">
+      <c r="BL17" s="127"/>
+      <c r="BM17" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="108"/>
-      <c r="BO17" s="108"/>
+      <c r="BN17" s="126"/>
+      <c r="BO17" s="126"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="104" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="9">
@@ -2486,6 +2501,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -2502,19 +2530,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2522,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2541,11 +2556,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -2583,7 +2598,7 @@
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="193" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="29" t="s">
@@ -2601,7 +2616,7 @@
       <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="194"/>
       <c r="D8" s="30" t="s">
         <v>82</v>
       </c>
@@ -2660,7 +2675,7 @@
       <c r="B13" s="27">
         <v>5</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="193" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -2680,7 +2695,7 @@
       <c r="B14" s="27">
         <v>6</v>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="30" t="s">
         <v>82</v>
       </c>
@@ -2747,17 +2762,17 @@
       <c r="D19" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="27">
         <v>5</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="193" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -2768,7 +2783,7 @@
       <c r="B21" s="27">
         <v>6</v>
       </c>
-      <c r="C21" s="116"/>
+      <c r="C21" s="194"/>
       <c r="D21" s="30" t="s">
         <v>82</v>
       </c>
@@ -2815,7 +2830,7 @@
       <c r="B24" s="27">
         <v>9</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="195" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2833,7 +2848,7 @@
       <c r="B25" s="27">
         <v>10</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="196"/>
       <c r="D25" s="56" t="s">
         <v>82</v>
       </c>
@@ -2849,7 +2864,7 @@
       <c r="B26" s="16">
         <v>11</v>
       </c>
-      <c r="C26" s="139"/>
+      <c r="C26" s="196"/>
       <c r="D26" s="56" t="s">
         <v>84</v>
       </c>
@@ -2858,7 +2873,7 @@
       <c r="B27" s="16">
         <v>12</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="197"/>
       <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
@@ -2883,6 +2898,15 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>14</v>
+      </c>
+      <c r="C29" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="200" t="s">
+        <v>81</v>
+      </c>
       <c r="G29" s="39" t="s">
         <v>108</v>
       </c>
@@ -2891,8 +2915,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>15</v>
+      </c>
+      <c r="C30" s="199"/>
+      <c r="D30" s="201" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="C7:C8"/>
@@ -2901,7 +2935,8 @@
     <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2910,7 +2945,7 @@
   <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3385,15 +3420,15 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="181">
+      <c r="B45" s="117">
         <v>255</v>
       </c>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181" t="s">
+      <c r="C45" s="117"/>
+      <c r="D45" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="181"/>
-      <c r="F45" s="182"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3418,11 +3453,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
@@ -3442,7 +3477,7 @@
       <c r="C5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="105" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3469,7 +3504,7 @@
   <dimension ref="B3:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B15" sqref="B15:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3507,135 +3542,135 @@
       <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="190"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="186"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="159"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="27">
         <v>7</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="185" t="s">
+      <c r="F7" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="186"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167" t="s">
+      <c r="C8" s="144"/>
+      <c r="D8" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="183"/>
-      <c r="H8" s="188"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27">
         <v>9</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="180"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="27">
         <v>10</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="171" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="180"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27">
         <v>11</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171" t="s">
+      <c r="C11" s="152"/>
+      <c r="D11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="158"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="180"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173" t="s">
+      <c r="C12" s="153"/>
+      <c r="D12" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="180"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="27">
         <v>13</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="180"/>
+      <c r="D13" s="114"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
         <v>14</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
+      <c r="D14" s="116"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3671,11 +3706,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="154"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="103"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -3871,19 +3906,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
+      <c r="C5" s="166"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
@@ -3895,10 +3930,10 @@
       <c r="D6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="114"/>
+      <c r="G6" s="165"/>
       <c r="H6" s="5"/>
       <c r="I6" s="76"/>
     </row>
@@ -3979,17 +4014,17 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="153"/>
+      <c r="C13" s="164"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
@@ -4122,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4138,18 +4173,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="E5" s="152"/>
+      <c r="C5" s="166"/>
+      <c r="E5" s="102"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
@@ -4222,10 +4257,10 @@
       <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="191"/>
+      <c r="D10" s="119"/>
       <c r="F10" s="14" t="s">
         <v>170</v>
       </c>
@@ -4235,10 +4270,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="166"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
@@ -4286,16 +4321,16 @@
       <c r="B17" s="27">
         <v>7</v>
       </c>
-      <c r="C17" s="192" t="s">
+      <c r="C17" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="191"/>
+      <c r="D17" s="119"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="117"/>
+      <c r="C19" s="166"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
@@ -4335,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="95"/>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="106" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4343,7 +4378,7 @@
       <c r="B24" s="27">
         <v>7</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="170" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="52" t="s">
@@ -4354,16 +4389,16 @@
       <c r="B25" s="27">
         <v>8</v>
       </c>
-      <c r="C25" s="194"/>
+      <c r="C25" s="172"/>
       <c r="D25" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="117"/>
+      <c r="C27" s="166"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
@@ -4403,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="95"/>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="106" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4411,7 +4446,7 @@
       <c r="B32" s="27">
         <v>7</v>
       </c>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="170" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="52" t="s">
@@ -4422,8 +4457,8 @@
       <c r="B33" s="27">
         <v>8</v>
       </c>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="121" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4431,8 +4466,8 @@
       <c r="B34" s="27">
         <v>9</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="196" t="s">
+      <c r="C34" s="171"/>
+      <c r="D34" s="121" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4440,7 +4475,7 @@
       <c r="B35" s="27">
         <v>10</v>
       </c>
-      <c r="C35" s="194"/>
+      <c r="C35" s="172"/>
       <c r="D35" s="53" t="s">
         <v>83</v>
       </c>
@@ -4451,14 +4486,15 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B39:D39"/>
@@ -4466,7 +4502,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4493,11 +4528,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="102"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
@@ -4505,10 +4540,10 @@
       <c r="D3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="166"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -4645,11 +4680,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
@@ -4666,7 +4701,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="197"/>
+      <c r="D16" s="122"/>
       <c r="F16" s="13" t="s">
         <v>62</v>
       </c>
@@ -4696,11 +4731,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="130"/>
       <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4713,10 +4748,10 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="117"/>
+      <c r="C21" s="166"/>
       <c r="F21" s="98" t="s">
         <v>63</v>
       </c>
@@ -4782,11 +4817,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="F26" s="15" t="s">
         <v>46</v>
       </c>
@@ -4938,36 +4973,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="166"/>
       <c r="E4" s="75"/>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -5269,11 +5304,11 @@
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
       <c r="F12" s="50"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
@@ -5321,24 +5356,24 @@
       <c r="B15" s="70">
         <v>0</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="70">
         <v>1</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="142"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="70">
         <v>2</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="143"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="101"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
@@ -5366,7 +5401,7 @@
       <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="182" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="62" t="s">
@@ -5377,7 +5412,7 @@
       <c r="B21" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="63" t="s">
         <v>82</v>
       </c>
@@ -5386,7 +5421,7 @@
       <c r="B22" s="16">
         <v>7</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="63" t="s">
         <v>84</v>
       </c>
@@ -5395,7 +5430,7 @@
       <c r="B23" s="16">
         <v>8</v>
       </c>
-      <c r="C23" s="119"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="64" t="s">
         <v>83</v>
       </c>
@@ -5404,7 +5439,7 @@
       <c r="B24" s="16">
         <v>9</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="182" t="s">
         <v>132</v>
       </c>
       <c r="D24" s="62" t="s">
@@ -5415,7 +5450,7 @@
       <c r="B25" s="16">
         <v>10</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="63" t="s">
         <v>82</v>
       </c>
@@ -5441,7 +5476,7 @@
       <c r="B26" s="16">
         <v>11</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="63" t="s">
         <v>84</v>
       </c>
@@ -5450,7 +5485,7 @@
       <c r="B27" s="16">
         <v>12</v>
       </c>
-      <c r="C27" s="119"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="64" t="s">
         <v>83</v>
       </c>
@@ -5459,7 +5494,7 @@
       <c r="B28" s="16">
         <v>13</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="182" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="62" t="s">
@@ -5470,7 +5505,7 @@
       <c r="B29" s="16">
         <v>14</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="63" t="s">
         <v>82</v>
       </c>
@@ -5479,7 +5514,7 @@
       <c r="B30" s="16">
         <v>15</v>
       </c>
-      <c r="C30" s="119"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="63" t="s">
         <v>84</v>
       </c>
@@ -5488,7 +5523,7 @@
       <c r="B31" s="16">
         <v>16</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="64" t="s">
         <v>83</v>
       </c>
@@ -5497,7 +5532,7 @@
       <c r="B32" s="16">
         <v>17</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="182" t="s">
         <v>134</v>
       </c>
       <c r="D32" s="62" t="s">
@@ -5508,7 +5543,7 @@
       <c r="B33" s="16">
         <v>18</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="63" t="s">
         <v>82</v>
       </c>
@@ -5517,7 +5552,7 @@
       <c r="B34" s="16">
         <v>19</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="63" t="s">
         <v>84</v>
       </c>
@@ -5543,7 +5578,7 @@
       <c r="B35" s="16">
         <v>20</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="183"/>
       <c r="D35" s="64" t="s">
         <v>83</v>
       </c>
@@ -5569,7 +5604,7 @@
       <c r="B36" s="16">
         <v>21</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="182" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="62" t="s">
@@ -5597,7 +5632,7 @@
       <c r="B37" s="16">
         <v>22</v>
       </c>
-      <c r="C37" s="119"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="63" t="s">
         <v>82</v>
       </c>
@@ -5623,7 +5658,7 @@
       <c r="B38" s="16">
         <v>23</v>
       </c>
-      <c r="C38" s="119"/>
+      <c r="C38" s="183"/>
       <c r="D38" s="63" t="s">
         <v>84</v>
       </c>
@@ -5645,7 +5680,7 @@
       <c r="B39" s="16">
         <v>24</v>
       </c>
-      <c r="C39" s="119"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="64" t="s">
         <v>83</v>
       </c>
@@ -5667,7 +5702,7 @@
       <c r="B40" s="16">
         <v>25</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="182" t="s">
         <v>140</v>
       </c>
       <c r="D40" s="62" t="s">
@@ -5691,7 +5726,7 @@
       <c r="B41" s="16">
         <v>26</v>
       </c>
-      <c r="C41" s="119"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="63" t="s">
         <v>82</v>
       </c>
@@ -5717,7 +5752,7 @@
       <c r="B42" s="16">
         <v>27</v>
       </c>
-      <c r="C42" s="119"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="63" t="s">
         <v>84</v>
       </c>
@@ -5743,7 +5778,7 @@
       <c r="B43" s="16">
         <v>28</v>
       </c>
-      <c r="C43" s="119"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="64" t="s">
         <v>83</v>
       </c>
@@ -5769,7 +5804,7 @@
       <c r="B44" s="16">
         <v>29</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="182" t="s">
         <v>141</v>
       </c>
       <c r="D44" s="62" t="s">
@@ -5797,7 +5832,7 @@
       <c r="B45" s="16">
         <v>30</v>
       </c>
-      <c r="C45" s="119"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="63" t="s">
         <v>82</v>
       </c>
@@ -5806,7 +5841,7 @@
       <c r="B46" s="16">
         <v>31</v>
       </c>
-      <c r="C46" s="119"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="63" t="s">
         <v>84</v>
       </c>
@@ -5815,7 +5850,7 @@
       <c r="B47" s="16">
         <v>32</v>
       </c>
-      <c r="C47" s="119"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="64" t="s">
         <v>83</v>
       </c>
@@ -5824,7 +5859,7 @@
       <c r="B48" s="16">
         <v>33</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="182" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="62" t="s">
@@ -5835,7 +5870,7 @@
       <c r="B49" s="16">
         <v>34</v>
       </c>
-      <c r="C49" s="119"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="63" t="s">
         <v>82</v>
       </c>
@@ -5844,7 +5879,7 @@
       <c r="B50" s="16">
         <v>35</v>
       </c>
-      <c r="C50" s="119"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="63" t="s">
         <v>84</v>
       </c>
@@ -5853,7 +5888,7 @@
       <c r="B51" s="16">
         <v>36</v>
       </c>
-      <c r="C51" s="119"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="64" t="s">
         <v>83</v>
       </c>
@@ -5862,7 +5897,7 @@
       <c r="B52" s="16">
         <v>37</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="187" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="62" t="s">
@@ -5873,7 +5908,7 @@
       <c r="B53" s="16">
         <v>38</v>
       </c>
-      <c r="C53" s="126"/>
+      <c r="C53" s="188"/>
       <c r="D53" s="63" t="s">
         <v>82</v>
       </c>
@@ -5882,7 +5917,7 @@
       <c r="B54" s="16">
         <v>39</v>
       </c>
-      <c r="C54" s="126"/>
+      <c r="C54" s="188"/>
       <c r="D54" s="63" t="s">
         <v>84</v>
       </c>
@@ -5891,7 +5926,7 @@
       <c r="B55" s="16">
         <v>40</v>
       </c>
-      <c r="C55" s="127"/>
+      <c r="C55" s="189"/>
       <c r="D55" s="64" t="s">
         <v>83</v>
       </c>
@@ -5900,7 +5935,7 @@
       <c r="B56" s="16">
         <v>41</v>
       </c>
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="182" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="62" t="s">
@@ -5911,7 +5946,7 @@
       <c r="B57" s="16">
         <v>42</v>
       </c>
-      <c r="C57" s="119"/>
+      <c r="C57" s="183"/>
       <c r="D57" s="63" t="s">
         <v>82</v>
       </c>
@@ -5920,7 +5955,7 @@
       <c r="B58" s="16">
         <v>43</v>
       </c>
-      <c r="C58" s="119"/>
+      <c r="C58" s="183"/>
       <c r="D58" s="63" t="s">
         <v>84</v>
       </c>
@@ -5929,7 +5964,7 @@
       <c r="B59" s="16">
         <v>44</v>
       </c>
-      <c r="C59" s="119"/>
+      <c r="C59" s="183"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -5938,7 +5973,7 @@
       <c r="B60" s="16">
         <v>45</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="C60" s="182" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="62" t="s">
@@ -5949,7 +5984,7 @@
       <c r="B61" s="16">
         <v>46</v>
       </c>
-      <c r="C61" s="119"/>
+      <c r="C61" s="183"/>
       <c r="D61" s="63" t="s">
         <v>82</v>
       </c>
@@ -5958,7 +5993,7 @@
       <c r="B62" s="16">
         <v>47</v>
       </c>
-      <c r="C62" s="119"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="63" t="s">
         <v>84</v>
       </c>
@@ -5967,7 +6002,7 @@
       <c r="B63" s="16">
         <v>48</v>
       </c>
-      <c r="C63" s="119"/>
+      <c r="C63" s="183"/>
       <c r="D63" s="64" t="s">
         <v>83</v>
       </c>
@@ -5976,7 +6011,7 @@
       <c r="B64" s="16">
         <v>49</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="C64" s="182" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="62" t="s">
@@ -5987,7 +6022,7 @@
       <c r="B65" s="16">
         <v>50</v>
       </c>
-      <c r="C65" s="119"/>
+      <c r="C65" s="183"/>
       <c r="D65" s="63" t="s">
         <v>82</v>
       </c>
@@ -5996,7 +6031,7 @@
       <c r="B66" s="16">
         <v>51</v>
       </c>
-      <c r="C66" s="119"/>
+      <c r="C66" s="183"/>
       <c r="D66" s="63" t="s">
         <v>84</v>
       </c>
@@ -6005,7 +6040,7 @@
       <c r="B67" s="16">
         <v>52</v>
       </c>
-      <c r="C67" s="119"/>
+      <c r="C67" s="183"/>
       <c r="D67" s="64" t="s">
         <v>83</v>
       </c>
@@ -6032,7 +6067,7 @@
       <c r="B70" s="16">
         <v>55</v>
       </c>
-      <c r="C70" s="129" t="s">
+      <c r="C70" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="58" t="s">
@@ -6043,7 +6078,7 @@
       <c r="B71" s="16">
         <v>56</v>
       </c>
-      <c r="C71" s="130"/>
+      <c r="C71" s="175"/>
       <c r="D71" s="59" t="s">
         <v>82</v>
       </c>
@@ -6052,7 +6087,7 @@
       <c r="B72" s="16">
         <v>57</v>
       </c>
-      <c r="C72" s="130"/>
+      <c r="C72" s="175"/>
       <c r="D72" s="59" t="s">
         <v>84</v>
       </c>
@@ -6061,7 +6096,7 @@
       <c r="B73" s="16">
         <v>58</v>
       </c>
-      <c r="C73" s="131"/>
+      <c r="C73" s="176"/>
       <c r="D73" s="60" t="s">
         <v>83</v>
       </c>
@@ -6070,7 +6105,7 @@
       <c r="B74" s="16">
         <v>59</v>
       </c>
-      <c r="C74" s="123" t="s">
+      <c r="C74" s="177" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="68"/>
@@ -6079,14 +6114,14 @@
       <c r="B75" s="16">
         <v>60</v>
       </c>
-      <c r="C75" s="124"/>
+      <c r="C75" s="178"/>
       <c r="D75" s="69"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
         <v>61</v>
       </c>
-      <c r="C76" s="120" t="s">
+      <c r="C76" s="179" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="65"/>
@@ -6095,14 +6130,14 @@
       <c r="B77" s="16">
         <v>62</v>
       </c>
-      <c r="C77" s="121"/>
+      <c r="C77" s="180"/>
       <c r="D77" s="66"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="16">
         <v>63</v>
       </c>
-      <c r="C78" s="122"/>
+      <c r="C78" s="181"/>
       <c r="D78" s="67"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
@@ -6114,7 +6149,7 @@
       <c r="B83" s="70">
         <v>0</v>
       </c>
-      <c r="C83" s="132" t="s">
+      <c r="C83" s="184" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="65"/>
@@ -6123,14 +6158,14 @@
       <c r="B84" s="70">
         <v>1</v>
       </c>
-      <c r="C84" s="133"/>
+      <c r="C84" s="185"/>
       <c r="D84" s="66"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="70">
         <v>2</v>
       </c>
-      <c r="C85" s="134"/>
+      <c r="C85" s="186"/>
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
@@ -6159,7 +6194,7 @@
       <c r="B88" s="16">
         <v>5</v>
       </c>
-      <c r="C88" s="118" t="s">
+      <c r="C88" s="182" t="s">
         <v>147</v>
       </c>
       <c r="D88" s="62" t="s">
@@ -6170,7 +6205,7 @@
       <c r="B89" s="16">
         <v>6</v>
       </c>
-      <c r="C89" s="119"/>
+      <c r="C89" s="183"/>
       <c r="D89" s="63" t="s">
         <v>82</v>
       </c>
@@ -6179,7 +6214,7 @@
       <c r="B90" s="16">
         <v>7</v>
       </c>
-      <c r="C90" s="119"/>
+      <c r="C90" s="183"/>
       <c r="D90" s="63" t="s">
         <v>84</v>
       </c>
@@ -6188,7 +6223,7 @@
       <c r="B91" s="16">
         <v>8</v>
       </c>
-      <c r="C91" s="119"/>
+      <c r="C91" s="183"/>
       <c r="D91" s="64" t="s">
         <v>83</v>
       </c>
@@ -6197,7 +6232,7 @@
       <c r="B92" s="16">
         <v>9</v>
       </c>
-      <c r="C92" s="118" t="s">
+      <c r="C92" s="182" t="s">
         <v>148</v>
       </c>
       <c r="D92" s="62" t="s">
@@ -6208,7 +6243,7 @@
       <c r="B93" s="16">
         <v>10</v>
       </c>
-      <c r="C93" s="119"/>
+      <c r="C93" s="183"/>
       <c r="D93" s="63" t="s">
         <v>82</v>
       </c>
@@ -6217,7 +6252,7 @@
       <c r="B94" s="16">
         <v>11</v>
       </c>
-      <c r="C94" s="119"/>
+      <c r="C94" s="183"/>
       <c r="D94" s="63" t="s">
         <v>84</v>
       </c>
@@ -6226,7 +6261,7 @@
       <c r="B95" s="16">
         <v>12</v>
       </c>
-      <c r="C95" s="119"/>
+      <c r="C95" s="183"/>
       <c r="D95" s="64" t="s">
         <v>83</v>
       </c>
@@ -6235,7 +6270,7 @@
       <c r="B96" s="16">
         <v>13</v>
       </c>
-      <c r="C96" s="118" t="s">
+      <c r="C96" s="182" t="s">
         <v>149</v>
       </c>
       <c r="D96" s="62" t="s">
@@ -6246,7 +6281,7 @@
       <c r="B97" s="16">
         <v>14</v>
       </c>
-      <c r="C97" s="119"/>
+      <c r="C97" s="183"/>
       <c r="D97" s="63" t="s">
         <v>82</v>
       </c>
@@ -6255,7 +6290,7 @@
       <c r="B98" s="16">
         <v>15</v>
       </c>
-      <c r="C98" s="119"/>
+      <c r="C98" s="183"/>
       <c r="D98" s="63" t="s">
         <v>84</v>
       </c>
@@ -6264,7 +6299,7 @@
       <c r="B99" s="16">
         <v>16</v>
       </c>
-      <c r="C99" s="119"/>
+      <c r="C99" s="183"/>
       <c r="D99" s="64" t="s">
         <v>83</v>
       </c>
@@ -6273,7 +6308,7 @@
       <c r="B100" s="16">
         <v>17</v>
       </c>
-      <c r="C100" s="118" t="s">
+      <c r="C100" s="182" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="62" t="s">
@@ -6284,7 +6319,7 @@
       <c r="B101" s="16">
         <v>18</v>
       </c>
-      <c r="C101" s="119"/>
+      <c r="C101" s="183"/>
       <c r="D101" s="63" t="s">
         <v>82</v>
       </c>
@@ -6293,7 +6328,7 @@
       <c r="B102" s="16">
         <v>19</v>
       </c>
-      <c r="C102" s="119"/>
+      <c r="C102" s="183"/>
       <c r="D102" s="63" t="s">
         <v>84</v>
       </c>
@@ -6302,7 +6337,7 @@
       <c r="B103" s="16">
         <v>20</v>
       </c>
-      <c r="C103" s="119"/>
+      <c r="C103" s="183"/>
       <c r="D103" s="64" t="s">
         <v>83</v>
       </c>
@@ -6553,7 +6588,7 @@
       <c r="B138" s="16">
         <v>55</v>
       </c>
-      <c r="C138" s="129" t="s">
+      <c r="C138" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="58" t="s">
@@ -6564,7 +6599,7 @@
       <c r="B139" s="16">
         <v>56</v>
       </c>
-      <c r="C139" s="130"/>
+      <c r="C139" s="175"/>
       <c r="D139" s="59" t="s">
         <v>82</v>
       </c>
@@ -6573,7 +6608,7 @@
       <c r="B140" s="16">
         <v>57</v>
       </c>
-      <c r="C140" s="130"/>
+      <c r="C140" s="175"/>
       <c r="D140" s="59" t="s">
         <v>84</v>
       </c>
@@ -6582,7 +6617,7 @@
       <c r="B141" s="16">
         <v>58</v>
       </c>
-      <c r="C141" s="131"/>
+      <c r="C141" s="176"/>
       <c r="D141" s="60" t="s">
         <v>83</v>
       </c>
@@ -6591,7 +6626,7 @@
       <c r="B142" s="16">
         <v>59</v>
       </c>
-      <c r="C142" s="123" t="s">
+      <c r="C142" s="177" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="68"/>
@@ -6600,14 +6635,14 @@
       <c r="B143" s="16">
         <v>60</v>
       </c>
-      <c r="C143" s="124"/>
+      <c r="C143" s="178"/>
       <c r="D143" s="69"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="16">
         <v>61</v>
       </c>
-      <c r="C144" s="120" t="s">
+      <c r="C144" s="179" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="65"/>
@@ -6616,23 +6651,18 @@
       <c r="B145" s="16">
         <v>62</v>
       </c>
-      <c r="C145" s="121"/>
+      <c r="C145" s="180"/>
       <c r="D145" s="66"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="16">
         <v>63</v>
       </c>
-      <c r="C146" s="122"/>
+      <c r="C146" s="181"/>
       <c r="D146" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="C138:C141"/>
     <mergeCell ref="C142:C143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C56:C59"/>
@@ -6643,15 +6673,20 @@
     <mergeCell ref="C92:C95"/>
     <mergeCell ref="C96:C99"/>
     <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="C138:C141"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C70:C73"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="655" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="804" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GENERIC PACKET" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="176">
   <si>
     <t>CMD</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>SLIDER_THRESHOLD</t>
+  </si>
+  <si>
+    <t>DELTA_TICK_CONT_MODE</t>
+  </si>
+  <si>
+    <t>DELTA_TICKS_CONT_MODE</t>
+  </si>
+  <si>
+    <t>(uint16_t)</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1259,58 +1274,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,8 +1445,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1421,35 +1484,8 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,25 +1511,19 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1884,350 +1914,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="135" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="135" t="s">
+      <c r="C6" s="133"/>
+      <c r="D6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="135" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="133"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="139"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="133"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="139"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="133"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="135" t="s">
+      <c r="C11" s="147"/>
+      <c r="D11" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="146"/>
+      <c r="D12" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="135" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="135" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="88" t="s">
         <v>0</v>
       </c>
@@ -2286,21 +2316,21 @@
       <c r="BF17" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="128" t="s">
+      <c r="BG17" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="128"/>
-      <c r="BI17" s="128"/>
-      <c r="BJ17" s="128"/>
-      <c r="BK17" s="127" t="s">
+      <c r="BH17" s="146"/>
+      <c r="BI17" s="146"/>
+      <c r="BJ17" s="146"/>
+      <c r="BK17" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="127"/>
-      <c r="BM17" s="126" t="s">
+      <c r="BL17" s="145"/>
+      <c r="BM17" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="126"/>
-      <c r="BO17" s="126"/>
+      <c r="BN17" s="131"/>
+      <c r="BO17" s="131"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.2">
       <c r="C18" s="104" t="s">
@@ -2501,19 +2531,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -2530,6 +2547,19 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,17 +2567,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="4"/>
     <col min="7" max="8" width="30.7109375" style="4" customWidth="1"/>
@@ -2556,11 +2586,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -2598,11 +2628,14 @@
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="200" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>81</v>
+      </c>
+      <c r="E7" s="206" t="s">
+        <v>175</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>102</v>
@@ -2616,7 +2649,7 @@
       <c r="B8" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="194"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="30" t="s">
         <v>82</v>
       </c>
@@ -2675,11 +2708,14 @@
       <c r="B13" s="27">
         <v>5</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="200" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>81</v>
+      </c>
+      <c r="E13" s="206" t="s">
+        <v>175</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>95</v>
@@ -2695,7 +2731,7 @@
       <c r="B14" s="27">
         <v>6</v>
       </c>
-      <c r="C14" s="194"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="30" t="s">
         <v>82</v>
       </c>
@@ -2731,208 +2767,263 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="15" t="s">
+      <c r="B16" s="27">
+        <v>8</v>
+      </c>
+      <c r="C16" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>9</v>
+      </c>
+      <c r="C17" s="204"/>
+      <c r="D17" s="205" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H18" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I18" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="16">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
         <v>3</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C20" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="90" t="s">
+      <c r="G20" s="90" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="16">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
         <v>4</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="190" t="s">
+      <c r="G21" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="191"/>
-      <c r="I19" s="192"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="27">
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C22" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="27">
+      <c r="E22" s="206" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="30" t="s">
+      <c r="C23" s="201"/>
+      <c r="D23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="27">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
         <v>7</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="G22" s="15" t="s">
+      <c r="D24" s="40"/>
+      <c r="G24" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="27">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="G23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="27">
-        <v>9</v>
-      </c>
-      <c r="C24" s="195" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="27">
-        <v>10</v>
-      </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="56" t="s">
-        <v>82</v>
+      <c r="B25" s="16">
+        <v>8</v>
+      </c>
+      <c r="C25" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="206" t="s">
+        <v>175</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="10">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
-        <v>11</v>
-      </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="56" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
-        <v>12</v>
-      </c>
-      <c r="C27" s="197"/>
-      <c r="D27" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="G27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
-        <v>13</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="G28" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>14</v>
-      </c>
-      <c r="C29" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="200" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="9">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C29" s="124"/>
+      <c r="D29" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
+        <v>13</v>
+      </c>
+      <c r="C30" s="124"/>
+      <c r="D30" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>14</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
         <v>15</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="201" t="s">
+      <c r="C32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>16</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <v>17</v>
+      </c>
+      <c r="C34" s="127"/>
+      <c r="D34" s="129" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3453,11 +3544,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
@@ -3542,111 +3633,111 @@
       <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="149" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="161" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="159"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="166"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="27">
         <v>7</v>
       </c>
-      <c r="C7" s="143"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="164" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27">
         <v>9</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="158" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="27">
         <v>10</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27">
         <v>11</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="159"/>
       <c r="D11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="153"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="27">
@@ -3656,9 +3747,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="114"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
@@ -3668,9 +3759,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="116"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3706,10 +3797,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="103"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -3906,17 +3997,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="166"/>
+      <c r="C5" s="173"/>
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
     </row>
@@ -3930,10 +4021,10 @@
       <c r="D6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="165"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="5"/>
       <c r="I6" s="76"/>
     </row>
@@ -4014,17 +4105,17 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="164"/>
+      <c r="C13" s="171"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
@@ -4173,17 +4264,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="166"/>
+      <c r="C5" s="173"/>
       <c r="E5" s="102"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -4270,10 +4361,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="166"/>
+      <c r="C12" s="173"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
@@ -4327,10 +4418,10 @@
       <c r="D17" s="119"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="166"/>
+      <c r="C19" s="173"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
@@ -4378,7 +4469,7 @@
       <c r="B24" s="27">
         <v>7</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="177" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="52" t="s">
@@ -4389,16 +4480,16 @@
       <c r="B25" s="27">
         <v>8</v>
       </c>
-      <c r="C25" s="172"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="166"/>
+      <c r="C27" s="173"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
@@ -4446,7 +4537,7 @@
       <c r="B32" s="27">
         <v>7</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="177" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="52" t="s">
@@ -4457,7 +4548,7 @@
       <c r="B33" s="27">
         <v>8</v>
       </c>
-      <c r="C33" s="171"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="121" t="s">
         <v>82</v>
       </c>
@@ -4466,7 +4557,7 @@
       <c r="B34" s="27">
         <v>9</v>
       </c>
-      <c r="C34" s="171"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="121" t="s">
         <v>84</v>
       </c>
@@ -4475,7 +4566,7 @@
       <c r="B35" s="27">
         <v>10</v>
       </c>
-      <c r="C35" s="172"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="53" t="s">
         <v>83</v>
       </c>
@@ -4486,11 +4577,11 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="169"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4528,11 +4619,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
@@ -4540,10 +4631,10 @@
       <c r="D3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -4680,11 +4771,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
@@ -4731,11 +4822,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="136"/>
       <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4748,10 +4839,10 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="173"/>
       <c r="F21" s="98" t="s">
         <v>63</v>
       </c>
@@ -4817,11 +4908,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
       <c r="F26" s="15" t="s">
         <v>46</v>
       </c>
@@ -4973,36 +5064,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="173"/>
       <c r="E4" s="75"/>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -5304,11 +5395,11 @@
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
       <c r="F12" s="50"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
@@ -5356,7 +5447,7 @@
       <c r="B15" s="70">
         <v>0</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="187" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="99"/>
@@ -5365,14 +5456,14 @@
       <c r="B16" s="70">
         <v>1</v>
       </c>
-      <c r="C16" s="185"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="100"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="70">
         <v>2</v>
       </c>
-      <c r="C17" s="186"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="101"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
@@ -5401,7 +5492,7 @@
       <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="185" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="62" t="s">
@@ -5412,7 +5503,7 @@
       <c r="B21" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="183"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="63" t="s">
         <v>82</v>
       </c>
@@ -5421,7 +5512,7 @@
       <c r="B22" s="16">
         <v>7</v>
       </c>
-      <c r="C22" s="183"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="63" t="s">
         <v>84</v>
       </c>
@@ -5430,7 +5521,7 @@
       <c r="B23" s="16">
         <v>8</v>
       </c>
-      <c r="C23" s="183"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="64" t="s">
         <v>83</v>
       </c>
@@ -5439,7 +5530,7 @@
       <c r="B24" s="16">
         <v>9</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="185" t="s">
         <v>132</v>
       </c>
       <c r="D24" s="62" t="s">
@@ -5450,7 +5541,7 @@
       <c r="B25" s="16">
         <v>10</v>
       </c>
-      <c r="C25" s="183"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="63" t="s">
         <v>82</v>
       </c>
@@ -5476,7 +5567,7 @@
       <c r="B26" s="16">
         <v>11</v>
       </c>
-      <c r="C26" s="183"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="63" t="s">
         <v>84</v>
       </c>
@@ -5485,7 +5576,7 @@
       <c r="B27" s="16">
         <v>12</v>
       </c>
-      <c r="C27" s="183"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="64" t="s">
         <v>83</v>
       </c>
@@ -5494,7 +5585,7 @@
       <c r="B28" s="16">
         <v>13</v>
       </c>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="185" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="62" t="s">
@@ -5505,7 +5596,7 @@
       <c r="B29" s="16">
         <v>14</v>
       </c>
-      <c r="C29" s="183"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="63" t="s">
         <v>82</v>
       </c>
@@ -5514,7 +5605,7 @@
       <c r="B30" s="16">
         <v>15</v>
       </c>
-      <c r="C30" s="183"/>
+      <c r="C30" s="186"/>
       <c r="D30" s="63" t="s">
         <v>84</v>
       </c>
@@ -5523,7 +5614,7 @@
       <c r="B31" s="16">
         <v>16</v>
       </c>
-      <c r="C31" s="183"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="64" t="s">
         <v>83</v>
       </c>
@@ -5532,7 +5623,7 @@
       <c r="B32" s="16">
         <v>17</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="185" t="s">
         <v>134</v>
       </c>
       <c r="D32" s="62" t="s">
@@ -5543,7 +5634,7 @@
       <c r="B33" s="16">
         <v>18</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="63" t="s">
         <v>82</v>
       </c>
@@ -5552,7 +5643,7 @@
       <c r="B34" s="16">
         <v>19</v>
       </c>
-      <c r="C34" s="183"/>
+      <c r="C34" s="186"/>
       <c r="D34" s="63" t="s">
         <v>84</v>
       </c>
@@ -5578,7 +5669,7 @@
       <c r="B35" s="16">
         <v>20</v>
       </c>
-      <c r="C35" s="183"/>
+      <c r="C35" s="186"/>
       <c r="D35" s="64" t="s">
         <v>83</v>
       </c>
@@ -5604,7 +5695,7 @@
       <c r="B36" s="16">
         <v>21</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="185" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="62" t="s">
@@ -5632,7 +5723,7 @@
       <c r="B37" s="16">
         <v>22</v>
       </c>
-      <c r="C37" s="183"/>
+      <c r="C37" s="186"/>
       <c r="D37" s="63" t="s">
         <v>82</v>
       </c>
@@ -5658,7 +5749,7 @@
       <c r="B38" s="16">
         <v>23</v>
       </c>
-      <c r="C38" s="183"/>
+      <c r="C38" s="186"/>
       <c r="D38" s="63" t="s">
         <v>84</v>
       </c>
@@ -5680,7 +5771,7 @@
       <c r="B39" s="16">
         <v>24</v>
       </c>
-      <c r="C39" s="183"/>
+      <c r="C39" s="186"/>
       <c r="D39" s="64" t="s">
         <v>83</v>
       </c>
@@ -5702,7 +5793,7 @@
       <c r="B40" s="16">
         <v>25</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="185" t="s">
         <v>140</v>
       </c>
       <c r="D40" s="62" t="s">
@@ -5726,7 +5817,7 @@
       <c r="B41" s="16">
         <v>26</v>
       </c>
-      <c r="C41" s="183"/>
+      <c r="C41" s="186"/>
       <c r="D41" s="63" t="s">
         <v>82</v>
       </c>
@@ -5752,7 +5843,7 @@
       <c r="B42" s="16">
         <v>27</v>
       </c>
-      <c r="C42" s="183"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="63" t="s">
         <v>84</v>
       </c>
@@ -5778,7 +5869,7 @@
       <c r="B43" s="16">
         <v>28</v>
       </c>
-      <c r="C43" s="183"/>
+      <c r="C43" s="186"/>
       <c r="D43" s="64" t="s">
         <v>83</v>
       </c>
@@ -5804,7 +5895,7 @@
       <c r="B44" s="16">
         <v>29</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="185" t="s">
         <v>141</v>
       </c>
       <c r="D44" s="62" t="s">
@@ -5832,7 +5923,7 @@
       <c r="B45" s="16">
         <v>30</v>
       </c>
-      <c r="C45" s="183"/>
+      <c r="C45" s="186"/>
       <c r="D45" s="63" t="s">
         <v>82</v>
       </c>
@@ -5841,7 +5932,7 @@
       <c r="B46" s="16">
         <v>31</v>
       </c>
-      <c r="C46" s="183"/>
+      <c r="C46" s="186"/>
       <c r="D46" s="63" t="s">
         <v>84</v>
       </c>
@@ -5850,7 +5941,7 @@
       <c r="B47" s="16">
         <v>32</v>
       </c>
-      <c r="C47" s="183"/>
+      <c r="C47" s="186"/>
       <c r="D47" s="64" t="s">
         <v>83</v>
       </c>
@@ -5859,7 +5950,7 @@
       <c r="B48" s="16">
         <v>33</v>
       </c>
-      <c r="C48" s="182" t="s">
+      <c r="C48" s="185" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="62" t="s">
@@ -5870,7 +5961,7 @@
       <c r="B49" s="16">
         <v>34</v>
       </c>
-      <c r="C49" s="183"/>
+      <c r="C49" s="186"/>
       <c r="D49" s="63" t="s">
         <v>82</v>
       </c>
@@ -5879,7 +5970,7 @@
       <c r="B50" s="16">
         <v>35</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="186"/>
       <c r="D50" s="63" t="s">
         <v>84</v>
       </c>
@@ -5888,7 +5979,7 @@
       <c r="B51" s="16">
         <v>36</v>
       </c>
-      <c r="C51" s="183"/>
+      <c r="C51" s="186"/>
       <c r="D51" s="64" t="s">
         <v>83</v>
       </c>
@@ -5897,7 +5988,7 @@
       <c r="B52" s="16">
         <v>37</v>
       </c>
-      <c r="C52" s="187" t="s">
+      <c r="C52" s="194" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="62" t="s">
@@ -5908,7 +5999,7 @@
       <c r="B53" s="16">
         <v>38</v>
       </c>
-      <c r="C53" s="188"/>
+      <c r="C53" s="195"/>
       <c r="D53" s="63" t="s">
         <v>82</v>
       </c>
@@ -5917,7 +6008,7 @@
       <c r="B54" s="16">
         <v>39</v>
       </c>
-      <c r="C54" s="188"/>
+      <c r="C54" s="195"/>
       <c r="D54" s="63" t="s">
         <v>84</v>
       </c>
@@ -5926,7 +6017,7 @@
       <c r="B55" s="16">
         <v>40</v>
       </c>
-      <c r="C55" s="189"/>
+      <c r="C55" s="196"/>
       <c r="D55" s="64" t="s">
         <v>83</v>
       </c>
@@ -5935,7 +6026,7 @@
       <c r="B56" s="16">
         <v>41</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="185" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="62" t="s">
@@ -5946,7 +6037,7 @@
       <c r="B57" s="16">
         <v>42</v>
       </c>
-      <c r="C57" s="183"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="63" t="s">
         <v>82</v>
       </c>
@@ -5955,7 +6046,7 @@
       <c r="B58" s="16">
         <v>43</v>
       </c>
-      <c r="C58" s="183"/>
+      <c r="C58" s="186"/>
       <c r="D58" s="63" t="s">
         <v>84</v>
       </c>
@@ -5964,7 +6055,7 @@
       <c r="B59" s="16">
         <v>44</v>
       </c>
-      <c r="C59" s="183"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -5973,7 +6064,7 @@
       <c r="B60" s="16">
         <v>45</v>
       </c>
-      <c r="C60" s="182" t="s">
+      <c r="C60" s="185" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="62" t="s">
@@ -5984,7 +6075,7 @@
       <c r="B61" s="16">
         <v>46</v>
       </c>
-      <c r="C61" s="183"/>
+      <c r="C61" s="186"/>
       <c r="D61" s="63" t="s">
         <v>82</v>
       </c>
@@ -5993,7 +6084,7 @@
       <c r="B62" s="16">
         <v>47</v>
       </c>
-      <c r="C62" s="183"/>
+      <c r="C62" s="186"/>
       <c r="D62" s="63" t="s">
         <v>84</v>
       </c>
@@ -6002,7 +6093,7 @@
       <c r="B63" s="16">
         <v>48</v>
       </c>
-      <c r="C63" s="183"/>
+      <c r="C63" s="186"/>
       <c r="D63" s="64" t="s">
         <v>83</v>
       </c>
@@ -6011,7 +6102,7 @@
       <c r="B64" s="16">
         <v>49</v>
       </c>
-      <c r="C64" s="182" t="s">
+      <c r="C64" s="185" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="62" t="s">
@@ -6022,7 +6113,7 @@
       <c r="B65" s="16">
         <v>50</v>
       </c>
-      <c r="C65" s="183"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="63" t="s">
         <v>82</v>
       </c>
@@ -6031,7 +6122,7 @@
       <c r="B66" s="16">
         <v>51</v>
       </c>
-      <c r="C66" s="183"/>
+      <c r="C66" s="186"/>
       <c r="D66" s="63" t="s">
         <v>84</v>
       </c>
@@ -6040,7 +6131,7 @@
       <c r="B67" s="16">
         <v>52</v>
       </c>
-      <c r="C67" s="183"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="64" t="s">
         <v>83</v>
       </c>
@@ -6067,7 +6158,7 @@
       <c r="B70" s="16">
         <v>55</v>
       </c>
-      <c r="C70" s="174" t="s">
+      <c r="C70" s="190" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="58" t="s">
@@ -6078,7 +6169,7 @@
       <c r="B71" s="16">
         <v>56</v>
       </c>
-      <c r="C71" s="175"/>
+      <c r="C71" s="191"/>
       <c r="D71" s="59" t="s">
         <v>82</v>
       </c>
@@ -6087,7 +6178,7 @@
       <c r="B72" s="16">
         <v>57</v>
       </c>
-      <c r="C72" s="175"/>
+      <c r="C72" s="191"/>
       <c r="D72" s="59" t="s">
         <v>84</v>
       </c>
@@ -6096,7 +6187,7 @@
       <c r="B73" s="16">
         <v>58</v>
       </c>
-      <c r="C73" s="176"/>
+      <c r="C73" s="192"/>
       <c r="D73" s="60" t="s">
         <v>83</v>
       </c>
@@ -6105,7 +6196,7 @@
       <c r="B74" s="16">
         <v>59</v>
       </c>
-      <c r="C74" s="177" t="s">
+      <c r="C74" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="68"/>
@@ -6114,14 +6205,14 @@
       <c r="B75" s="16">
         <v>60</v>
       </c>
-      <c r="C75" s="178"/>
+      <c r="C75" s="181"/>
       <c r="D75" s="69"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
         <v>61</v>
       </c>
-      <c r="C76" s="179" t="s">
+      <c r="C76" s="182" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="65"/>
@@ -6130,14 +6221,14 @@
       <c r="B77" s="16">
         <v>62</v>
       </c>
-      <c r="C77" s="180"/>
+      <c r="C77" s="183"/>
       <c r="D77" s="66"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="16">
         <v>63</v>
       </c>
-      <c r="C78" s="181"/>
+      <c r="C78" s="184"/>
       <c r="D78" s="67"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
@@ -6149,7 +6240,7 @@
       <c r="B83" s="70">
         <v>0</v>
       </c>
-      <c r="C83" s="184" t="s">
+      <c r="C83" s="187" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="65"/>
@@ -6158,14 +6249,14 @@
       <c r="B84" s="70">
         <v>1</v>
       </c>
-      <c r="C84" s="185"/>
+      <c r="C84" s="188"/>
       <c r="D84" s="66"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="70">
         <v>2</v>
       </c>
-      <c r="C85" s="186"/>
+      <c r="C85" s="189"/>
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
@@ -6194,7 +6285,7 @@
       <c r="B88" s="16">
         <v>5</v>
       </c>
-      <c r="C88" s="182" t="s">
+      <c r="C88" s="185" t="s">
         <v>147</v>
       </c>
       <c r="D88" s="62" t="s">
@@ -6205,7 +6296,7 @@
       <c r="B89" s="16">
         <v>6</v>
       </c>
-      <c r="C89" s="183"/>
+      <c r="C89" s="186"/>
       <c r="D89" s="63" t="s">
         <v>82</v>
       </c>
@@ -6214,7 +6305,7 @@
       <c r="B90" s="16">
         <v>7</v>
       </c>
-      <c r="C90" s="183"/>
+      <c r="C90" s="186"/>
       <c r="D90" s="63" t="s">
         <v>84</v>
       </c>
@@ -6223,7 +6314,7 @@
       <c r="B91" s="16">
         <v>8</v>
       </c>
-      <c r="C91" s="183"/>
+      <c r="C91" s="186"/>
       <c r="D91" s="64" t="s">
         <v>83</v>
       </c>
@@ -6232,7 +6323,7 @@
       <c r="B92" s="16">
         <v>9</v>
       </c>
-      <c r="C92" s="182" t="s">
+      <c r="C92" s="185" t="s">
         <v>148</v>
       </c>
       <c r="D92" s="62" t="s">
@@ -6243,7 +6334,7 @@
       <c r="B93" s="16">
         <v>10</v>
       </c>
-      <c r="C93" s="183"/>
+      <c r="C93" s="186"/>
       <c r="D93" s="63" t="s">
         <v>82</v>
       </c>
@@ -6252,7 +6343,7 @@
       <c r="B94" s="16">
         <v>11</v>
       </c>
-      <c r="C94" s="183"/>
+      <c r="C94" s="186"/>
       <c r="D94" s="63" t="s">
         <v>84</v>
       </c>
@@ -6261,7 +6352,7 @@
       <c r="B95" s="16">
         <v>12</v>
       </c>
-      <c r="C95" s="183"/>
+      <c r="C95" s="186"/>
       <c r="D95" s="64" t="s">
         <v>83</v>
       </c>
@@ -6270,7 +6361,7 @@
       <c r="B96" s="16">
         <v>13</v>
       </c>
-      <c r="C96" s="182" t="s">
+      <c r="C96" s="185" t="s">
         <v>149</v>
       </c>
       <c r="D96" s="62" t="s">
@@ -6281,7 +6372,7 @@
       <c r="B97" s="16">
         <v>14</v>
       </c>
-      <c r="C97" s="183"/>
+      <c r="C97" s="186"/>
       <c r="D97" s="63" t="s">
         <v>82</v>
       </c>
@@ -6290,7 +6381,7 @@
       <c r="B98" s="16">
         <v>15</v>
       </c>
-      <c r="C98" s="183"/>
+      <c r="C98" s="186"/>
       <c r="D98" s="63" t="s">
         <v>84</v>
       </c>
@@ -6299,7 +6390,7 @@
       <c r="B99" s="16">
         <v>16</v>
       </c>
-      <c r="C99" s="183"/>
+      <c r="C99" s="186"/>
       <c r="D99" s="64" t="s">
         <v>83</v>
       </c>
@@ -6308,7 +6399,7 @@
       <c r="B100" s="16">
         <v>17</v>
       </c>
-      <c r="C100" s="182" t="s">
+      <c r="C100" s="185" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="62" t="s">
@@ -6319,7 +6410,7 @@
       <c r="B101" s="16">
         <v>18</v>
       </c>
-      <c r="C101" s="183"/>
+      <c r="C101" s="186"/>
       <c r="D101" s="63" t="s">
         <v>82</v>
       </c>
@@ -6328,7 +6419,7 @@
       <c r="B102" s="16">
         <v>19</v>
       </c>
-      <c r="C102" s="183"/>
+      <c r="C102" s="186"/>
       <c r="D102" s="63" t="s">
         <v>84</v>
       </c>
@@ -6337,7 +6428,7 @@
       <c r="B103" s="16">
         <v>20</v>
       </c>
-      <c r="C103" s="183"/>
+      <c r="C103" s="186"/>
       <c r="D103" s="64" t="s">
         <v>83</v>
       </c>
@@ -6588,7 +6679,7 @@
       <c r="B138" s="16">
         <v>55</v>
       </c>
-      <c r="C138" s="174" t="s">
+      <c r="C138" s="190" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="58" t="s">
@@ -6599,7 +6690,7 @@
       <c r="B139" s="16">
         <v>56</v>
       </c>
-      <c r="C139" s="175"/>
+      <c r="C139" s="191"/>
       <c r="D139" s="59" t="s">
         <v>82</v>
       </c>
@@ -6608,7 +6699,7 @@
       <c r="B140" s="16">
         <v>57</v>
       </c>
-      <c r="C140" s="175"/>
+      <c r="C140" s="191"/>
       <c r="D140" s="59" t="s">
         <v>84</v>
       </c>
@@ -6617,7 +6708,7 @@
       <c r="B141" s="16">
         <v>58</v>
       </c>
-      <c r="C141" s="176"/>
+      <c r="C141" s="192"/>
       <c r="D141" s="60" t="s">
         <v>83</v>
       </c>
@@ -6626,7 +6717,7 @@
       <c r="B142" s="16">
         <v>59</v>
       </c>
-      <c r="C142" s="177" t="s">
+      <c r="C142" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="68"/>
@@ -6635,14 +6726,14 @@
       <c r="B143" s="16">
         <v>60</v>
       </c>
-      <c r="C143" s="178"/>
+      <c r="C143" s="181"/>
       <c r="D143" s="69"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="16">
         <v>61</v>
       </c>
-      <c r="C144" s="179" t="s">
+      <c r="C144" s="182" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="65"/>
@@ -6651,31 +6742,18 @@
       <c r="B145" s="16">
         <v>62</v>
       </c>
-      <c r="C145" s="180"/>
+      <c r="C145" s="183"/>
       <c r="D145" s="66"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="16">
         <v>63</v>
       </c>
-      <c r="C146" s="181"/>
+      <c r="C146" s="184"/>
       <c r="D146" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -6691,6 +6769,19 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="804" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId1"/>
-    <sheet name="LIST_CMD" sheetId="2" r:id="rId2"/>
-    <sheet name="RESPONSE" sheetId="14" r:id="rId3"/>
-    <sheet name="ACK" sheetId="17" r:id="rId4"/>
-    <sheet name="COMMANDS" sheetId="11" r:id="rId5"/>
-    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId6"/>
-    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId7"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId8"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId9"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId10"/>
+    <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
+    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId2"/>
+    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId3"/>
+    <sheet name="RESPONSE" sheetId="14" r:id="rId4"/>
+    <sheet name="ACK" sheetId="17" r:id="rId5"/>
+    <sheet name="COMMANDS" sheetId="11" r:id="rId6"/>
+    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId7"/>
+    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId8"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId9"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId10"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="179">
   <si>
     <t>CMD</t>
   </si>
@@ -556,6 +557,15 @@
   </si>
   <si>
     <t>(uint16_t)</t>
+  </si>
+  <si>
+    <t>CMD_SET_DIGITAL_PINS</t>
+  </si>
+  <si>
+    <t>SET_BANK</t>
+  </si>
+  <si>
+    <t>BANK_IDX</t>
   </si>
 </sst>
 </file>
@@ -958,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1295,13 +1305,67 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,43 +1374,10 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,6 +1476,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,42 +1527,6 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1514,17 +1545,8 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,6 +1915,2732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="22">
+        <v>100</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="22">
+        <v>101</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="22">
+        <v>102</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="22">
+        <v>103</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="22">
+        <v>104</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="22">
+        <v>105</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="20">
+        <v>200</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="20">
+        <v>201</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <v>202</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="20">
+        <v>203</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="20">
+        <v>204</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20">
+        <v>2</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
+        <v>3</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20">
+        <v>4</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="117">
+        <v>255</v>
+      </c>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" style="4"/>
+    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="4"/>
+    <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="180"/>
+      <c r="E4" s="75"/>
+      <c r="G4" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="98">
+        <v>1</v>
+      </c>
+      <c r="H5" s="98">
+        <v>2</v>
+      </c>
+      <c r="I5" s="98">
+        <v>3</v>
+      </c>
+      <c r="J5" s="98">
+        <v>4</v>
+      </c>
+      <c r="K5" s="98">
+        <v>5</v>
+      </c>
+      <c r="L5" s="98">
+        <v>6</v>
+      </c>
+      <c r="M5" s="98">
+        <v>7</v>
+      </c>
+      <c r="N5" s="98">
+        <v>8</v>
+      </c>
+      <c r="O5" s="98">
+        <v>9</v>
+      </c>
+      <c r="P5" s="98">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="98">
+        <v>11</v>
+      </c>
+      <c r="R5" s="98">
+        <v>12</v>
+      </c>
+      <c r="S5" s="98">
+        <v>13</v>
+      </c>
+      <c r="T5" s="98">
+        <v>14</v>
+      </c>
+      <c r="U5" s="98">
+        <v>15</v>
+      </c>
+      <c r="V5" s="98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F7" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F8" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F9" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="78"/>
+      <c r="F11" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="78"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="70">
+        <v>0</v>
+      </c>
+      <c r="C15" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="99"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="70">
+        <v>1</v>
+      </c>
+      <c r="C16" s="192"/>
+      <c r="D16" s="100"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="70">
+        <v>2</v>
+      </c>
+      <c r="C17" s="193"/>
+      <c r="D17" s="101"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <v>3</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="16">
+        <v>4</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+      <c r="C20" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
+        <v>6</v>
+      </c>
+      <c r="C21" s="195"/>
+      <c r="D21" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
+        <v>7</v>
+      </c>
+      <c r="C22" s="195"/>
+      <c r="D22" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>8</v>
+      </c>
+      <c r="C23" s="195"/>
+      <c r="D23" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <v>9</v>
+      </c>
+      <c r="C24" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
+        <v>10</v>
+      </c>
+      <c r="C25" s="195"/>
+      <c r="D25" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>11</v>
+      </c>
+      <c r="C26" s="195"/>
+      <c r="D26" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>12</v>
+      </c>
+      <c r="C27" s="195"/>
+      <c r="D27" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>13</v>
+      </c>
+      <c r="C28" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>14</v>
+      </c>
+      <c r="C29" s="195"/>
+      <c r="D29" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>15</v>
+      </c>
+      <c r="C30" s="195"/>
+      <c r="D30" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>16</v>
+      </c>
+      <c r="C31" s="195"/>
+      <c r="D31" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <v>17</v>
+      </c>
+      <c r="C32" s="194" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>18</v>
+      </c>
+      <c r="C33" s="195"/>
+      <c r="D33" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <v>19</v>
+      </c>
+      <c r="C34" s="195"/>
+      <c r="D34" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
+        <v>20</v>
+      </c>
+      <c r="C35" s="195"/>
+      <c r="D35" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B36" s="16">
+        <v>21</v>
+      </c>
+      <c r="C36" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B37" s="16">
+        <v>22</v>
+      </c>
+      <c r="C37" s="195"/>
+      <c r="D37" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B38" s="16">
+        <v>23</v>
+      </c>
+      <c r="C38" s="195"/>
+      <c r="D38" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
+        <v>24</v>
+      </c>
+      <c r="C39" s="195"/>
+      <c r="D39" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B40" s="16">
+        <v>25</v>
+      </c>
+      <c r="C40" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B41" s="16">
+        <v>26</v>
+      </c>
+      <c r="C41" s="195"/>
+      <c r="D41" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B42" s="16">
+        <v>27</v>
+      </c>
+      <c r="C42" s="195"/>
+      <c r="D42" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B43" s="16">
+        <v>28</v>
+      </c>
+      <c r="C43" s="195"/>
+      <c r="D43" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B44" s="16">
+        <v>29</v>
+      </c>
+      <c r="C44" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B45" s="16">
+        <v>30</v>
+      </c>
+      <c r="C45" s="195"/>
+      <c r="D45" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B46" s="16">
+        <v>31</v>
+      </c>
+      <c r="C46" s="195"/>
+      <c r="D46" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B47" s="16">
+        <v>32</v>
+      </c>
+      <c r="C47" s="195"/>
+      <c r="D47" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B48" s="16">
+        <v>33</v>
+      </c>
+      <c r="C48" s="194" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="16">
+        <v>34</v>
+      </c>
+      <c r="C49" s="195"/>
+      <c r="D49" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="16">
+        <v>35</v>
+      </c>
+      <c r="C50" s="195"/>
+      <c r="D50" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="16">
+        <v>36</v>
+      </c>
+      <c r="C51" s="195"/>
+      <c r="D51" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="16">
+        <v>37</v>
+      </c>
+      <c r="C52" s="196" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="16">
+        <v>38</v>
+      </c>
+      <c r="C53" s="197"/>
+      <c r="D53" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="16">
+        <v>39</v>
+      </c>
+      <c r="C54" s="197"/>
+      <c r="D54" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="16">
+        <v>40</v>
+      </c>
+      <c r="C55" s="198"/>
+      <c r="D55" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="16">
+        <v>41</v>
+      </c>
+      <c r="C56" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="16">
+        <v>42</v>
+      </c>
+      <c r="C57" s="195"/>
+      <c r="D57" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="16">
+        <v>43</v>
+      </c>
+      <c r="C58" s="195"/>
+      <c r="D58" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="16">
+        <v>44</v>
+      </c>
+      <c r="C59" s="195"/>
+      <c r="D59" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="16">
+        <v>45</v>
+      </c>
+      <c r="C60" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="16">
+        <v>46</v>
+      </c>
+      <c r="C61" s="195"/>
+      <c r="D61" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="16">
+        <v>47</v>
+      </c>
+      <c r="C62" s="195"/>
+      <c r="D62" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="16">
+        <v>48</v>
+      </c>
+      <c r="C63" s="195"/>
+      <c r="D63" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="16">
+        <v>49</v>
+      </c>
+      <c r="C64" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="16">
+        <v>50</v>
+      </c>
+      <c r="C65" s="195"/>
+      <c r="D65" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="16">
+        <v>51</v>
+      </c>
+      <c r="C66" s="195"/>
+      <c r="D66" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="16">
+        <v>52</v>
+      </c>
+      <c r="C67" s="195"/>
+      <c r="D67" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="16">
+        <v>53</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="16">
+        <v>54</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="16">
+        <v>55</v>
+      </c>
+      <c r="C70" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="16">
+        <v>56</v>
+      </c>
+      <c r="C71" s="189"/>
+      <c r="D71" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="16">
+        <v>57</v>
+      </c>
+      <c r="C72" s="189"/>
+      <c r="D72" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="16">
+        <v>58</v>
+      </c>
+      <c r="C73" s="190"/>
+      <c r="D73" s="60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="16">
+        <v>59</v>
+      </c>
+      <c r="C74" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="68"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="16">
+        <v>60</v>
+      </c>
+      <c r="C75" s="200"/>
+      <c r="D75" s="69"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="16">
+        <v>61</v>
+      </c>
+      <c r="C76" s="201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="65"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="16">
+        <v>62</v>
+      </c>
+      <c r="C77" s="202"/>
+      <c r="D77" s="66"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="16">
+        <v>63</v>
+      </c>
+      <c r="C78" s="203"/>
+      <c r="D78" s="67"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="70">
+        <v>0</v>
+      </c>
+      <c r="C83" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="65"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="70">
+        <v>1</v>
+      </c>
+      <c r="C84" s="192"/>
+      <c r="D84" s="66"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="70">
+        <v>2</v>
+      </c>
+      <c r="C85" s="193"/>
+      <c r="D85" s="67"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="16">
+        <v>3</v>
+      </c>
+      <c r="C86" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="16">
+        <v>4</v>
+      </c>
+      <c r="C87" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="16">
+        <v>5</v>
+      </c>
+      <c r="C88" s="194" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="16">
+        <v>6</v>
+      </c>
+      <c r="C89" s="195"/>
+      <c r="D89" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="16">
+        <v>7</v>
+      </c>
+      <c r="C90" s="195"/>
+      <c r="D90" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="16">
+        <v>8</v>
+      </c>
+      <c r="C91" s="195"/>
+      <c r="D91" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="16">
+        <v>9</v>
+      </c>
+      <c r="C92" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="16">
+        <v>10</v>
+      </c>
+      <c r="C93" s="195"/>
+      <c r="D93" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="16">
+        <v>11</v>
+      </c>
+      <c r="C94" s="195"/>
+      <c r="D94" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="16">
+        <v>12</v>
+      </c>
+      <c r="C95" s="195"/>
+      <c r="D95" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="16">
+        <v>13</v>
+      </c>
+      <c r="C96" s="194" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="16">
+        <v>14</v>
+      </c>
+      <c r="C97" s="195"/>
+      <c r="D97" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="16">
+        <v>15</v>
+      </c>
+      <c r="C98" s="195"/>
+      <c r="D98" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="16">
+        <v>16</v>
+      </c>
+      <c r="C99" s="195"/>
+      <c r="D99" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="16">
+        <v>17</v>
+      </c>
+      <c r="C100" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="16">
+        <v>18</v>
+      </c>
+      <c r="C101" s="195"/>
+      <c r="D101" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="16">
+        <v>19</v>
+      </c>
+      <c r="C102" s="195"/>
+      <c r="D102" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="16">
+        <v>20</v>
+      </c>
+      <c r="C103" s="195"/>
+      <c r="D103" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="16">
+        <v>21</v>
+      </c>
+      <c r="C104" s="74"/>
+      <c r="D104" s="73"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="16">
+        <v>22</v>
+      </c>
+      <c r="C105" s="74"/>
+      <c r="D105" s="73"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="16">
+        <v>23</v>
+      </c>
+      <c r="C106" s="74"/>
+      <c r="D106" s="73"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="16">
+        <v>24</v>
+      </c>
+      <c r="C107" s="74"/>
+      <c r="D107" s="73"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="16">
+        <v>25</v>
+      </c>
+      <c r="C108" s="74"/>
+      <c r="D108" s="73"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="16">
+        <v>26</v>
+      </c>
+      <c r="C109" s="74"/>
+      <c r="D109" s="73"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="16">
+        <v>27</v>
+      </c>
+      <c r="C110" s="74"/>
+      <c r="D110" s="73"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="16">
+        <v>28</v>
+      </c>
+      <c r="C111" s="74"/>
+      <c r="D111" s="73"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="16">
+        <v>29</v>
+      </c>
+      <c r="C112" s="74"/>
+      <c r="D112" s="73"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="16">
+        <v>30</v>
+      </c>
+      <c r="C113" s="74"/>
+      <c r="D113" s="73"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="16">
+        <v>31</v>
+      </c>
+      <c r="C114" s="74"/>
+      <c r="D114" s="73"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="16">
+        <v>32</v>
+      </c>
+      <c r="C115" s="74"/>
+      <c r="D115" s="73"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="16">
+        <v>33</v>
+      </c>
+      <c r="C116" s="74"/>
+      <c r="D116" s="73"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="16">
+        <v>34</v>
+      </c>
+      <c r="C117" s="74"/>
+      <c r="D117" s="73"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="16">
+        <v>35</v>
+      </c>
+      <c r="C118" s="74"/>
+      <c r="D118" s="73"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="16">
+        <v>36</v>
+      </c>
+      <c r="C119" s="74"/>
+      <c r="D119" s="73"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="16">
+        <v>37</v>
+      </c>
+      <c r="C120" s="74"/>
+      <c r="D120" s="73"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="16">
+        <v>38</v>
+      </c>
+      <c r="C121" s="74"/>
+      <c r="D121" s="73"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="16">
+        <v>39</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="73"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="16">
+        <v>40</v>
+      </c>
+      <c r="C123" s="74"/>
+      <c r="D123" s="73"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="16">
+        <v>41</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="16">
+        <v>42</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="16">
+        <v>43</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="16">
+        <v>44</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="16">
+        <v>45</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="16">
+        <v>46</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="16">
+        <v>47</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="16">
+        <v>48</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="16">
+        <v>49</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="16">
+        <v>50</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="16">
+        <v>51</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="16">
+        <v>52</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="16">
+        <v>53</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="16">
+        <v>54</v>
+      </c>
+      <c r="C137" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="16">
+        <v>55</v>
+      </c>
+      <c r="C138" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="16">
+        <v>56</v>
+      </c>
+      <c r="C139" s="189"/>
+      <c r="D139" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="16">
+        <v>57</v>
+      </c>
+      <c r="C140" s="189"/>
+      <c r="D140" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="16">
+        <v>58</v>
+      </c>
+      <c r="C141" s="190"/>
+      <c r="D141" s="60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="16">
+        <v>59</v>
+      </c>
+      <c r="C142" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="68"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="16">
+        <v>60</v>
+      </c>
+      <c r="C143" s="200"/>
+      <c r="D143" s="69"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="16">
+        <v>61</v>
+      </c>
+      <c r="C144" s="201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="65"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="16">
+        <v>62</v>
+      </c>
+      <c r="C145" s="202"/>
+      <c r="D145" s="66"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="16">
+        <v>63</v>
+      </c>
+      <c r="C146" s="203"/>
+      <c r="D146" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="8" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="144"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="C7" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+      <c r="C8" s="208"/>
+      <c r="D8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>5</v>
+      </c>
+      <c r="C13" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>6</v>
+      </c>
+      <c r="C14" s="208"/>
+      <c r="D14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>8</v>
+      </c>
+      <c r="C16" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>9</v>
+      </c>
+      <c r="C17" s="210"/>
+      <c r="D17" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>3</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="205"/>
+      <c r="I21" s="206"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
+        <v>5</v>
+      </c>
+      <c r="C22" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>6</v>
+      </c>
+      <c r="C23" s="208"/>
+      <c r="D23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="G24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
+        <v>8</v>
+      </c>
+      <c r="C25" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>9</v>
+      </c>
+      <c r="C26" s="210"/>
+      <c r="D26" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="G27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>11</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>12</v>
+      </c>
+      <c r="C29" s="124"/>
+      <c r="D29" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>13</v>
+      </c>
+      <c r="C30" s="124"/>
+      <c r="D30" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>14</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <v>15</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>16</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <v>17</v>
+      </c>
+      <c r="C34" s="127"/>
+      <c r="D34" s="129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1914,350 +4662,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="130" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="130" t="s">
+      <c r="C7" s="152"/>
+      <c r="D7" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="139"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="147"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="139"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="147"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="139"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="147"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="130" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="130" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="130" t="s">
+      <c r="C13" s="141"/>
+      <c r="D13" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="130" t="s">
+      <c r="C15" s="140"/>
+      <c r="D15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="88" t="s">
         <v>0</v>
       </c>
@@ -2316,21 +5064,21 @@
       <c r="BF17" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="146" t="s">
+      <c r="BG17" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="146"/>
-      <c r="BI17" s="146"/>
-      <c r="BJ17" s="146"/>
-      <c r="BK17" s="145" t="s">
+      <c r="BH17" s="142"/>
+      <c r="BI17" s="142"/>
+      <c r="BJ17" s="142"/>
+      <c r="BK17" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="145"/>
-      <c r="BM17" s="131" t="s">
+      <c r="BL17" s="141"/>
+      <c r="BM17" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="131"/>
-      <c r="BO17" s="131"/>
+      <c r="BN17" s="140"/>
+      <c r="BO17" s="140"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.2">
       <c r="C18" s="104" t="s">
@@ -2531,6 +5279,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -2547,987 +5308,200 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="8" width="30.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="4" width="19.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="7" width="20.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="144"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="180"/>
+      <c r="E5" s="102"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C6" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
+      <c r="D6" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9">
+      <c r="D7" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="27">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C8" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9">
+      <c r="F8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="27">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="30" t="s">
+      <c r="C9" s="133"/>
+      <c r="D9" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="9">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="180"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="16">
-        <v>3</v>
-      </c>
-      <c r="C11" s="88" t="s">
+      <c r="C13" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="16">
+      <c r="D13" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="51">
         <v>4</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C14" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="27">
+      <c r="D14" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
         <v>5</v>
       </c>
-      <c r="C13" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C15" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="27">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
         <v>6</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="30" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="27">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="G15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="10">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="27">
-        <v>8</v>
-      </c>
-      <c r="C16" s="202" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="27">
-        <v>9</v>
-      </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="16">
-        <v>4</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
-        <v>5</v>
-      </c>
-      <c r="C22" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="206" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
-        <v>6</v>
-      </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="16">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="G24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="16">
-        <v>8</v>
-      </c>
-      <c r="C25" s="202" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="16">
-        <v>9</v>
-      </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="205" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="G27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>11</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <v>12</v>
-      </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
-        <v>13</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
-        <v>14</v>
-      </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
-        <v>15</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="55"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>16</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="128" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <v>17</v>
-      </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="129" t="s">
-        <v>82</v>
-      </c>
+      <c r="C17" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="119"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="18">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
-        <v>100</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
-        <v>101</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
-        <v>2</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
-        <v>3</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="22">
-        <v>102</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="22">
-        <v>103</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22">
-        <v>2</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22">
-        <v>3</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22">
-        <v>104</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22">
-        <v>2</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22">
-        <v>3</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="20">
-        <v>200</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="20">
-        <v>201</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="20">
-        <v>202</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="20">
-        <v>203</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="20">
-        <v>204</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20">
-        <v>2</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20">
-        <v>3</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20">
-        <v>4</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20">
-        <v>5</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="117">
-        <v>255</v>
-      </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -3544,11 +5518,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
@@ -3590,7 +5564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
@@ -3633,111 +5607,111 @@
       <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="156" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="F5" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="163"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="170"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="166"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="173"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="27">
         <v>7</v>
       </c>
-      <c r="C7" s="150"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="173"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="27">
         <v>8</v>
       </c>
-      <c r="C8" s="151"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="176"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27">
         <v>9</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="165" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="154"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="27">
         <v>10</v>
       </c>
-      <c r="C10" s="159"/>
+      <c r="C10" s="166"/>
       <c r="D10" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="152"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="161"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27">
         <v>11</v>
       </c>
-      <c r="C11" s="159"/>
+      <c r="C11" s="166"/>
       <c r="D11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="160"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="152"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="161"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="27">
@@ -3747,9 +5721,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="114"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="154"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="161"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="27">
@@ -3759,9 +5733,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="116"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="157"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3777,7 +5751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
@@ -3797,10 +5771,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="103"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -3978,7 +5952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
@@ -3997,17 +5971,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="180"/>
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
     </row>
@@ -4021,10 +5995,10 @@
       <c r="D6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="172"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="5"/>
       <c r="I6" s="76"/>
     </row>
@@ -4105,17 +6079,17 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="171"/>
+      <c r="C13" s="178"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
@@ -4244,12 +6218,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4264,17 +6238,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="180"/>
       <c r="E5" s="102"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -4361,10 +6335,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="173"/>
+      <c r="C12" s="180"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
@@ -4418,10 +6392,10 @@
       <c r="D17" s="119"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="173"/>
+      <c r="C19" s="180"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
@@ -4469,7 +6443,7 @@
       <c r="B24" s="27">
         <v>7</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="184" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="52" t="s">
@@ -4480,16 +6454,16 @@
       <c r="B25" s="27">
         <v>8</v>
       </c>
-      <c r="C25" s="179"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="173"/>
+      <c r="C27" s="180"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
@@ -4537,7 +6511,7 @@
       <c r="B32" s="27">
         <v>7</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="184" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="52" t="s">
@@ -4548,7 +6522,7 @@
       <c r="B33" s="27">
         <v>8</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="185"/>
       <c r="D33" s="121" t="s">
         <v>82</v>
       </c>
@@ -4557,7 +6531,7 @@
       <c r="B34" s="27">
         <v>9</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="185"/>
       <c r="D34" s="121" t="s">
         <v>84</v>
       </c>
@@ -4566,7 +6540,7 @@
       <c r="B35" s="27">
         <v>10</v>
       </c>
-      <c r="C35" s="179"/>
+      <c r="C35" s="186"/>
       <c r="D35" s="53" t="s">
         <v>83</v>
       </c>
@@ -4577,11 +6551,11 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4598,7 +6572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
@@ -4619,11 +6593,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
@@ -4631,10 +6605,10 @@
       <c r="D3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="180"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -4771,11 +6745,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
       <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
@@ -4822,11 +6796,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="144"/>
       <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4839,10 +6813,10 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="173"/>
+      <c r="C21" s="180"/>
       <c r="F21" s="98" t="s">
         <v>63</v>
       </c>
@@ -4908,11 +6882,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
       <c r="F26" s="15" t="s">
         <v>46</v>
       </c>
@@ -5042,1747 +7016,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W146"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="8.7109375" style="4"/>
-    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="4"/>
-    <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.7109375" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="173"/>
-      <c r="E4" s="75"/>
-      <c r="G4" s="193" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="98">
-        <v>1</v>
-      </c>
-      <c r="H5" s="98">
-        <v>2</v>
-      </c>
-      <c r="I5" s="98">
-        <v>3</v>
-      </c>
-      <c r="J5" s="98">
-        <v>4</v>
-      </c>
-      <c r="K5" s="98">
-        <v>5</v>
-      </c>
-      <c r="L5" s="98">
-        <v>6</v>
-      </c>
-      <c r="M5" s="98">
-        <v>7</v>
-      </c>
-      <c r="N5" s="98">
-        <v>8</v>
-      </c>
-      <c r="O5" s="98">
-        <v>9</v>
-      </c>
-      <c r="P5" s="98">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="98">
-        <v>11</v>
-      </c>
-      <c r="R5" s="98">
-        <v>12</v>
-      </c>
-      <c r="S5" s="98">
-        <v>13</v>
-      </c>
-      <c r="T5" s="98">
-        <v>14</v>
-      </c>
-      <c r="U5" s="98">
-        <v>15</v>
-      </c>
-      <c r="V5" s="98">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F7" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F8" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F9" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="78"/>
-      <c r="F11" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="78"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="70">
-        <v>0</v>
-      </c>
-      <c r="C15" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="99"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="70">
-        <v>1</v>
-      </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="100"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="70">
-        <v>2</v>
-      </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="101"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="16">
-        <v>3</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="16">
-        <v>4</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
-        <v>5</v>
-      </c>
-      <c r="C20" s="185" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="16">
-        <v>6</v>
-      </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
-        <v>7</v>
-      </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
-        <v>8</v>
-      </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="16">
-        <v>9</v>
-      </c>
-      <c r="C24" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="16">
-        <v>10</v>
-      </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="16">
-        <v>11</v>
-      </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
-        <v>12</v>
-      </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>13</v>
-      </c>
-      <c r="C28" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <v>14</v>
-      </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
-        <v>15</v>
-      </c>
-      <c r="C30" s="186"/>
-      <c r="D30" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
-        <v>16</v>
-      </c>
-      <c r="C31" s="186"/>
-      <c r="D31" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
-        <v>17</v>
-      </c>
-      <c r="C32" s="185" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>18</v>
-      </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <v>19</v>
-      </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="16">
-        <v>20</v>
-      </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="16">
-        <v>21</v>
-      </c>
-      <c r="C36" s="185" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="16">
-        <v>22</v>
-      </c>
-      <c r="C37" s="186"/>
-      <c r="D37" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="16">
-        <v>23</v>
-      </c>
-      <c r="C38" s="186"/>
-      <c r="D38" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="16">
-        <v>24</v>
-      </c>
-      <c r="C39" s="186"/>
-      <c r="D39" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="16">
-        <v>25</v>
-      </c>
-      <c r="C40" s="185" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="16">
-        <v>26</v>
-      </c>
-      <c r="C41" s="186"/>
-      <c r="D41" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
-        <v>27</v>
-      </c>
-      <c r="C42" s="186"/>
-      <c r="D42" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="75"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="16">
-        <v>28</v>
-      </c>
-      <c r="C43" s="186"/>
-      <c r="D43" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
-      <c r="T43" s="75"/>
-      <c r="U43" s="75"/>
-      <c r="V43" s="75"/>
-      <c r="W43" s="75"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="16">
-        <v>29</v>
-      </c>
-      <c r="C44" s="185" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="16">
-        <v>30</v>
-      </c>
-      <c r="C45" s="186"/>
-      <c r="D45" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="16">
-        <v>31</v>
-      </c>
-      <c r="C46" s="186"/>
-      <c r="D46" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="16">
-        <v>32</v>
-      </c>
-      <c r="C47" s="186"/>
-      <c r="D47" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B48" s="16">
-        <v>33</v>
-      </c>
-      <c r="C48" s="185" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="16">
-        <v>34</v>
-      </c>
-      <c r="C49" s="186"/>
-      <c r="D49" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="16">
-        <v>35</v>
-      </c>
-      <c r="C50" s="186"/>
-      <c r="D50" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="16">
-        <v>36</v>
-      </c>
-      <c r="C51" s="186"/>
-      <c r="D51" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="16">
-        <v>37</v>
-      </c>
-      <c r="C52" s="194" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="16">
-        <v>38</v>
-      </c>
-      <c r="C53" s="195"/>
-      <c r="D53" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="16">
-        <v>39</v>
-      </c>
-      <c r="C54" s="195"/>
-      <c r="D54" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="16">
-        <v>40</v>
-      </c>
-      <c r="C55" s="196"/>
-      <c r="D55" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="16">
-        <v>41</v>
-      </c>
-      <c r="C56" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="16">
-        <v>42</v>
-      </c>
-      <c r="C57" s="186"/>
-      <c r="D57" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="16">
-        <v>43</v>
-      </c>
-      <c r="C58" s="186"/>
-      <c r="D58" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="16">
-        <v>44</v>
-      </c>
-      <c r="C59" s="186"/>
-      <c r="D59" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="16">
-        <v>45</v>
-      </c>
-      <c r="C60" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="16">
-        <v>46</v>
-      </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="16">
-        <v>47</v>
-      </c>
-      <c r="C62" s="186"/>
-      <c r="D62" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="16">
-        <v>48</v>
-      </c>
-      <c r="C63" s="186"/>
-      <c r="D63" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="16">
-        <v>49</v>
-      </c>
-      <c r="C64" s="185" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="16">
-        <v>50</v>
-      </c>
-      <c r="C65" s="186"/>
-      <c r="D65" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="16">
-        <v>51</v>
-      </c>
-      <c r="C66" s="186"/>
-      <c r="D66" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="16">
-        <v>52</v>
-      </c>
-      <c r="C67" s="186"/>
-      <c r="D67" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="16">
-        <v>53</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="16">
-        <v>54</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="16">
-        <v>55</v>
-      </c>
-      <c r="C70" s="190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="16">
-        <v>56</v>
-      </c>
-      <c r="C71" s="191"/>
-      <c r="D71" s="59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="16">
-        <v>57</v>
-      </c>
-      <c r="C72" s="191"/>
-      <c r="D72" s="59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="16">
-        <v>58</v>
-      </c>
-      <c r="C73" s="192"/>
-      <c r="D73" s="60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="16">
-        <v>59</v>
-      </c>
-      <c r="C74" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="68"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="16">
-        <v>60</v>
-      </c>
-      <c r="C75" s="181"/>
-      <c r="D75" s="69"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="16">
-        <v>61</v>
-      </c>
-      <c r="C76" s="182" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="65"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="16">
-        <v>62</v>
-      </c>
-      <c r="C77" s="183"/>
-      <c r="D77" s="66"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="16">
-        <v>63</v>
-      </c>
-      <c r="C78" s="184"/>
-      <c r="D78" s="67"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="70">
-        <v>0</v>
-      </c>
-      <c r="C83" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="65"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="70">
-        <v>1</v>
-      </c>
-      <c r="C84" s="188"/>
-      <c r="D84" s="66"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="70">
-        <v>2</v>
-      </c>
-      <c r="C85" s="189"/>
-      <c r="D85" s="67"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="16">
-        <v>3</v>
-      </c>
-      <c r="C86" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="16">
-        <v>4</v>
-      </c>
-      <c r="C87" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="16">
-        <v>5</v>
-      </c>
-      <c r="C88" s="185" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="16">
-        <v>6</v>
-      </c>
-      <c r="C89" s="186"/>
-      <c r="D89" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="16">
-        <v>7</v>
-      </c>
-      <c r="C90" s="186"/>
-      <c r="D90" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="16">
-        <v>8</v>
-      </c>
-      <c r="C91" s="186"/>
-      <c r="D91" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="16">
-        <v>9</v>
-      </c>
-      <c r="C92" s="185" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="16">
-        <v>10</v>
-      </c>
-      <c r="C93" s="186"/>
-      <c r="D93" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="16">
-        <v>11</v>
-      </c>
-      <c r="C94" s="186"/>
-      <c r="D94" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="16">
-        <v>12</v>
-      </c>
-      <c r="C95" s="186"/>
-      <c r="D95" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="16">
-        <v>13</v>
-      </c>
-      <c r="C96" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="16">
-        <v>14</v>
-      </c>
-      <c r="C97" s="186"/>
-      <c r="D97" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="16">
-        <v>15</v>
-      </c>
-      <c r="C98" s="186"/>
-      <c r="D98" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="16">
-        <v>16</v>
-      </c>
-      <c r="C99" s="186"/>
-      <c r="D99" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="16">
-        <v>17</v>
-      </c>
-      <c r="C100" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="16">
-        <v>18</v>
-      </c>
-      <c r="C101" s="186"/>
-      <c r="D101" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="16">
-        <v>19</v>
-      </c>
-      <c r="C102" s="186"/>
-      <c r="D102" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="16">
-        <v>20</v>
-      </c>
-      <c r="C103" s="186"/>
-      <c r="D103" s="64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="16">
-        <v>21</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="73"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="16">
-        <v>22</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="73"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="16">
-        <v>23</v>
-      </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="73"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="16">
-        <v>24</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="73"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="16">
-        <v>25</v>
-      </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="73"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="16">
-        <v>26</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="73"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="16">
-        <v>27</v>
-      </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="73"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="16">
-        <v>28</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="73"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="16">
-        <v>29</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="73"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="16">
-        <v>30</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="73"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="16">
-        <v>31</v>
-      </c>
-      <c r="C114" s="74"/>
-      <c r="D114" s="73"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="16">
-        <v>32</v>
-      </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="73"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="16">
-        <v>33</v>
-      </c>
-      <c r="C116" s="74"/>
-      <c r="D116" s="73"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="16">
-        <v>34</v>
-      </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="73"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="16">
-        <v>35</v>
-      </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="73"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="16">
-        <v>36</v>
-      </c>
-      <c r="C119" s="74"/>
-      <c r="D119" s="73"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" s="16">
-        <v>37</v>
-      </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="73"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="16">
-        <v>38</v>
-      </c>
-      <c r="C121" s="74"/>
-      <c r="D121" s="73"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="16">
-        <v>39</v>
-      </c>
-      <c r="C122" s="74"/>
-      <c r="D122" s="73"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="16">
-        <v>40</v>
-      </c>
-      <c r="C123" s="74"/>
-      <c r="D123" s="73"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="16">
-        <v>41</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="16">
-        <v>42</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="16">
-        <v>43</v>
-      </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="16">
-        <v>44</v>
-      </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" s="16">
-        <v>45</v>
-      </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="16">
-        <v>46</v>
-      </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="16">
-        <v>47</v>
-      </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="16">
-        <v>48</v>
-      </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="16">
-        <v>49</v>
-      </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B133" s="16">
-        <v>50</v>
-      </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134" s="16">
-        <v>51</v>
-      </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B135" s="16">
-        <v>52</v>
-      </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136" s="16">
-        <v>53</v>
-      </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B137" s="16">
-        <v>54</v>
-      </c>
-      <c r="C137" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B138" s="16">
-        <v>55</v>
-      </c>
-      <c r="C138" s="190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" s="16">
-        <v>56</v>
-      </c>
-      <c r="C139" s="191"/>
-      <c r="D139" s="59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B140" s="16">
-        <v>57</v>
-      </c>
-      <c r="C140" s="191"/>
-      <c r="D140" s="59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" s="16">
-        <v>58</v>
-      </c>
-      <c r="C141" s="192"/>
-      <c r="D141" s="60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B142" s="16">
-        <v>59</v>
-      </c>
-      <c r="C142" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="68"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B143" s="16">
-        <v>60</v>
-      </c>
-      <c r="C143" s="181"/>
-      <c r="D143" s="69"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B144" s="16">
-        <v>61</v>
-      </c>
-      <c r="C144" s="182" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="65"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" s="16">
-        <v>62</v>
-      </c>
-      <c r="C145" s="183"/>
-      <c r="D145" s="66"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" s="16">
-        <v>63</v>
-      </c>
-      <c r="C146" s="184"/>
-      <c r="D146" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -5,30 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Google Drive\PROROB\09 CLIENTI\Mind Music Lab AB\GIT\sensei\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\Mind Music Lab AB\GIT\sensei\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="804" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="10800" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId1"/>
-    <sheet name="LIST_CMD" sheetId="2" r:id="rId2"/>
-    <sheet name="RESPONSE" sheetId="14" r:id="rId3"/>
-    <sheet name="ACK" sheetId="17" r:id="rId4"/>
-    <sheet name="COMMANDS" sheetId="11" r:id="rId5"/>
-    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId6"/>
-    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId7"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId8"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId9"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId10"/>
+    <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
+    <sheet name="GET_PINS_CONFIGURATION" sheetId="20" r:id="rId2"/>
+    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId3"/>
+    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId4"/>
+    <sheet name="RESPONSE" sheetId="14" r:id="rId5"/>
+    <sheet name="ACK" sheetId="17" r:id="rId6"/>
+    <sheet name="COMMANDS" sheetId="11" r:id="rId7"/>
+    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId8"/>
+    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId9"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId10"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId11"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="183">
   <si>
     <t>CMD</t>
   </si>
@@ -420,9 +422,6 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>SLIDER VALUE</t>
-  </si>
-  <si>
     <t>q0</t>
   </si>
   <si>
@@ -556,6 +555,30 @@
   </si>
   <si>
     <t>(uint16_t)</t>
+  </si>
+  <si>
+    <t>CMD_SET_DIGITAL_PINS</t>
+  </si>
+  <si>
+    <t>SET_BANK</t>
+  </si>
+  <si>
+    <t>BANK_IDX</t>
+  </si>
+  <si>
+    <t>DATA BYTES</t>
+  </si>
+  <si>
+    <t>FILTER_ORDER</t>
+  </si>
+  <si>
+    <t>CMD_STOP_BOARD</t>
+  </si>
+  <si>
+    <t>CMD_GET_PINS_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -619,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1196,12 +1225,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,9 +1235,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,9 +1315,81 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,12 +1402,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,6 +1434,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1415,27 +1513,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,6 +1579,12 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,21 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,1150 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BO18"/>
+  <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="6" width="2.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.7109375" style="5" customWidth="1"/>
-    <col min="9" max="54" width="2.7109375" style="6" customWidth="1"/>
-    <col min="55" max="57" width="2.7109375" style="5" customWidth="1"/>
-    <col min="58" max="58" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.7109375" style="5" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="139"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="139"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="139"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-    </row>
-    <row r="17" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="D17" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="98"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="98"/>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="98"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="98"/>
-      <c r="AW17" s="98"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="98"/>
-      <c r="BA17" s="98"/>
-      <c r="BB17" s="98"/>
-      <c r="BC17" s="98"/>
-      <c r="BD17" s="98"/>
-      <c r="BE17" s="98"/>
-      <c r="BF17" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG17" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH17" s="146"/>
-      <c r="BI17" s="146"/>
-      <c r="BJ17" s="146"/>
-      <c r="BK17" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL17" s="145"/>
-      <c r="BM17" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN17" s="131"/>
-      <c r="BO17" s="131"/>
-    </row>
-    <row r="18" spans="3:67" x14ac:dyDescent="0.2">
-      <c r="C18" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>3</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4</v>
-      </c>
-      <c r="I18" s="10">
-        <v>5</v>
-      </c>
-      <c r="J18" s="10">
-        <v>6</v>
-      </c>
-      <c r="K18" s="10">
-        <v>7</v>
-      </c>
-      <c r="L18" s="10">
-        <v>8</v>
-      </c>
-      <c r="M18" s="10">
-        <v>9</v>
-      </c>
-      <c r="N18" s="10">
-        <v>10</v>
-      </c>
-      <c r="O18" s="10">
-        <v>11</v>
-      </c>
-      <c r="P18" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>13</v>
-      </c>
-      <c r="R18" s="10">
-        <v>14</v>
-      </c>
-      <c r="S18" s="10">
-        <v>15</v>
-      </c>
-      <c r="T18" s="10">
-        <v>16</v>
-      </c>
-      <c r="U18" s="10">
-        <v>17</v>
-      </c>
-      <c r="V18" s="10">
-        <v>18</v>
-      </c>
-      <c r="W18" s="10">
-        <v>19</v>
-      </c>
-      <c r="X18" s="10">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>22</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>23</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>24</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>25</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>26</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>27</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>28</v>
-      </c>
-      <c r="AG18" s="10">
-        <v>29</v>
-      </c>
-      <c r="AH18" s="10">
-        <v>30</v>
-      </c>
-      <c r="AI18" s="10">
-        <v>31</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>32</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>33</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>34</v>
-      </c>
-      <c r="AM18" s="10">
-        <v>35</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>36</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>37</v>
-      </c>
-      <c r="AP18" s="10">
-        <v>38</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>39</v>
-      </c>
-      <c r="AR18" s="10">
-        <v>40</v>
-      </c>
-      <c r="AS18" s="10">
-        <v>41</v>
-      </c>
-      <c r="AT18" s="10">
-        <v>42</v>
-      </c>
-      <c r="AU18" s="10">
-        <v>43</v>
-      </c>
-      <c r="AV18" s="10">
-        <v>44</v>
-      </c>
-      <c r="AW18" s="10">
-        <v>45</v>
-      </c>
-      <c r="AX18" s="10">
-        <v>46</v>
-      </c>
-      <c r="AY18" s="10">
-        <v>47</v>
-      </c>
-      <c r="AZ18" s="10">
-        <v>48</v>
-      </c>
-      <c r="BA18" s="10">
-        <v>49</v>
-      </c>
-      <c r="BB18" s="10">
-        <v>50</v>
-      </c>
-      <c r="BC18" s="9">
-        <v>51</v>
-      </c>
-      <c r="BD18" s="9">
-        <v>52</v>
-      </c>
-      <c r="BE18" s="9">
-        <v>53</v>
-      </c>
-      <c r="BF18" s="9">
-        <v>54</v>
-      </c>
-      <c r="BG18" s="9">
-        <v>55</v>
-      </c>
-      <c r="BH18" s="9">
-        <v>56</v>
-      </c>
-      <c r="BI18" s="9">
-        <v>57</v>
-      </c>
-      <c r="BJ18" s="9">
-        <v>58</v>
-      </c>
-      <c r="BK18" s="9">
-        <v>59</v>
-      </c>
-      <c r="BL18" s="9">
-        <v>60</v>
-      </c>
-      <c r="BM18" s="9">
-        <v>61</v>
-      </c>
-      <c r="BN18" s="9">
-        <v>62</v>
-      </c>
-      <c r="BO18" s="9">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="BK17:BL17"/>
-    <mergeCell ref="BM17:BO17"/>
-    <mergeCell ref="BG17:BJ17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:X10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:X14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:X15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:X11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:X12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="8" width="30.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="27">
-        <v>5</v>
-      </c>
-      <c r="C7" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="27">
-        <v>6</v>
-      </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="16">
-        <v>3</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="16">
-        <v>4</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="27">
-        <v>5</v>
-      </c>
-      <c r="C13" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="27">
-        <v>6</v>
-      </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="27">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="G15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="10">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="27">
-        <v>8</v>
-      </c>
-      <c r="C16" s="202" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="27">
-        <v>9</v>
-      </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="16">
-        <v>4</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
-        <v>5</v>
-      </c>
-      <c r="C22" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="206" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
-        <v>6</v>
-      </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="16">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="G24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="16">
-        <v>8</v>
-      </c>
-      <c r="C25" s="202" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="16">
-        <v>9</v>
-      </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="205" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="G27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>11</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <v>12</v>
-      </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
-        <v>13</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
-        <v>14</v>
-      </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
-        <v>15</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="55"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>16</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="128" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <v>17</v>
-      </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="129" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C25:C26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3083,7 +2017,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
@@ -3096,24 +2030,24 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="22">
+        <v>100</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
-        <v>100</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
@@ -3260,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="F21" s="23"/>
     </row>
@@ -3274,10 +2208,10 @@
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -3287,10 +2221,10 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -3300,194 +2234,212 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="22">
+        <v>105</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="20">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="22">
+        <v>106</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
         <v>200</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C31" s="20">
         <v>0</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="20">
-        <v>201</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="20">
-        <v>202</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="20">
-        <v>203</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="20">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C32" s="20">
         <v>0</v>
       </c>
       <c r="D32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="20">
+        <v>202</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="20">
+        <v>203</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <v>204</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20">
-        <v>2</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20">
-        <v>3</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20">
-        <v>4</v>
-      </c>
-      <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
+        <v>3</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
+        <v>4</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
+        <v>5</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="21" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="86"/>
@@ -3508,18 +2460,52 @@
       <c r="C44" s="86"/>
       <c r="D44" s="86"/>
       <c r="E44" s="86"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="117">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="141">
+        <v>250</v>
+      </c>
+      <c r="C46" s="141">
+        <v>0</v>
+      </c>
+      <c r="D46" s="141" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="114">
         <v>255</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="114"/>
+      <c r="F49" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3527,1083 +2513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="16">
-        <v>3</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
-        <v>4</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="8" spans="2:4" s="76" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="16">
-        <v>3</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="16">
-        <v>4</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="27">
-        <v>5</v>
-      </c>
-      <c r="C5" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="161" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="163"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="27">
-        <v>6</v>
-      </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="164" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="166"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="27">
-        <v>7</v>
-      </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="164" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="27">
-        <v>8</v>
-      </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="167" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27">
-        <v>9</v>
-      </c>
-      <c r="C9" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="154"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="27">
-        <v>10</v>
-      </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="152"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27">
-        <v>11</v>
-      </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="27">
-        <v>12</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="152"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="27">
-        <v>13</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="154"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="27">
-        <v>14</v>
-      </c>
-      <c r="C14" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="116"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="157"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F9:H14"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="7" width="30.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="103"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="27">
-        <v>5</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="F7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F10" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F20" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="9">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="173"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="172" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="51">
-        <v>4</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="27">
-        <v>5</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="76"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="27">
-        <v>6</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="76"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="76"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="171"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="51">
-        <v>4</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="27">
-        <v>1</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="27">
-        <v>6</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
-        <v>7</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="93"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="61"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="27">
-        <v>8</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="27">
-        <v>9</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>10</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <v>11</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:D14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="4" width="19.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="7" width="20.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="173"/>
-      <c r="E5" s="102"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="51">
-        <v>4</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="27">
-        <v>5</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="27">
-        <v>6</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="27">
-        <v>7</v>
-      </c>
-      <c r="C10" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="F10" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="173"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
-        <v>3</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="51">
-        <v>4</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="27">
-        <v>5</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="27">
-        <v>6</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="27">
-        <v>7</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="119"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="173"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="51">
-        <v>4</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="27">
-        <v>5</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="27">
-        <v>6</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="106" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="27">
-        <v>7</v>
-      </c>
-      <c r="C24" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="27">
-        <v>8</v>
-      </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="173"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>3</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="51">
-        <v>4</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="27">
-        <v>5</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="27">
-        <v>6</v>
-      </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="106" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="27">
-        <v>7</v>
-      </c>
-      <c r="C32" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="27">
-        <v>8</v>
-      </c>
-      <c r="C33" s="178"/>
-      <c r="D33" s="121" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="27">
-        <v>9</v>
-      </c>
-      <c r="C34" s="178"/>
-      <c r="D34" s="121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="27">
-        <v>10</v>
-      </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4619,11 +2534,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
@@ -4631,10 +2546,10 @@
       <c r="D3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="173"/>
+      <c r="B4" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -4728,7 +2643,7 @@
       <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="95" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="43"/>
@@ -4760,7 +2675,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>55</v>
@@ -4771,11 +2686,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="B14" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="F14" s="15" t="s">
         <v>56</v>
       </c>
@@ -4792,7 +2707,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="122"/>
+      <c r="D16" s="119"/>
       <c r="F16" s="13" t="s">
         <v>62</v>
       </c>
@@ -4822,11 +2737,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
       <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4839,11 +2754,11 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="F21" s="98" t="s">
+      <c r="B21" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="F21" s="95" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="5"/>
@@ -4897,7 +2812,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>45</v>
@@ -4908,11 +2823,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="B26" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="F26" s="15" t="s">
         <v>46</v>
       </c>
@@ -5009,7 +2924,7 @@
       <c r="B33" s="16">
         <v>8</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="95" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="43"/>
@@ -5044,12 +2959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F6" sqref="F6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5064,36 +2979,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
+      <c r="B2" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="173"/>
+      <c r="B4" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="170"/>
       <c r="E4" s="75"/>
-      <c r="G4" s="193" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
+      <c r="G4" s="211" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -5109,52 +3024,52 @@
       <c r="F5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="95">
         <v>1</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="95">
         <v>2</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5" s="95">
         <v>3</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="95">
         <v>4</v>
       </c>
-      <c r="K5" s="98">
+      <c r="K5" s="95">
         <v>5</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="95">
         <v>6</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="95">
         <v>7</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="95">
         <v>8</v>
       </c>
-      <c r="O5" s="98">
+      <c r="O5" s="95">
         <v>9</v>
       </c>
-      <c r="P5" s="98">
+      <c r="P5" s="95">
         <v>10</v>
       </c>
-      <c r="Q5" s="98">
+      <c r="Q5" s="95">
         <v>11</v>
       </c>
-      <c r="R5" s="98">
+      <c r="R5" s="95">
         <v>12</v>
       </c>
-      <c r="S5" s="98">
+      <c r="S5" s="95">
         <v>13</v>
       </c>
-      <c r="T5" s="98">
+      <c r="T5" s="95">
         <v>14</v>
       </c>
-      <c r="U5" s="98">
+      <c r="U5" s="95">
         <v>15</v>
       </c>
-      <c r="V5" s="98">
+      <c r="V5" s="95">
         <v>16</v>
       </c>
     </row>
@@ -5166,59 +3081,59 @@
         <v>10</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="75"/>
       <c r="F6" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="K6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="V6" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
@@ -5226,31 +3141,31 @@
         <v>29</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -5265,31 +3180,31 @@
         <v>32</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="O8" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -5304,16 +3219,16 @@
         <v>33</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -5330,19 +3245,19 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="81" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -5364,25 +3279,25 @@
         <v>30</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="K11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -5395,11 +3310,11 @@
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
+      <c r="B12" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
       <c r="F12" s="50"/>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
@@ -5440,31 +3355,31 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="70">
         <v>0</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="96"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="70">
         <v>1</v>
       </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="70">
         <v>2</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
@@ -5485,15 +3400,15 @@
         <v>10</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="185" t="s">
-        <v>131</v>
+      <c r="C20" s="203" t="s">
+        <v>130</v>
       </c>
       <c r="D20" s="62" t="s">
         <v>81</v>
@@ -5503,7 +3418,7 @@
       <c r="B21" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="186"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="63" t="s">
         <v>82</v>
       </c>
@@ -5512,7 +3427,7 @@
       <c r="B22" s="16">
         <v>7</v>
       </c>
-      <c r="C22" s="186"/>
+      <c r="C22" s="204"/>
       <c r="D22" s="63" t="s">
         <v>84</v>
       </c>
@@ -5521,7 +3436,7 @@
       <c r="B23" s="16">
         <v>8</v>
       </c>
-      <c r="C23" s="186"/>
+      <c r="C23" s="204"/>
       <c r="D23" s="64" t="s">
         <v>83</v>
       </c>
@@ -5530,8 +3445,8 @@
       <c r="B24" s="16">
         <v>9</v>
       </c>
-      <c r="C24" s="185" t="s">
-        <v>132</v>
+      <c r="C24" s="203" t="s">
+        <v>131</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>81</v>
@@ -5541,7 +3456,7 @@
       <c r="B25" s="16">
         <v>10</v>
       </c>
-      <c r="C25" s="186"/>
+      <c r="C25" s="204"/>
       <c r="D25" s="63" t="s">
         <v>82</v>
       </c>
@@ -5567,7 +3482,7 @@
       <c r="B26" s="16">
         <v>11</v>
       </c>
-      <c r="C26" s="186"/>
+      <c r="C26" s="204"/>
       <c r="D26" s="63" t="s">
         <v>84</v>
       </c>
@@ -5576,7 +3491,7 @@
       <c r="B27" s="16">
         <v>12</v>
       </c>
-      <c r="C27" s="186"/>
+      <c r="C27" s="204"/>
       <c r="D27" s="64" t="s">
         <v>83</v>
       </c>
@@ -5585,8 +3500,8 @@
       <c r="B28" s="16">
         <v>13</v>
       </c>
-      <c r="C28" s="185" t="s">
-        <v>133</v>
+      <c r="C28" s="203" t="s">
+        <v>132</v>
       </c>
       <c r="D28" s="62" t="s">
         <v>81</v>
@@ -5596,7 +3511,7 @@
       <c r="B29" s="16">
         <v>14</v>
       </c>
-      <c r="C29" s="186"/>
+      <c r="C29" s="204"/>
       <c r="D29" s="63" t="s">
         <v>82</v>
       </c>
@@ -5605,7 +3520,7 @@
       <c r="B30" s="16">
         <v>15</v>
       </c>
-      <c r="C30" s="186"/>
+      <c r="C30" s="204"/>
       <c r="D30" s="63" t="s">
         <v>84</v>
       </c>
@@ -5614,7 +3529,7 @@
       <c r="B31" s="16">
         <v>16</v>
       </c>
-      <c r="C31" s="186"/>
+      <c r="C31" s="204"/>
       <c r="D31" s="64" t="s">
         <v>83</v>
       </c>
@@ -5623,8 +3538,8 @@
       <c r="B32" s="16">
         <v>17</v>
       </c>
-      <c r="C32" s="185" t="s">
-        <v>134</v>
+      <c r="C32" s="203" t="s">
+        <v>133</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>81</v>
@@ -5634,7 +3549,7 @@
       <c r="B33" s="16">
         <v>18</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="204"/>
       <c r="D33" s="63" t="s">
         <v>82</v>
       </c>
@@ -5643,7 +3558,7 @@
       <c r="B34" s="16">
         <v>19</v>
       </c>
-      <c r="C34" s="186"/>
+      <c r="C34" s="204"/>
       <c r="D34" s="63" t="s">
         <v>84</v>
       </c>
@@ -5669,7 +3584,7 @@
       <c r="B35" s="16">
         <v>20</v>
       </c>
-      <c r="C35" s="186"/>
+      <c r="C35" s="204"/>
       <c r="D35" s="64" t="s">
         <v>83</v>
       </c>
@@ -5695,8 +3610,8 @@
       <c r="B36" s="16">
         <v>21</v>
       </c>
-      <c r="C36" s="185" t="s">
-        <v>139</v>
+      <c r="C36" s="203" t="s">
+        <v>138</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>81</v>
@@ -5723,7 +3638,7 @@
       <c r="B37" s="16">
         <v>22</v>
       </c>
-      <c r="C37" s="186"/>
+      <c r="C37" s="204"/>
       <c r="D37" s="63" t="s">
         <v>82</v>
       </c>
@@ -5749,7 +3664,7 @@
       <c r="B38" s="16">
         <v>23</v>
       </c>
-      <c r="C38" s="186"/>
+      <c r="C38" s="204"/>
       <c r="D38" s="63" t="s">
         <v>84</v>
       </c>
@@ -5771,7 +3686,7 @@
       <c r="B39" s="16">
         <v>24</v>
       </c>
-      <c r="C39" s="186"/>
+      <c r="C39" s="204"/>
       <c r="D39" s="64" t="s">
         <v>83</v>
       </c>
@@ -5793,8 +3708,8 @@
       <c r="B40" s="16">
         <v>25</v>
       </c>
-      <c r="C40" s="185" t="s">
-        <v>140</v>
+      <c r="C40" s="203" t="s">
+        <v>139</v>
       </c>
       <c r="D40" s="62" t="s">
         <v>81</v>
@@ -5817,7 +3732,7 @@
       <c r="B41" s="16">
         <v>26</v>
       </c>
-      <c r="C41" s="186"/>
+      <c r="C41" s="204"/>
       <c r="D41" s="63" t="s">
         <v>82</v>
       </c>
@@ -5843,7 +3758,7 @@
       <c r="B42" s="16">
         <v>27</v>
       </c>
-      <c r="C42" s="186"/>
+      <c r="C42" s="204"/>
       <c r="D42" s="63" t="s">
         <v>84</v>
       </c>
@@ -5869,7 +3784,7 @@
       <c r="B43" s="16">
         <v>28</v>
       </c>
-      <c r="C43" s="186"/>
+      <c r="C43" s="204"/>
       <c r="D43" s="64" t="s">
         <v>83</v>
       </c>
@@ -5895,8 +3810,8 @@
       <c r="B44" s="16">
         <v>29</v>
       </c>
-      <c r="C44" s="185" t="s">
-        <v>141</v>
+      <c r="C44" s="203" t="s">
+        <v>140</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>81</v>
@@ -5923,7 +3838,7 @@
       <c r="B45" s="16">
         <v>30</v>
       </c>
-      <c r="C45" s="186"/>
+      <c r="C45" s="204"/>
       <c r="D45" s="63" t="s">
         <v>82</v>
       </c>
@@ -5932,7 +3847,7 @@
       <c r="B46" s="16">
         <v>31</v>
       </c>
-      <c r="C46" s="186"/>
+      <c r="C46" s="204"/>
       <c r="D46" s="63" t="s">
         <v>84</v>
       </c>
@@ -5941,7 +3856,7 @@
       <c r="B47" s="16">
         <v>32</v>
       </c>
-      <c r="C47" s="186"/>
+      <c r="C47" s="204"/>
       <c r="D47" s="64" t="s">
         <v>83</v>
       </c>
@@ -5950,8 +3865,8 @@
       <c r="B48" s="16">
         <v>33</v>
       </c>
-      <c r="C48" s="185" t="s">
-        <v>142</v>
+      <c r="C48" s="203" t="s">
+        <v>141</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>81</v>
@@ -5961,7 +3876,7 @@
       <c r="B49" s="16">
         <v>34</v>
       </c>
-      <c r="C49" s="186"/>
+      <c r="C49" s="204"/>
       <c r="D49" s="63" t="s">
         <v>82</v>
       </c>
@@ -5970,7 +3885,7 @@
       <c r="B50" s="16">
         <v>35</v>
       </c>
-      <c r="C50" s="186"/>
+      <c r="C50" s="204"/>
       <c r="D50" s="63" t="s">
         <v>84</v>
       </c>
@@ -5979,7 +3894,7 @@
       <c r="B51" s="16">
         <v>36</v>
       </c>
-      <c r="C51" s="186"/>
+      <c r="C51" s="204"/>
       <c r="D51" s="64" t="s">
         <v>83</v>
       </c>
@@ -5988,8 +3903,8 @@
       <c r="B52" s="16">
         <v>37</v>
       </c>
-      <c r="C52" s="194" t="s">
-        <v>143</v>
+      <c r="C52" s="212" t="s">
+        <v>142</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>81</v>
@@ -5999,7 +3914,7 @@
       <c r="B53" s="16">
         <v>38</v>
       </c>
-      <c r="C53" s="195"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="63" t="s">
         <v>82</v>
       </c>
@@ -6008,7 +3923,7 @@
       <c r="B54" s="16">
         <v>39</v>
       </c>
-      <c r="C54" s="195"/>
+      <c r="C54" s="213"/>
       <c r="D54" s="63" t="s">
         <v>84</v>
       </c>
@@ -6017,7 +3932,7 @@
       <c r="B55" s="16">
         <v>40</v>
       </c>
-      <c r="C55" s="196"/>
+      <c r="C55" s="214"/>
       <c r="D55" s="64" t="s">
         <v>83</v>
       </c>
@@ -6026,8 +3941,8 @@
       <c r="B56" s="16">
         <v>41</v>
       </c>
-      <c r="C56" s="185" t="s">
-        <v>144</v>
+      <c r="C56" s="203" t="s">
+        <v>143</v>
       </c>
       <c r="D56" s="62" t="s">
         <v>81</v>
@@ -6037,7 +3952,7 @@
       <c r="B57" s="16">
         <v>42</v>
       </c>
-      <c r="C57" s="186"/>
+      <c r="C57" s="204"/>
       <c r="D57" s="63" t="s">
         <v>82</v>
       </c>
@@ -6046,7 +3961,7 @@
       <c r="B58" s="16">
         <v>43</v>
       </c>
-      <c r="C58" s="186"/>
+      <c r="C58" s="204"/>
       <c r="D58" s="63" t="s">
         <v>84</v>
       </c>
@@ -6055,7 +3970,7 @@
       <c r="B59" s="16">
         <v>44</v>
       </c>
-      <c r="C59" s="186"/>
+      <c r="C59" s="204"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -6064,8 +3979,8 @@
       <c r="B60" s="16">
         <v>45</v>
       </c>
-      <c r="C60" s="185" t="s">
-        <v>145</v>
+      <c r="C60" s="203" t="s">
+        <v>144</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>81</v>
@@ -6075,7 +3990,7 @@
       <c r="B61" s="16">
         <v>46</v>
       </c>
-      <c r="C61" s="186"/>
+      <c r="C61" s="204"/>
       <c r="D61" s="63" t="s">
         <v>82</v>
       </c>
@@ -6084,7 +3999,7 @@
       <c r="B62" s="16">
         <v>47</v>
       </c>
-      <c r="C62" s="186"/>
+      <c r="C62" s="204"/>
       <c r="D62" s="63" t="s">
         <v>84</v>
       </c>
@@ -6093,7 +4008,7 @@
       <c r="B63" s="16">
         <v>48</v>
       </c>
-      <c r="C63" s="186"/>
+      <c r="C63" s="204"/>
       <c r="D63" s="64" t="s">
         <v>83</v>
       </c>
@@ -6102,8 +4017,8 @@
       <c r="B64" s="16">
         <v>49</v>
       </c>
-      <c r="C64" s="185" t="s">
-        <v>146</v>
+      <c r="C64" s="203" t="s">
+        <v>145</v>
       </c>
       <c r="D64" s="62" t="s">
         <v>81</v>
@@ -6113,7 +4028,7 @@
       <c r="B65" s="16">
         <v>50</v>
       </c>
-      <c r="C65" s="186"/>
+      <c r="C65" s="204"/>
       <c r="D65" s="63" t="s">
         <v>82</v>
       </c>
@@ -6122,7 +4037,7 @@
       <c r="B66" s="16">
         <v>51</v>
       </c>
-      <c r="C66" s="186"/>
+      <c r="C66" s="204"/>
       <c r="D66" s="63" t="s">
         <v>84</v>
       </c>
@@ -6131,7 +4046,7 @@
       <c r="B67" s="16">
         <v>52</v>
       </c>
-      <c r="C67" s="186"/>
+      <c r="C67" s="204"/>
       <c r="D67" s="64" t="s">
         <v>83</v>
       </c>
@@ -6158,7 +4073,7 @@
       <c r="B70" s="16">
         <v>55</v>
       </c>
-      <c r="C70" s="190" t="s">
+      <c r="C70" s="208" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="58" t="s">
@@ -6169,7 +4084,7 @@
       <c r="B71" s="16">
         <v>56</v>
       </c>
-      <c r="C71" s="191"/>
+      <c r="C71" s="209"/>
       <c r="D71" s="59" t="s">
         <v>82</v>
       </c>
@@ -6178,7 +4093,7 @@
       <c r="B72" s="16">
         <v>57</v>
       </c>
-      <c r="C72" s="191"/>
+      <c r="C72" s="209"/>
       <c r="D72" s="59" t="s">
         <v>84</v>
       </c>
@@ -6187,7 +4102,7 @@
       <c r="B73" s="16">
         <v>58</v>
       </c>
-      <c r="C73" s="192"/>
+      <c r="C73" s="210"/>
       <c r="D73" s="60" t="s">
         <v>83</v>
       </c>
@@ -6196,7 +4111,7 @@
       <c r="B74" s="16">
         <v>59</v>
       </c>
-      <c r="C74" s="180" t="s">
+      <c r="C74" s="198" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="68"/>
@@ -6205,14 +4120,14 @@
       <c r="B75" s="16">
         <v>60</v>
       </c>
-      <c r="C75" s="181"/>
+      <c r="C75" s="199"/>
       <c r="D75" s="69"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
         <v>61</v>
       </c>
-      <c r="C76" s="182" t="s">
+      <c r="C76" s="200" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="65"/>
@@ -6221,26 +4136,26 @@
       <c r="B77" s="16">
         <v>62</v>
       </c>
-      <c r="C77" s="183"/>
+      <c r="C77" s="201"/>
       <c r="D77" s="66"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="16">
         <v>63</v>
       </c>
-      <c r="C78" s="184"/>
+      <c r="C78" s="202"/>
       <c r="D78" s="67"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="70">
         <v>0</v>
       </c>
-      <c r="C83" s="187" t="s">
+      <c r="C83" s="205" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="65"/>
@@ -6249,14 +4164,14 @@
       <c r="B84" s="70">
         <v>1</v>
       </c>
-      <c r="C84" s="188"/>
+      <c r="C84" s="206"/>
       <c r="D84" s="66"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="70">
         <v>2</v>
       </c>
-      <c r="C85" s="189"/>
+      <c r="C85" s="207"/>
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
@@ -6278,15 +4193,15 @@
         <v>10</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="16">
         <v>5</v>
       </c>
-      <c r="C88" s="185" t="s">
-        <v>147</v>
+      <c r="C88" s="203" t="s">
+        <v>146</v>
       </c>
       <c r="D88" s="62" t="s">
         <v>81</v>
@@ -6296,7 +4211,7 @@
       <c r="B89" s="16">
         <v>6</v>
       </c>
-      <c r="C89" s="186"/>
+      <c r="C89" s="204"/>
       <c r="D89" s="63" t="s">
         <v>82</v>
       </c>
@@ -6305,7 +4220,7 @@
       <c r="B90" s="16">
         <v>7</v>
       </c>
-      <c r="C90" s="186"/>
+      <c r="C90" s="204"/>
       <c r="D90" s="63" t="s">
         <v>84</v>
       </c>
@@ -6314,7 +4229,7 @@
       <c r="B91" s="16">
         <v>8</v>
       </c>
-      <c r="C91" s="186"/>
+      <c r="C91" s="204"/>
       <c r="D91" s="64" t="s">
         <v>83</v>
       </c>
@@ -6323,8 +4238,8 @@
       <c r="B92" s="16">
         <v>9</v>
       </c>
-      <c r="C92" s="185" t="s">
-        <v>148</v>
+      <c r="C92" s="203" t="s">
+        <v>147</v>
       </c>
       <c r="D92" s="62" t="s">
         <v>81</v>
@@ -6334,7 +4249,7 @@
       <c r="B93" s="16">
         <v>10</v>
       </c>
-      <c r="C93" s="186"/>
+      <c r="C93" s="204"/>
       <c r="D93" s="63" t="s">
         <v>82</v>
       </c>
@@ -6343,7 +4258,7 @@
       <c r="B94" s="16">
         <v>11</v>
       </c>
-      <c r="C94" s="186"/>
+      <c r="C94" s="204"/>
       <c r="D94" s="63" t="s">
         <v>84</v>
       </c>
@@ -6352,7 +4267,7 @@
       <c r="B95" s="16">
         <v>12</v>
       </c>
-      <c r="C95" s="186"/>
+      <c r="C95" s="204"/>
       <c r="D95" s="64" t="s">
         <v>83</v>
       </c>
@@ -6361,8 +4276,8 @@
       <c r="B96" s="16">
         <v>13</v>
       </c>
-      <c r="C96" s="185" t="s">
-        <v>149</v>
+      <c r="C96" s="203" t="s">
+        <v>148</v>
       </c>
       <c r="D96" s="62" t="s">
         <v>81</v>
@@ -6372,7 +4287,7 @@
       <c r="B97" s="16">
         <v>14</v>
       </c>
-      <c r="C97" s="186"/>
+      <c r="C97" s="204"/>
       <c r="D97" s="63" t="s">
         <v>82</v>
       </c>
@@ -6381,7 +4296,7 @@
       <c r="B98" s="16">
         <v>15</v>
       </c>
-      <c r="C98" s="186"/>
+      <c r="C98" s="204"/>
       <c r="D98" s="63" t="s">
         <v>84</v>
       </c>
@@ -6390,7 +4305,7 @@
       <c r="B99" s="16">
         <v>16</v>
       </c>
-      <c r="C99" s="186"/>
+      <c r="C99" s="204"/>
       <c r="D99" s="64" t="s">
         <v>83</v>
       </c>
@@ -6399,8 +4314,8 @@
       <c r="B100" s="16">
         <v>17</v>
       </c>
-      <c r="C100" s="185" t="s">
-        <v>150</v>
+      <c r="C100" s="203" t="s">
+        <v>149</v>
       </c>
       <c r="D100" s="62" t="s">
         <v>81</v>
@@ -6410,7 +4325,7 @@
       <c r="B101" s="16">
         <v>18</v>
       </c>
-      <c r="C101" s="186"/>
+      <c r="C101" s="204"/>
       <c r="D101" s="63" t="s">
         <v>82</v>
       </c>
@@ -6419,7 +4334,7 @@
       <c r="B102" s="16">
         <v>19</v>
       </c>
-      <c r="C102" s="186"/>
+      <c r="C102" s="204"/>
       <c r="D102" s="63" t="s">
         <v>84</v>
       </c>
@@ -6428,7 +4343,7 @@
       <c r="B103" s="16">
         <v>20</v>
       </c>
-      <c r="C103" s="186"/>
+      <c r="C103" s="204"/>
       <c r="D103" s="64" t="s">
         <v>83</v>
       </c>
@@ -6679,7 +4594,7 @@
       <c r="B138" s="16">
         <v>55</v>
       </c>
-      <c r="C138" s="190" t="s">
+      <c r="C138" s="208" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="58" t="s">
@@ -6690,7 +4605,7 @@
       <c r="B139" s="16">
         <v>56</v>
       </c>
-      <c r="C139" s="191"/>
+      <c r="C139" s="209"/>
       <c r="D139" s="59" t="s">
         <v>82</v>
       </c>
@@ -6699,7 +4614,7 @@
       <c r="B140" s="16">
         <v>57</v>
       </c>
-      <c r="C140" s="191"/>
+      <c r="C140" s="209"/>
       <c r="D140" s="59" t="s">
         <v>84</v>
       </c>
@@ -6708,7 +4623,7 @@
       <c r="B141" s="16">
         <v>58</v>
       </c>
-      <c r="C141" s="192"/>
+      <c r="C141" s="210"/>
       <c r="D141" s="60" t="s">
         <v>83</v>
       </c>
@@ -6717,7 +4632,7 @@
       <c r="B142" s="16">
         <v>59</v>
       </c>
-      <c r="C142" s="180" t="s">
+      <c r="C142" s="198" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="68"/>
@@ -6726,14 +4641,14 @@
       <c r="B143" s="16">
         <v>60</v>
       </c>
-      <c r="C143" s="181"/>
+      <c r="C143" s="199"/>
       <c r="D143" s="69"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="16">
         <v>61</v>
       </c>
-      <c r="C144" s="182" t="s">
+      <c r="C144" s="200" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="65"/>
@@ -6742,14 +4657,14 @@
       <c r="B145" s="16">
         <v>62</v>
       </c>
-      <c r="C145" s="183"/>
+      <c r="C145" s="201"/>
       <c r="D145" s="66"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="16">
         <v>63</v>
       </c>
-      <c r="C146" s="184"/>
+      <c r="C146" s="202"/>
       <c r="D146" s="67"/>
     </row>
   </sheetData>
@@ -6785,4 +4700,2759 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="8" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="C7" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+      <c r="C8" s="221"/>
+      <c r="D8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>5</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>6</v>
+      </c>
+      <c r="C14" s="221"/>
+      <c r="D14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>8</v>
+      </c>
+      <c r="C16" s="215" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>9</v>
+      </c>
+      <c r="C17" s="216"/>
+      <c r="D17" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>3</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
+        <v>5</v>
+      </c>
+      <c r="C22" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>6</v>
+      </c>
+      <c r="C23" s="221"/>
+      <c r="D23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="G24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
+        <v>8</v>
+      </c>
+      <c r="C25" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>9</v>
+      </c>
+      <c r="C26" s="216"/>
+      <c r="D26" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="G27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>11</v>
+      </c>
+      <c r="C28" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>12</v>
+      </c>
+      <c r="C29" s="121"/>
+      <c r="D29" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>13</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>14</v>
+      </c>
+      <c r="C31" s="122"/>
+      <c r="D31" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <v>15</v>
+      </c>
+      <c r="C32" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>16</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="55"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <v>17</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
+        <v>18</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="126" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="51">
+        <v>4</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C18" s="51">
+        <v>4</v>
+      </c>
+      <c r="D18" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C19" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C20" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="147"/>
+      <c r="E20" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C21" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="145"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BO21"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="2.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" style="5" customWidth="1"/>
+    <col min="9" max="54" width="2.7109375" style="6" customWidth="1"/>
+    <col min="55" max="57" width="2.7109375" style="5" customWidth="1"/>
+    <col min="58" max="58" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.7109375" style="5" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="154"/>
+      <c r="D6" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="151"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="155"/>
+      <c r="D7" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="148"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="158"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="160"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="158"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="148"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="158"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="166"/>
+      <c r="D11" s="151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="165"/>
+      <c r="D12" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="164"/>
+      <c r="D13" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="152"/>
+      <c r="D15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+    </row>
+    <row r="17" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="D17" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG17" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH17" s="165"/>
+      <c r="BI17" s="165"/>
+      <c r="BJ17" s="165"/>
+      <c r="BK17" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL17" s="164"/>
+      <c r="BM17" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN17" s="152"/>
+      <c r="BO17" s="152"/>
+    </row>
+    <row r="18" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="C18" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6</v>
+      </c>
+      <c r="K18" s="10">
+        <v>7</v>
+      </c>
+      <c r="L18" s="10">
+        <v>8</v>
+      </c>
+      <c r="M18" s="10">
+        <v>9</v>
+      </c>
+      <c r="N18" s="10">
+        <v>10</v>
+      </c>
+      <c r="O18" s="10">
+        <v>11</v>
+      </c>
+      <c r="P18" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>13</v>
+      </c>
+      <c r="R18" s="10">
+        <v>14</v>
+      </c>
+      <c r="S18" s="10">
+        <v>15</v>
+      </c>
+      <c r="T18" s="10">
+        <v>16</v>
+      </c>
+      <c r="U18" s="10">
+        <v>17</v>
+      </c>
+      <c r="V18" s="10">
+        <v>18</v>
+      </c>
+      <c r="W18" s="10">
+        <v>19</v>
+      </c>
+      <c r="X18" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>27</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>29</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>32</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>33</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>34</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>35</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>36</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>37</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>38</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>39</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>40</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>41</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>42</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>43</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>44</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>45</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>46</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>47</v>
+      </c>
+      <c r="AZ18" s="10">
+        <v>48</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>49</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>50</v>
+      </c>
+      <c r="BC18" s="9">
+        <v>51</v>
+      </c>
+      <c r="BD18" s="9">
+        <v>52</v>
+      </c>
+      <c r="BE18" s="9">
+        <v>53</v>
+      </c>
+      <c r="BF18" s="9">
+        <v>54</v>
+      </c>
+      <c r="BG18" s="9">
+        <v>55</v>
+      </c>
+      <c r="BH18" s="9">
+        <v>56</v>
+      </c>
+      <c r="BI18" s="9">
+        <v>57</v>
+      </c>
+      <c r="BJ18" s="9">
+        <v>58</v>
+      </c>
+      <c r="BK18" s="9">
+        <v>59</v>
+      </c>
+      <c r="BL18" s="9">
+        <v>60</v>
+      </c>
+      <c r="BM18" s="9">
+        <v>61</v>
+      </c>
+      <c r="BN18" s="9">
+        <v>62</v>
+      </c>
+      <c r="BO18" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="I20" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="149"/>
+      <c r="AN20" s="149"/>
+      <c r="AO20" s="149"/>
+      <c r="AP20" s="149"/>
+      <c r="AQ20" s="149"/>
+      <c r="AR20" s="149"/>
+      <c r="AS20" s="149"/>
+      <c r="AT20" s="149"/>
+      <c r="AU20" s="149"/>
+      <c r="AV20" s="149"/>
+      <c r="AW20" s="149"/>
+      <c r="AX20" s="149"/>
+      <c r="AY20" s="149"/>
+      <c r="AZ20" s="149"/>
+      <c r="BA20" s="149"/>
+      <c r="BB20" s="149"/>
+      <c r="BC20" s="149"/>
+      <c r="BD20" s="149"/>
+      <c r="BE20" s="150"/>
+    </row>
+    <row r="21" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="I21" s="135">
+        <v>1</v>
+      </c>
+      <c r="J21" s="136">
+        <v>2</v>
+      </c>
+      <c r="K21" s="136">
+        <v>3</v>
+      </c>
+      <c r="L21" s="136">
+        <v>4</v>
+      </c>
+      <c r="M21" s="136">
+        <v>5</v>
+      </c>
+      <c r="N21" s="136">
+        <v>6</v>
+      </c>
+      <c r="O21" s="136">
+        <v>7</v>
+      </c>
+      <c r="P21" s="136">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="136">
+        <v>9</v>
+      </c>
+      <c r="R21" s="136">
+        <v>10</v>
+      </c>
+      <c r="S21" s="136">
+        <v>11</v>
+      </c>
+      <c r="T21" s="136">
+        <v>12</v>
+      </c>
+      <c r="U21" s="136">
+        <v>13</v>
+      </c>
+      <c r="V21" s="136">
+        <v>14</v>
+      </c>
+      <c r="W21" s="136">
+        <v>15</v>
+      </c>
+      <c r="X21" s="136">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="136">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="136">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="136">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="136">
+        <v>20</v>
+      </c>
+      <c r="AC21" s="136">
+        <v>21</v>
+      </c>
+      <c r="AD21" s="136">
+        <v>22</v>
+      </c>
+      <c r="AE21" s="136">
+        <v>23</v>
+      </c>
+      <c r="AF21" s="136">
+        <v>24</v>
+      </c>
+      <c r="AG21" s="136">
+        <v>25</v>
+      </c>
+      <c r="AH21" s="136">
+        <v>26</v>
+      </c>
+      <c r="AI21" s="136">
+        <v>27</v>
+      </c>
+      <c r="AJ21" s="136">
+        <v>28</v>
+      </c>
+      <c r="AK21" s="136">
+        <v>29</v>
+      </c>
+      <c r="AL21" s="136">
+        <v>30</v>
+      </c>
+      <c r="AM21" s="136">
+        <v>31</v>
+      </c>
+      <c r="AN21" s="136">
+        <v>32</v>
+      </c>
+      <c r="AO21" s="136">
+        <v>33</v>
+      </c>
+      <c r="AP21" s="136">
+        <v>34</v>
+      </c>
+      <c r="AQ21" s="136">
+        <v>35</v>
+      </c>
+      <c r="AR21" s="136">
+        <v>36</v>
+      </c>
+      <c r="AS21" s="136">
+        <v>37</v>
+      </c>
+      <c r="AT21" s="136">
+        <v>38</v>
+      </c>
+      <c r="AU21" s="136">
+        <v>39</v>
+      </c>
+      <c r="AV21" s="136">
+        <v>40</v>
+      </c>
+      <c r="AW21" s="136">
+        <v>41</v>
+      </c>
+      <c r="AX21" s="136">
+        <v>42</v>
+      </c>
+      <c r="AY21" s="136">
+        <v>43</v>
+      </c>
+      <c r="AZ21" s="136">
+        <v>44</v>
+      </c>
+      <c r="BA21" s="136">
+        <v>45</v>
+      </c>
+      <c r="BB21" s="136">
+        <v>46</v>
+      </c>
+      <c r="BC21" s="136">
+        <v>47</v>
+      </c>
+      <c r="BD21" s="136">
+        <v>48</v>
+      </c>
+      <c r="BE21" s="137">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="BK17:BL17"/>
+    <mergeCell ref="BM17:BO17"/>
+    <mergeCell ref="BG17:BJ17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:X10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:X14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:X15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:X11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:X12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="4" width="19.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="7" width="20.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="170"/>
+      <c r="E5" s="99"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="51">
+        <v>4</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="170"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>3</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="51">
+        <v>4</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>5</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>6</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>7</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="8" spans="2:4" s="76" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="4" width="11.85546875" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
+        <v>3</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>4</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="27">
+        <v>5</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="184" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="185"/>
+      <c r="H5" s="186"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="27">
+        <v>6</v>
+      </c>
+      <c r="C6" s="173"/>
+      <c r="D6" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="27">
+        <v>7</v>
+      </c>
+      <c r="C7" s="173"/>
+      <c r="D7" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>8</v>
+      </c>
+      <c r="C8" s="174"/>
+      <c r="D8" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
+        <v>9</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="176"/>
+      <c r="H9" s="177"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>10</v>
+      </c>
+      <c r="C10" s="182"/>
+      <c r="D10" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="175"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="27">
+        <v>11</v>
+      </c>
+      <c r="C11" s="182"/>
+      <c r="D11" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="177"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="27">
+        <v>12</v>
+      </c>
+      <c r="C12" s="183"/>
+      <c r="D12" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="175"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>13</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="111"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="177"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>14</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="180"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F9:H14"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="7" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="150"/>
+      <c r="D3" s="100"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="F7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="9">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="170"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="194"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="51">
+        <v>4</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="76"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="76"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="9">
+        <v>3</v>
+      </c>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="193"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="51">
+        <v>4</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="27">
+        <v>1</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="27">
+        <v>6</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>7</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="91"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="48"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="61"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="27">
+        <v>8</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="27">
+        <v>9</v>
+      </c>
+      <c r="C27" s="134"/>
+      <c r="D27" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="4" width="19.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="7" width="20.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="170"/>
+      <c r="E5" s="99"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="51">
+        <v>4</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="F10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="170"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>3</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="51">
+        <v>4</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>5</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>6</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>7</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="170"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>3</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="51">
+        <v>4</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="27">
+        <v>5</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="27">
+        <v>6</v>
+      </c>
+      <c r="C23" s="93"/>
+      <c r="D23" s="103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="27">
+        <v>7</v>
+      </c>
+      <c r="C24" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="27">
+        <v>8</v>
+      </c>
+      <c r="C25" s="197"/>
+      <c r="D25" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="170"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>3</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="51">
+        <v>4</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="27">
+        <v>5</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="27">
+        <v>6</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="27">
+        <v>7</v>
+      </c>
+      <c r="C32" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="27">
+        <v>8</v>
+      </c>
+      <c r="C33" s="196"/>
+      <c r="D33" s="118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="27">
+        <v>9</v>
+      </c>
+      <c r="C34" s="196"/>
+      <c r="D34" s="118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="27">
+        <v>10</v>
+      </c>
+      <c r="C35" s="197"/>
+      <c r="D35" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -1,35 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Documents/Dropbox/Mind Music Lab AB/GIT/sensei/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.minto\Dropbox\Mind Music Lab AB\GIT\sensei\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" tabRatio="804" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
     <sheet name="GET_PINS_CONFIGURATION" sheetId="20" r:id="rId2"/>
     <sheet name="GENERIC PACKET" sheetId="7" r:id="rId3"/>
-    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId4"/>
-    <sheet name="RESPONSE" sheetId="14" r:id="rId5"/>
-    <sheet name="ACK" sheetId="17" r:id="rId6"/>
-    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId7"/>
-    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId8"/>
-    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId9"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId10"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId11"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId12"/>
+    <sheet name="CMD_ENABLE_SENDING_PACKETS" sheetId="21" r:id="rId4"/>
+    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId5"/>
+    <sheet name="RESPONSE" sheetId="14" r:id="rId6"/>
+    <sheet name="ACK" sheetId="17" r:id="rId7"/>
+    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId8"/>
+    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId9"/>
+    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId10"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId11"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId12"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="188">
   <si>
     <t>CMD</t>
   </si>
@@ -590,6 +588,18 @@
   </si>
   <si>
     <t>CMD_IMU_STOP</t>
+  </si>
+  <si>
+    <t>PIN_VALUE</t>
+  </si>
+  <si>
+    <t>CMD_ENABLE_SENDING_PACKETS</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>Only pins/imu in those modalities</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1227,9 +1237,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,6 +1384,39 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,9 +1555,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,21 +1627,19 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1969,23 +2004,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="17">
         <v>0</v>
       </c>
@@ -2013,7 +2048,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -2024,7 +2059,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -2035,7 +2070,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <v>3</v>
       </c>
@@ -2046,435 +2081,453 @@
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
         <v>100</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C11" s="21">
         <v>0</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
-        <v>2</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21">
+        <v>2</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="21">
         <v>101</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="21">
-        <v>102</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="21">
+        <v>103</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="21">
-        <v>104</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21">
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="21">
+        <v>105</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="19">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
         <v>200</v>
-      </c>
-      <c r="C26" s="19">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="19">
-        <v>201</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="19">
-        <v>202</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C30" s="19">
         <v>0</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="19">
+        <v>204</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="19">
+        <v>206</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E35" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F35" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19">
-        <v>2</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19">
+        <v>4</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19">
+        <v>5</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F40" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="83"/>
       <c r="C41" s="83"/>
       <c r="D41" s="83"/>
       <c r="E41" s="83"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
       <c r="D42" s="83"/>
       <c r="E42" s="83"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="134">
-        <v>250</v>
-      </c>
-      <c r="C43" s="134">
-        <v>0</v>
-      </c>
-      <c r="D43" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="134"/>
-      <c r="F43" s="135"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
       <c r="D44" s="83"/>
       <c r="E44" s="83"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="109">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="133">
+        <v>250</v>
+      </c>
+      <c r="C45" s="133">
+        <v>0</v>
+      </c>
+      <c r="D45" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="133"/>
+      <c r="F45" s="134"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="108">
         <v>255</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109" t="s">
+      <c r="C48" s="108"/>
+      <c r="D48" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2484,43 +2537,180 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="3" max="4" width="19.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4"/>
+    <col min="6" max="7" width="20.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="157"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="26">
+        <v>7</v>
+      </c>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="158" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4"/>
-    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" style="4" customWidth="1"/>
     <col min="6" max="7" width="27" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="4"/>
+    <col min="8" max="8" width="2.6328125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="147" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="147"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="157"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -2534,7 +2724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -2554,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -2572,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>6</v>
       </c>
@@ -2590,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <v>7</v>
       </c>
@@ -2608,17 +2798,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="90" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="42"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -2631,7 +2821,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F12" s="14" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="75" t="s">
         <v>147</v>
       </c>
@@ -2654,12 +2844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="148" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
       <c r="F14" s="14" t="s">
         <v>55</v>
       </c>
@@ -2668,21 +2858,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F15" s="72"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="47"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="113"/>
+      <c r="D16" s="112"/>
       <c r="F16" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="47"/>
       <c r="C17" s="43"/>
       <c r="D17" s="47"/>
@@ -2696,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
@@ -2705,12 +2895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="144" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
       <c r="F19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2719,20 +2909,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="147" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="F21" s="91" t="s">
+      <c r="C21" s="157"/>
+      <c r="F21" s="90" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>3</v>
       </c>
@@ -2752,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -2770,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F24" s="14" t="s">
         <v>43</v>
       </c>
@@ -2779,7 +2969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="75" t="s">
         <v>147</v>
       </c>
@@ -2791,12 +2981,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="148" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="160"/>
       <c r="F26" s="14" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>3</v>
       </c>
@@ -2832,7 +3022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>4</v>
       </c>
@@ -2850,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
         <v>5</v>
       </c>
@@ -2860,7 +3050,7 @@
       <c r="D30" s="35"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>6</v>
       </c>
@@ -2873,7 +3063,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
         <v>7</v>
       </c>
@@ -2889,11 +3079,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <v>8</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="90" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="42"/>
@@ -2905,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="15">
         <v>9</v>
       </c>
@@ -2928,58 +3118,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="4"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="4"/>
-    <col min="6" max="6" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="2" width="8.6328125" style="4"/>
+    <col min="3" max="3" width="12.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="4"/>
+    <col min="6" max="6" width="37.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.6328125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="8.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="147" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="157"/>
       <c r="E4" s="72"/>
-      <c r="G4" s="191" t="s">
+      <c r="G4" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -2993,56 +3183,56 @@
       <c r="F5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="90">
         <v>1</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="90">
         <v>2</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="90">
         <v>3</v>
       </c>
-      <c r="J5" s="91">
+      <c r="J5" s="90">
         <v>4</v>
       </c>
-      <c r="K5" s="91">
+      <c r="K5" s="90">
         <v>5</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="90">
         <v>6</v>
       </c>
-      <c r="M5" s="91">
+      <c r="M5" s="90">
         <v>7</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="90">
         <v>8</v>
       </c>
-      <c r="O5" s="91">
+      <c r="O5" s="90">
         <v>9</v>
       </c>
-      <c r="P5" s="91">
+      <c r="P5" s="90">
         <v>10</v>
       </c>
-      <c r="Q5" s="91">
+      <c r="Q5" s="90">
         <v>11</v>
       </c>
-      <c r="R5" s="91">
+      <c r="R5" s="90">
         <v>12</v>
       </c>
-      <c r="S5" s="91">
+      <c r="S5" s="90">
         <v>13</v>
       </c>
-      <c r="T5" s="91">
+      <c r="T5" s="90">
         <v>14</v>
       </c>
-      <c r="U5" s="91">
+      <c r="U5" s="90">
         <v>15</v>
       </c>
-      <c r="V5" s="91">
+      <c r="V5" s="90">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -3105,7 +3295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F7" s="78" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +3334,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F8" s="78" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3373,7 @@
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F9" s="78" t="s">
         <v>32</v>
       </c>
@@ -3212,7 +3402,7 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>147</v>
       </c>
@@ -3242,7 +3432,7 @@
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="75"/>
       <c r="F11" s="78" t="s">
         <v>29</v>
@@ -3278,12 +3468,12 @@
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="148" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
       <c r="F12" s="49"/>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
@@ -3302,7 +3492,7 @@
       <c r="U12" s="72"/>
       <c r="V12" s="72"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="75"/>
       <c r="F13" s="49"/>
       <c r="G13" s="72"/>
@@ -3322,35 +3512,35 @@
       <c r="U13" s="72"/>
       <c r="V13" s="72"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="79" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="67">
         <v>0</v>
       </c>
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="92"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="D15" s="91"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="67">
         <v>1</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="93"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C16" s="205"/>
+      <c r="D16" s="92"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="67">
         <v>2</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="94"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C17" s="206"/>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -3361,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>4</v>
       </c>
@@ -3372,60 +3562,60 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>5</v>
       </c>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="207" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="C21" s="199"/>
+      <c r="C21" s="208"/>
       <c r="D21" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>7</v>
       </c>
-      <c r="C22" s="199"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>8</v>
       </c>
-      <c r="C23" s="199"/>
+      <c r="C23" s="208"/>
       <c r="D23" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>9</v>
       </c>
-      <c r="C24" s="198" t="s">
+      <c r="C24" s="207" t="s">
         <v>128</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="199"/>
+      <c r="C25" s="208"/>
       <c r="D25" s="60" t="s">
         <v>80</v>
       </c>
@@ -3447,87 +3637,87 @@
       <c r="U25" s="73"/>
       <c r="V25" s="73"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="199"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>12</v>
       </c>
-      <c r="C27" s="199"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>13</v>
       </c>
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="207" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>14</v>
       </c>
-      <c r="C29" s="199"/>
+      <c r="C29" s="208"/>
       <c r="D29" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
         <v>15</v>
       </c>
-      <c r="C30" s="199"/>
+      <c r="C30" s="208"/>
       <c r="D30" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>16</v>
       </c>
-      <c r="C31" s="199"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="207" t="s">
         <v>130</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <v>18</v>
       </c>
-      <c r="C33" s="199"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="199"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="60" t="s">
         <v>82</v>
       </c>
@@ -3549,11 +3739,11 @@
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
         <v>20</v>
       </c>
-      <c r="C35" s="199"/>
+      <c r="C35" s="208"/>
       <c r="D35" s="61" t="s">
         <v>81</v>
       </c>
@@ -3575,11 +3765,11 @@
       <c r="V35" s="72"/>
       <c r="W35" s="72"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="15">
         <v>21</v>
       </c>
-      <c r="C36" s="198" t="s">
+      <c r="C36" s="207" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="59" t="s">
@@ -3603,11 +3793,11 @@
       <c r="V36" s="72"/>
       <c r="W36" s="72"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
         <v>22</v>
       </c>
-      <c r="C37" s="199"/>
+      <c r="C37" s="208"/>
       <c r="D37" s="60" t="s">
         <v>80</v>
       </c>
@@ -3629,11 +3819,11 @@
       <c r="V37" s="72"/>
       <c r="W37" s="72"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="15">
         <v>23</v>
       </c>
-      <c r="C38" s="199"/>
+      <c r="C38" s="208"/>
       <c r="D38" s="60" t="s">
         <v>82</v>
       </c>
@@ -3651,11 +3841,11 @@
       <c r="V38" s="72"/>
       <c r="W38" s="72"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
         <v>24</v>
       </c>
-      <c r="C39" s="199"/>
+      <c r="C39" s="208"/>
       <c r="D39" s="61" t="s">
         <v>81</v>
       </c>
@@ -3673,11 +3863,11 @@
       <c r="V39" s="72"/>
       <c r="W39" s="72"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="15">
         <v>25</v>
       </c>
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="207" t="s">
         <v>136</v>
       </c>
       <c r="D40" s="59" t="s">
@@ -3697,11 +3887,11 @@
       <c r="V40" s="72"/>
       <c r="W40" s="72"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="15">
         <v>26</v>
       </c>
-      <c r="C41" s="199"/>
+      <c r="C41" s="208"/>
       <c r="D41" s="60" t="s">
         <v>80</v>
       </c>
@@ -3723,11 +3913,11 @@
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="15">
         <v>27</v>
       </c>
-      <c r="C42" s="199"/>
+      <c r="C42" s="208"/>
       <c r="D42" s="60" t="s">
         <v>82</v>
       </c>
@@ -3749,11 +3939,11 @@
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="15">
         <v>28</v>
       </c>
-      <c r="C43" s="199"/>
+      <c r="C43" s="208"/>
       <c r="D43" s="61" t="s">
         <v>81</v>
       </c>
@@ -3775,11 +3965,11 @@
       <c r="V43" s="72"/>
       <c r="W43" s="72"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="15">
         <v>29</v>
       </c>
-      <c r="C44" s="198" t="s">
+      <c r="C44" s="207" t="s">
         <v>137</v>
       </c>
       <c r="D44" s="59" t="s">
@@ -3803,231 +3993,231 @@
       <c r="V44" s="72"/>
       <c r="W44" s="72"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="15">
         <v>30</v>
       </c>
-      <c r="C45" s="199"/>
+      <c r="C45" s="208"/>
       <c r="D45" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="15">
         <v>31</v>
       </c>
-      <c r="C46" s="199"/>
+      <c r="C46" s="208"/>
       <c r="D46" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="15">
         <v>32</v>
       </c>
-      <c r="C47" s="199"/>
+      <c r="C47" s="208"/>
       <c r="D47" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="15">
         <v>33</v>
       </c>
-      <c r="C48" s="198" t="s">
+      <c r="C48" s="207" t="s">
         <v>138</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="15">
         <v>34</v>
       </c>
-      <c r="C49" s="199"/>
+      <c r="C49" s="208"/>
       <c r="D49" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="15">
         <v>35</v>
       </c>
-      <c r="C50" s="199"/>
+      <c r="C50" s="208"/>
       <c r="D50" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="15">
         <v>36</v>
       </c>
-      <c r="C51" s="199"/>
+      <c r="C51" s="208"/>
       <c r="D51" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="15">
         <v>37</v>
       </c>
-      <c r="C52" s="200" t="s">
+      <c r="C52" s="209" t="s">
         <v>139</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="15">
         <v>38</v>
       </c>
-      <c r="C53" s="201"/>
+      <c r="C53" s="210"/>
       <c r="D53" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="15">
         <v>39</v>
       </c>
-      <c r="C54" s="201"/>
+      <c r="C54" s="210"/>
       <c r="D54" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>40</v>
       </c>
-      <c r="C55" s="202"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="15">
         <v>41</v>
       </c>
-      <c r="C56" s="198" t="s">
+      <c r="C56" s="207" t="s">
         <v>140</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="15">
         <v>42</v>
       </c>
-      <c r="C57" s="199"/>
+      <c r="C57" s="208"/>
       <c r="D57" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="15">
         <v>43</v>
       </c>
-      <c r="C58" s="199"/>
+      <c r="C58" s="208"/>
       <c r="D58" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="15">
         <v>44</v>
       </c>
-      <c r="C59" s="199"/>
+      <c r="C59" s="208"/>
       <c r="D59" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="15">
         <v>45</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="207" t="s">
         <v>141</v>
       </c>
       <c r="D60" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="15">
         <v>46</v>
       </c>
-      <c r="C61" s="199"/>
+      <c r="C61" s="208"/>
       <c r="D61" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="15">
         <v>47</v>
       </c>
-      <c r="C62" s="199"/>
+      <c r="C62" s="208"/>
       <c r="D62" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="15">
         <v>48</v>
       </c>
-      <c r="C63" s="199"/>
+      <c r="C63" s="208"/>
       <c r="D63" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="15">
         <v>49</v>
       </c>
-      <c r="C64" s="198" t="s">
+      <c r="C64" s="207" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="15">
         <v>50</v>
       </c>
-      <c r="C65" s="199"/>
+      <c r="C65" s="208"/>
       <c r="D65" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="15">
         <v>51</v>
       </c>
-      <c r="C66" s="199"/>
+      <c r="C66" s="208"/>
       <c r="D66" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="15">
         <v>52</v>
       </c>
-      <c r="C67" s="199"/>
+      <c r="C67" s="208"/>
       <c r="D67" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="15">
         <v>53</v>
       </c>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="15">
         <v>54</v>
       </c>
@@ -4038,112 +4228,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="15">
         <v>55</v>
       </c>
-      <c r="C70" s="192" t="s">
+      <c r="C70" s="201" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="15">
         <v>56</v>
       </c>
-      <c r="C71" s="193"/>
+      <c r="C71" s="202"/>
       <c r="D71" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="15">
         <v>57</v>
       </c>
-      <c r="C72" s="193"/>
+      <c r="C72" s="202"/>
       <c r="D72" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="15">
         <v>58</v>
       </c>
-      <c r="C73" s="194"/>
+      <c r="C73" s="203"/>
       <c r="D73" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="15">
         <v>59</v>
       </c>
-      <c r="C74" s="203" t="s">
+      <c r="C74" s="212" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="65"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="15">
         <v>60</v>
       </c>
-      <c r="C75" s="204"/>
+      <c r="C75" s="213"/>
       <c r="D75" s="66"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="15">
         <v>61</v>
       </c>
-      <c r="C76" s="205" t="s">
+      <c r="C76" s="214" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="62"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="15">
         <v>62</v>
       </c>
-      <c r="C77" s="206"/>
+      <c r="C77" s="215"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="15">
         <v>63</v>
       </c>
-      <c r="C78" s="207"/>
+      <c r="C78" s="216"/>
       <c r="D78" s="64"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="79" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="67">
         <v>0</v>
       </c>
-      <c r="C83" s="195" t="s">
+      <c r="C83" s="204" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="62"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="67">
         <v>1</v>
       </c>
-      <c r="C84" s="196"/>
+      <c r="C84" s="205"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="67">
         <v>2</v>
       </c>
-      <c r="C85" s="197"/>
+      <c r="C85" s="206"/>
       <c r="D85" s="64"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="15">
         <v>3</v>
       </c>
@@ -4154,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="15">
         <v>4</v>
       </c>
@@ -4165,390 +4355,390 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="15">
         <v>5</v>
       </c>
-      <c r="C88" s="198" t="s">
+      <c r="C88" s="207" t="s">
         <v>143</v>
       </c>
       <c r="D88" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="15">
         <v>6</v>
       </c>
-      <c r="C89" s="199"/>
+      <c r="C89" s="208"/>
       <c r="D89" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="15">
         <v>7</v>
       </c>
-      <c r="C90" s="199"/>
+      <c r="C90" s="208"/>
       <c r="D90" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="15">
         <v>8</v>
       </c>
-      <c r="C91" s="199"/>
+      <c r="C91" s="208"/>
       <c r="D91" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="15">
         <v>9</v>
       </c>
-      <c r="C92" s="198" t="s">
+      <c r="C92" s="207" t="s">
         <v>144</v>
       </c>
       <c r="D92" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="15">
         <v>10</v>
       </c>
-      <c r="C93" s="199"/>
+      <c r="C93" s="208"/>
       <c r="D93" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="15">
         <v>11</v>
       </c>
-      <c r="C94" s="199"/>
+      <c r="C94" s="208"/>
       <c r="D94" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="15">
         <v>12</v>
       </c>
-      <c r="C95" s="199"/>
+      <c r="C95" s="208"/>
       <c r="D95" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="15">
         <v>13</v>
       </c>
-      <c r="C96" s="198" t="s">
+      <c r="C96" s="207" t="s">
         <v>145</v>
       </c>
       <c r="D96" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="15">
         <v>14</v>
       </c>
-      <c r="C97" s="199"/>
+      <c r="C97" s="208"/>
       <c r="D97" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="15">
         <v>15</v>
       </c>
-      <c r="C98" s="199"/>
+      <c r="C98" s="208"/>
       <c r="D98" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="15">
         <v>16</v>
       </c>
-      <c r="C99" s="199"/>
+      <c r="C99" s="208"/>
       <c r="D99" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="15">
         <v>17</v>
       </c>
-      <c r="C100" s="198" t="s">
+      <c r="C100" s="207" t="s">
         <v>146</v>
       </c>
       <c r="D100" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="15">
         <v>18</v>
       </c>
-      <c r="C101" s="199"/>
+      <c r="C101" s="208"/>
       <c r="D101" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="15">
         <v>19</v>
       </c>
-      <c r="C102" s="199"/>
+      <c r="C102" s="208"/>
       <c r="D102" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="15">
         <v>20</v>
       </c>
-      <c r="C103" s="199"/>
+      <c r="C103" s="208"/>
       <c r="D103" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="15">
         <v>21</v>
       </c>
       <c r="C104" s="71"/>
       <c r="D104" s="70"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="15">
         <v>22</v>
       </c>
       <c r="C105" s="71"/>
       <c r="D105" s="70"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="15">
         <v>23</v>
       </c>
       <c r="C106" s="71"/>
       <c r="D106" s="70"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="15">
         <v>24</v>
       </c>
       <c r="C107" s="71"/>
       <c r="D107" s="70"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="15">
         <v>25</v>
       </c>
       <c r="C108" s="71"/>
       <c r="D108" s="70"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="15">
         <v>26</v>
       </c>
       <c r="C109" s="71"/>
       <c r="D109" s="70"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="15">
         <v>27</v>
       </c>
       <c r="C110" s="71"/>
       <c r="D110" s="70"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="15">
         <v>28</v>
       </c>
       <c r="C111" s="71"/>
       <c r="D111" s="70"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="15">
         <v>29</v>
       </c>
       <c r="C112" s="71"/>
       <c r="D112" s="70"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="15">
         <v>30</v>
       </c>
       <c r="C113" s="71"/>
       <c r="D113" s="70"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="15">
         <v>31</v>
       </c>
       <c r="C114" s="71"/>
       <c r="D114" s="70"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="15">
         <v>32</v>
       </c>
       <c r="C115" s="71"/>
       <c r="D115" s="70"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="15">
         <v>33</v>
       </c>
       <c r="C116" s="71"/>
       <c r="D116" s="70"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="15">
         <v>34</v>
       </c>
       <c r="C117" s="71"/>
       <c r="D117" s="70"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="15">
         <v>35</v>
       </c>
       <c r="C118" s="71"/>
       <c r="D118" s="70"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="15">
         <v>36</v>
       </c>
       <c r="C119" s="71"/>
       <c r="D119" s="70"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="15">
         <v>37</v>
       </c>
       <c r="C120" s="71"/>
       <c r="D120" s="70"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="15">
         <v>38</v>
       </c>
       <c r="C121" s="71"/>
       <c r="D121" s="70"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="15">
         <v>39</v>
       </c>
       <c r="C122" s="71"/>
       <c r="D122" s="70"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="15">
         <v>40</v>
       </c>
       <c r="C123" s="71"/>
       <c r="D123" s="70"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="15">
         <v>41</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="15">
         <v>42</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="15">
         <v>43</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="15">
         <v>44</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="15">
         <v>45</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="15">
         <v>46</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="15">
         <v>47</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="15">
         <v>48</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="15">
         <v>49</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="15">
         <v>50</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="15">
         <v>51</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="15">
         <v>52</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="15">
         <v>53</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="15">
         <v>54</v>
       </c>
@@ -4559,81 +4749,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="15">
         <v>55</v>
       </c>
-      <c r="C138" s="192" t="s">
+      <c r="C138" s="201" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="15">
         <v>56</v>
       </c>
-      <c r="C139" s="193"/>
+      <c r="C139" s="202"/>
       <c r="D139" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="15">
         <v>57</v>
       </c>
-      <c r="C140" s="193"/>
+      <c r="C140" s="202"/>
       <c r="D140" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="15">
         <v>58</v>
       </c>
-      <c r="C141" s="194"/>
+      <c r="C141" s="203"/>
       <c r="D141" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="15">
         <v>59</v>
       </c>
-      <c r="C142" s="203" t="s">
+      <c r="C142" s="212" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="65"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="15">
         <v>60</v>
       </c>
-      <c r="C143" s="204"/>
+      <c r="C143" s="213"/>
       <c r="D143" s="66"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="15">
         <v>61</v>
       </c>
-      <c r="C144" s="205" t="s">
+      <c r="C144" s="214" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="62"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="15">
         <v>62</v>
       </c>
-      <c r="C145" s="206"/>
+      <c r="C145" s="215"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="15">
         <v>63</v>
       </c>
-      <c r="C146" s="207"/>
+      <c r="C146" s="216"/>
       <c r="D146" s="64"/>
     </row>
   </sheetData>
@@ -4671,34 +4861,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="6.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="4"/>
-    <col min="7" max="8" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="32.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" style="4"/>
+    <col min="7" max="8" width="30.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -4712,7 +4902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -4730,17 +4920,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="222" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="126" t="s">
         <v>167</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -4751,11 +4941,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="214"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="29" t="s">
         <v>80</v>
       </c>
@@ -4767,7 +4957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G9" s="14" t="s">
         <v>102</v>
       </c>
@@ -4776,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>3</v>
       </c>
@@ -4790,7 +4980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <v>4</v>
       </c>
@@ -4810,17 +5000,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="26">
         <v>5</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="222" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="126" t="s">
         <v>167</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -4833,11 +5023,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="26">
         <v>6</v>
       </c>
-      <c r="C14" s="214"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="29" t="s">
         <v>80</v>
       </c>
@@ -4851,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="26">
         <v>7</v>
       </c>
@@ -4872,17 +5062,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
         <v>8</v>
       </c>
-      <c r="C16" s="208" t="s">
+      <c r="C16" s="217" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="126" t="s">
         <v>167</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -4895,19 +5085,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="26">
         <v>9</v>
       </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="126" t="s">
+      <c r="C17" s="218"/>
+      <c r="D17" s="125" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="37"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -4918,7 +5108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>4</v>
       </c>
@@ -4928,31 +5118,31 @@
       <c r="D21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="210" t="s">
+      <c r="G21" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H21" s="220"/>
+      <c r="I21" s="221"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C22" s="213" t="s">
+      <c r="C22" s="222" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="127" t="s">
+      <c r="E22" s="126" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>6</v>
       </c>
-      <c r="C23" s="214"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="29" t="s">
         <v>80</v>
       </c>
@@ -4960,7 +5150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>7</v>
       </c>
@@ -4979,17 +5169,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>8</v>
       </c>
-      <c r="C25" s="208" t="s">
+      <c r="C25" s="217" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="126" t="s">
         <v>167</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -5000,12 +5190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
         <v>9</v>
       </c>
-      <c r="C26" s="209"/>
-      <c r="D26" s="126" t="s">
+      <c r="C26" s="218"/>
+      <c r="D26" s="125" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -5016,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>10</v>
       </c>
@@ -5032,22 +5222,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>11</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="113" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>12</v>
       </c>
-      <c r="C29" s="115"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="53" t="s">
         <v>80</v>
       </c>
@@ -5055,11 +5245,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
         <v>13</v>
       </c>
-      <c r="C30" s="115"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="53" t="s">
         <v>82</v>
       </c>
@@ -5071,11 +5261,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>14</v>
       </c>
-      <c r="C31" s="116"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="54" t="s">
         <v>81</v>
       </c>
@@ -5087,18 +5277,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
         <v>15</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="132" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <v>16</v>
       </c>
@@ -5107,23 +5297,23 @@
       </c>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="15">
         <v>17</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
         <v>18</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="120" t="s">
+      <c r="C35" s="117"/>
+      <c r="D35" s="119" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5151,44 +5341,44 @@
       <selection activeCell="D19" sqref="D19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="144" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="147" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="95"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="135" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -5196,11 +5386,11 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="50">
         <v>4</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="136" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="40" t="s">
@@ -5208,25 +5398,25 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="75" t="s">
         <v>147</v>
       </c>
@@ -5234,70 +5424,70 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="148" t="s">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C17" s="15">
         <v>3</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="135" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C18" s="50">
         <v>4</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C19" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="138" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C20" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="140"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C21" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="138"/>
+      <c r="E21" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5317,441 +5507,441 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
-    <col min="4" max="6" width="2.6640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" style="5" customWidth="1"/>
-    <col min="9" max="54" width="2.6640625" style="6" customWidth="1"/>
-    <col min="55" max="57" width="2.6640625" style="5" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.6640625" style="5" customWidth="1"/>
-    <col min="68" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="2.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.6328125" style="5" customWidth="1"/>
+    <col min="9" max="54" width="2.6328125" style="6" customWidth="1"/>
+    <col min="55" max="57" width="2.6328125" style="5" customWidth="1"/>
+    <col min="58" max="58" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.6328125" style="5" customWidth="1"/>
+    <col min="68" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="161" t="s">
+      <c r="C4" s="164"/>
+      <c r="D4" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="163" t="s">
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="161" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="164" t="s">
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="161" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="144"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="159"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="165" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="154"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="169"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="159"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="144"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="159"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="162" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="169"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="154"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="169"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="161" t="s">
+      <c r="C11" s="172"/>
+      <c r="D11" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="156" t="s">
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="161" t="s">
+      <c r="C12" s="166"/>
+      <c r="D12" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="155" t="s">
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="161" t="s">
+      <c r="C13" s="165"/>
+      <c r="D13" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="154" t="s">
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-    </row>
-    <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="154" t="s">
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+    </row>
+    <row r="17" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="D17" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="85" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="90"/>
+      <c r="BA17" s="90"/>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="90"/>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="90"/>
       <c r="BF17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="156" t="s">
+      <c r="BG17" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="156"/>
-      <c r="BI17" s="156"/>
-      <c r="BJ17" s="156"/>
-      <c r="BK17" s="155" t="s">
+      <c r="BH17" s="166"/>
+      <c r="BI17" s="166"/>
+      <c r="BJ17" s="166"/>
+      <c r="BK17" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="155"/>
-      <c r="BM17" s="154" t="s">
+      <c r="BL17" s="165"/>
+      <c r="BM17" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="154"/>
-      <c r="BO17" s="154"/>
-    </row>
-    <row r="18" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C18" s="97" t="s">
+      <c r="BN17" s="164"/>
+      <c r="BO17" s="164"/>
+    </row>
+    <row r="18" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="C18" s="96" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="8">
@@ -5947,205 +6137,205 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="144" t="s">
+    <row r="20" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="I20" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="145"/>
-      <c r="AN20" s="145"/>
-      <c r="AO20" s="145"/>
-      <c r="AP20" s="145"/>
-      <c r="AQ20" s="145"/>
-      <c r="AR20" s="145"/>
-      <c r="AS20" s="145"/>
-      <c r="AT20" s="145"/>
-      <c r="AU20" s="145"/>
-      <c r="AV20" s="145"/>
-      <c r="AW20" s="145"/>
-      <c r="AX20" s="145"/>
-      <c r="AY20" s="145"/>
-      <c r="AZ20" s="145"/>
-      <c r="BA20" s="145"/>
-      <c r="BB20" s="145"/>
-      <c r="BC20" s="145"/>
-      <c r="BD20" s="145"/>
-      <c r="BE20" s="146"/>
-    </row>
-    <row r="21" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I21" s="128">
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="155"/>
+      <c r="AG20" s="155"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="155"/>
+      <c r="AL20" s="155"/>
+      <c r="AM20" s="155"/>
+      <c r="AN20" s="155"/>
+      <c r="AO20" s="155"/>
+      <c r="AP20" s="155"/>
+      <c r="AQ20" s="155"/>
+      <c r="AR20" s="155"/>
+      <c r="AS20" s="155"/>
+      <c r="AT20" s="155"/>
+      <c r="AU20" s="155"/>
+      <c r="AV20" s="155"/>
+      <c r="AW20" s="155"/>
+      <c r="AX20" s="155"/>
+      <c r="AY20" s="155"/>
+      <c r="AZ20" s="155"/>
+      <c r="BA20" s="155"/>
+      <c r="BB20" s="155"/>
+      <c r="BC20" s="155"/>
+      <c r="BD20" s="155"/>
+      <c r="BE20" s="156"/>
+    </row>
+    <row r="21" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="I21" s="127">
         <v>1</v>
       </c>
-      <c r="J21" s="129">
+      <c r="J21" s="128">
         <v>2</v>
       </c>
-      <c r="K21" s="129">
+      <c r="K21" s="128">
         <v>3</v>
       </c>
-      <c r="L21" s="129">
+      <c r="L21" s="128">
         <v>4</v>
       </c>
-      <c r="M21" s="129">
+      <c r="M21" s="128">
         <v>5</v>
       </c>
-      <c r="N21" s="129">
+      <c r="N21" s="128">
         <v>6</v>
       </c>
-      <c r="O21" s="129">
+      <c r="O21" s="128">
         <v>7</v>
       </c>
-      <c r="P21" s="129">
+      <c r="P21" s="128">
         <v>8</v>
       </c>
-      <c r="Q21" s="129">
+      <c r="Q21" s="128">
         <v>9</v>
       </c>
-      <c r="R21" s="129">
+      <c r="R21" s="128">
         <v>10</v>
       </c>
-      <c r="S21" s="129">
+      <c r="S21" s="128">
         <v>11</v>
       </c>
-      <c r="T21" s="129">
+      <c r="T21" s="128">
         <v>12</v>
       </c>
-      <c r="U21" s="129">
+      <c r="U21" s="128">
         <v>13</v>
       </c>
-      <c r="V21" s="129">
+      <c r="V21" s="128">
         <v>14</v>
       </c>
-      <c r="W21" s="129">
+      <c r="W21" s="128">
         <v>15</v>
       </c>
-      <c r="X21" s="129">
+      <c r="X21" s="128">
         <v>16</v>
       </c>
-      <c r="Y21" s="129">
+      <c r="Y21" s="128">
         <v>17</v>
       </c>
-      <c r="Z21" s="129">
+      <c r="Z21" s="128">
         <v>18</v>
       </c>
-      <c r="AA21" s="129">
+      <c r="AA21" s="128">
         <v>19</v>
       </c>
-      <c r="AB21" s="129">
+      <c r="AB21" s="128">
         <v>20</v>
       </c>
-      <c r="AC21" s="129">
+      <c r="AC21" s="128">
         <v>21</v>
       </c>
-      <c r="AD21" s="129">
+      <c r="AD21" s="128">
         <v>22</v>
       </c>
-      <c r="AE21" s="129">
+      <c r="AE21" s="128">
         <v>23</v>
       </c>
-      <c r="AF21" s="129">
+      <c r="AF21" s="128">
         <v>24</v>
       </c>
-      <c r="AG21" s="129">
+      <c r="AG21" s="128">
         <v>25</v>
       </c>
-      <c r="AH21" s="129">
+      <c r="AH21" s="128">
         <v>26</v>
       </c>
-      <c r="AI21" s="129">
+      <c r="AI21" s="128">
         <v>27</v>
       </c>
-      <c r="AJ21" s="129">
+      <c r="AJ21" s="128">
         <v>28</v>
       </c>
-      <c r="AK21" s="129">
+      <c r="AK21" s="128">
         <v>29</v>
       </c>
-      <c r="AL21" s="129">
+      <c r="AL21" s="128">
         <v>30</v>
       </c>
-      <c r="AM21" s="129">
+      <c r="AM21" s="128">
         <v>31</v>
       </c>
-      <c r="AN21" s="129">
+      <c r="AN21" s="128">
         <v>32</v>
       </c>
-      <c r="AO21" s="129">
+      <c r="AO21" s="128">
         <v>33</v>
       </c>
-      <c r="AP21" s="129">
+      <c r="AP21" s="128">
         <v>34</v>
       </c>
-      <c r="AQ21" s="129">
+      <c r="AQ21" s="128">
         <v>35</v>
       </c>
-      <c r="AR21" s="129">
+      <c r="AR21" s="128">
         <v>36</v>
       </c>
-      <c r="AS21" s="129">
+      <c r="AS21" s="128">
         <v>37</v>
       </c>
-      <c r="AT21" s="129">
+      <c r="AT21" s="128">
         <v>38</v>
       </c>
-      <c r="AU21" s="129">
+      <c r="AU21" s="128">
         <v>39</v>
       </c>
-      <c r="AV21" s="129">
+      <c r="AV21" s="128">
         <v>40</v>
       </c>
-      <c r="AW21" s="129">
+      <c r="AW21" s="128">
         <v>41</v>
       </c>
-      <c r="AX21" s="129">
+      <c r="AX21" s="128">
         <v>42</v>
       </c>
-      <c r="AY21" s="129">
+      <c r="AY21" s="128">
         <v>43</v>
       </c>
-      <c r="AZ21" s="129">
+      <c r="AZ21" s="128">
         <v>44</v>
       </c>
-      <c r="BA21" s="129">
+      <c r="BA21" s="128">
         <v>45</v>
       </c>
-      <c r="BB21" s="129">
+      <c r="BB21" s="128">
         <v>46</v>
       </c>
-      <c r="BC21" s="129">
+      <c r="BC21" s="128">
         <v>47</v>
       </c>
-      <c r="BD21" s="129">
+      <c r="BD21" s="128">
         <v>48</v>
       </c>
-      <c r="BE21" s="130">
+      <c r="BE21" s="129">
         <v>49</v>
       </c>
     </row>
@@ -6189,57 +6379,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="3" max="3" width="19.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="F2" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="157"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="26">
+        <v>7</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="G8" s="226" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="227"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="228" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="224" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="158" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="3" max="4" width="19.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4"/>
+    <col min="6" max="7" width="20.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="147" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="E5" s="95"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="157"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="120" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="121" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="50">
         <v>4</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="121" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -6253,11 +6565,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -6271,11 +6583,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
@@ -6283,86 +6595,86 @@
       <c r="G9" s="49"/>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="110"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="147" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="147"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="157"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <v>3</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="120" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="50">
         <v>4</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="121" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26">
         <v>5</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="122" t="s">
         <v>170</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
         <v>6</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="26">
         <v>7</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="111"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="110"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="148" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6375,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -6383,22 +6695,22 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="3" max="3" width="13.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="167" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -6409,27 +6721,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>4</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="48"/>
     </row>
-    <row r="8" spans="2:4" s="73" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:4" s="73" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -6438,7 +6750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
@@ -6446,16 +6758,16 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="4" width="11.83203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="14.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="4" width="11.81640625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.81640625" style="4"/>
+    <col min="8" max="8" width="14.81640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
         <v>3</v>
       </c>
@@ -6466,7 +6778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="15">
         <v>4</v>
       </c>
@@ -6477,139 +6789,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
         <v>5</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="190" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
         <v>6</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="100" t="s">
+      <c r="C6" s="179"/>
+      <c r="D6" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="185"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>7</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="100" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="183" t="s">
+      <c r="F7" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
         <v>8</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="101" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
         <v>9</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="171" t="s">
+      <c r="F9" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="172"/>
-      <c r="H9" s="173"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="182"/>
+      <c r="H9" s="183"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
         <v>10</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="181"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="183"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
         <v>11</v>
       </c>
-      <c r="C11" s="178"/>
-      <c r="D11" s="103" t="s">
+      <c r="C11" s="188"/>
+      <c r="D11" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="181"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="183"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
         <v>12</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="104" t="s">
+      <c r="C12" s="189"/>
+      <c r="D12" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="181"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="183"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26">
         <v>13</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D13" s="105"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="183"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26">
         <v>14</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
+      <c r="D14" s="107"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6625,7 +6937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
@@ -6633,25 +6945,25 @@
       <selection activeCell="F7" sqref="F7:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="3" max="3" width="17.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4"/>
+    <col min="6" max="7" width="30.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="144" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="156"/>
+      <c r="D3" s="95"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -6666,7 +6978,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -6684,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>5</v>
       </c>
@@ -6702,11 +7014,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="141" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -6720,11 +7032,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="143"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
@@ -6736,11 +7048,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="141" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -6754,11 +7066,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="29" t="s">
         <v>80</v>
       </c>
@@ -6770,7 +7082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="47"/>
       <c r="F12" s="14" t="s">
         <v>120</v>
@@ -6778,7 +7090,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="47"/>
       <c r="F13" s="14" t="s">
         <v>113</v>
@@ -6788,7 +7100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="47"/>
       <c r="F14" s="14" t="s">
         <v>120</v>
@@ -6796,7 +7108,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="47"/>
       <c r="F15" s="14" t="s">
         <v>114</v>
@@ -6806,14 +7118,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" s="14" t="s">
         <v>116</v>
       </c>
@@ -6822,14 +7134,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" s="14" t="s">
         <v>117</v>
       </c>
@@ -6838,14 +7150,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" s="14" t="s">
         <v>118</v>
       </c>
@@ -6862,40 +7174,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD30"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.81640625" style="4"/>
     <col min="3" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="147" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="157"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -6905,14 +7213,8 @@
       <c r="D6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="190" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -6922,86 +7224,46 @@
       <c r="D7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="88" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8">
-        <v>2</v>
-      </c>
-      <c r="I9" s="73"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8">
-        <v>3</v>
-      </c>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="189" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="189"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="148" t="s">
+      <c r="C13" s="199"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="15">
         <v>3</v>
       </c>
@@ -7012,7 +7274,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="50">
         <v>4</v>
       </c>
@@ -7023,184 +7285,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
         <v>6</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>7</v>
       </c>
-      <c r="C20" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="88"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="47"/>
+      <c r="C20" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>8</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="147" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="E5" s="95"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
-        <v>4</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="26">
-        <v>7</v>
-      </c>
-      <c r="C10" s="215" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="216" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="26">
-        <v>7</v>
-      </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="218" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="148" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.minto\Dropbox\Mind Music Lab AB\GIT\sensei\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Documents/Dropbox/Mind Music Lab AB/GIT/sensei/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" tabRatio="804"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" tabRatio="804" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
     <sheet name="GET_PINS_CONFIGURATION" sheetId="20" r:id="rId2"/>
     <sheet name="GENERIC PACKET" sheetId="7" r:id="rId3"/>
-    <sheet name="CMD_ENABLE_SENDING_PACKETS" sheetId="21" r:id="rId4"/>
-    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId5"/>
-    <sheet name="RESPONSE" sheetId="14" r:id="rId6"/>
-    <sheet name="ACK" sheetId="17" r:id="rId7"/>
-    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId8"/>
-    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId9"/>
-    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId10"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId11"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId12"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId13"/>
+    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId4"/>
+    <sheet name="RESPONSE" sheetId="14" r:id="rId5"/>
+    <sheet name="ACK" sheetId="17" r:id="rId6"/>
+    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId7"/>
+    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId8"/>
+    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId9"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId10"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId11"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
   <si>
     <t>CMD</t>
   </si>
@@ -362,9 +364,6 @@
     <t>SLIDER_MODE_DISABLE</t>
   </si>
   <si>
-    <t>SAMPLING_RATE</t>
-  </si>
-  <si>
     <t>SAMPLING_RATE_1000_HZ</t>
   </si>
   <si>
@@ -593,13 +592,10 @@
     <t>PIN_VALUE</t>
   </si>
   <si>
-    <t>CMD_ENABLE_SENDING_PACKETS</t>
-  </si>
-  <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
-    <t>Only pins/imu in those modalities</t>
+    <t>GET_SINGLE_PIN</t>
+  </si>
+  <si>
+    <t>TICKS_DELAY_RT_TASK</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1408,69 +1404,63 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,6 +1545,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1627,19 +1620,9 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2004,23 +1987,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F48"/>
+  <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2037,18 +2020,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="17">
         <v>0</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -2059,475 +2042,457 @@
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>3</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="21">
         <v>100</v>
       </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="21"/>
       <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="21"/>
       <c r="C12" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21">
-        <v>2</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="21">
+        <v>101</v>
+      </c>
       <c r="C14" s="21">
-        <v>3</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="140"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="21">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="21">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
-        <v>103</v>
-      </c>
-      <c r="C20" s="21">
+    <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="21">
+        <v>104</v>
+      </c>
+      <c r="C21" s="21">
         <v>0</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="E21" s="21" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="21">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
-        <v>105</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="19">
+        <v>200</v>
+      </c>
+      <c r="C26" s="19">
         <v>0</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="19">
+        <v>201</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="19">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="19">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="19">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" s="19">
         <v>0</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="19">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="19">
-        <v>204</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="19">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19">
-        <v>206</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="19"/>
       <c r="C35" s="19">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="19" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19">
-        <v>4</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19">
-        <v>5</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="83"/>
       <c r="C41" s="83"/>
       <c r="D41" s="83"/>
       <c r="E41" s="83"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
       <c r="D42" s="83"/>
       <c r="E42" s="83"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="133">
+        <v>250</v>
+      </c>
+      <c r="C43" s="133">
+        <v>0</v>
+      </c>
+      <c r="D43" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="133"/>
+      <c r="F43" s="134"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
       <c r="D44" s="83"/>
       <c r="E44" s="83"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="133">
-        <v>250</v>
-      </c>
-      <c r="C45" s="133">
-        <v>0</v>
-      </c>
-      <c r="D45" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="133"/>
-      <c r="F45" s="134"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="108">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="108">
         <v>255</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="108"/>
-      <c r="F48" s="109"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="108"/>
+      <c r="F46" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,180 +2502,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
-    <col min="3" max="4" width="19.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4"/>
-    <col min="6" max="7" width="20.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="157"/>
-      <c r="E5" s="94"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="50">
-        <v>4</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
-        <v>7</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
-        <v>7</v>
-      </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
     <col min="6" max="7" width="27" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="2.6640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="157"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="155"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -2724,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -2744,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -2762,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <v>6</v>
       </c>
@@ -2780,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
         <v>7</v>
       </c>
@@ -2798,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <v>8</v>
       </c>
@@ -2808,7 +2636,7 @@
       <c r="D10" s="42"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -2821,7 +2649,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F12" s="14" t="s">
         <v>53</v>
       </c>
@@ -2832,9 +2660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>54</v>
@@ -2844,12 +2672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
       <c r="F14" s="14" t="s">
         <v>55</v>
       </c>
@@ -2858,12 +2686,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F15" s="72"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="47"/>
       <c r="C16" s="43"/>
       <c r="D16" s="112"/>
@@ -2872,7 +2700,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="47"/>
       <c r="C17" s="43"/>
       <c r="D17" s="47"/>
@@ -2886,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
@@ -2895,12 +2723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="154" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
       <c r="F19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2909,20 +2737,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="157"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="155"/>
       <c r="F21" s="90" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>3</v>
       </c>
@@ -2942,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -2960,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F24" s="14" t="s">
         <v>43</v>
       </c>
@@ -2969,9 +2797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>44</v>
@@ -2981,12 +2809,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="160"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="157"/>
+      <c r="D26" s="158"/>
       <c r="F26" s="14" t="s">
         <v>45</v>
       </c>
@@ -2995,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
@@ -3004,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <v>3</v>
       </c>
@@ -3022,7 +2850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <v>4</v>
       </c>
@@ -3040,7 +2868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>5</v>
       </c>
@@ -3050,7 +2878,7 @@
       <c r="D30" s="35"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
         <v>6</v>
       </c>
@@ -3063,7 +2891,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="15">
         <v>7</v>
       </c>
@@ -3079,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="15">
         <v>8</v>
       </c>
@@ -3095,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="15">
         <v>9</v>
       </c>
@@ -3118,58 +2946,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W146"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.6328125" style="4"/>
-    <col min="3" max="3" width="12.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="4"/>
-    <col min="6" max="6" width="37.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.6328125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="8.6328125" style="4"/>
+    <col min="1" max="2" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="4"/>
+    <col min="6" max="6" width="37.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.6640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="157"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B2" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B4" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="155"/>
       <c r="E4" s="72"/>
-      <c r="G4" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G4" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -3232,7 +3060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -3240,91 +3068,91 @@
         <v>10</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="K6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
       <c r="F7" s="78" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -3334,36 +3162,36 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
       <c r="F8" s="78" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -3373,21 +3201,21 @@
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="F9" s="78" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3402,21 +3230,21 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B10" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -3432,31 +3260,31 @@
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B11" s="75"/>
       <c r="F11" s="78" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="K11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -3468,12 +3296,12 @@
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B12" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
       <c r="F12" s="49"/>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
@@ -3492,7 +3320,7 @@
       <c r="U12" s="72"/>
       <c r="V12" s="72"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B13" s="75"/>
       <c r="F13" s="49"/>
       <c r="G13" s="72"/>
@@ -3512,35 +3340,35 @@
       <c r="U13" s="72"/>
       <c r="V13" s="72"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B14" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B15" s="67">
         <v>0</v>
       </c>
-      <c r="C15" s="204" t="s">
+      <c r="C15" s="203" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="91"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B16" s="67">
         <v>1</v>
       </c>
-      <c r="C16" s="205"/>
+      <c r="C16" s="204"/>
       <c r="D16" s="92"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="67">
         <v>2</v>
       </c>
-      <c r="C17" s="206"/>
+      <c r="C17" s="205"/>
       <c r="D17" s="93"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -3551,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>4</v>
       </c>
@@ -3559,63 +3387,63 @@
         <v>10</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>5</v>
       </c>
-      <c r="C20" s="207" t="s">
-        <v>127</v>
+      <c r="C20" s="206" t="s">
+        <v>126</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="C21" s="208"/>
+      <c r="C21" s="207"/>
       <c r="D21" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>7</v>
       </c>
-      <c r="C22" s="208"/>
+      <c r="C22" s="207"/>
       <c r="D22" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>8</v>
       </c>
-      <c r="C23" s="208"/>
+      <c r="C23" s="207"/>
       <c r="D23" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>9</v>
       </c>
-      <c r="C24" s="207" t="s">
-        <v>128</v>
+      <c r="C24" s="206" t="s">
+        <v>127</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="208"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="60" t="s">
         <v>80</v>
       </c>
@@ -3637,87 +3465,87 @@
       <c r="U25" s="73"/>
       <c r="V25" s="73"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="208"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>12</v>
       </c>
-      <c r="C27" s="208"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <v>13</v>
       </c>
-      <c r="C28" s="207" t="s">
-        <v>129</v>
+      <c r="C28" s="206" t="s">
+        <v>128</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <v>14</v>
       </c>
-      <c r="C29" s="208"/>
+      <c r="C29" s="207"/>
       <c r="D29" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>15</v>
       </c>
-      <c r="C30" s="208"/>
+      <c r="C30" s="207"/>
       <c r="D30" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
         <v>16</v>
       </c>
-      <c r="C31" s="208"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="207" t="s">
-        <v>130</v>
+      <c r="C32" s="206" t="s">
+        <v>129</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="15">
         <v>18</v>
       </c>
-      <c r="C33" s="208"/>
+      <c r="C33" s="207"/>
       <c r="D33" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="208"/>
+      <c r="C34" s="207"/>
       <c r="D34" s="60" t="s">
         <v>82</v>
       </c>
@@ -3739,11 +3567,11 @@
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="15">
         <v>20</v>
       </c>
-      <c r="C35" s="208"/>
+      <c r="C35" s="207"/>
       <c r="D35" s="61" t="s">
         <v>81</v>
       </c>
@@ -3765,12 +3593,12 @@
       <c r="V35" s="72"/>
       <c r="W35" s="72"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="15">
         <v>21</v>
       </c>
-      <c r="C36" s="207" t="s">
-        <v>135</v>
+      <c r="C36" s="206" t="s">
+        <v>134</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>79</v>
@@ -3793,11 +3621,11 @@
       <c r="V36" s="72"/>
       <c r="W36" s="72"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="15">
         <v>22</v>
       </c>
-      <c r="C37" s="208"/>
+      <c r="C37" s="207"/>
       <c r="D37" s="60" t="s">
         <v>80</v>
       </c>
@@ -3819,11 +3647,11 @@
       <c r="V37" s="72"/>
       <c r="W37" s="72"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B38" s="15">
         <v>23</v>
       </c>
-      <c r="C38" s="208"/>
+      <c r="C38" s="207"/>
       <c r="D38" s="60" t="s">
         <v>82</v>
       </c>
@@ -3841,11 +3669,11 @@
       <c r="V38" s="72"/>
       <c r="W38" s="72"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B39" s="15">
         <v>24</v>
       </c>
-      <c r="C39" s="208"/>
+      <c r="C39" s="207"/>
       <c r="D39" s="61" t="s">
         <v>81</v>
       </c>
@@ -3863,12 +3691,12 @@
       <c r="V39" s="72"/>
       <c r="W39" s="72"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="15">
         <v>25</v>
       </c>
-      <c r="C40" s="207" t="s">
-        <v>136</v>
+      <c r="C40" s="206" t="s">
+        <v>135</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>79</v>
@@ -3887,11 +3715,11 @@
       <c r="V40" s="72"/>
       <c r="W40" s="72"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="15">
         <v>26</v>
       </c>
-      <c r="C41" s="208"/>
+      <c r="C41" s="207"/>
       <c r="D41" s="60" t="s">
         <v>80</v>
       </c>
@@ -3913,11 +3741,11 @@
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B42" s="15">
         <v>27</v>
       </c>
-      <c r="C42" s="208"/>
+      <c r="C42" s="207"/>
       <c r="D42" s="60" t="s">
         <v>82</v>
       </c>
@@ -3939,11 +3767,11 @@
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B43" s="15">
         <v>28</v>
       </c>
-      <c r="C43" s="208"/>
+      <c r="C43" s="207"/>
       <c r="D43" s="61" t="s">
         <v>81</v>
       </c>
@@ -3965,12 +3793,12 @@
       <c r="V43" s="72"/>
       <c r="W43" s="72"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B44" s="15">
         <v>29</v>
       </c>
-      <c r="C44" s="207" t="s">
-        <v>137</v>
+      <c r="C44" s="206" t="s">
+        <v>136</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>79</v>
@@ -3993,231 +3821,231 @@
       <c r="V44" s="72"/>
       <c r="W44" s="72"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B45" s="15">
         <v>30</v>
       </c>
-      <c r="C45" s="208"/>
+      <c r="C45" s="207"/>
       <c r="D45" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B46" s="15">
         <v>31</v>
       </c>
-      <c r="C46" s="208"/>
+      <c r="C46" s="207"/>
       <c r="D46" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B47" s="15">
         <v>32</v>
       </c>
-      <c r="C47" s="208"/>
+      <c r="C47" s="207"/>
       <c r="D47" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B48" s="15">
         <v>33</v>
       </c>
-      <c r="C48" s="207" t="s">
-        <v>138</v>
+      <c r="C48" s="206" t="s">
+        <v>137</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="15">
         <v>34</v>
       </c>
-      <c r="C49" s="208"/>
+      <c r="C49" s="207"/>
       <c r="D49" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="15">
         <v>35</v>
       </c>
-      <c r="C50" s="208"/>
+      <c r="C50" s="207"/>
       <c r="D50" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="15">
         <v>36</v>
       </c>
-      <c r="C51" s="208"/>
+      <c r="C51" s="207"/>
       <c r="D51" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="15">
         <v>37</v>
       </c>
-      <c r="C52" s="209" t="s">
-        <v>139</v>
+      <c r="C52" s="208" t="s">
+        <v>138</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="15">
         <v>38</v>
       </c>
-      <c r="C53" s="210"/>
+      <c r="C53" s="209"/>
       <c r="D53" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="15">
         <v>39</v>
       </c>
-      <c r="C54" s="210"/>
+      <c r="C54" s="209"/>
       <c r="D54" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="15">
         <v>40</v>
       </c>
-      <c r="C55" s="211"/>
+      <c r="C55" s="210"/>
       <c r="D55" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="15">
         <v>41</v>
       </c>
-      <c r="C56" s="207" t="s">
-        <v>140</v>
+      <c r="C56" s="206" t="s">
+        <v>139</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="15">
         <v>42</v>
       </c>
-      <c r="C57" s="208"/>
+      <c r="C57" s="207"/>
       <c r="D57" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="15">
         <v>43</v>
       </c>
-      <c r="C58" s="208"/>
+      <c r="C58" s="207"/>
       <c r="D58" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="15">
         <v>44</v>
       </c>
-      <c r="C59" s="208"/>
+      <c r="C59" s="207"/>
       <c r="D59" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="15">
         <v>45</v>
       </c>
-      <c r="C60" s="207" t="s">
-        <v>141</v>
+      <c r="C60" s="206" t="s">
+        <v>140</v>
       </c>
       <c r="D60" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="15">
         <v>46</v>
       </c>
-      <c r="C61" s="208"/>
+      <c r="C61" s="207"/>
       <c r="D61" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="15">
         <v>47</v>
       </c>
-      <c r="C62" s="208"/>
+      <c r="C62" s="207"/>
       <c r="D62" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="15">
         <v>48</v>
       </c>
-      <c r="C63" s="208"/>
+      <c r="C63" s="207"/>
       <c r="D63" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="15">
         <v>49</v>
       </c>
-      <c r="C64" s="207" t="s">
-        <v>142</v>
+      <c r="C64" s="206" t="s">
+        <v>141</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="15">
         <v>50</v>
       </c>
-      <c r="C65" s="208"/>
+      <c r="C65" s="207"/>
       <c r="D65" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="15">
         <v>51</v>
       </c>
-      <c r="C66" s="208"/>
+      <c r="C66" s="207"/>
       <c r="D66" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="15">
         <v>52</v>
       </c>
-      <c r="C67" s="208"/>
+      <c r="C67" s="207"/>
       <c r="D67" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="15">
         <v>53</v>
       </c>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="15">
         <v>54</v>
       </c>
@@ -4228,112 +4056,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B70" s="15">
         <v>55</v>
       </c>
-      <c r="C70" s="201" t="s">
+      <c r="C70" s="200" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B71" s="15">
         <v>56</v>
       </c>
-      <c r="C71" s="202"/>
+      <c r="C71" s="201"/>
       <c r="D71" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="15">
         <v>57</v>
       </c>
-      <c r="C72" s="202"/>
+      <c r="C72" s="201"/>
       <c r="D72" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="15">
         <v>58</v>
       </c>
-      <c r="C73" s="203"/>
+      <c r="C73" s="202"/>
       <c r="D73" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="15">
         <v>59</v>
       </c>
-      <c r="C74" s="212" t="s">
+      <c r="C74" s="211" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="65"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B75" s="15">
         <v>60</v>
       </c>
-      <c r="C75" s="213"/>
+      <c r="C75" s="212"/>
       <c r="D75" s="66"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="15">
         <v>61</v>
       </c>
-      <c r="C76" s="214" t="s">
+      <c r="C76" s="213" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="62"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="15">
         <v>62</v>
       </c>
-      <c r="C77" s="215"/>
+      <c r="C77" s="214"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="15">
         <v>63</v>
       </c>
-      <c r="C78" s="216"/>
+      <c r="C78" s="215"/>
       <c r="D78" s="64"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B83" s="67">
         <v>0</v>
       </c>
-      <c r="C83" s="204" t="s">
+      <c r="C83" s="203" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="62"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B84" s="67">
         <v>1</v>
       </c>
-      <c r="C84" s="205"/>
+      <c r="C84" s="204"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="67">
         <v>2</v>
       </c>
-      <c r="C85" s="206"/>
+      <c r="C85" s="205"/>
       <c r="D85" s="64"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B86" s="15">
         <v>3</v>
       </c>
@@ -4344,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B87" s="15">
         <v>4</v>
       </c>
@@ -4352,393 +4180,393 @@
         <v>10</v>
       </c>
       <c r="D87" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" s="15">
         <v>5</v>
       </c>
-      <c r="C88" s="207" t="s">
-        <v>143</v>
+      <c r="C88" s="206" t="s">
+        <v>142</v>
       </c>
       <c r="D88" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" s="15">
         <v>6</v>
       </c>
-      <c r="C89" s="208"/>
+      <c r="C89" s="207"/>
       <c r="D89" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B90" s="15">
         <v>7</v>
       </c>
-      <c r="C90" s="208"/>
+      <c r="C90" s="207"/>
       <c r="D90" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="15">
         <v>8</v>
       </c>
-      <c r="C91" s="208"/>
+      <c r="C91" s="207"/>
       <c r="D91" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" s="15">
         <v>9</v>
       </c>
-      <c r="C92" s="207" t="s">
-        <v>144</v>
+      <c r="C92" s="206" t="s">
+        <v>143</v>
       </c>
       <c r="D92" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B93" s="15">
         <v>10</v>
       </c>
-      <c r="C93" s="208"/>
+      <c r="C93" s="207"/>
       <c r="D93" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B94" s="15">
         <v>11</v>
       </c>
-      <c r="C94" s="208"/>
+      <c r="C94" s="207"/>
       <c r="D94" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B95" s="15">
         <v>12</v>
       </c>
-      <c r="C95" s="208"/>
+      <c r="C95" s="207"/>
       <c r="D95" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B96" s="15">
         <v>13</v>
       </c>
-      <c r="C96" s="207" t="s">
-        <v>145</v>
+      <c r="C96" s="206" t="s">
+        <v>144</v>
       </c>
       <c r="D96" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="15">
         <v>14</v>
       </c>
-      <c r="C97" s="208"/>
+      <c r="C97" s="207"/>
       <c r="D97" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="15">
         <v>15</v>
       </c>
-      <c r="C98" s="208"/>
+      <c r="C98" s="207"/>
       <c r="D98" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="15">
         <v>16</v>
       </c>
-      <c r="C99" s="208"/>
+      <c r="C99" s="207"/>
       <c r="D99" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="15">
         <v>17</v>
       </c>
-      <c r="C100" s="207" t="s">
-        <v>146</v>
+      <c r="C100" s="206" t="s">
+        <v>145</v>
       </c>
       <c r="D100" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="15">
         <v>18</v>
       </c>
-      <c r="C101" s="208"/>
+      <c r="C101" s="207"/>
       <c r="D101" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B102" s="15">
         <v>19</v>
       </c>
-      <c r="C102" s="208"/>
+      <c r="C102" s="207"/>
       <c r="D102" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="15">
         <v>20</v>
       </c>
-      <c r="C103" s="208"/>
+      <c r="C103" s="207"/>
       <c r="D103" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="15">
         <v>21</v>
       </c>
       <c r="C104" s="71"/>
       <c r="D104" s="70"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="15">
         <v>22</v>
       </c>
       <c r="C105" s="71"/>
       <c r="D105" s="70"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B106" s="15">
         <v>23</v>
       </c>
       <c r="C106" s="71"/>
       <c r="D106" s="70"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="15">
         <v>24</v>
       </c>
       <c r="C107" s="71"/>
       <c r="D107" s="70"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="15">
         <v>25</v>
       </c>
       <c r="C108" s="71"/>
       <c r="D108" s="70"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B109" s="15">
         <v>26</v>
       </c>
       <c r="C109" s="71"/>
       <c r="D109" s="70"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="15">
         <v>27</v>
       </c>
       <c r="C110" s="71"/>
       <c r="D110" s="70"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="15">
         <v>28</v>
       </c>
       <c r="C111" s="71"/>
       <c r="D111" s="70"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B112" s="15">
         <v>29</v>
       </c>
       <c r="C112" s="71"/>
       <c r="D112" s="70"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="15">
         <v>30</v>
       </c>
       <c r="C113" s="71"/>
       <c r="D113" s="70"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="15">
         <v>31</v>
       </c>
       <c r="C114" s="71"/>
       <c r="D114" s="70"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B115" s="15">
         <v>32</v>
       </c>
       <c r="C115" s="71"/>
       <c r="D115" s="70"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="15">
         <v>33</v>
       </c>
       <c r="C116" s="71"/>
       <c r="D116" s="70"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="15">
         <v>34</v>
       </c>
       <c r="C117" s="71"/>
       <c r="D117" s="70"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="15">
         <v>35</v>
       </c>
       <c r="C118" s="71"/>
       <c r="D118" s="70"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B119" s="15">
         <v>36</v>
       </c>
       <c r="C119" s="71"/>
       <c r="D119" s="70"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="15">
         <v>37</v>
       </c>
       <c r="C120" s="71"/>
       <c r="D120" s="70"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="15">
         <v>38</v>
       </c>
       <c r="C121" s="71"/>
       <c r="D121" s="70"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B122" s="15">
         <v>39</v>
       </c>
       <c r="C122" s="71"/>
       <c r="D122" s="70"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="15">
         <v>40</v>
       </c>
       <c r="C123" s="71"/>
       <c r="D123" s="70"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B124" s="15">
         <v>41</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B125" s="15">
         <v>42</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B126" s="15">
         <v>43</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B127" s="15">
         <v>44</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B128" s="15">
         <v>45</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B129" s="15">
         <v>46</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B130" s="15">
         <v>47</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B131" s="15">
         <v>48</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B132" s="15">
         <v>49</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B133" s="15">
         <v>50</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B134" s="15">
         <v>51</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B135" s="15">
         <v>52</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" s="15">
         <v>53</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B137" s="15">
         <v>54</v>
       </c>
@@ -4749,81 +4577,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B138" s="15">
         <v>55</v>
       </c>
-      <c r="C138" s="201" t="s">
+      <c r="C138" s="200" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" s="15">
         <v>56</v>
       </c>
-      <c r="C139" s="202"/>
+      <c r="C139" s="201"/>
       <c r="D139" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" s="15">
         <v>57</v>
       </c>
-      <c r="C140" s="202"/>
+      <c r="C140" s="201"/>
       <c r="D140" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B141" s="15">
         <v>58</v>
       </c>
-      <c r="C141" s="203"/>
+      <c r="C141" s="202"/>
       <c r="D141" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" s="15">
         <v>59</v>
       </c>
-      <c r="C142" s="212" t="s">
+      <c r="C142" s="211" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="65"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B143" s="15">
         <v>60</v>
       </c>
-      <c r="C143" s="213"/>
+      <c r="C143" s="212"/>
       <c r="D143" s="66"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" s="15">
         <v>61</v>
       </c>
-      <c r="C144" s="214" t="s">
+      <c r="C144" s="213" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="62"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B145" s="15">
         <v>62</v>
       </c>
-      <c r="C145" s="215"/>
+      <c r="C145" s="214"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="15">
         <v>63</v>
       </c>
-      <c r="C146" s="216"/>
+      <c r="C146" s="215"/>
       <c r="D146" s="64"/>
     </row>
   </sheetData>
@@ -4861,34 +4689,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G26"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="4"/>
-    <col min="2" max="2" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" style="4"/>
-    <col min="7" max="8" width="30.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.1796875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="4"/>
+    <col min="4" max="4" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="8" width="30.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -4899,10 +4727,10 @@
         <v>69</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -4910,7 +4738,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>99</v>
@@ -4920,18 +4748,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="221" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>100</v>
@@ -4941,11 +4769,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="223"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="29" t="s">
         <v>80</v>
       </c>
@@ -4957,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G9" s="14" t="s">
         <v>102</v>
       </c>
@@ -4966,7 +4794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>3</v>
       </c>
@@ -4980,7 +4808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>4</v>
       </c>
@@ -5000,18 +4828,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="26">
         <v>5</v>
       </c>
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="221" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>93</v>
@@ -5023,11 +4851,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="26">
         <v>6</v>
       </c>
-      <c r="C14" s="223"/>
+      <c r="C14" s="222"/>
       <c r="D14" s="29" t="s">
         <v>80</v>
       </c>
@@ -5041,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="26">
         <v>7</v>
       </c>
@@ -5062,18 +4890,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="26">
         <v>8</v>
       </c>
-      <c r="C16" s="217" t="s">
-        <v>166</v>
+      <c r="C16" s="216" t="s">
+        <v>165</v>
       </c>
       <c r="D16" s="124" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>96</v>
@@ -5085,11 +4913,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="26">
         <v>9</v>
       </c>
-      <c r="C17" s="218"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="125" t="s">
         <v>80</v>
       </c>
@@ -5097,7 +4925,7 @@
       <c r="H17" s="37"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -5105,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>4</v>
       </c>
@@ -5118,31 +4946,31 @@
       <c r="D21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="219" t="s">
+      <c r="G21" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="219"/>
+      <c r="I21" s="220"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C22" s="222" t="s">
+      <c r="C22" s="221" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="126" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>6</v>
       </c>
-      <c r="C23" s="223"/>
+      <c r="C23" s="222"/>
       <c r="D23" s="29" t="s">
         <v>80</v>
       </c>
@@ -5150,7 +4978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>7</v>
       </c>
@@ -5169,18 +4997,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <v>8</v>
       </c>
-      <c r="C25" s="217" t="s">
-        <v>165</v>
+      <c r="C25" s="216" t="s">
+        <v>164</v>
       </c>
       <c r="D25" s="124" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>98</v>
@@ -5190,11 +5018,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <v>9</v>
       </c>
-      <c r="C26" s="218"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="125" t="s">
         <v>80</v>
       </c>
@@ -5206,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>10</v>
       </c>
@@ -5222,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <v>11</v>
       </c>
@@ -5233,7 +5061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <v>12</v>
       </c>
@@ -5245,7 +5073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>13</v>
       </c>
@@ -5261,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
         <v>14</v>
       </c>
@@ -5277,18 +5105,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="15">
         <v>15</v>
       </c>
       <c r="C32" s="131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="132" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="15">
         <v>16</v>
       </c>
@@ -5297,18 +5125,18 @@
       </c>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="15">
         <v>17</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="15">
         <v>18</v>
       </c>
@@ -5341,40 +5169,40 @@
       <selection activeCell="D19" sqref="D19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="154" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="157"/>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="155"/>
       <c r="E7" s="4"/>
       <c r="F7" s="94"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" s="15">
         <v>3</v>
       </c>
@@ -5382,11 +5210,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" s="50">
         <v>4</v>
       </c>
@@ -5398,47 +5226,47 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C17" s="15">
         <v>3</v>
       </c>
@@ -5446,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="50">
         <v>4</v>
       </c>
@@ -5460,9 +5288,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C19" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="138" t="s">
         <v>76</v>
@@ -5471,21 +5299,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="139"/>
       <c r="E20" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C21" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="137"/>
     </row>
@@ -5507,365 +5335,365 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
-    <col min="4" max="6" width="2.6328125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.6328125" style="5" customWidth="1"/>
-    <col min="9" max="54" width="2.6328125" style="6" customWidth="1"/>
-    <col min="55" max="57" width="2.6328125" style="5" customWidth="1"/>
-    <col min="58" max="58" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.6328125" style="5" customWidth="1"/>
-    <col min="68" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="6" width="2.6640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" style="5" customWidth="1"/>
+    <col min="9" max="54" width="2.6640625" style="6" customWidth="1"/>
+    <col min="55" max="57" width="2.6640625" style="5" customWidth="1"/>
+    <col min="58" max="58" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.6640625" style="5" customWidth="1"/>
+    <col min="68" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="161" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B2" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B4" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="171" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="169"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="171" t="s">
+      <c r="C6" s="171"/>
+      <c r="D6" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="174" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B7" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="154"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="169"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="175" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B8" s="152"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="167"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B9" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="169"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="154"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="169"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="172" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="167"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B10" s="152"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B11" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="171" t="s">
+      <c r="C11" s="170"/>
+      <c r="D11" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="166" t="s">
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="171" t="s">
+      <c r="C12" s="164"/>
+      <c r="D12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="165" t="s">
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B13" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="171" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="171"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="164" t="s">
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="171" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
-    </row>
-    <row r="17" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="D17" s="164" t="s">
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="169"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+    </row>
+    <row r="17" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="D17" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="85" t="s">
         <v>0</v>
       </c>
@@ -5924,23 +5752,23 @@
       <c r="BF17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="166" t="s">
+      <c r="BG17" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="166"/>
-      <c r="BI17" s="166"/>
-      <c r="BJ17" s="166"/>
-      <c r="BK17" s="165" t="s">
+      <c r="BH17" s="164"/>
+      <c r="BI17" s="164"/>
+      <c r="BJ17" s="164"/>
+      <c r="BK17" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="165"/>
-      <c r="BM17" s="164" t="s">
+      <c r="BL17" s="163"/>
+      <c r="BM17" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="164"/>
-      <c r="BO17" s="164"/>
-    </row>
-    <row r="18" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="BN17" s="162"/>
+      <c r="BO17" s="162"/>
+    </row>
+    <row r="18" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C18" s="96" t="s">
         <v>8</v>
       </c>
@@ -6137,60 +5965,60 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="I20" s="154" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="155"/>
-      <c r="AH20" s="155"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="155"/>
-      <c r="AK20" s="155"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
-      <c r="AN20" s="155"/>
-      <c r="AO20" s="155"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
-      <c r="AU20" s="155"/>
-      <c r="AV20" s="155"/>
-      <c r="AW20" s="155"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
-      <c r="BB20" s="155"/>
-      <c r="BC20" s="155"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="156"/>
-    </row>
-    <row r="21" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="I20" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="153"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="153"/>
+      <c r="AE20" s="153"/>
+      <c r="AF20" s="153"/>
+      <c r="AG20" s="153"/>
+      <c r="AH20" s="153"/>
+      <c r="AI20" s="153"/>
+      <c r="AJ20" s="153"/>
+      <c r="AK20" s="153"/>
+      <c r="AL20" s="153"/>
+      <c r="AM20" s="153"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="153"/>
+      <c r="AP20" s="153"/>
+      <c r="AQ20" s="153"/>
+      <c r="AR20" s="153"/>
+      <c r="AS20" s="153"/>
+      <c r="AT20" s="153"/>
+      <c r="AU20" s="153"/>
+      <c r="AV20" s="153"/>
+      <c r="AW20" s="153"/>
+      <c r="AX20" s="153"/>
+      <c r="AY20" s="153"/>
+      <c r="AZ20" s="153"/>
+      <c r="BA20" s="153"/>
+      <c r="BB20" s="153"/>
+      <c r="BC20" s="153"/>
+      <c r="BD20" s="153"/>
+      <c r="BE20" s="154"/>
+    </row>
+    <row r="21" spans="3:67" x14ac:dyDescent="0.15">
       <c r="I21" s="127">
         <v>1</v>
       </c>
@@ -6379,160 +6207,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
-    <col min="3" max="3" width="19.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="F2" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="157"/>
-      <c r="E5" s="94"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="50">
-        <v>4</v>
-      </c>
-      <c r="C7" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
-        <v>7</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="110"/>
-      <c r="G8" s="226" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="227"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="224" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
-    <col min="3" max="4" width="19.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4"/>
-    <col min="6" max="7" width="20.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4"/>
+    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="157"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="155"/>
       <c r="E5" s="94"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -6540,14 +6246,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="121" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -6555,17 +6261,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -6576,14 +6282,14 @@
         <v>79</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -6595,25 +6301,25 @@
       <c r="G9" s="49"/>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="26">
         <v>7</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="110"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="157"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="155"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>3</v>
       </c>
@@ -6621,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="50">
         <v>4</v>
       </c>
@@ -6632,21 +6338,21 @@
         <v>10</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="26">
         <v>5</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="26">
         <v>6</v>
       </c>
@@ -6655,26 +6361,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="26">
         <v>7</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="110"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6687,7 +6393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -6695,22 +6401,22 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
-    <col min="3" max="3" width="13.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -6721,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -6732,16 +6438,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="48"/>
     </row>
-    <row r="8" spans="2:4" s="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" s="73" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -6750,7 +6456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
@@ -6758,16 +6464,16 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="4"/>
-    <col min="2" max="4" width="11.81640625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="8.81640625" style="4"/>
-    <col min="8" max="8" width="14.81640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="4" width="11.83203125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="4"/>
+    <col min="8" max="8" width="14.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="15">
         <v>3</v>
       </c>
@@ -6775,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="15">
         <v>4</v>
       </c>
@@ -6789,117 +6495,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="26">
         <v>5</v>
       </c>
-      <c r="C5" s="178" t="s">
-        <v>121</v>
+      <c r="C5" s="176" t="s">
+        <v>120</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="191"/>
-      <c r="H5" s="192"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="188" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="189"/>
+      <c r="H5" s="190"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="26">
         <v>6</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="193" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="191" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="26">
         <v>7</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="193" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="191" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="26">
         <v>8</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="196" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="195"/>
+      <c r="H8" s="196"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="26">
         <v>9</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="185" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="26">
         <v>10</v>
       </c>
-      <c r="C10" s="188"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="181"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="183"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="181"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26">
         <v>11</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="181"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="183"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="179"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="181"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="26">
         <v>12</v>
       </c>
-      <c r="C12" s="189"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="181"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="179"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="26">
         <v>13</v>
       </c>
@@ -6907,11 +6613,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="105"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="179"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="26">
         <v>14</v>
       </c>
@@ -6919,9 +6625,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="107"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6937,33 +6643,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
-    <col min="3" max="3" width="17.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4"/>
-    <col min="6" max="7" width="30.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4"/>
+    <col min="6" max="7" width="30.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="154" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="156"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="152" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="154"/>
       <c r="D3" s="95"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -6971,14 +6677,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>4</v>
       </c>
@@ -6989,50 +6695,50 @@
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="26">
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D7" s="44"/>
       <c r="F7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <v>6</v>
       </c>
       <c r="C8" s="141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="26">
         <v>7</v>
       </c>
@@ -7041,32 +6747,32 @@
         <v>80</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <v>8</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -7075,91 +6781,91 @@
         <v>80</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="47"/>
       <c r="F12" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="47"/>
       <c r="F13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="47"/>
       <c r="F14" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="47"/>
       <c r="F15" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F16" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="8">
@@ -7174,36 +6880,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
     <col min="3" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="8.83203125" style="4"/>
+    <col min="6" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="5" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="157"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="155"/>
       <c r="E5" s="94"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -7213,8 +6923,14 @@
       <c r="D6" s="31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="198" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="198"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="50">
         <v>4</v>
       </c>
@@ -7222,10 +6938,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -7235,8 +6959,16 @@
       <c r="D8" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -7244,26 +6976,61 @@
       <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="199" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="199"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F12" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="197" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="197"/>
+      <c r="F13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <v>3</v>
       </c>
@@ -7274,7 +7041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="50">
         <v>4</v>
       </c>
@@ -7282,10 +7049,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="26">
         <v>5</v>
       </c>
@@ -7296,7 +7063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="26">
         <v>6</v>
       </c>
@@ -7305,18 +7072,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>7</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="148" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>8</v>
       </c>
@@ -7326,13 +7093,151 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4"/>
+    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="26">
+        <v>7</v>
+      </c>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" tabRatio="804" activeTab="6"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="28800" windowHeight="16840" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="187">
   <si>
     <t>CMD</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>TICKS_DELAY_RT_TASK</t>
+  </si>
+  <si>
+    <t>CMD_VALUE</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1344,12 +1347,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1407,6 +1404,9 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,7 +1545,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,6 +1619,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2143,14 +2152,14 @@
       <c r="D14" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="140"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -2457,17 +2466,17 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="133">
+      <c r="B43" s="131">
         <v>250</v>
       </c>
-      <c r="C43" s="133">
+      <c r="C43" s="131">
         <v>0</v>
       </c>
-      <c r="D43" s="133" t="s">
+      <c r="D43" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="133"/>
-      <c r="F43" s="134"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="132"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="83"/>
@@ -2477,9 +2486,13 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="83"/>
+      <c r="B45" s="83">
+        <v>254</v>
+      </c>
       <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
+      <c r="D45" s="83" t="s">
+        <v>186</v>
+      </c>
       <c r="E45" s="83"/>
       <c r="F45" s="3"/>
     </row>
@@ -2521,11 +2534,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="58"/>
@@ -2533,10 +2546,10 @@
       <c r="D3" s="58"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="155"/>
+      <c r="C4" s="154"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
@@ -2673,11 +2686,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
       <c r="F14" s="14" t="s">
         <v>55</v>
       </c>
@@ -2724,11 +2737,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
       <c r="F19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2741,10 +2754,10 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="155"/>
+      <c r="C21" s="154"/>
       <c r="F21" s="90" t="s">
         <v>62</v>
       </c>
@@ -2810,11 +2823,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
       <c r="F26" s="14" t="s">
         <v>45</v>
       </c>
@@ -2966,36 +2979,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="155"/>
+      <c r="C4" s="154"/>
       <c r="E4" s="72"/>
-      <c r="G4" s="199" t="s">
+      <c r="G4" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="199"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
@@ -3297,11 +3310,11 @@
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="F12" s="49"/>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
@@ -3349,7 +3362,7 @@
       <c r="B15" s="67">
         <v>0</v>
       </c>
-      <c r="C15" s="203" t="s">
+      <c r="C15" s="202" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="91"/>
@@ -3358,14 +3371,14 @@
       <c r="B16" s="67">
         <v>1</v>
       </c>
-      <c r="C16" s="204"/>
+      <c r="C16" s="203"/>
       <c r="D16" s="92"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="67">
         <v>2</v>
       </c>
-      <c r="C17" s="205"/>
+      <c r="C17" s="204"/>
       <c r="D17" s="93"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
@@ -3394,7 +3407,7 @@
       <c r="B20" s="15">
         <v>5</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="205" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="59" t="s">
@@ -3405,7 +3418,7 @@
       <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="C21" s="207"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="60" t="s">
         <v>80</v>
       </c>
@@ -3414,7 +3427,7 @@
       <c r="B22" s="15">
         <v>7</v>
       </c>
-      <c r="C22" s="207"/>
+      <c r="C22" s="206"/>
       <c r="D22" s="60" t="s">
         <v>82</v>
       </c>
@@ -3423,7 +3436,7 @@
       <c r="B23" s="15">
         <v>8</v>
       </c>
-      <c r="C23" s="207"/>
+      <c r="C23" s="206"/>
       <c r="D23" s="61" t="s">
         <v>81</v>
       </c>
@@ -3432,7 +3445,7 @@
       <c r="B24" s="15">
         <v>9</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="205" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="59" t="s">
@@ -3443,7 +3456,7 @@
       <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="207"/>
+      <c r="C25" s="206"/>
       <c r="D25" s="60" t="s">
         <v>80</v>
       </c>
@@ -3469,7 +3482,7 @@
       <c r="B26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="207"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="60" t="s">
         <v>82</v>
       </c>
@@ -3478,7 +3491,7 @@
       <c r="B27" s="15">
         <v>12</v>
       </c>
-      <c r="C27" s="207"/>
+      <c r="C27" s="206"/>
       <c r="D27" s="61" t="s">
         <v>81</v>
       </c>
@@ -3487,7 +3500,7 @@
       <c r="B28" s="15">
         <v>13</v>
       </c>
-      <c r="C28" s="206" t="s">
+      <c r="C28" s="205" t="s">
         <v>128</v>
       </c>
       <c r="D28" s="59" t="s">
@@ -3498,7 +3511,7 @@
       <c r="B29" s="15">
         <v>14</v>
       </c>
-      <c r="C29" s="207"/>
+      <c r="C29" s="206"/>
       <c r="D29" s="60" t="s">
         <v>80</v>
       </c>
@@ -3507,7 +3520,7 @@
       <c r="B30" s="15">
         <v>15</v>
       </c>
-      <c r="C30" s="207"/>
+      <c r="C30" s="206"/>
       <c r="D30" s="60" t="s">
         <v>82</v>
       </c>
@@ -3516,7 +3529,7 @@
       <c r="B31" s="15">
         <v>16</v>
       </c>
-      <c r="C31" s="207"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="61" t="s">
         <v>81</v>
       </c>
@@ -3525,7 +3538,7 @@
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="206" t="s">
+      <c r="C32" s="205" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="59" t="s">
@@ -3536,7 +3549,7 @@
       <c r="B33" s="15">
         <v>18</v>
       </c>
-      <c r="C33" s="207"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="60" t="s">
         <v>80</v>
       </c>
@@ -3545,7 +3558,7 @@
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="207"/>
+      <c r="C34" s="206"/>
       <c r="D34" s="60" t="s">
         <v>82</v>
       </c>
@@ -3571,7 +3584,7 @@
       <c r="B35" s="15">
         <v>20</v>
       </c>
-      <c r="C35" s="207"/>
+      <c r="C35" s="206"/>
       <c r="D35" s="61" t="s">
         <v>81</v>
       </c>
@@ -3597,7 +3610,7 @@
       <c r="B36" s="15">
         <v>21</v>
       </c>
-      <c r="C36" s="206" t="s">
+      <c r="C36" s="205" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="59" t="s">
@@ -3625,7 +3638,7 @@
       <c r="B37" s="15">
         <v>22</v>
       </c>
-      <c r="C37" s="207"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="60" t="s">
         <v>80</v>
       </c>
@@ -3651,7 +3664,7 @@
       <c r="B38" s="15">
         <v>23</v>
       </c>
-      <c r="C38" s="207"/>
+      <c r="C38" s="206"/>
       <c r="D38" s="60" t="s">
         <v>82</v>
       </c>
@@ -3673,7 +3686,7 @@
       <c r="B39" s="15">
         <v>24</v>
       </c>
-      <c r="C39" s="207"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="61" t="s">
         <v>81</v>
       </c>
@@ -3695,7 +3708,7 @@
       <c r="B40" s="15">
         <v>25</v>
       </c>
-      <c r="C40" s="206" t="s">
+      <c r="C40" s="205" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="59" t="s">
@@ -3719,7 +3732,7 @@
       <c r="B41" s="15">
         <v>26</v>
       </c>
-      <c r="C41" s="207"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="60" t="s">
         <v>80</v>
       </c>
@@ -3745,7 +3758,7 @@
       <c r="B42" s="15">
         <v>27</v>
       </c>
-      <c r="C42" s="207"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="60" t="s">
         <v>82</v>
       </c>
@@ -3771,7 +3784,7 @@
       <c r="B43" s="15">
         <v>28</v>
       </c>
-      <c r="C43" s="207"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="61" t="s">
         <v>81</v>
       </c>
@@ -3797,7 +3810,7 @@
       <c r="B44" s="15">
         <v>29</v>
       </c>
-      <c r="C44" s="206" t="s">
+      <c r="C44" s="205" t="s">
         <v>136</v>
       </c>
       <c r="D44" s="59" t="s">
@@ -3825,7 +3838,7 @@
       <c r="B45" s="15">
         <v>30</v>
       </c>
-      <c r="C45" s="207"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="60" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +3847,7 @@
       <c r="B46" s="15">
         <v>31</v>
       </c>
-      <c r="C46" s="207"/>
+      <c r="C46" s="206"/>
       <c r="D46" s="60" t="s">
         <v>82</v>
       </c>
@@ -3843,7 +3856,7 @@
       <c r="B47" s="15">
         <v>32</v>
       </c>
-      <c r="C47" s="207"/>
+      <c r="C47" s="206"/>
       <c r="D47" s="61" t="s">
         <v>81</v>
       </c>
@@ -3852,7 +3865,7 @@
       <c r="B48" s="15">
         <v>33</v>
       </c>
-      <c r="C48" s="206" t="s">
+      <c r="C48" s="205" t="s">
         <v>137</v>
       </c>
       <c r="D48" s="59" t="s">
@@ -3863,7 +3876,7 @@
       <c r="B49" s="15">
         <v>34</v>
       </c>
-      <c r="C49" s="207"/>
+      <c r="C49" s="206"/>
       <c r="D49" s="60" t="s">
         <v>80</v>
       </c>
@@ -3872,7 +3885,7 @@
       <c r="B50" s="15">
         <v>35</v>
       </c>
-      <c r="C50" s="207"/>
+      <c r="C50" s="206"/>
       <c r="D50" s="60" t="s">
         <v>82</v>
       </c>
@@ -3881,7 +3894,7 @@
       <c r="B51" s="15">
         <v>36</v>
       </c>
-      <c r="C51" s="207"/>
+      <c r="C51" s="206"/>
       <c r="D51" s="61" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3903,7 @@
       <c r="B52" s="15">
         <v>37</v>
       </c>
-      <c r="C52" s="208" t="s">
+      <c r="C52" s="207" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -3901,7 +3914,7 @@
       <c r="B53" s="15">
         <v>38</v>
       </c>
-      <c r="C53" s="209"/>
+      <c r="C53" s="208"/>
       <c r="D53" s="60" t="s">
         <v>80</v>
       </c>
@@ -3910,7 +3923,7 @@
       <c r="B54" s="15">
         <v>39</v>
       </c>
-      <c r="C54" s="209"/>
+      <c r="C54" s="208"/>
       <c r="D54" s="60" t="s">
         <v>82</v>
       </c>
@@ -3919,7 +3932,7 @@
       <c r="B55" s="15">
         <v>40</v>
       </c>
-      <c r="C55" s="210"/>
+      <c r="C55" s="209"/>
       <c r="D55" s="61" t="s">
         <v>81</v>
       </c>
@@ -3928,7 +3941,7 @@
       <c r="B56" s="15">
         <v>41</v>
       </c>
-      <c r="C56" s="206" t="s">
+      <c r="C56" s="205" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="59" t="s">
@@ -3939,7 +3952,7 @@
       <c r="B57" s="15">
         <v>42</v>
       </c>
-      <c r="C57" s="207"/>
+      <c r="C57" s="206"/>
       <c r="D57" s="60" t="s">
         <v>80</v>
       </c>
@@ -3948,7 +3961,7 @@
       <c r="B58" s="15">
         <v>43</v>
       </c>
-      <c r="C58" s="207"/>
+      <c r="C58" s="206"/>
       <c r="D58" s="60" t="s">
         <v>82</v>
       </c>
@@ -3957,7 +3970,7 @@
       <c r="B59" s="15">
         <v>44</v>
       </c>
-      <c r="C59" s="207"/>
+      <c r="C59" s="206"/>
       <c r="D59" s="61" t="s">
         <v>81</v>
       </c>
@@ -3966,7 +3979,7 @@
       <c r="B60" s="15">
         <v>45</v>
       </c>
-      <c r="C60" s="206" t="s">
+      <c r="C60" s="205" t="s">
         <v>140</v>
       </c>
       <c r="D60" s="59" t="s">
@@ -3977,7 +3990,7 @@
       <c r="B61" s="15">
         <v>46</v>
       </c>
-      <c r="C61" s="207"/>
+      <c r="C61" s="206"/>
       <c r="D61" s="60" t="s">
         <v>80</v>
       </c>
@@ -3986,7 +3999,7 @@
       <c r="B62" s="15">
         <v>47</v>
       </c>
-      <c r="C62" s="207"/>
+      <c r="C62" s="206"/>
       <c r="D62" s="60" t="s">
         <v>82</v>
       </c>
@@ -3995,7 +4008,7 @@
       <c r="B63" s="15">
         <v>48</v>
       </c>
-      <c r="C63" s="207"/>
+      <c r="C63" s="206"/>
       <c r="D63" s="61" t="s">
         <v>81</v>
       </c>
@@ -4004,7 +4017,7 @@
       <c r="B64" s="15">
         <v>49</v>
       </c>
-      <c r="C64" s="206" t="s">
+      <c r="C64" s="205" t="s">
         <v>141</v>
       </c>
       <c r="D64" s="59" t="s">
@@ -4015,7 +4028,7 @@
       <c r="B65" s="15">
         <v>50</v>
       </c>
-      <c r="C65" s="207"/>
+      <c r="C65" s="206"/>
       <c r="D65" s="60" t="s">
         <v>80</v>
       </c>
@@ -4024,7 +4037,7 @@
       <c r="B66" s="15">
         <v>51</v>
       </c>
-      <c r="C66" s="207"/>
+      <c r="C66" s="206"/>
       <c r="D66" s="60" t="s">
         <v>82</v>
       </c>
@@ -4033,7 +4046,7 @@
       <c r="B67" s="15">
         <v>52</v>
       </c>
-      <c r="C67" s="207"/>
+      <c r="C67" s="206"/>
       <c r="D67" s="61" t="s">
         <v>81</v>
       </c>
@@ -4060,7 +4073,7 @@
       <c r="B70" s="15">
         <v>55</v>
       </c>
-      <c r="C70" s="200" t="s">
+      <c r="C70" s="199" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="55" t="s">
@@ -4071,7 +4084,7 @@
       <c r="B71" s="15">
         <v>56</v>
       </c>
-      <c r="C71" s="201"/>
+      <c r="C71" s="200"/>
       <c r="D71" s="56" t="s">
         <v>80</v>
       </c>
@@ -4080,7 +4093,7 @@
       <c r="B72" s="15">
         <v>57</v>
       </c>
-      <c r="C72" s="201"/>
+      <c r="C72" s="200"/>
       <c r="D72" s="56" t="s">
         <v>82</v>
       </c>
@@ -4089,7 +4102,7 @@
       <c r="B73" s="15">
         <v>58</v>
       </c>
-      <c r="C73" s="202"/>
+      <c r="C73" s="201"/>
       <c r="D73" s="57" t="s">
         <v>81</v>
       </c>
@@ -4098,7 +4111,7 @@
       <c r="B74" s="15">
         <v>59</v>
       </c>
-      <c r="C74" s="211" t="s">
+      <c r="C74" s="210" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="65"/>
@@ -4107,14 +4120,14 @@
       <c r="B75" s="15">
         <v>60</v>
       </c>
-      <c r="C75" s="212"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="66"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="15">
         <v>61</v>
       </c>
-      <c r="C76" s="213" t="s">
+      <c r="C76" s="212" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="62"/>
@@ -4123,14 +4136,14 @@
       <c r="B77" s="15">
         <v>62</v>
       </c>
-      <c r="C77" s="214"/>
+      <c r="C77" s="213"/>
       <c r="D77" s="63"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="15">
         <v>63</v>
       </c>
-      <c r="C78" s="215"/>
+      <c r="C78" s="214"/>
       <c r="D78" s="64"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
@@ -4142,7 +4155,7 @@
       <c r="B83" s="67">
         <v>0</v>
       </c>
-      <c r="C83" s="203" t="s">
+      <c r="C83" s="202" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="62"/>
@@ -4151,14 +4164,14 @@
       <c r="B84" s="67">
         <v>1</v>
       </c>
-      <c r="C84" s="204"/>
+      <c r="C84" s="203"/>
       <c r="D84" s="63"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="67">
         <v>2</v>
       </c>
-      <c r="C85" s="205"/>
+      <c r="C85" s="204"/>
       <c r="D85" s="64"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
@@ -4187,7 +4200,7 @@
       <c r="B88" s="15">
         <v>5</v>
       </c>
-      <c r="C88" s="206" t="s">
+      <c r="C88" s="205" t="s">
         <v>142</v>
       </c>
       <c r="D88" s="59" t="s">
@@ -4198,7 +4211,7 @@
       <c r="B89" s="15">
         <v>6</v>
       </c>
-      <c r="C89" s="207"/>
+      <c r="C89" s="206"/>
       <c r="D89" s="60" t="s">
         <v>80</v>
       </c>
@@ -4207,7 +4220,7 @@
       <c r="B90" s="15">
         <v>7</v>
       </c>
-      <c r="C90" s="207"/>
+      <c r="C90" s="206"/>
       <c r="D90" s="60" t="s">
         <v>82</v>
       </c>
@@ -4216,7 +4229,7 @@
       <c r="B91" s="15">
         <v>8</v>
       </c>
-      <c r="C91" s="207"/>
+      <c r="C91" s="206"/>
       <c r="D91" s="61" t="s">
         <v>81</v>
       </c>
@@ -4225,7 +4238,7 @@
       <c r="B92" s="15">
         <v>9</v>
       </c>
-      <c r="C92" s="206" t="s">
+      <c r="C92" s="205" t="s">
         <v>143</v>
       </c>
       <c r="D92" s="59" t="s">
@@ -4236,7 +4249,7 @@
       <c r="B93" s="15">
         <v>10</v>
       </c>
-      <c r="C93" s="207"/>
+      <c r="C93" s="206"/>
       <c r="D93" s="60" t="s">
         <v>80</v>
       </c>
@@ -4245,7 +4258,7 @@
       <c r="B94" s="15">
         <v>11</v>
       </c>
-      <c r="C94" s="207"/>
+      <c r="C94" s="206"/>
       <c r="D94" s="60" t="s">
         <v>82</v>
       </c>
@@ -4254,7 +4267,7 @@
       <c r="B95" s="15">
         <v>12</v>
       </c>
-      <c r="C95" s="207"/>
+      <c r="C95" s="206"/>
       <c r="D95" s="61" t="s">
         <v>81</v>
       </c>
@@ -4263,7 +4276,7 @@
       <c r="B96" s="15">
         <v>13</v>
       </c>
-      <c r="C96" s="206" t="s">
+      <c r="C96" s="205" t="s">
         <v>144</v>
       </c>
       <c r="D96" s="59" t="s">
@@ -4274,7 +4287,7 @@
       <c r="B97" s="15">
         <v>14</v>
       </c>
-      <c r="C97" s="207"/>
+      <c r="C97" s="206"/>
       <c r="D97" s="60" t="s">
         <v>80</v>
       </c>
@@ -4283,7 +4296,7 @@
       <c r="B98" s="15">
         <v>15</v>
       </c>
-      <c r="C98" s="207"/>
+      <c r="C98" s="206"/>
       <c r="D98" s="60" t="s">
         <v>82</v>
       </c>
@@ -4292,7 +4305,7 @@
       <c r="B99" s="15">
         <v>16</v>
       </c>
-      <c r="C99" s="207"/>
+      <c r="C99" s="206"/>
       <c r="D99" s="61" t="s">
         <v>81</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="B100" s="15">
         <v>17</v>
       </c>
-      <c r="C100" s="206" t="s">
+      <c r="C100" s="205" t="s">
         <v>145</v>
       </c>
       <c r="D100" s="59" t="s">
@@ -4312,7 +4325,7 @@
       <c r="B101" s="15">
         <v>18</v>
       </c>
-      <c r="C101" s="207"/>
+      <c r="C101" s="206"/>
       <c r="D101" s="60" t="s">
         <v>80</v>
       </c>
@@ -4321,7 +4334,7 @@
       <c r="B102" s="15">
         <v>19</v>
       </c>
-      <c r="C102" s="207"/>
+      <c r="C102" s="206"/>
       <c r="D102" s="60" t="s">
         <v>82</v>
       </c>
@@ -4330,7 +4343,7 @@
       <c r="B103" s="15">
         <v>20</v>
       </c>
-      <c r="C103" s="207"/>
+      <c r="C103" s="206"/>
       <c r="D103" s="61" t="s">
         <v>81</v>
       </c>
@@ -4581,7 +4594,7 @@
       <c r="B138" s="15">
         <v>55</v>
       </c>
-      <c r="C138" s="200" t="s">
+      <c r="C138" s="199" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="55" t="s">
@@ -4592,7 +4605,7 @@
       <c r="B139" s="15">
         <v>56</v>
       </c>
-      <c r="C139" s="201"/>
+      <c r="C139" s="200"/>
       <c r="D139" s="56" t="s">
         <v>80</v>
       </c>
@@ -4601,7 +4614,7 @@
       <c r="B140" s="15">
         <v>57</v>
       </c>
-      <c r="C140" s="201"/>
+      <c r="C140" s="200"/>
       <c r="D140" s="56" t="s">
         <v>82</v>
       </c>
@@ -4610,7 +4623,7 @@
       <c r="B141" s="15">
         <v>58</v>
       </c>
-      <c r="C141" s="202"/>
+      <c r="C141" s="201"/>
       <c r="D141" s="57" t="s">
         <v>81</v>
       </c>
@@ -4619,7 +4632,7 @@
       <c r="B142" s="15">
         <v>59</v>
       </c>
-      <c r="C142" s="211" t="s">
+      <c r="C142" s="210" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="65"/>
@@ -4628,14 +4641,14 @@
       <c r="B143" s="15">
         <v>60</v>
       </c>
-      <c r="C143" s="212"/>
+      <c r="C143" s="211"/>
       <c r="D143" s="66"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" s="15">
         <v>61</v>
       </c>
-      <c r="C144" s="213" t="s">
+      <c r="C144" s="212" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="62"/>
@@ -4644,14 +4657,14 @@
       <c r="B145" s="15">
         <v>62</v>
       </c>
-      <c r="C145" s="214"/>
+      <c r="C145" s="213"/>
       <c r="D145" s="63"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="15">
         <v>63</v>
       </c>
-      <c r="C146" s="215"/>
+      <c r="C146" s="214"/>
       <c r="D146" s="64"/>
     </row>
   </sheetData>
@@ -4694,7 +4707,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4710,11 +4723,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
@@ -4752,7 +4765,7 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="220" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4773,7 +4786,7 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="222"/>
+      <c r="C8" s="221"/>
       <c r="D8" s="29" t="s">
         <v>80</v>
       </c>
@@ -4832,7 +4845,7 @@
       <c r="B13" s="26">
         <v>5</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="220" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -4855,7 +4868,7 @@
       <c r="B14" s="26">
         <v>6</v>
       </c>
-      <c r="C14" s="222"/>
+      <c r="C14" s="221"/>
       <c r="D14" s="29" t="s">
         <v>80</v>
       </c>
@@ -4894,7 +4907,7 @@
       <c r="B16" s="26">
         <v>8</v>
       </c>
-      <c r="C16" s="216" t="s">
+      <c r="C16" s="215" t="s">
         <v>165</v>
       </c>
       <c r="D16" s="124" t="s">
@@ -4917,7 +4930,7 @@
       <c r="B17" s="26">
         <v>9</v>
       </c>
-      <c r="C17" s="217"/>
+      <c r="C17" s="216"/>
       <c r="D17" s="125" t="s">
         <v>80</v>
       </c>
@@ -4946,17 +4959,17 @@
       <c r="D21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="218" t="s">
+      <c r="G21" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="219"/>
-      <c r="I21" s="220"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C22" s="221" t="s">
+      <c r="C22" s="220" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -4970,7 +4983,7 @@
       <c r="B23" s="15">
         <v>6</v>
       </c>
-      <c r="C23" s="222"/>
+      <c r="C23" s="221"/>
       <c r="D23" s="29" t="s">
         <v>80</v>
       </c>
@@ -5001,7 +5014,7 @@
       <c r="B25" s="15">
         <v>8</v>
       </c>
-      <c r="C25" s="216" t="s">
+      <c r="C25" s="215" t="s">
         <v>164</v>
       </c>
       <c r="D25" s="124" t="s">
@@ -5022,7 +5035,7 @@
       <c r="B26" s="15">
         <v>9</v>
       </c>
-      <c r="C26" s="217"/>
+      <c r="C26" s="216"/>
       <c r="D26" s="125" t="s">
         <v>80</v>
       </c>
@@ -5038,7 +5051,7 @@
       <c r="B27" s="15">
         <v>10</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="222" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="51"/>
@@ -5054,10 +5067,10 @@
       <c r="B28" s="15">
         <v>11</v>
       </c>
-      <c r="C28" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="224" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5065,9 +5078,11 @@
       <c r="B29" s="15">
         <v>12</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="53" t="s">
-        <v>80</v>
+      <c r="C29" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>84</v>
@@ -5079,7 +5094,7 @@
       </c>
       <c r="C30" s="114"/>
       <c r="D30" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>107</v>
@@ -5093,9 +5108,9 @@
       <c r="B31" s="15">
         <v>14</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="54" t="s">
-        <v>81</v>
+      <c r="C31" s="114"/>
+      <c r="D31" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>106</v>
@@ -5109,11 +5124,9 @@
       <c r="B32" s="15">
         <v>15</v>
       </c>
-      <c r="C32" s="131" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="132" t="s">
-        <v>79</v>
+      <c r="C32" s="115"/>
+      <c r="D32" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -5175,11 +5188,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
@@ -5195,10 +5208,10 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="155"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="4"/>
       <c r="F7" s="94"/>
     </row>
@@ -5206,7 +5219,7 @@
       <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="133" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -5218,7 +5231,7 @@
       <c r="C9" s="50">
         <v>4</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="134" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="40" t="s">
@@ -5253,11 +5266,11 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
@@ -5270,7 +5283,7 @@
       <c r="C17" s="15">
         <v>3</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="133" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -5281,7 +5294,7 @@
       <c r="C18" s="50">
         <v>4</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="134" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="40" t="s">
@@ -5292,7 +5305,7 @@
       <c r="C19" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="136" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="28" t="s">
@@ -5303,7 +5316,7 @@
       <c r="C20" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="29" t="s">
         <v>80</v>
       </c>
@@ -5312,10 +5325,10 @@
       <c r="C21" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="137"/>
+      <c r="E21" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5350,350 +5363,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="169"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="169" t="s">
+      <c r="C6" s="170"/>
+      <c r="D6" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="169" t="s">
+      <c r="C7" s="171"/>
+      <c r="D7" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="152"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="167"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="166"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="167"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="152"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="167"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="166"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="169" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="169"/>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="169" t="s">
+      <c r="C12" s="163"/>
+      <c r="D12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="169" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="169"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="169" t="s">
+      <c r="C15" s="161"/>
+      <c r="D15" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="169"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="169"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="85" t="s">
         <v>0</v>
       </c>
@@ -5752,21 +5765,21 @@
       <c r="BF17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="164" t="s">
+      <c r="BG17" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="164"/>
-      <c r="BI17" s="164"/>
-      <c r="BJ17" s="164"/>
-      <c r="BK17" s="163" t="s">
+      <c r="BH17" s="163"/>
+      <c r="BI17" s="163"/>
+      <c r="BJ17" s="163"/>
+      <c r="BK17" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="163"/>
-      <c r="BM17" s="162" t="s">
+      <c r="BL17" s="162"/>
+      <c r="BM17" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="162"/>
-      <c r="BO17" s="162"/>
+      <c r="BN17" s="161"/>
+      <c r="BO17" s="161"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C18" s="96" t="s">
@@ -5966,57 +5979,57 @@
       </c>
     </row>
     <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="153"/>
-      <c r="AK20" s="153"/>
-      <c r="AL20" s="153"/>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="153"/>
-      <c r="AQ20" s="153"/>
-      <c r="AR20" s="153"/>
-      <c r="AS20" s="153"/>
-      <c r="AT20" s="153"/>
-      <c r="AU20" s="153"/>
-      <c r="AV20" s="153"/>
-      <c r="AW20" s="153"/>
-      <c r="AX20" s="153"/>
-      <c r="AY20" s="153"/>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="153"/>
-      <c r="BB20" s="153"/>
-      <c r="BC20" s="153"/>
-      <c r="BD20" s="153"/>
-      <c r="BE20" s="154"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="152"/>
+      <c r="AJ20" s="152"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="152"/>
+      <c r="AM20" s="152"/>
+      <c r="AN20" s="152"/>
+      <c r="AO20" s="152"/>
+      <c r="AP20" s="152"/>
+      <c r="AQ20" s="152"/>
+      <c r="AR20" s="152"/>
+      <c r="AS20" s="152"/>
+      <c r="AT20" s="152"/>
+      <c r="AU20" s="152"/>
+      <c r="AV20" s="152"/>
+      <c r="AW20" s="152"/>
+      <c r="AX20" s="152"/>
+      <c r="AY20" s="152"/>
+      <c r="AZ20" s="152"/>
+      <c r="BA20" s="152"/>
+      <c r="BB20" s="152"/>
+      <c r="BC20" s="152"/>
+      <c r="BD20" s="152"/>
+      <c r="BE20" s="153"/>
     </row>
     <row r="21" spans="3:67" x14ac:dyDescent="0.15">
       <c r="I21" s="127">
@@ -6225,17 +6238,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="155"/>
+      <c r="C5" s="154"/>
       <c r="E5" s="94"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -6314,10 +6327,10 @@
       <c r="H10" s="77"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="154"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
@@ -6376,11 +6389,11 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6410,11 +6423,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="15">
@@ -6499,111 +6512,111 @@
       <c r="B5" s="26">
         <v>5</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="175" t="s">
         <v>120</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="190"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="189"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="26">
         <v>6</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="191" t="s">
+      <c r="F6" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="26">
         <v>7</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="191" t="s">
+      <c r="F7" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="26">
         <v>8</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="194" t="s">
+      <c r="F8" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="195"/>
-      <c r="H8" s="196"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="26">
         <v>9</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="184" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="180"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="26">
         <v>10</v>
       </c>
-      <c r="C10" s="186"/>
+      <c r="C10" s="185"/>
       <c r="D10" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="181"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="180"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26">
         <v>11</v>
       </c>
-      <c r="C11" s="186"/>
+      <c r="C11" s="185"/>
       <c r="D11" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="179"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="181"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="180"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="26">
         <v>12</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="179"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="181"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="180"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="26">
@@ -6613,9 +6626,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="105"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="26">
@@ -6625,9 +6638,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="107"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6647,7 +6660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6663,10 +6676,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="95"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -6724,7 +6737,7 @@
       <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="139" t="s">
         <v>176</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -6742,7 +6755,7 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="29" t="s">
         <v>80</v>
       </c>
@@ -6758,7 +6771,7 @@
       <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="139" t="s">
         <v>177</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -6776,7 +6789,7 @@
       <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="29" t="s">
         <v>80</v>
       </c>
@@ -6882,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6899,17 +6912,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="155"/>
+      <c r="C5" s="154"/>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
     </row>
@@ -6923,10 +6936,10 @@
       <c r="D6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="198" t="s">
+      <c r="F6" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="198"/>
+      <c r="G6" s="197"/>
       <c r="H6" s="5"/>
       <c r="I6" s="73"/>
     </row>
@@ -7005,16 +7018,16 @@
       <c r="B12" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="149" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="43"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="197"/>
+      <c r="C13" s="196"/>
       <c r="F13" s="13" t="s">
         <v>184</v>
       </c>
@@ -7024,11 +7037,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
@@ -7076,20 +7089,31 @@
       <c r="B20" s="15">
         <v>7</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="146" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
+        <v>7</v>
+      </c>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="15">
         <v>8</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150" t="s">
-        <v>80</v>
+      <c r="C22" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7125,17 +7149,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="155"/>
+      <c r="C5" s="154"/>
       <c r="E5" s="94"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -7201,10 +7225,10 @@
       <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="142" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="49"/>
@@ -7215,8 +7239,8 @@
       <c r="B11" s="26">
         <v>7</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="144" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7226,11 +7250,11 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="28800" windowHeight="16840" tabRatio="804"/>
+    <workbookView xWindow="-36940" yWindow="3660" windowWidth="28800" windowHeight="16840" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
     <sheet name="GET_PINS_CONFIGURATION" sheetId="20" r:id="rId2"/>
-    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId3"/>
-    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId4"/>
-    <sheet name="RESPONSE" sheetId="14" r:id="rId5"/>
-    <sheet name="ACK" sheetId="17" r:id="rId6"/>
-    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId7"/>
-    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId8"/>
-    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId9"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId10"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId11"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId12"/>
+    <sheet name="VALUE" sheetId="21" r:id="rId3"/>
+    <sheet name="GENERIC PACKET" sheetId="7" r:id="rId4"/>
+    <sheet name="CMD_SET_DIGITAL" sheetId="19" r:id="rId5"/>
+    <sheet name="RESPONSE" sheetId="14" r:id="rId6"/>
+    <sheet name="ACK" sheetId="17" r:id="rId7"/>
+    <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId8"/>
+    <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId9"/>
+    <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId10"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId11"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId12"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="187">
   <si>
     <t>CMD</t>
   </si>
@@ -1007,15 +1008,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1407,6 +1405,27 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,52 +1447,52 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,8 +1567,35 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,20 +1606,8 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,21 +1618,6 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,14 +1639,11 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2013,499 +2029,501 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>100</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
         <v>3</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>101</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="138"/>
+      <c r="E14" s="137"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>102</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="24"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>103</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="21">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20">
         <v>104</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="24"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>105</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
         <v>1</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>200</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>0</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>201</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>0</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>202</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>0</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>203</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>0</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>204</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>0</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>205</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>0</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>206</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>0</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18">
         <v>1</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18">
         <v>2</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18">
         <v>3</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18">
         <v>4</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18">
         <v>5</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="131">
+      <c r="B43" s="130">
         <v>250</v>
       </c>
-      <c r="C43" s="131">
+      <c r="C43" s="130">
         <v>0</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="83">
+      <c r="B45" s="228">
         <v>254</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83" t="s">
+      <c r="C45" s="228">
+        <v>0</v>
+      </c>
+      <c r="D45" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="3"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="229"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="108">
+      <c r="B46" s="107">
         <v>255</v>
       </c>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,6 +2532,143 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="160" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="160"/>
+      <c r="E5" s="93"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="49">
+        <v>4</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="76"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="76"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
@@ -2523,427 +2678,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4"/>
-    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
-    <col min="6" max="7" width="27" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="27" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="160"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="34"/>
+      <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="40"/>
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="33"/>
+      <c r="F9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="41"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="F11" s="82" t="s">
+      <c r="D11" s="32"/>
+      <c r="F11" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="8">
+      <c r="G13" s="15"/>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="F14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="8">
+      <c r="G14" s="15"/>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F15" s="72"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="47"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="112"/>
-      <c r="F16" s="12" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="111"/>
+      <c r="F16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="47"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="14" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="F17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8">
+      <c r="G18" s="13"/>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
+      <c r="F19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8">
+      <c r="G19" s="13"/>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="5"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="F21" s="90" t="s">
+      <c r="C21" s="160"/>
+      <c r="F21" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>3</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>4</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8">
+      <c r="G23" s="13"/>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8">
+      <c r="G24" s="13"/>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8">
+      <c r="G25" s="13"/>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="F26" s="14" t="s">
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
+      <c r="F26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8">
+      <c r="G26" s="13"/>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8">
+      <c r="G27" s="13"/>
+      <c r="H27" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8">
+      <c r="G28" s="13"/>
+      <c r="H28" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>4</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="8">
+      <c r="G29" s="13"/>
+      <c r="H29" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="H30" s="5"/>
+      <c r="D30" s="34"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>6</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="F31" s="11" t="s">
+      <c r="D31" s="40"/>
+      <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="F32" s="14" t="s">
+      <c r="D32" s="33"/>
+      <c r="F32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8">
+      <c r="G32" s="13"/>
+      <c r="H32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>8</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="F33" s="14" t="s">
+      <c r="D33" s="41"/>
+      <c r="F33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="8">
+      <c r="G33" s="13"/>
+      <c r="H33" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>9</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2959,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W146"/>
   <sheetViews>
@@ -2969,1719 +3124,1706 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="4"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="4"/>
-    <col min="6" max="6" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="2" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.6640625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="E4" s="72"/>
-      <c r="G4" s="198" t="s">
+      <c r="C4" s="160"/>
+      <c r="E4" s="71"/>
+      <c r="G4" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="89">
         <v>1</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="89">
         <v>2</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>3</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="89">
         <v>4</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="89">
         <v>5</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="89">
         <v>6</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="89">
         <v>7</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="89">
         <v>8</v>
       </c>
-      <c r="O5" s="90">
+      <c r="O5" s="89">
         <v>9</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="89">
         <v>10</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="89">
         <v>11</v>
       </c>
-      <c r="R5" s="90">
+      <c r="R5" s="89">
         <v>12</v>
       </c>
-      <c r="S5" s="90">
+      <c r="S5" s="89">
         <v>13</v>
       </c>
-      <c r="T5" s="90">
+      <c r="T5" s="89">
         <v>14</v>
       </c>
-      <c r="U5" s="90">
+      <c r="U5" s="89">
         <v>15</v>
       </c>
-      <c r="V5" s="90">
+      <c r="V5" s="89">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="78" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B11" s="75"/>
-      <c r="F11" s="78" t="s">
+      <c r="B11" s="74"/>
+      <c r="F11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="B13" s="74"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="67">
+      <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B16" s="67">
+      <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B17" s="67">
+      <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="206"/>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="210"/>
+      <c r="D22" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="61" t="s">
+      <c r="C23" s="210"/>
+      <c r="D23" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="60" t="s">
+      <c r="C25" s="210"/>
+      <c r="D25" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="206"/>
-      <c r="D26" s="60" t="s">
+      <c r="C26" s="210"/>
+      <c r="D26" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="61" t="s">
+      <c r="C27" s="210"/>
+      <c r="D27" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="205" t="s">
+      <c r="C28" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="206"/>
-      <c r="D29" s="60" t="s">
+      <c r="C29" s="210"/>
+      <c r="D29" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="60" t="s">
+      <c r="C30" s="210"/>
+      <c r="D30" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="210"/>
+      <c r="D31" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="205" t="s">
+      <c r="C32" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="206"/>
-      <c r="D33" s="60" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="206"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="210"/>
+      <c r="D34" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="206"/>
-      <c r="D35" s="61" t="s">
+      <c r="C35" s="210"/>
+      <c r="D35" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="205" t="s">
+      <c r="C36" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="206"/>
-      <c r="D37" s="60" t="s">
+      <c r="C37" s="210"/>
+      <c r="D37" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="210"/>
+      <c r="D38" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="206"/>
-      <c r="D39" s="61" t="s">
+      <c r="C39" s="210"/>
+      <c r="D39" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="205" t="s">
+      <c r="C40" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="206"/>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="210"/>
+      <c r="D41" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="206"/>
-      <c r="D42" s="60" t="s">
+      <c r="C42" s="210"/>
+      <c r="D42" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="61" t="s">
+      <c r="C43" s="210"/>
+      <c r="D43" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="205" t="s">
+      <c r="C44" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="206"/>
-      <c r="D45" s="60" t="s">
+      <c r="C45" s="210"/>
+      <c r="D45" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="206"/>
-      <c r="D46" s="60" t="s">
+      <c r="C46" s="210"/>
+      <c r="D46" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="210"/>
+      <c r="D47" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="205" t="s">
+      <c r="C48" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="206"/>
-      <c r="D49" s="60" t="s">
+      <c r="C49" s="210"/>
+      <c r="D49" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="206"/>
-      <c r="D50" s="60" t="s">
+      <c r="C50" s="210"/>
+      <c r="D50" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="206"/>
-      <c r="D51" s="61" t="s">
+      <c r="C51" s="210"/>
+      <c r="D51" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="207" t="s">
+      <c r="C52" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="208"/>
-      <c r="D53" s="60" t="s">
+      <c r="C53" s="219"/>
+      <c r="D53" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="208"/>
-      <c r="D54" s="60" t="s">
+      <c r="C54" s="219"/>
+      <c r="D54" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="209"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="220"/>
+      <c r="D55" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="205" t="s">
+      <c r="C56" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="206"/>
-      <c r="D57" s="60" t="s">
+      <c r="C57" s="210"/>
+      <c r="D57" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="206"/>
-      <c r="D58" s="60" t="s">
+      <c r="C58" s="210"/>
+      <c r="D58" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="206"/>
-      <c r="D59" s="61" t="s">
+      <c r="C59" s="210"/>
+      <c r="D59" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="205" t="s">
+      <c r="C60" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="206"/>
-      <c r="D61" s="60" t="s">
+      <c r="C61" s="210"/>
+      <c r="D61" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="206"/>
-      <c r="D62" s="60" t="s">
+      <c r="C62" s="210"/>
+      <c r="D62" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="206"/>
-      <c r="D63" s="61" t="s">
+      <c r="C63" s="210"/>
+      <c r="D63" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="205" t="s">
+      <c r="C64" s="209" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="206"/>
-      <c r="D65" s="60" t="s">
+      <c r="C65" s="210"/>
+      <c r="D65" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="206"/>
-      <c r="D66" s="60" t="s">
+      <c r="C66" s="210"/>
+      <c r="D66" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="206"/>
-      <c r="D67" s="61" t="s">
+      <c r="C67" s="210"/>
+      <c r="D67" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>53</v>
       </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <v>54</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="84">
+      <c r="D69" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="199" t="s">
+      <c r="C70" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="200"/>
-      <c r="D71" s="56" t="s">
+      <c r="C71" s="215"/>
+      <c r="D71" s="55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="200"/>
-      <c r="D72" s="56" t="s">
+      <c r="C72" s="215"/>
+      <c r="D72" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="201"/>
-      <c r="D73" s="57" t="s">
+      <c r="C73" s="216"/>
+      <c r="D73" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="210" t="s">
+      <c r="C74" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="65"/>
+      <c r="D74" s="64"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="211"/>
-      <c r="D75" s="66"/>
+      <c r="C75" s="205"/>
+      <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="212" t="s">
+      <c r="C76" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="62"/>
+      <c r="D76" s="61"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="15">
+      <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="213"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B78" s="15">
+      <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="214"/>
-      <c r="D78" s="64"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="78" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="67">
+      <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="202" t="s">
+      <c r="C83" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="62"/>
+      <c r="D83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B84" s="67">
+      <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="203"/>
-      <c r="D84" s="63"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B85" s="67">
+      <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="204"/>
-      <c r="D85" s="64"/>
+      <c r="C85" s="213"/>
+      <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <v>3</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B87" s="15">
+      <c r="B87" s="14">
         <v>4</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="74" t="s">
+      <c r="D87" s="73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B88" s="15">
+      <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="205" t="s">
+      <c r="C88" s="209" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="206"/>
-      <c r="D89" s="60" t="s">
+      <c r="C89" s="210"/>
+      <c r="D89" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B90" s="15">
+      <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="206"/>
-      <c r="D90" s="60" t="s">
+      <c r="C90" s="210"/>
+      <c r="D90" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B91" s="15">
+      <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="206"/>
-      <c r="D91" s="61" t="s">
+      <c r="C91" s="210"/>
+      <c r="D91" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B92" s="15">
+      <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="205" t="s">
+      <c r="C92" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="59" t="s">
+      <c r="D92" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B93" s="15">
+      <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="206"/>
-      <c r="D93" s="60" t="s">
+      <c r="C93" s="210"/>
+      <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B94" s="15">
+      <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="206"/>
-      <c r="D94" s="60" t="s">
+      <c r="C94" s="210"/>
+      <c r="D94" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B95" s="15">
+      <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="206"/>
-      <c r="D95" s="61" t="s">
+      <c r="C95" s="210"/>
+      <c r="D95" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B96" s="15">
+      <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="205" t="s">
+      <c r="C96" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B97" s="15">
+      <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="206"/>
-      <c r="D97" s="60" t="s">
+      <c r="C97" s="210"/>
+      <c r="D97" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B98" s="15">
+      <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="206"/>
-      <c r="D98" s="60" t="s">
+      <c r="C98" s="210"/>
+      <c r="D98" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B99" s="15">
+      <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="206"/>
-      <c r="D99" s="61" t="s">
+      <c r="C99" s="210"/>
+      <c r="D99" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B100" s="15">
+      <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="205" t="s">
+      <c r="C100" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="D100" s="59" t="s">
+      <c r="D100" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B101" s="15">
+      <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="206"/>
-      <c r="D101" s="60" t="s">
+      <c r="C101" s="210"/>
+      <c r="D101" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="15">
+      <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="206"/>
-      <c r="D102" s="60" t="s">
+      <c r="C102" s="210"/>
+      <c r="D102" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B103" s="15">
+      <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="206"/>
-      <c r="D103" s="61" t="s">
+      <c r="C103" s="210"/>
+      <c r="D103" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B104" s="15">
+      <c r="B104" s="14">
         <v>21</v>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="69"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B105" s="15">
+      <c r="B105" s="14">
         <v>22</v>
       </c>
-      <c r="C105" s="71"/>
-      <c r="D105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="69"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B106" s="15">
+      <c r="B106" s="14">
         <v>23</v>
       </c>
-      <c r="C106" s="71"/>
-      <c r="D106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="69"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="15">
+      <c r="B107" s="14">
         <v>24</v>
       </c>
-      <c r="C107" s="71"/>
-      <c r="D107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="15">
+      <c r="B108" s="14">
         <v>25</v>
       </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="69"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B109" s="15">
+      <c r="B109" s="14">
         <v>26</v>
       </c>
-      <c r="C109" s="71"/>
-      <c r="D109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="69"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B110" s="15">
+      <c r="B110" s="14">
         <v>27</v>
       </c>
-      <c r="C110" s="71"/>
-      <c r="D110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="69"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B111" s="15">
+      <c r="B111" s="14">
         <v>28</v>
       </c>
-      <c r="C111" s="71"/>
-      <c r="D111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="69"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B112" s="15">
+      <c r="B112" s="14">
         <v>29</v>
       </c>
-      <c r="C112" s="71"/>
-      <c r="D112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="69"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B113" s="15">
+      <c r="B113" s="14">
         <v>30</v>
       </c>
-      <c r="C113" s="71"/>
-      <c r="D113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="69"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <v>31</v>
       </c>
-      <c r="C114" s="71"/>
-      <c r="D114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="69"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B115" s="15">
+      <c r="B115" s="14">
         <v>32</v>
       </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="69"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B116" s="15">
+      <c r="B116" s="14">
         <v>33</v>
       </c>
-      <c r="C116" s="71"/>
-      <c r="D116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="69"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B117" s="15">
+      <c r="B117" s="14">
         <v>34</v>
       </c>
-      <c r="C117" s="71"/>
-      <c r="D117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="69"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B118" s="15">
+      <c r="B118" s="14">
         <v>35</v>
       </c>
-      <c r="C118" s="71"/>
-      <c r="D118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="69"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B119" s="15">
+      <c r="B119" s="14">
         <v>36</v>
       </c>
-      <c r="C119" s="71"/>
-      <c r="D119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="69"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B120" s="15">
+      <c r="B120" s="14">
         <v>37</v>
       </c>
-      <c r="C120" s="71"/>
-      <c r="D120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="69"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B121" s="15">
+      <c r="B121" s="14">
         <v>38</v>
       </c>
-      <c r="C121" s="71"/>
-      <c r="D121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="69"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B122" s="15">
+      <c r="B122" s="14">
         <v>39</v>
       </c>
-      <c r="C122" s="71"/>
-      <c r="D122" s="70"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="69"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B123" s="15">
+      <c r="B123" s="14">
         <v>40</v>
       </c>
-      <c r="C123" s="71"/>
-      <c r="D123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="69"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B124" s="15">
+      <c r="B124" s="14">
         <v>41</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B125" s="15">
+      <c r="B125" s="14">
         <v>42</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B126" s="15">
+      <c r="B126" s="14">
         <v>43</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B127" s="15">
+      <c r="B127" s="14">
         <v>44</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B128" s="15">
+      <c r="B128" s="14">
         <v>45</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B129" s="15">
+      <c r="B129" s="14">
         <v>46</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B130" s="15">
+      <c r="B130" s="14">
         <v>47</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B131" s="15">
+      <c r="B131" s="14">
         <v>48</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B132" s="15">
+      <c r="B132" s="14">
         <v>49</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B133" s="15">
+      <c r="B133" s="14">
         <v>50</v>
       </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B134" s="15">
+      <c r="B134" s="14">
         <v>51</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B135" s="15">
+      <c r="B135" s="14">
         <v>52</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B136" s="15">
+      <c r="B136" s="14">
         <v>53</v>
       </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B137" s="15">
+      <c r="B137" s="14">
         <v>54</v>
       </c>
-      <c r="C137" s="68" t="s">
+      <c r="C137" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="84">
+      <c r="D137" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B138" s="15">
+      <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="199" t="s">
+      <c r="C138" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B139" s="15">
+      <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="200"/>
-      <c r="D139" s="56" t="s">
+      <c r="C139" s="215"/>
+      <c r="D139" s="55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B140" s="15">
+      <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="200"/>
-      <c r="D140" s="56" t="s">
+      <c r="C140" s="215"/>
+      <c r="D140" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B141" s="15">
+      <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="201"/>
-      <c r="D141" s="57" t="s">
+      <c r="C141" s="216"/>
+      <c r="D141" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B142" s="15">
+      <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="210" t="s">
+      <c r="C142" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="65"/>
+      <c r="D142" s="64"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B143" s="15">
+      <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="211"/>
-      <c r="D143" s="66"/>
+      <c r="C143" s="205"/>
+      <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="15">
+      <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="212" t="s">
+      <c r="C144" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D144" s="62"/>
+      <c r="D144" s="61"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="15">
+      <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="213"/>
-      <c r="D145" s="63"/>
+      <c r="C145" s="207"/>
+      <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="15">
+      <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="214"/>
-      <c r="D146" s="64"/>
+      <c r="C146" s="208"/>
+      <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -4697,464 +4839,477 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="4"/>
-    <col min="7" max="8" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8">
+      <c r="H6" s="13"/>
+      <c r="I6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8">
+      <c r="H7" s="13"/>
+      <c r="I7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="227"/>
+      <c r="D8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="8">
+      <c r="H8" s="13"/>
+      <c r="I8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8">
+      <c r="H9" s="13"/>
+      <c r="I9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="220" t="s">
+      <c r="C13" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="221"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="227"/>
+      <c r="D14" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="G15" s="14" t="s">
+      <c r="D15" s="38"/>
+      <c r="G15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="215" t="s">
+      <c r="C16" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="125" t="s">
+      <c r="C17" s="222"/>
+      <c r="D17" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="86" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="217" t="s">
+      <c r="G21" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="218"/>
-      <c r="I21" s="219"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="225"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="221"/>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="227"/>
+      <c r="D23" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>7</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="G24" s="14" t="s">
+      <c r="D24" s="38"/>
+      <c r="G24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8">
+      <c r="H24" s="15"/>
+      <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>8</v>
       </c>
-      <c r="C25" s="215" t="s">
+      <c r="C25" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E25" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="8">
+      <c r="H25" s="15"/>
+      <c r="I25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>9</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="125" t="s">
+      <c r="C26" s="222"/>
+      <c r="D26" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="8">
+      <c r="H26" s="15"/>
+      <c r="I26" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>10</v>
       </c>
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="G27" s="14" t="s">
+      <c r="D27" s="50"/>
+      <c r="G27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="9">
+      <c r="H27" s="36"/>
+      <c r="I27" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>11</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="224" t="s">
+      <c r="D28" s="156" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>12</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>13</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="53" t="s">
+      <c r="C30" s="113"/>
+      <c r="D30" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="8">
+      <c r="H30" s="13"/>
+      <c r="I30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>14</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="53" t="s">
+      <c r="C31" s="113"/>
+      <c r="D31" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="8">
+      <c r="H31" s="13"/>
+      <c r="I31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>15</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="114"/>
+      <c r="D32" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>16</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>17</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="117" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>18</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="119" t="s">
+      <c r="C35" s="116"/>
+      <c r="D35" s="118" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5179,7 +5334,7 @@
   <dimension ref="C4:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E20"/>
+      <selection activeCell="C4" sqref="C4:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5188,147 +5343,147 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="94"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="93"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>4</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="17" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C17" s="15">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="17" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C18" s="50">
+    <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C18" s="49">
         <v>4</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C19" s="26" t="s">
+    <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C19" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C20" s="26" t="s">
+    <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C20" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="136"/>
+      <c r="E20" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C21" s="15" t="s">
+    <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C21" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="135"/>
+      <c r="E21" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5342,6 +5497,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="49">
+        <v>4</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="25">
+        <v>5</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="25">
+        <v>6</v>
+      </c>
+      <c r="D14" s="153"/>
+      <c r="E14" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="14">
+        <v>7</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="14">
+        <v>7</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="14">
+        <v>8</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BO21"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
@@ -5350,852 +5646,838 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
-    <col min="4" max="6" width="2.6640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" style="5" customWidth="1"/>
-    <col min="9" max="54" width="2.6640625" style="6" customWidth="1"/>
-    <col min="55" max="57" width="2.6640625" style="5" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.6640625" style="5" customWidth="1"/>
-    <col min="68" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="6" width="2.6640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9" max="54" width="2.6640625" style="5" customWidth="1"/>
+    <col min="55" max="57" width="2.6640625" style="4" customWidth="1"/>
+    <col min="58" max="58" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.6640625" style="4" customWidth="1"/>
+    <col min="68" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="168" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="168" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="168"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="168" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="151"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="166"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="171"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="172" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="173"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="166"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="171"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="151"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="166"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="171"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="168" t="s">
+      <c r="C11" s="179"/>
+      <c r="D11" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="168" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="168" t="s">
+      <c r="C13" s="177"/>
+      <c r="D13" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="165"/>
+      <c r="D15" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="85" t="s">
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="90"/>
-      <c r="BC17" s="90"/>
-      <c r="BD17" s="90"/>
-      <c r="BE17" s="90"/>
-      <c r="BF17" s="84" t="s">
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="89"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89"/>
+      <c r="AY17" s="89"/>
+      <c r="AZ17" s="89"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="89"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="163" t="s">
+      <c r="BG17" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="163"/>
-      <c r="BI17" s="163"/>
-      <c r="BJ17" s="163"/>
-      <c r="BK17" s="162" t="s">
+      <c r="BH17" s="178"/>
+      <c r="BI17" s="178"/>
+      <c r="BJ17" s="178"/>
+      <c r="BK17" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="162"/>
-      <c r="BM17" s="161" t="s">
+      <c r="BL17" s="177"/>
+      <c r="BM17" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="161"/>
-      <c r="BO17" s="161"/>
+      <c r="BN17" s="165"/>
+      <c r="BO17" s="165"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>3</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>5</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>6</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>7</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>8</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>9</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>10</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>11</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>12</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>13</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>14</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>15</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <v>16</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>17</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>18</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="8">
         <v>19</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="8">
         <v>20</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <v>21</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="8">
         <v>22</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="8">
         <v>23</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="8">
         <v>24</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="8">
         <v>25</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="8">
         <v>26</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AE18" s="8">
         <v>27</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="8">
         <v>28</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="8">
         <v>29</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AH18" s="8">
         <v>30</v>
       </c>
-      <c r="AI18" s="9">
+      <c r="AI18" s="8">
         <v>31</v>
       </c>
-      <c r="AJ18" s="9">
+      <c r="AJ18" s="8">
         <v>32</v>
       </c>
-      <c r="AK18" s="9">
+      <c r="AK18" s="8">
         <v>33</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AL18" s="8">
         <v>34</v>
       </c>
-      <c r="AM18" s="9">
+      <c r="AM18" s="8">
         <v>35</v>
       </c>
-      <c r="AN18" s="9">
+      <c r="AN18" s="8">
         <v>36</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AO18" s="8">
         <v>37</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AP18" s="8">
         <v>38</v>
       </c>
-      <c r="AQ18" s="9">
+      <c r="AQ18" s="8">
         <v>39</v>
       </c>
-      <c r="AR18" s="9">
+      <c r="AR18" s="8">
         <v>40</v>
       </c>
-      <c r="AS18" s="9">
+      <c r="AS18" s="8">
         <v>41</v>
       </c>
-      <c r="AT18" s="9">
+      <c r="AT18" s="8">
         <v>42</v>
       </c>
-      <c r="AU18" s="9">
+      <c r="AU18" s="8">
         <v>43</v>
       </c>
-      <c r="AV18" s="9">
+      <c r="AV18" s="8">
         <v>44</v>
       </c>
-      <c r="AW18" s="9">
+      <c r="AW18" s="8">
         <v>45</v>
       </c>
-      <c r="AX18" s="9">
+      <c r="AX18" s="8">
         <v>46</v>
       </c>
-      <c r="AY18" s="9">
+      <c r="AY18" s="8">
         <v>47</v>
       </c>
-      <c r="AZ18" s="9">
+      <c r="AZ18" s="8">
         <v>48</v>
       </c>
-      <c r="BA18" s="9">
+      <c r="BA18" s="8">
         <v>49</v>
       </c>
-      <c r="BB18" s="9">
+      <c r="BB18" s="8">
         <v>50</v>
       </c>
-      <c r="BC18" s="8">
+      <c r="BC18" s="7">
         <v>51</v>
       </c>
-      <c r="BD18" s="8">
+      <c r="BD18" s="7">
         <v>52</v>
       </c>
-      <c r="BE18" s="8">
+      <c r="BE18" s="7">
         <v>53</v>
       </c>
-      <c r="BF18" s="8">
+      <c r="BF18" s="7">
         <v>54</v>
       </c>
-      <c r="BG18" s="8">
+      <c r="BG18" s="7">
         <v>55</v>
       </c>
-      <c r="BH18" s="8">
+      <c r="BH18" s="7">
         <v>56</v>
       </c>
-      <c r="BI18" s="8">
+      <c r="BI18" s="7">
         <v>57</v>
       </c>
-      <c r="BJ18" s="8">
+      <c r="BJ18" s="7">
         <v>58</v>
       </c>
-      <c r="BK18" s="8">
+      <c r="BK18" s="7">
         <v>59</v>
       </c>
-      <c r="BL18" s="8">
+      <c r="BL18" s="7">
         <v>60</v>
       </c>
-      <c r="BM18" s="8">
+      <c r="BM18" s="7">
         <v>61</v>
       </c>
-      <c r="BN18" s="8">
+      <c r="BN18" s="7">
         <v>62</v>
       </c>
-      <c r="BO18" s="8">
+      <c r="BO18" s="7">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="151" t="s">
+      <c r="I20" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="152"/>
-      <c r="V20" s="152"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="152"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="152"/>
-      <c r="AA20" s="152"/>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="152"/>
-      <c r="AD20" s="152"/>
-      <c r="AE20" s="152"/>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="152"/>
-      <c r="AI20" s="152"/>
-      <c r="AJ20" s="152"/>
-      <c r="AK20" s="152"/>
-      <c r="AL20" s="152"/>
-      <c r="AM20" s="152"/>
-      <c r="AN20" s="152"/>
-      <c r="AO20" s="152"/>
-      <c r="AP20" s="152"/>
-      <c r="AQ20" s="152"/>
-      <c r="AR20" s="152"/>
-      <c r="AS20" s="152"/>
-      <c r="AT20" s="152"/>
-      <c r="AU20" s="152"/>
-      <c r="AV20" s="152"/>
-      <c r="AW20" s="152"/>
-      <c r="AX20" s="152"/>
-      <c r="AY20" s="152"/>
-      <c r="AZ20" s="152"/>
-      <c r="BA20" s="152"/>
-      <c r="BB20" s="152"/>
-      <c r="BC20" s="152"/>
-      <c r="BD20" s="152"/>
-      <c r="BE20" s="153"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="158"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="158"/>
+      <c r="V20" s="158"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="158"/>
+      <c r="AD20" s="158"/>
+      <c r="AE20" s="158"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="158"/>
+      <c r="AJ20" s="158"/>
+      <c r="AK20" s="158"/>
+      <c r="AL20" s="158"/>
+      <c r="AM20" s="158"/>
+      <c r="AN20" s="158"/>
+      <c r="AO20" s="158"/>
+      <c r="AP20" s="158"/>
+      <c r="AQ20" s="158"/>
+      <c r="AR20" s="158"/>
+      <c r="AS20" s="158"/>
+      <c r="AT20" s="158"/>
+      <c r="AU20" s="158"/>
+      <c r="AV20" s="158"/>
+      <c r="AW20" s="158"/>
+      <c r="AX20" s="158"/>
+      <c r="AY20" s="158"/>
+      <c r="AZ20" s="158"/>
+      <c r="BA20" s="158"/>
+      <c r="BB20" s="158"/>
+      <c r="BC20" s="158"/>
+      <c r="BD20" s="158"/>
+      <c r="BE20" s="159"/>
     </row>
     <row r="21" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I21" s="127">
+      <c r="I21" s="126">
         <v>1</v>
       </c>
-      <c r="J21" s="128">
+      <c r="J21" s="127">
         <v>2</v>
       </c>
-      <c r="K21" s="128">
+      <c r="K21" s="127">
         <v>3</v>
       </c>
-      <c r="L21" s="128">
+      <c r="L21" s="127">
         <v>4</v>
       </c>
-      <c r="M21" s="128">
+      <c r="M21" s="127">
         <v>5</v>
       </c>
-      <c r="N21" s="128">
+      <c r="N21" s="127">
         <v>6</v>
       </c>
-      <c r="O21" s="128">
+      <c r="O21" s="127">
         <v>7</v>
       </c>
-      <c r="P21" s="128">
+      <c r="P21" s="127">
         <v>8</v>
       </c>
-      <c r="Q21" s="128">
+      <c r="Q21" s="127">
         <v>9</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R21" s="127">
         <v>10</v>
       </c>
-      <c r="S21" s="128">
+      <c r="S21" s="127">
         <v>11</v>
       </c>
-      <c r="T21" s="128">
+      <c r="T21" s="127">
         <v>12</v>
       </c>
-      <c r="U21" s="128">
+      <c r="U21" s="127">
         <v>13</v>
       </c>
-      <c r="V21" s="128">
+      <c r="V21" s="127">
         <v>14</v>
       </c>
-      <c r="W21" s="128">
+      <c r="W21" s="127">
         <v>15</v>
       </c>
-      <c r="X21" s="128">
+      <c r="X21" s="127">
         <v>16</v>
       </c>
-      <c r="Y21" s="128">
+      <c r="Y21" s="127">
         <v>17</v>
       </c>
-      <c r="Z21" s="128">
+      <c r="Z21" s="127">
         <v>18</v>
       </c>
-      <c r="AA21" s="128">
+      <c r="AA21" s="127">
         <v>19</v>
       </c>
-      <c r="AB21" s="128">
+      <c r="AB21" s="127">
         <v>20</v>
       </c>
-      <c r="AC21" s="128">
+      <c r="AC21" s="127">
         <v>21</v>
       </c>
-      <c r="AD21" s="128">
+      <c r="AD21" s="127">
         <v>22</v>
       </c>
-      <c r="AE21" s="128">
+      <c r="AE21" s="127">
         <v>23</v>
       </c>
-      <c r="AF21" s="128">
+      <c r="AF21" s="127">
         <v>24</v>
       </c>
-      <c r="AG21" s="128">
+      <c r="AG21" s="127">
         <v>25</v>
       </c>
-      <c r="AH21" s="128">
+      <c r="AH21" s="127">
         <v>26</v>
       </c>
-      <c r="AI21" s="128">
+      <c r="AI21" s="127">
         <v>27</v>
       </c>
-      <c r="AJ21" s="128">
+      <c r="AJ21" s="127">
         <v>28</v>
       </c>
-      <c r="AK21" s="128">
+      <c r="AK21" s="127">
         <v>29</v>
       </c>
-      <c r="AL21" s="128">
+      <c r="AL21" s="127">
         <v>30</v>
       </c>
-      <c r="AM21" s="128">
+      <c r="AM21" s="127">
         <v>31</v>
       </c>
-      <c r="AN21" s="128">
+      <c r="AN21" s="127">
         <v>32</v>
       </c>
-      <c r="AO21" s="128">
+      <c r="AO21" s="127">
         <v>33</v>
       </c>
-      <c r="AP21" s="128">
+      <c r="AP21" s="127">
         <v>34</v>
       </c>
-      <c r="AQ21" s="128">
+      <c r="AQ21" s="127">
         <v>35</v>
       </c>
-      <c r="AR21" s="128">
+      <c r="AR21" s="127">
         <v>36</v>
       </c>
-      <c r="AS21" s="128">
+      <c r="AS21" s="127">
         <v>37</v>
       </c>
-      <c r="AT21" s="128">
+      <c r="AT21" s="127">
         <v>38</v>
       </c>
-      <c r="AU21" s="128">
+      <c r="AU21" s="127">
         <v>39</v>
       </c>
-      <c r="AV21" s="128">
+      <c r="AV21" s="127">
         <v>40</v>
       </c>
-      <c r="AW21" s="128">
+      <c r="AW21" s="127">
         <v>41</v>
       </c>
-      <c r="AX21" s="128">
+      <c r="AX21" s="127">
         <v>42</v>
       </c>
-      <c r="AY21" s="128">
+      <c r="AY21" s="127">
         <v>43</v>
       </c>
-      <c r="AZ21" s="128">
+      <c r="AZ21" s="127">
         <v>44</v>
       </c>
-      <c r="BA21" s="128">
+      <c r="BA21" s="127">
         <v>45</v>
       </c>
-      <c r="BB21" s="128">
+      <c r="BB21" s="127">
         <v>46</v>
       </c>
-      <c r="BC21" s="128">
+      <c r="BC21" s="127">
         <v>47</v>
       </c>
-      <c r="BD21" s="128">
+      <c r="BD21" s="127">
         <v>48</v>
       </c>
-      <c r="BE21" s="129">
+      <c r="BE21" s="128">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6212,13 +6494,27 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H21"/>
   <sheetViews>
@@ -6228,172 +6524,172 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="E5" s="94"/>
+      <c r="C5" s="160"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8">
+      <c r="G7" s="12"/>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="8">
+      <c r="G8" s="12"/>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="77"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="77"/>
+      <c r="D10" s="109"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="160"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="50">
+      <c r="B14" s="49">
         <v>4</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>5</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>6</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="122"/>
+      <c r="D16" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>7</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="110"/>
+      <c r="D17" s="109"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6406,7 +6702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -6416,51 +6712,51 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="8" spans="2:4" s="73" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="8" spans="2:4" s="72" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -6469,7 +6765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
@@ -6479,168 +6775,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="4" width="11.83203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="14.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="4" width="11.83203125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="14.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="187" t="s">
+      <c r="F5" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="188"/>
-      <c r="H5" s="189"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="190" t="s">
+      <c r="F6" s="196" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="182"/>
+      <c r="D7" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>8</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="100" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="193" t="s">
+      <c r="F8" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="201"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="180"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="102" t="s">
+      <c r="C10" s="191"/>
+      <c r="D10" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="102" t="s">
+      <c r="C11" s="191"/>
+      <c r="D11" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="180"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>12</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="103" t="s">
+      <c r="C12" s="192"/>
+      <c r="D12" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="180"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>13</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="180"/>
+      <c r="D13" s="104"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>14</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
+      <c r="D14" s="106"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6656,7 +6952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
@@ -6666,222 +6962,222 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="7" width="30.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8">
+      <c r="G6" s="13"/>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="43"/>
+      <c r="F7" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8">
+      <c r="G8" s="13"/>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>7</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8">
+      <c r="G9" s="13"/>
+      <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8">
+      <c r="G10" s="13"/>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="8">
+      <c r="G11" s="13"/>
+      <c r="H11" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="47"/>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="46"/>
+      <c r="F12" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="46"/>
+      <c r="F13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="8">
+      <c r="G13" s="13"/>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="47"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="46"/>
+      <c r="F14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="47"/>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="46"/>
+      <c r="F15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="8">
+      <c r="G15" s="13"/>
+      <c r="H15" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8">
+      <c r="G17" s="13"/>
+      <c r="H17" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8">
+      <c r="G19" s="13"/>
+      <c r="H19" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8">
+      <c r="G21" s="13"/>
+      <c r="H21" s="7">
         <v>255</v>
       </c>
     </row>
@@ -6893,226 +7189,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+      <selection activeCell="B2" sqref="B2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="7" width="19" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="C5" s="160"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="197" t="s">
+      <c r="F6" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="197"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="73"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8">
+      <c r="G7" s="13"/>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8">
+      <c r="G8" s="13"/>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8">
+      <c r="G9" s="13"/>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8">
+      <c r="G10" s="13"/>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="73"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="202"/>
+      <c r="F13" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8">
+      <c r="G13" s="12"/>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="50">
+      <c r="B17" s="49">
         <v>4</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>5</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>6</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>7</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="145" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>7</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="146"/>
+      <c r="D21" s="147" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>8</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7127,141 +7423,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="4" width="19.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="20.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="151" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="154"/>
-      <c r="E5" s="94"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
-        <v>4</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="26">
-        <v>7</v>
-      </c>
-      <c r="C10" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="142" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="26">
-        <v>7</v>
-      </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="155" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36940" yWindow="3660" windowWidth="28800" windowHeight="16840" tabRatio="804" activeTab="2"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="INITIALIZE_SYSTEM" sheetId="11" r:id="rId8"/>
     <sheet name="CMD_GET_VALUE" sheetId="12" r:id="rId9"/>
     <sheet name="CMD_SET_VALUE" sheetId="18" r:id="rId10"/>
-    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId11"/>
-    <sheet name="IMU_DATA" sheetId="15" r:id="rId12"/>
-    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId13"/>
+    <sheet name="CONFIGURE_PIN" sheetId="9" r:id="rId11"/>
+    <sheet name="IMU_SETTINGS" sheetId="8" r:id="rId12"/>
+    <sheet name="IMU_DATA" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="195">
   <si>
     <t>CMD</t>
   </si>
@@ -600,6 +600,30 @@
   </si>
   <si>
     <t>CMD_VALUE</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>MIN LINEAR ACCELERATION</t>
+  </si>
+  <si>
+    <t>IMU_GET_DATA_COMPONENT_SENSOR</t>
+  </si>
+  <si>
+    <t>IMU_GET_ALL_DATA</t>
+  </si>
+  <si>
+    <t>IMU_GET_DATA_COMPONENT_SENSOR_NORMALIZED</t>
+  </si>
+  <si>
+    <t>IMU_GET_DATA_QUATERNION</t>
+  </si>
+  <si>
+    <t>IMU_GET_DATA_LINEARACCELERATION</t>
+  </si>
+  <si>
+    <t>IMU_GET_DATA_QUATERNION_LINEARACCELERATION</t>
   </si>
 </sst>
 </file>
@@ -663,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +847,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1426,15 +1456,6 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,13 +1468,79 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,37 +1549,10 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,11 +1621,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,42 +1675,6 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,11 +1696,12 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2502,17 +2560,17 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="228">
+      <c r="B45" s="164">
         <v>254</v>
       </c>
-      <c r="C45" s="228">
+      <c r="C45" s="164">
         <v>0</v>
       </c>
-      <c r="D45" s="228" t="s">
+      <c r="D45" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="229"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="165"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="107">
@@ -2551,17 +2609,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="169"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -2652,11 +2710,11 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2670,10 +2728,482 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C29" sqref="C29:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="236"/>
+      <c r="D8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="14">
+        <v>4</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="25">
+        <v>5</v>
+      </c>
+      <c r="C13" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="25">
+        <v>6</v>
+      </c>
+      <c r="C14" s="236"/>
+      <c r="D14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="25">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="G15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="25">
+        <v>8</v>
+      </c>
+      <c r="C16" s="230" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="25">
+        <v>9</v>
+      </c>
+      <c r="C17" s="231"/>
+      <c r="D17" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="233"/>
+      <c r="I21" s="234"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="14">
+        <v>6</v>
+      </c>
+      <c r="C23" s="236"/>
+      <c r="D23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="14">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="G24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="14">
+        <v>8</v>
+      </c>
+      <c r="C25" s="230" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="14">
+        <v>9</v>
+      </c>
+      <c r="C26" s="231"/>
+      <c r="D26" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="14">
+        <v>10</v>
+      </c>
+      <c r="C27" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="G27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="I27" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="14">
+        <v>11</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="156" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="14">
+        <v>12</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="14">
+        <v>13</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="14">
+        <v>14</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="14">
+        <v>15</v>
+      </c>
+      <c r="C32" s="114"/>
+      <c r="D32" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="14">
+        <v>16</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="14">
+        <v>17</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="14">
+        <v>18</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2682,18 +3212,19 @@
     <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="27" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="57"/>
@@ -2701,10 +3232,10 @@
       <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="169"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="14">
@@ -2818,6 +3349,16 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="230" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="125"/>
       <c r="F12" s="13" t="s">
         <v>53</v>
       </c>
@@ -2829,8 +3370,12 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="74" t="s">
-        <v>146</v>
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="231"/>
+      <c r="D13" s="124" t="s">
+        <v>80</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>54</v>
@@ -2841,11 +3386,13 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="237" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="238"/>
       <c r="F14" s="13" t="s">
         <v>55</v>
       </c>
@@ -2855,23 +3402,40 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" s="71"/>
       <c r="G15" s="75"/>
       <c r="H15" s="76"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2883,6 +3447,13 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="F18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2892,11 +3463,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
+      <c r="B19" s="46"/>
       <c r="F19" s="13" t="s">
         <v>39</v>
       </c>
@@ -2909,25 +3476,20 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="160" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="160"/>
+      <c r="B21" s="74" t="s">
+        <v>146</v>
+      </c>
       <c r="F21" s="89" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="B22" s="170" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
       <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
@@ -2939,15 +3501,6 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="14">
-        <v>4</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>4</v>
-      </c>
       <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
@@ -2957,6 +3510,9 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="46"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="111"/>
       <c r="F24" s="13" t="s">
         <v>43</v>
       </c>
@@ -2966,9 +3522,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="74" t="s">
-        <v>146</v>
-      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
       <c r="F25" s="13" t="s">
         <v>44</v>
       </c>
@@ -2978,11 +3534,6 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="163"/>
       <c r="F26" s="13" t="s">
         <v>45</v>
       </c>
@@ -2992,6 +3543,11 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
       <c r="F27" s="13" t="s">
         <v>46</v>
       </c>
@@ -3001,15 +3557,6 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>23</v>
-      </c>
       <c r="F28" s="13" t="s">
         <v>47</v>
       </c>
@@ -3018,16 +3565,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="14">
-        <v>4</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B29" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="157"/>
       <c r="F29" s="13" t="s">
         <v>48</v>
       </c>
@@ -3038,35 +3580,32 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="14">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="C30" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="14">
-        <v>6</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="14">
-        <v>7</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="33"/>
       <c r="F32" s="13" t="s">
         <v>64</v>
       </c>
@@ -3076,13 +3615,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="14">
-        <v>8</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="41"/>
+      <c r="B33" s="74" t="s">
+        <v>146</v>
+      </c>
       <c r="F33" s="13" t="s">
         <v>63</v>
       </c>
@@ -3092,34 +3627,213 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="14">
+      <c r="B34" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="239" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="14">
+        <v>3</v>
+      </c>
+      <c r="C36" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="14">
+        <v>4</v>
+      </c>
+      <c r="C37" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="14">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="F38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="14">
+        <v>6</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="F39" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="14">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="F40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="14">
+        <v>8</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="F41" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="14">
         <v>9</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="14">
+        <v>10</v>
+      </c>
+      <c r="C43" s="230" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="14">
+        <v>11</v>
+      </c>
+      <c r="C44" s="231"/>
+      <c r="D44" s="124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="14">
+        <v>12</v>
+      </c>
+      <c r="C45" s="237" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="238"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="14">
+        <v>13</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="14">
+        <v>14</v>
+      </c>
+      <c r="C47" s="113"/>
+      <c r="D47" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="14">
+        <v>15</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="14">
+        <v>16</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="53" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W146"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3141,29 +3855,29 @@
       <c r="D2" s="176"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="169"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="217" t="s">
+      <c r="G4" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B5" s="14">
@@ -3465,11 +4179,11 @@
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="163"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
       <c r="F12" s="48"/>
       <c r="G12" s="71"/>
       <c r="H12" s="71"/>
@@ -3517,7 +4231,7 @@
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="211" t="s">
+      <c r="C15" s="217" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
@@ -3526,14 +4240,14 @@
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="212"/>
+      <c r="C16" s="218"/>
       <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="213"/>
+      <c r="C17" s="219"/>
       <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
@@ -3562,7 +4276,7 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="209" t="s">
+      <c r="C20" s="220" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -3573,7 +4287,7 @@
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="210"/>
+      <c r="C21" s="221"/>
       <c r="D21" s="59" t="s">
         <v>80</v>
       </c>
@@ -3582,7 +4296,7 @@
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="210"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="59" t="s">
         <v>82</v>
       </c>
@@ -3591,7 +4305,7 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="210"/>
+      <c r="C23" s="221"/>
       <c r="D23" s="60" t="s">
         <v>81</v>
       </c>
@@ -3600,7 +4314,7 @@
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="220" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -3611,7 +4325,7 @@
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="210"/>
+      <c r="C25" s="221"/>
       <c r="D25" s="59" t="s">
         <v>80</v>
       </c>
@@ -3637,7 +4351,7 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="210"/>
+      <c r="C26" s="221"/>
       <c r="D26" s="59" t="s">
         <v>82</v>
       </c>
@@ -3646,7 +4360,7 @@
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="210"/>
+      <c r="C27" s="221"/>
       <c r="D27" s="60" t="s">
         <v>81</v>
       </c>
@@ -3655,7 +4369,7 @@
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="220" t="s">
         <v>128</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -3666,7 +4380,7 @@
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="210"/>
+      <c r="C29" s="221"/>
       <c r="D29" s="59" t="s">
         <v>80</v>
       </c>
@@ -3675,7 +4389,7 @@
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="210"/>
+      <c r="C30" s="221"/>
       <c r="D30" s="59" t="s">
         <v>82</v>
       </c>
@@ -3684,7 +4398,7 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="210"/>
+      <c r="C31" s="221"/>
       <c r="D31" s="60" t="s">
         <v>81</v>
       </c>
@@ -3693,7 +4407,7 @@
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="209" t="s">
+      <c r="C32" s="220" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -3704,7 +4418,7 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="210"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="59" t="s">
         <v>80</v>
       </c>
@@ -3713,7 +4427,7 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="210"/>
+      <c r="C34" s="221"/>
       <c r="D34" s="59" t="s">
         <v>82</v>
       </c>
@@ -3739,7 +4453,7 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="210"/>
+      <c r="C35" s="221"/>
       <c r="D35" s="60" t="s">
         <v>81</v>
       </c>
@@ -3765,7 +4479,7 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="209" t="s">
+      <c r="C36" s="220" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -3793,7 +4507,7 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="210"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="59" t="s">
         <v>80</v>
       </c>
@@ -3819,7 +4533,7 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="210"/>
+      <c r="C38" s="221"/>
       <c r="D38" s="59" t="s">
         <v>82</v>
       </c>
@@ -3841,7 +4555,7 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="210"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="60" t="s">
         <v>81</v>
       </c>
@@ -3863,7 +4577,7 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="220" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -3887,7 +4601,7 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="210"/>
+      <c r="C41" s="221"/>
       <c r="D41" s="59" t="s">
         <v>80</v>
       </c>
@@ -3913,7 +4627,7 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="210"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="59" t="s">
         <v>82</v>
       </c>
@@ -3939,7 +4653,7 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="210"/>
+      <c r="C43" s="221"/>
       <c r="D43" s="60" t="s">
         <v>81</v>
       </c>
@@ -3965,7 +4679,7 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="220" t="s">
         <v>136</v>
       </c>
       <c r="D44" s="58" t="s">
@@ -3993,7 +4707,7 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="210"/>
+      <c r="C45" s="221"/>
       <c r="D45" s="59" t="s">
         <v>80</v>
       </c>
@@ -4002,7 +4716,7 @@
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="210"/>
+      <c r="C46" s="221"/>
       <c r="D46" s="59" t="s">
         <v>82</v>
       </c>
@@ -4011,7 +4725,7 @@
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="210"/>
+      <c r="C47" s="221"/>
       <c r="D47" s="60" t="s">
         <v>81</v>
       </c>
@@ -4020,7 +4734,7 @@
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="209" t="s">
+      <c r="C48" s="220" t="s">
         <v>137</v>
       </c>
       <c r="D48" s="58" t="s">
@@ -4031,7 +4745,7 @@
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="210"/>
+      <c r="C49" s="221"/>
       <c r="D49" s="59" t="s">
         <v>80</v>
       </c>
@@ -4040,7 +4754,7 @@
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="210"/>
+      <c r="C50" s="221"/>
       <c r="D50" s="59" t="s">
         <v>82</v>
       </c>
@@ -4049,7 +4763,7 @@
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="210"/>
+      <c r="C51" s="221"/>
       <c r="D51" s="60" t="s">
         <v>81</v>
       </c>
@@ -4058,7 +4772,7 @@
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="218" t="s">
+      <c r="C52" s="222" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -4069,7 +4783,7 @@
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="219"/>
+      <c r="C53" s="223"/>
       <c r="D53" s="59" t="s">
         <v>80</v>
       </c>
@@ -4078,7 +4792,7 @@
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="219"/>
+      <c r="C54" s="223"/>
       <c r="D54" s="59" t="s">
         <v>82</v>
       </c>
@@ -4087,7 +4801,7 @@
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="220"/>
+      <c r="C55" s="224"/>
       <c r="D55" s="60" t="s">
         <v>81</v>
       </c>
@@ -4096,7 +4810,7 @@
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="209" t="s">
+      <c r="C56" s="220" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -4107,7 +4821,7 @@
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="210"/>
+      <c r="C57" s="221"/>
       <c r="D57" s="59" t="s">
         <v>80</v>
       </c>
@@ -4116,7 +4830,7 @@
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="210"/>
+      <c r="C58" s="221"/>
       <c r="D58" s="59" t="s">
         <v>82</v>
       </c>
@@ -4125,7 +4839,7 @@
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="210"/>
+      <c r="C59" s="221"/>
       <c r="D59" s="60" t="s">
         <v>81</v>
       </c>
@@ -4134,7 +4848,7 @@
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="209" t="s">
+      <c r="C60" s="220" t="s">
         <v>140</v>
       </c>
       <c r="D60" s="58" t="s">
@@ -4145,7 +4859,7 @@
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="210"/>
+      <c r="C61" s="221"/>
       <c r="D61" s="59" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4868,7 @@
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="210"/>
+      <c r="C62" s="221"/>
       <c r="D62" s="59" t="s">
         <v>82</v>
       </c>
@@ -4163,7 +4877,7 @@
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="210"/>
+      <c r="C63" s="221"/>
       <c r="D63" s="60" t="s">
         <v>81</v>
       </c>
@@ -4172,7 +4886,7 @@
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="209" t="s">
+      <c r="C64" s="220" t="s">
         <v>141</v>
       </c>
       <c r="D64" s="58" t="s">
@@ -4183,7 +4897,7 @@
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="210"/>
+      <c r="C65" s="221"/>
       <c r="D65" s="59" t="s">
         <v>80</v>
       </c>
@@ -4192,7 +4906,7 @@
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="210"/>
+      <c r="C66" s="221"/>
       <c r="D66" s="59" t="s">
         <v>82</v>
       </c>
@@ -4201,7 +4915,7 @@
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="210"/>
+      <c r="C67" s="221"/>
       <c r="D67" s="60" t="s">
         <v>81</v>
       </c>
@@ -4266,7 +4980,7 @@
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="204" t="s">
+      <c r="C74" s="225" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
@@ -4275,14 +4989,14 @@
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="205"/>
+      <c r="C75" s="226"/>
       <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="206" t="s">
+      <c r="C76" s="227" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
@@ -4291,14 +5005,14 @@
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="207"/>
+      <c r="C77" s="228"/>
       <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="208"/>
+      <c r="C78" s="229"/>
       <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
@@ -4310,7 +5024,7 @@
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="211" t="s">
+      <c r="C83" s="217" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
@@ -4319,14 +5033,14 @@
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="212"/>
+      <c r="C84" s="218"/>
       <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="213"/>
+      <c r="C85" s="219"/>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
@@ -4355,7 +5069,7 @@
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="209" t="s">
+      <c r="C88" s="220" t="s">
         <v>142</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -4366,7 +5080,7 @@
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="210"/>
+      <c r="C89" s="221"/>
       <c r="D89" s="59" t="s">
         <v>80</v>
       </c>
@@ -4375,7 +5089,7 @@
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="210"/>
+      <c r="C90" s="221"/>
       <c r="D90" s="59" t="s">
         <v>82</v>
       </c>
@@ -4384,7 +5098,7 @@
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="210"/>
+      <c r="C91" s="221"/>
       <c r="D91" s="60" t="s">
         <v>81</v>
       </c>
@@ -4393,7 +5107,7 @@
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="209" t="s">
+      <c r="C92" s="220" t="s">
         <v>143</v>
       </c>
       <c r="D92" s="58" t="s">
@@ -4404,7 +5118,7 @@
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="210"/>
+      <c r="C93" s="221"/>
       <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
@@ -4413,7 +5127,7 @@
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="210"/>
+      <c r="C94" s="221"/>
       <c r="D94" s="59" t="s">
         <v>82</v>
       </c>
@@ -4422,7 +5136,7 @@
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="210"/>
+      <c r="C95" s="221"/>
       <c r="D95" s="60" t="s">
         <v>81</v>
       </c>
@@ -4431,7 +5145,7 @@
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="209" t="s">
+      <c r="C96" s="220" t="s">
         <v>144</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -4442,7 +5156,7 @@
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="210"/>
+      <c r="C97" s="221"/>
       <c r="D97" s="59" t="s">
         <v>80</v>
       </c>
@@ -4451,7 +5165,7 @@
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="210"/>
+      <c r="C98" s="221"/>
       <c r="D98" s="59" t="s">
         <v>82</v>
       </c>
@@ -4460,7 +5174,7 @@
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="210"/>
+      <c r="C99" s="221"/>
       <c r="D99" s="60" t="s">
         <v>81</v>
       </c>
@@ -4469,7 +5183,7 @@
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="209" t="s">
+      <c r="C100" s="220" t="s">
         <v>145</v>
       </c>
       <c r="D100" s="58" t="s">
@@ -4480,7 +5194,7 @@
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="210"/>
+      <c r="C101" s="221"/>
       <c r="D101" s="59" t="s">
         <v>80</v>
       </c>
@@ -4489,7 +5203,7 @@
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="210"/>
+      <c r="C102" s="221"/>
       <c r="D102" s="59" t="s">
         <v>82</v>
       </c>
@@ -4498,7 +5212,7 @@
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="210"/>
+      <c r="C103" s="221"/>
       <c r="D103" s="60" t="s">
         <v>81</v>
       </c>
@@ -4787,7 +5501,7 @@
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="204" t="s">
+      <c r="C142" s="225" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
@@ -4796,14 +5510,14 @@
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="205"/>
+      <c r="C143" s="226"/>
       <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="206" t="s">
+      <c r="C144" s="227" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
@@ -4812,18 +5526,31 @@
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="207"/>
+      <c r="C145" s="228"/>
       <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="208"/>
+      <c r="C146" s="229"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -4839,493 +5566,8 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="25">
-        <v>5</v>
-      </c>
-      <c r="C7" s="226" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="25">
-        <v>6</v>
-      </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="G9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="14">
-        <v>3</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="14">
-        <v>4</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="25">
-        <v>5</v>
-      </c>
-      <c r="C13" s="226" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="25">
-        <v>6</v>
-      </c>
-      <c r="C14" s="227"/>
-      <c r="D14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="25">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="G15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="8">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="25">
-        <v>8</v>
-      </c>
-      <c r="C16" s="221" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="25">
-        <v>9</v>
-      </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="14">
-        <v>3</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="14">
-        <v>4</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="223" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="224"/>
-      <c r="I21" s="225"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="14">
-        <v>5</v>
-      </c>
-      <c r="C22" s="226" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="125" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="14">
-        <v>6</v>
-      </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="14">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="G24" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="14">
-        <v>8</v>
-      </c>
-      <c r="C25" s="221" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="14">
-        <v>9</v>
-      </c>
-      <c r="C26" s="222"/>
-      <c r="D26" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="14">
-        <v>10</v>
-      </c>
-      <c r="C27" s="154" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="G27" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="14">
-        <v>11</v>
-      </c>
-      <c r="C28" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="156" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="14">
-        <v>12</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="14">
-        <v>13</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="14">
-        <v>14</v>
-      </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="14">
-        <v>15</v>
-      </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="14">
-        <v>16</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="51"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="14">
-        <v>17</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="117" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="14">
-        <v>18</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="118" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5343,11 +5585,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
@@ -5363,10 +5605,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="160"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="3"/>
       <c r="F7" s="93"/>
     </row>
@@ -5421,11 +5663,11 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
@@ -5499,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5511,11 +5753,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
@@ -5535,18 +5777,18 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="202" t="s">
+      <c r="C8" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="202"/>
+      <c r="D8" s="173"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="163"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
@@ -5668,341 +5910,341 @@
       <c r="F2" s="176"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="177"/>
+      <c r="D4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="164"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="164" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="187"/>
+      <c r="D7" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="157"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="171"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="182"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="171"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="182"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="157"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="171"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="182"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="164" t="s">
+      <c r="C11" s="185"/>
+      <c r="D11" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="164" t="s">
+      <c r="C12" s="179"/>
+      <c r="D12" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="164" t="s">
+      <c r="C13" s="178"/>
+      <c r="D13" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="164" t="s">
+      <c r="C15" s="177"/>
+      <c r="D15" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
       <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
@@ -6061,21 +6303,21 @@
       <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="178" t="s">
+      <c r="BG17" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="178"/>
-      <c r="BI17" s="178"/>
-      <c r="BJ17" s="178"/>
-      <c r="BK17" s="177" t="s">
+      <c r="BH17" s="179"/>
+      <c r="BI17" s="179"/>
+      <c r="BJ17" s="179"/>
+      <c r="BK17" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="177"/>
-      <c r="BM17" s="165" t="s">
+      <c r="BL17" s="178"/>
+      <c r="BM17" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="165"/>
-      <c r="BO17" s="165"/>
+      <c r="BN17" s="177"/>
+      <c r="BO17" s="177"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C18" s="95" t="s">
@@ -6275,57 +6517,57 @@
       </c>
     </row>
     <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="157" t="s">
+      <c r="I20" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="158"/>
-      <c r="AM20" s="158"/>
-      <c r="AN20" s="158"/>
-      <c r="AO20" s="158"/>
-      <c r="AP20" s="158"/>
-      <c r="AQ20" s="158"/>
-      <c r="AR20" s="158"/>
-      <c r="AS20" s="158"/>
-      <c r="AT20" s="158"/>
-      <c r="AU20" s="158"/>
-      <c r="AV20" s="158"/>
-      <c r="AW20" s="158"/>
-      <c r="AX20" s="158"/>
-      <c r="AY20" s="158"/>
-      <c r="AZ20" s="158"/>
-      <c r="BA20" s="158"/>
-      <c r="BB20" s="158"/>
-      <c r="BC20" s="158"/>
-      <c r="BD20" s="158"/>
-      <c r="BE20" s="159"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
+      <c r="Y20" s="167"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="167"/>
+      <c r="AE20" s="167"/>
+      <c r="AF20" s="167"/>
+      <c r="AG20" s="167"/>
+      <c r="AH20" s="167"/>
+      <c r="AI20" s="167"/>
+      <c r="AJ20" s="167"/>
+      <c r="AK20" s="167"/>
+      <c r="AL20" s="167"/>
+      <c r="AM20" s="167"/>
+      <c r="AN20" s="167"/>
+      <c r="AO20" s="167"/>
+      <c r="AP20" s="167"/>
+      <c r="AQ20" s="167"/>
+      <c r="AR20" s="167"/>
+      <c r="AS20" s="167"/>
+      <c r="AT20" s="167"/>
+      <c r="AU20" s="167"/>
+      <c r="AV20" s="167"/>
+      <c r="AW20" s="167"/>
+      <c r="AX20" s="167"/>
+      <c r="AY20" s="167"/>
+      <c r="AZ20" s="167"/>
+      <c r="BA20" s="167"/>
+      <c r="BB20" s="167"/>
+      <c r="BC20" s="167"/>
+      <c r="BD20" s="167"/>
+      <c r="BE20" s="168"/>
     </row>
     <row r="21" spans="3:67" x14ac:dyDescent="0.15">
       <c r="I21" s="126">
@@ -6478,6 +6720,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6494,20 +6750,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6534,17 +6776,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="169"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -6623,10 +6865,10 @@
       <c r="H10" s="76"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="160"/>
+      <c r="C12" s="169"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="14">
@@ -6685,11 +6927,11 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6719,11 +6961,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="14">
@@ -6808,111 +7050,111 @@
       <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="191" t="s">
         <v>120</v>
       </c>
       <c r="D5" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="205"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="182"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="197"/>
-      <c r="H6" s="198"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="208"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="182"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="208"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="25">
         <v>8</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="200"/>
-      <c r="H8" s="201"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="200" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="184" t="s">
+      <c r="F9" s="194" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="191"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="191"/>
+      <c r="C11" s="201"/>
       <c r="D11" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="196"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="25">
         <v>12</v>
       </c>
-      <c r="C12" s="192"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="186"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="25">
@@ -6922,9 +7164,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="104"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="25">
@@ -6934,9 +7176,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="106"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6972,10 +7214,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="159"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="94"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -7208,17 +7450,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="169"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
     </row>
@@ -7232,10 +7474,10 @@
       <c r="D6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="203" t="s">
+      <c r="F6" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="203"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="4"/>
       <c r="I6" s="72"/>
     </row>
@@ -7320,10 +7562,10 @@
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="202"/>
+      <c r="C13" s="173"/>
       <c r="F13" s="12" t="s">
         <v>184</v>
       </c>
@@ -7333,11 +7575,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="14">

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="191">
   <si>
     <t>CMD</t>
   </si>
@@ -236,9 +236,6 @@
     <t>IMU_COMPASS_DISABLE</t>
   </si>
   <si>
-    <t>accelerometer, gyroscope, magnetometer (normalized)</t>
-  </si>
-  <si>
     <t>quaternions</t>
   </si>
   <si>
@@ -434,9 +431,6 @@
     <t>GET_ALL_DATA</t>
   </si>
   <si>
-    <t>quaternions, linear acceleration</t>
-  </si>
-  <si>
     <t>quaternions,linear acceleration,accelerometer, gyroscope, magnetometer</t>
   </si>
   <si>
@@ -614,16 +608,10 @@
     <t>IMU_GET_ALL_DATA</t>
   </si>
   <si>
-    <t>IMU_GET_DATA_COMPONENT_SENSOR_NORMALIZED</t>
-  </si>
-  <si>
     <t>IMU_GET_DATA_QUATERNION</t>
   </si>
   <si>
     <t>IMU_GET_DATA_LINEARACCELERATION</t>
-  </si>
-  <si>
-    <t>IMU_GET_DATA_QUATERNION_LINEARACCELERATION</t>
   </si>
 </sst>
 </file>
@@ -1483,6 +1471,13 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,6 +1619,27 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,34 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2070,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E33" sqref="E33:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2109,7 +2097,7 @@
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
@@ -2120,7 +2108,7 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
@@ -2131,7 +2119,7 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
@@ -2142,7 +2130,7 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -2169,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2183,7 +2171,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2194,7 +2182,7 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -2205,7 +2193,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="21"/>
     </row>
@@ -2224,17 +2212,17 @@
         <v>0</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="137"/>
       <c r="C15" s="137"/>
       <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="20">
@@ -2244,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -2264,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -2278,7 +2266,7 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2297,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -2319,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" s="20"/>
     </row>
@@ -2333,7 +2321,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F24" s="20"/>
     </row>
@@ -2352,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
@@ -2365,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
@@ -2440,10 +2428,10 @@
         <v>27</v>
       </c>
       <c r="E33" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
@@ -2453,10 +2441,10 @@
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
@@ -2466,10 +2454,10 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
@@ -2479,44 +2467,38 @@
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18">
-        <v>4</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18">
-        <v>5</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="2"/>
+      <c r="B39" s="130">
+        <v>250</v>
+      </c>
+      <c r="C39" s="130">
+        <v>0</v>
+      </c>
+      <c r="D39" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="82"/>
@@ -2526,62 +2508,28 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="164">
+        <v>254</v>
+      </c>
+      <c r="C41" s="164">
+        <v>0</v>
+      </c>
+      <c r="D41" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="164"/>
+      <c r="F41" s="165"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="130">
-        <v>250</v>
-      </c>
-      <c r="C43" s="130">
-        <v>0</v>
-      </c>
-      <c r="D43" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="131"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="164">
-        <v>254</v>
-      </c>
-      <c r="C45" s="164">
-        <v>0</v>
-      </c>
-      <c r="D45" s="164" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="164"/>
-      <c r="F45" s="165"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="107">
+      <c r="B42" s="107">
         <v>255</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="108"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2609,17 +2557,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="169"/>
+      <c r="B5" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="172"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -2630,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>10</v>
@@ -2645,10 +2593,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="7">
@@ -2660,10 +2608,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
@@ -2675,7 +2623,7 @@
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -2686,10 +2634,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -2701,20 +2649,20 @@
       </c>
       <c r="C11" s="142"/>
       <c r="D11" s="143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
+      <c r="B15" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2747,11 +2695,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="14">
@@ -2761,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
@@ -2775,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="7">
@@ -2789,17 +2737,17 @@
       <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="235" t="s">
-        <v>76</v>
+      <c r="C7" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="7">
@@ -2810,12 +2758,12 @@
       <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="236"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7">
@@ -2824,7 +2772,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G9" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="7">
@@ -2839,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
@@ -2853,13 +2801,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -2869,20 +2817,20 @@
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
-        <v>76</v>
+      <c r="C13" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2892,15 +2840,15 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="236"/>
+      <c r="C14" s="222"/>
       <c r="D14" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
@@ -2911,40 +2859,40 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="38"/>
       <c r="G15" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="8">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="230" t="s">
-        <v>165</v>
+      <c r="C16" s="216" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8">
         <v>4</v>
@@ -2954,9 +2902,9 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="231"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="36"/>
@@ -2970,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2981,38 +2929,38 @@
         <v>10</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="232" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="233"/>
-      <c r="I21" s="234"/>
+        <v>70</v>
+      </c>
+      <c r="G21" s="218" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="219"/>
+      <c r="I21" s="220"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="235" t="s">
-        <v>76</v>
+      <c r="C22" s="221" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="236"/>
+      <c r="C23" s="222"/>
       <c r="D23" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
@@ -3020,35 +2968,35 @@
         <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="38"/>
       <c r="G24" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="14">
         <v>8</v>
       </c>
-      <c r="C25" s="230" t="s">
+      <c r="C25" s="216" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="125" t="s">
-        <v>166</v>
-      </c>
       <c r="G25" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="7">
@@ -3059,12 +3007,12 @@
       <c r="B26" s="14">
         <v>9</v>
       </c>
-      <c r="C26" s="231"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="7">
@@ -3076,11 +3024,11 @@
         <v>10</v>
       </c>
       <c r="C27" s="154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="50"/>
       <c r="G27" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="8">
@@ -3092,10 +3040,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="155" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -3103,13 +3051,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>79</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -3118,10 +3066,10 @@
       </c>
       <c r="C30" s="113"/>
       <c r="D30" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="7">
@@ -3134,10 +3082,10 @@
       </c>
       <c r="C31" s="113"/>
       <c r="D31" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="7">
@@ -3150,7 +3098,7 @@
       </c>
       <c r="C32" s="114"/>
       <c r="D32" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -3158,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="51"/>
     </row>
@@ -3167,10 +3115,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D34" s="117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
@@ -3179,7 +3127,7 @@
       </c>
       <c r="C35" s="116"/>
       <c r="D35" s="118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3203,13 +3151,13 @@
   <dimension ref="B2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="3" bestFit="1" customWidth="1"/>
@@ -3220,11 +3168,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="57"/>
@@ -3232,10 +3180,10 @@
       <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="169"/>
+      <c r="B4" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="172"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="14">
@@ -3352,11 +3300,11 @@
       <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="230" t="s">
-        <v>165</v>
+      <c r="C12" s="216" t="s">
+        <v>163</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="125"/>
       <c r="F12" s="13" t="s">
@@ -3373,9 +3321,9 @@
       <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="231"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>54</v>
@@ -3389,10 +3337,10 @@
       <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="237" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="238"/>
+      <c r="C14" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="167"/>
       <c r="F14" s="13" t="s">
         <v>55</v>
       </c>
@@ -3406,10 +3354,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="75"/>
@@ -3421,7 +3369,7 @@
       </c>
       <c r="C16" s="113"/>
       <c r="D16" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>61</v>
@@ -3434,7 +3382,7 @@
       </c>
       <c r="C17" s="113"/>
       <c r="D17" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>38</v>
@@ -3452,7 +3400,7 @@
       </c>
       <c r="C18" s="114"/>
       <c r="D18" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>40</v>
@@ -3477,7 +3425,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="89" t="s">
         <v>62</v>
@@ -3485,11 +3433,11 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="172"/>
+      <c r="B22" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
       <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3543,11 +3491,11 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
       <c r="F27" s="13" t="s">
         <v>46</v>
       </c>
@@ -3565,9 +3513,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="157" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="157"/>
       <c r="F29" s="13" t="s">
@@ -3616,7 +3564,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>63</v>
@@ -3628,14 +3576,14 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="158" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="159"/>
       <c r="D34" s="160"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F35" s="239" t="s">
-        <v>187</v>
+      <c r="F35" s="168" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
@@ -3648,8 +3596,8 @@
       <c r="D36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>190</v>
+      <c r="F36" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="7">
@@ -3666,7 +3614,7 @@
       <c r="D37" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>189</v>
       </c>
       <c r="G37" s="13"/>
@@ -3682,8 +3630,8 @@
         <v>3</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="F38" s="13" t="s">
-        <v>191</v>
+      <c r="F38" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="7">
@@ -3698,8 +3646,8 @@
         <v>60</v>
       </c>
       <c r="D39" s="40"/>
-      <c r="F39" s="13" t="s">
-        <v>192</v>
+      <c r="F39" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="7">
@@ -3714,13 +3662,6 @@
         <v>61</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="F40" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="7">
-        <v>4</v>
-      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="14">
@@ -3730,13 +3671,6 @@
         <v>62</v>
       </c>
       <c r="D41" s="41"/>
-      <c r="F41" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="7">
-        <v>5</v>
-      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="14">
@@ -3751,41 +3685,44 @@
       <c r="B43" s="14">
         <v>10</v>
       </c>
-      <c r="C43" s="230" t="s">
-        <v>165</v>
+      <c r="C43" s="216" t="s">
+        <v>163</v>
       </c>
       <c r="D43" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="14">
         <v>11</v>
       </c>
-      <c r="C44" s="231"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="14">
         <v>12</v>
       </c>
-      <c r="C45" s="237" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="238"/>
+      <c r="C45" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="167"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="14">
         <v>13</v>
       </c>
       <c r="C46" s="112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="76"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="14">
@@ -3793,7 +3730,7 @@
       </c>
       <c r="C47" s="113"/>
       <c r="D47" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
@@ -3802,7 +3739,7 @@
       </c>
       <c r="C48" s="113"/>
       <c r="D48" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
@@ -3811,7 +3748,7 @@
       </c>
       <c r="C49" s="114"/>
       <c r="D49" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3848,36 +3785,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="174" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="177" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="169"/>
+      <c r="B4" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="172"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="213" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
+      <c r="G4" s="223" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B5" s="14">
@@ -3950,59 +3887,59 @@
         <v>10</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="K6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="U6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="V6" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
@@ -4010,31 +3947,31 @@
         <v>28</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -4049,31 +3986,31 @@
         <v>31</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -4088,16 +4025,16 @@
         <v>32</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -4114,19 +4051,19 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B10" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="77" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -4148,25 +4085,25 @@
         <v>29</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="K11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -4179,11 +4116,11 @@
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="172"/>
+      <c r="B12" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
       <c r="F12" s="48"/>
       <c r="G12" s="71"/>
       <c r="H12" s="71"/>
@@ -4224,14 +4161,14 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B14" s="78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="227" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
@@ -4240,14 +4177,14 @@
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="218"/>
+      <c r="C16" s="228"/>
       <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="219"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
@@ -4269,65 +4206,65 @@
         <v>10</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="220" t="s">
-        <v>126</v>
+      <c r="C20" s="230" t="s">
+        <v>125</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="221"/>
+      <c r="C21" s="231"/>
       <c r="D21" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="221"/>
+      <c r="C22" s="231"/>
       <c r="D22" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="221"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="220" t="s">
-        <v>127</v>
+      <c r="C24" s="230" t="s">
+        <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="221"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="72"/>
@@ -4351,85 +4288,85 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="221"/>
+      <c r="C26" s="231"/>
       <c r="D26" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="221"/>
+      <c r="C27" s="231"/>
       <c r="D27" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="220" t="s">
-        <v>128</v>
+      <c r="C28" s="230" t="s">
+        <v>127</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="221"/>
+      <c r="C29" s="231"/>
       <c r="D29" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="221"/>
+      <c r="C30" s="231"/>
       <c r="D30" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="221"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="220" t="s">
-        <v>129</v>
+      <c r="C32" s="230" t="s">
+        <v>128</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="221"/>
+      <c r="C34" s="231"/>
       <c r="D34" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="71"/>
       <c r="H34" s="71"/>
@@ -4453,9 +4390,9 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="221"/>
+      <c r="C35" s="231"/>
       <c r="D35" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="71"/>
       <c r="H35" s="71"/>
@@ -4479,11 +4416,11 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="220" t="s">
-        <v>134</v>
+      <c r="C36" s="230" t="s">
+        <v>132</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="71"/>
       <c r="H36" s="71"/>
@@ -4507,9 +4444,9 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="221"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
@@ -4533,9 +4470,9 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="221"/>
+      <c r="C38" s="231"/>
       <c r="D38" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
@@ -4555,9 +4492,9 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="221"/>
+      <c r="C39" s="231"/>
       <c r="D39" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
@@ -4577,11 +4514,11 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="220" t="s">
-        <v>135</v>
+      <c r="C40" s="230" t="s">
+        <v>133</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
@@ -4601,9 +4538,9 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="221"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="71"/>
       <c r="H41" s="71"/>
@@ -4627,9 +4564,9 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="221"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="71"/>
@@ -4653,9 +4590,9 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="221"/>
+      <c r="C43" s="231"/>
       <c r="D43" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="71"/>
       <c r="H43" s="71"/>
@@ -4679,11 +4616,11 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="220" t="s">
-        <v>136</v>
+      <c r="C44" s="230" t="s">
+        <v>134</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="71"/>
       <c r="H44" s="71"/>
@@ -4707,217 +4644,217 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="221"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="221"/>
+      <c r="C46" s="231"/>
       <c r="D46" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="221"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="220" t="s">
-        <v>137</v>
+      <c r="C48" s="230" t="s">
+        <v>135</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="221"/>
+      <c r="C49" s="231"/>
       <c r="D49" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="221"/>
+      <c r="C50" s="231"/>
       <c r="D50" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="221"/>
+      <c r="C51" s="231"/>
       <c r="D51" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="222" t="s">
-        <v>138</v>
+      <c r="C52" s="232" t="s">
+        <v>136</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="223"/>
+      <c r="C53" s="233"/>
       <c r="D53" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="223"/>
+      <c r="C54" s="233"/>
       <c r="D54" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="224"/>
+      <c r="C55" s="234"/>
       <c r="D55" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="220" t="s">
-        <v>139</v>
+      <c r="C56" s="230" t="s">
+        <v>137</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="221"/>
+      <c r="C57" s="231"/>
       <c r="D57" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="221"/>
+      <c r="C58" s="231"/>
       <c r="D58" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="221"/>
+      <c r="C59" s="231"/>
       <c r="D59" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="220" t="s">
-        <v>140</v>
+      <c r="C60" s="230" t="s">
+        <v>138</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="221"/>
+      <c r="C61" s="231"/>
       <c r="D61" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="231"/>
       <c r="D62" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="221"/>
+      <c r="C63" s="231"/>
       <c r="D63" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="220" t="s">
-        <v>141</v>
+      <c r="C64" s="230" t="s">
+        <v>139</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="221"/>
+      <c r="C65" s="231"/>
       <c r="D65" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="221"/>
+      <c r="C66" s="231"/>
       <c r="D66" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="221"/>
+      <c r="C67" s="231"/>
       <c r="D67" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.15">
@@ -4942,45 +4879,45 @@
       <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="214" t="s">
+      <c r="C70" s="224" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="215"/>
+      <c r="C71" s="225"/>
       <c r="D71" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="215"/>
+      <c r="C72" s="225"/>
       <c r="D72" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="216"/>
+      <c r="C73" s="226"/>
       <c r="D73" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="225" t="s">
+      <c r="C74" s="235" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
@@ -4989,14 +4926,14 @@
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="226"/>
+      <c r="C75" s="236"/>
       <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="227" t="s">
+      <c r="C76" s="237" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
@@ -5005,26 +4942,26 @@
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="228"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="229"/>
+      <c r="C78" s="239"/>
       <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B82" s="78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="217" t="s">
+      <c r="C83" s="227" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
@@ -5033,14 +4970,14 @@
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="218"/>
+      <c r="C84" s="228"/>
       <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="219"/>
+      <c r="C85" s="229"/>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
@@ -5062,159 +4999,159 @@
         <v>10</v>
       </c>
       <c r="D87" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="220" t="s">
-        <v>142</v>
+      <c r="C88" s="230" t="s">
+        <v>140</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="221"/>
+      <c r="C89" s="231"/>
       <c r="D89" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="221"/>
+      <c r="C90" s="231"/>
       <c r="D90" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="221"/>
+      <c r="C91" s="231"/>
       <c r="D91" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="220" t="s">
-        <v>143</v>
+      <c r="C92" s="230" t="s">
+        <v>141</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="221"/>
+      <c r="C93" s="231"/>
       <c r="D93" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="221"/>
+      <c r="C94" s="231"/>
       <c r="D94" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="221"/>
+      <c r="C95" s="231"/>
       <c r="D95" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="220" t="s">
-        <v>144</v>
+      <c r="C96" s="230" t="s">
+        <v>142</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="221"/>
+      <c r="C97" s="231"/>
       <c r="D97" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="221"/>
+      <c r="C98" s="231"/>
       <c r="D98" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="221"/>
+      <c r="C99" s="231"/>
       <c r="D99" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="220" t="s">
-        <v>145</v>
+      <c r="C100" s="230" t="s">
+        <v>143</v>
       </c>
       <c r="D100" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="221"/>
+      <c r="C101" s="231"/>
       <c r="D101" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="221"/>
+      <c r="C102" s="231"/>
       <c r="D102" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="221"/>
+      <c r="C103" s="231"/>
       <c r="D103" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
@@ -5463,45 +5400,45 @@
       <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="214" t="s">
+      <c r="C138" s="224" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="215"/>
+      <c r="C139" s="225"/>
       <c r="D139" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="215"/>
+      <c r="C140" s="225"/>
       <c r="D140" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="216"/>
+      <c r="C141" s="226"/>
       <c r="D141" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="225" t="s">
+      <c r="C142" s="235" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
@@ -5510,14 +5447,14 @@
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="226"/>
+      <c r="C143" s="236"/>
       <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="227" t="s">
+      <c r="C144" s="237" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
@@ -5526,14 +5463,14 @@
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="228"/>
+      <c r="C145" s="238"/>
       <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="229"/>
+      <c r="C146" s="239"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
@@ -5585,11 +5522,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="166" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+      <c r="C4" s="169" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
@@ -5605,10 +5542,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="169"/>
+      <c r="C7" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="172"/>
       <c r="E7" s="3"/>
       <c r="F7" s="93"/>
     </row>
@@ -5620,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -5656,18 +5593,18 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
+      <c r="C14" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="174"/>
+      <c r="E14" s="175"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
@@ -5684,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -5700,30 +5637,30 @@
     </row>
     <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C19" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="136"/>
       <c r="E20" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C21" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" s="134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="134"/>
     </row>
@@ -5753,11 +5690,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+      <c r="C4" s="169" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
@@ -5771,24 +5708,24 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="173" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="173"/>
+      <c r="C8" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="176"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
+      <c r="C9" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
@@ -5803,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
@@ -5822,10 +5759,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
@@ -5834,7 +5771,7 @@
       </c>
       <c r="D14" s="153"/>
       <c r="E14" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
@@ -5842,10 +5779,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
@@ -5854,7 +5791,7 @@
       </c>
       <c r="D16" s="146"/>
       <c r="E16" s="147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -5862,10 +5799,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5901,350 +5838,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="184" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="184"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="184" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="184" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="166"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="182"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="185"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="182"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="185"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="166"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="182"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="185"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="184" t="s">
+      <c r="C11" s="188"/>
+      <c r="D11" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="184"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="184" t="s">
+      <c r="C12" s="182"/>
+      <c r="D12" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="184" t="s">
+      <c r="C13" s="181"/>
+      <c r="D13" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="184" t="s">
+      <c r="C15" s="180"/>
+      <c r="D15" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="184"/>
-      <c r="W15" s="184"/>
-      <c r="X15" s="184"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
@@ -6303,21 +6240,21 @@
       <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="179" t="s">
+      <c r="BG17" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="179"/>
-      <c r="BI17" s="179"/>
-      <c r="BJ17" s="179"/>
-      <c r="BK17" s="178" t="s">
+      <c r="BH17" s="182"/>
+      <c r="BI17" s="182"/>
+      <c r="BJ17" s="182"/>
+      <c r="BK17" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="178"/>
-      <c r="BM17" s="177" t="s">
+      <c r="BL17" s="181"/>
+      <c r="BM17" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="177"/>
-      <c r="BO17" s="177"/>
+      <c r="BN17" s="180"/>
+      <c r="BO17" s="180"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C18" s="95" t="s">
@@ -6517,57 +6454,57 @@
       </c>
     </row>
     <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="167"/>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="167"/>
-      <c r="Y20" s="167"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="167"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="167"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="167"/>
-      <c r="AI20" s="167"/>
-      <c r="AJ20" s="167"/>
-      <c r="AK20" s="167"/>
-      <c r="AL20" s="167"/>
-      <c r="AM20" s="167"/>
-      <c r="AN20" s="167"/>
-      <c r="AO20" s="167"/>
-      <c r="AP20" s="167"/>
-      <c r="AQ20" s="167"/>
-      <c r="AR20" s="167"/>
-      <c r="AS20" s="167"/>
-      <c r="AT20" s="167"/>
-      <c r="AU20" s="167"/>
-      <c r="AV20" s="167"/>
-      <c r="AW20" s="167"/>
-      <c r="AX20" s="167"/>
-      <c r="AY20" s="167"/>
-      <c r="AZ20" s="167"/>
-      <c r="BA20" s="167"/>
-      <c r="BB20" s="167"/>
-      <c r="BC20" s="167"/>
-      <c r="BD20" s="167"/>
-      <c r="BE20" s="168"/>
+      <c r="I20" s="169" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="170"/>
+      <c r="U20" s="170"/>
+      <c r="V20" s="170"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
+      <c r="AD20" s="170"/>
+      <c r="AE20" s="170"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="170"/>
+      <c r="AJ20" s="170"/>
+      <c r="AK20" s="170"/>
+      <c r="AL20" s="170"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="170"/>
+      <c r="AP20" s="170"/>
+      <c r="AQ20" s="170"/>
+      <c r="AR20" s="170"/>
+      <c r="AS20" s="170"/>
+      <c r="AT20" s="170"/>
+      <c r="AU20" s="170"/>
+      <c r="AV20" s="170"/>
+      <c r="AW20" s="170"/>
+      <c r="AX20" s="170"/>
+      <c r="AY20" s="170"/>
+      <c r="AZ20" s="170"/>
+      <c r="BA20" s="170"/>
+      <c r="BB20" s="170"/>
+      <c r="BC20" s="170"/>
+      <c r="BD20" s="170"/>
+      <c r="BE20" s="171"/>
     </row>
     <row r="21" spans="3:67" x14ac:dyDescent="0.15">
       <c r="I21" s="126">
@@ -6776,17 +6713,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="169"/>
+      <c r="B5" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="172"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -6797,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="120" t="s">
         <v>10</v>
@@ -6812,10 +6749,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="7">
@@ -6827,13 +6764,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="7">
@@ -6846,7 +6783,7 @@
       </c>
       <c r="C9" s="122"/>
       <c r="D9" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -6857,7 +6794,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="109"/>
       <c r="F10" s="48"/>
@@ -6865,10 +6802,10 @@
       <c r="H10" s="76"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="169"/>
+      <c r="B12" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="172"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="14">
@@ -6878,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -6889,7 +6826,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -6897,10 +6834,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
@@ -6909,7 +6846,7 @@
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -6917,21 +6854,21 @@
         <v>7</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="109"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
+      <c r="B21" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6961,11 +6898,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="190" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="B2" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="14">
@@ -6991,7 +6928,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>18</v>
@@ -7032,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -7050,111 +6987,111 @@
       <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>120</v>
+      <c r="C5" s="194" t="s">
+        <v>119</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="203" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="204"/>
-      <c r="H5" s="205"/>
+        <v>78</v>
+      </c>
+      <c r="F5" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="192"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="206" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="209" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="192"/>
+      <c r="C7" s="195"/>
       <c r="D7" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="206" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="207"/>
-      <c r="H7" s="208"/>
+        <v>81</v>
+      </c>
+      <c r="F7" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="25">
         <v>8</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="209" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
+        <v>80</v>
+      </c>
+      <c r="F8" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="200" t="s">
+      <c r="C9" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="194" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
+        <v>78</v>
+      </c>
+      <c r="F9" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="201"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+        <v>79</v>
+      </c>
+      <c r="F10" s="197"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="204"/>
       <c r="D11" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="197"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="25">
         <v>12</v>
       </c>
-      <c r="C12" s="202"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="194"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
+        <v>80</v>
+      </c>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="25">
@@ -7164,9 +7101,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="104"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="25">
@@ -7176,9 +7113,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="106"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7214,10 +7151,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="168"/>
+      <c r="B3" s="169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="171"/>
       <c r="D3" s="94"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -7228,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -7246,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="7">
@@ -7258,14 +7195,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="43"/>
       <c r="F7" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7276,13 +7213,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7">
@@ -7295,10 +7232,10 @@
       </c>
       <c r="C9" s="139"/>
       <c r="D9" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="7">
@@ -7310,13 +7247,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="7">
@@ -7329,10 +7266,10 @@
       </c>
       <c r="C11" s="139"/>
       <c r="D11" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="7">
@@ -7342,7 +7279,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="46"/>
       <c r="F12" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="7"/>
@@ -7350,7 +7287,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="46"/>
       <c r="F13" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="7">
@@ -7360,7 +7297,7 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="46"/>
       <c r="F14" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7"/>
@@ -7368,7 +7305,7 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="F15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="7">
@@ -7377,14 +7314,14 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F16" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="7">
@@ -7393,14 +7330,14 @@
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="7">
@@ -7409,14 +7346,14 @@
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="7">
@@ -7450,17 +7387,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="169"/>
+      <c r="B5" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="172"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
     </row>
@@ -7472,12 +7409,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="212" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="212"/>
+        <v>69</v>
+      </c>
+      <c r="F6" s="215" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="215"/>
       <c r="H6" s="4"/>
       <c r="I6" s="72"/>
     </row>
@@ -7489,10 +7426,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="7">
@@ -7505,13 +7442,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7">
@@ -7525,10 +7462,10 @@
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="7">
@@ -7538,7 +7475,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="7">
@@ -7554,7 +7491,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="148" t="s">
         <v>10</v>
@@ -7562,12 +7499,12 @@
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="173" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="173"/>
+      <c r="B13" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="176"/>
       <c r="F13" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="7">
@@ -7575,11 +7512,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172"/>
+      <c r="B14" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="14">
@@ -7589,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -7600,7 +7537,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -7608,10 +7545,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
@@ -7620,7 +7557,7 @@
       </c>
       <c r="C19" s="88"/>
       <c r="D19" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -7628,10 +7565,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D20" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -7640,7 +7577,7 @@
       </c>
       <c r="C21" s="146"/>
       <c r="D21" s="147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -7648,10 +7585,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Documents/Dropbox/Mind Music Lab AB/GIT/sensei/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\PROROB\09 CLIENTI\Mind Music Lab AB\01 SENSEI\GIT\sensei\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804" activeTab="11"/>
+    <workbookView xWindow="-40515" yWindow="1365" windowWidth="38400" windowHeight="20445" tabRatio="804" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -28,9 +28,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="197">
   <si>
     <t>CMD</t>
   </si>
@@ -125,24 +122,6 @@
     <t>CMD_IMU_GET_DATA</t>
   </si>
   <si>
-    <t>GET_DATA_COMPONENT_SENSOR</t>
-  </si>
-  <si>
-    <t>GET_DATA_QUATERNION_LINEARACCELERATION</t>
-  </si>
-  <si>
-    <t>accelerometer, gyroscope, magnetometer</t>
-  </si>
-  <si>
-    <t>GET_DATA_COMPONENT_SENSOR_NORMALIZED</t>
-  </si>
-  <si>
-    <t>GET_DATA_QUATERNION</t>
-  </si>
-  <si>
-    <t>GET_DATA_LINEARACCELERATION</t>
-  </si>
-  <si>
     <t>COMPASS_ENABLE</t>
   </si>
   <si>
@@ -236,12 +215,6 @@
     <t>IMU_COMPASS_DISABLE</t>
   </si>
   <si>
-    <t>quaternions</t>
-  </si>
-  <si>
-    <t>linear acceleration</t>
-  </si>
-  <si>
     <t>CMD_HELLO</t>
   </si>
   <si>
@@ -431,12 +404,6 @@
     <t>GET_ALL_DATA</t>
   </si>
   <si>
-    <t>quaternions,linear acceleration,accelerometer, gyroscope, magnetometer</t>
-  </si>
-  <si>
-    <t>Example: GET_ALL_DATA</t>
-  </si>
-  <si>
     <t>lax</t>
   </si>
   <si>
@@ -578,12 +545,6 @@
     <t>CMD_GET_SYSTEM_STATUS</t>
   </si>
   <si>
-    <t>CMD_IMU_START</t>
-  </si>
-  <si>
-    <t>CMD_IMU_STOP</t>
-  </si>
-  <si>
     <t>PIN_VALUE</t>
   </si>
   <si>
@@ -599,19 +560,73 @@
     <t>DATA_TYPE</t>
   </si>
   <si>
-    <t>MIN LINEAR ACCELERATION</t>
-  </si>
-  <si>
-    <t>IMU_GET_DATA_COMPONENT_SENSOR</t>
-  </si>
-  <si>
-    <t>IMU_GET_ALL_DATA</t>
-  </si>
-  <si>
-    <t>IMU_GET_DATA_QUATERNION</t>
-  </si>
-  <si>
-    <t>IMU_GET_DATA_LINEARACCELERATION</t>
+    <t>IMU_TARE_WITH_CURRENT_ORIENTATION</t>
+  </si>
+  <si>
+    <t>CMD_IMU_ENABLE</t>
+  </si>
+  <si>
+    <t>CMD_IMU</t>
+  </si>
+  <si>
+    <t>minLinearAccelerationSquareNorm</t>
+  </si>
+  <si>
+    <t>ENABLE_SENDING_PACKETS</t>
+  </si>
+  <si>
+    <t>ENABLE_MULTIPLE_PACKETS</t>
+  </si>
+  <si>
+    <t>(see IMU_SETTINGS sheet)</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Linear Acceleration</t>
+  </si>
+  <si>
+    <t>Quaternions</t>
+  </si>
+  <si>
+    <t>Components Sensor</t>
+  </si>
+  <si>
+    <t>Normalized Components Sensor</t>
+  </si>
+  <si>
+    <t>LINEAR ACCELERATION</t>
+  </si>
+  <si>
+    <t>QUATERNIONS</t>
+  </si>
+  <si>
+    <t>COMPONENT SENSOR</t>
+  </si>
+  <si>
+    <t>NORMALIZED COMPONENT SENSOR</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>LINEAR ACCELERATION + QUATERNIONS</t>
+  </si>
+  <si>
+    <t>QUATERNIONS + COMPONENT SENSOR</t>
+  </si>
+  <si>
+    <t>00000011b</t>
+  </si>
+  <si>
+    <t>00000110b</t>
+  </si>
+  <si>
+    <t>00001111b</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1228,9 +1243,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,7 +1487,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,52 +1526,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,8 +1664,35 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,20 +1703,8 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,24 +1715,18 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2058,23 +2091,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E36"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -2091,445 +2125,459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="16">
         <v>0</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
         <v>3</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="20">
+    <row r="7" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="20">
         <v>100</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="20">
-        <v>101</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="20">
+        <v>60</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="20">
+        <v>101</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
         <v>102</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="20">
-        <v>103</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
-        <v>1</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="20">
-        <v>104</v>
       </c>
       <c r="C21" s="20">
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>159</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="20">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="20">
         <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="20">
         <v>1</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="18">
+        <v>167</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <v>104</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="20">
+        <v>105</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="18">
         <v>200</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="18">
-        <v>201</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="18">
-        <v>202</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="18">
-        <v>203</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="18">
-        <v>204</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="18">
-        <v>205</v>
       </c>
       <c r="C31" s="18">
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="18">
+        <v>201</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="18">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C33" s="18">
         <v>0</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="18">
+        <v>203</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="18">
+        <v>204</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="18">
+        <v>205</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18">
-        <v>1</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18">
-        <v>2</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18">
-        <v>3</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="130">
+      <c r="E37" s="18"/>
+      <c r="F37" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="18">
+        <v>206</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="129">
         <v>250</v>
       </c>
-      <c r="C39" s="130">
+      <c r="C41" s="129">
         <v>0</v>
       </c>
-      <c r="D39" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="131"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="164">
+      <c r="D41" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="163">
+        <v>253</v>
+      </c>
+      <c r="C43" s="163">
+        <v>0</v>
+      </c>
+      <c r="D43" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="163">
         <v>254</v>
       </c>
-      <c r="C41" s="164">
+      <c r="C44" s="163">
         <v>0</v>
       </c>
-      <c r="D41" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="165"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="107">
+      <c r="D44" s="163" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="106">
         <v>255</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="106"/>
+      <c r="F45" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,124 +2593,124 @@
       <selection activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="20.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="E5" s="93"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="175"/>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="84" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>75</v>
+      <c r="C8" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>78</v>
+      <c r="C10" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>7</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="141"/>
+      <c r="D11" s="142" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2679,43 +2727,43 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D32"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="8" width="30.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="169" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -2723,77 +2771,77 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="221" t="s">
-        <v>75</v>
+      <c r="C7" s="224" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="125" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="222"/>
+      <c r="C8" s="225"/>
       <c r="D8" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G9" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -2801,127 +2849,127 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="221" t="s">
-        <v>75</v>
+      <c r="C13" s="224" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="222"/>
+      <c r="C14" s="225"/>
       <c r="D14" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" s="38"/>
       <c r="G15" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I15" s="8">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="216" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="125" t="s">
-        <v>164</v>
+      <c r="C16" s="219" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I16" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="124" t="s">
-        <v>79</v>
+      <c r="C17" s="220"/>
+      <c r="D17" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="36"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G20" s="85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <v>4</v>
       </c>
@@ -2929,205 +2977,205 @@
         <v>10</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="218" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="219"/>
-      <c r="I21" s="220"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="G21" s="221" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="221" t="s">
-        <v>75</v>
+      <c r="C22" s="224" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="E22" s="124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="222"/>
+      <c r="C23" s="225"/>
       <c r="D23" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="14">
         <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D24" s="38"/>
       <c r="G24" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="14">
         <v>8</v>
       </c>
-      <c r="C25" s="216" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="125" t="s">
-        <v>164</v>
+      <c r="C25" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="14">
         <v>9</v>
       </c>
-      <c r="C26" s="217"/>
-      <c r="D26" s="124" t="s">
-        <v>79</v>
+      <c r="C26" s="220"/>
+      <c r="D26" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="14">
         <v>10</v>
       </c>
-      <c r="C27" s="154" t="s">
-        <v>76</v>
+      <c r="C27" s="153" t="s">
+        <v>68</v>
       </c>
       <c r="D27" s="50"/>
       <c r="G27" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="14">
         <v>11</v>
       </c>
-      <c r="C28" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="156" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C28" s="154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="14">
         <v>12</v>
       </c>
-      <c r="C29" s="112" t="s">
-        <v>77</v>
+      <c r="C29" s="111" t="s">
+        <v>69</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <v>13</v>
       </c>
-      <c r="C30" s="113"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="52" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="14">
         <v>14</v>
       </c>
-      <c r="C31" s="113"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="14">
         <v>15</v>
       </c>
-      <c r="C32" s="114"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="14">
         <v>16</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D33" s="51"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="14">
         <v>17</v>
       </c>
-      <c r="C34" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="117" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14">
         <v>18</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="118" t="s">
-        <v>79</v>
+      <c r="C35" s="115"/>
+      <c r="D35" s="117" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3148,48 +3196,52 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H49"/>
+  <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="8" max="8" width="2.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="13" width="5.5703125" style="3" customWidth="1"/>
+    <col min="14" max="17" width="25.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="169" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="172"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="175"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -3198,28 +3250,60 @@
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="245" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="245"/>
+      <c r="L5" s="245"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="244">
+        <v>8</v>
+      </c>
+      <c r="K6" s="244">
+        <v>7</v>
+      </c>
+      <c r="L6" s="244">
+        <v>6</v>
+      </c>
+      <c r="M6" s="244">
+        <v>5</v>
+      </c>
+      <c r="N6" s="244">
+        <v>4</v>
+      </c>
+      <c r="O6" s="244">
+        <v>3</v>
+      </c>
+      <c r="P6" s="244">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="244">
+        <v>1</v>
+      </c>
+      <c r="R6" s="243" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -3228,309 +3312,331 @@
       </c>
       <c r="D7" s="34"/>
       <c r="F7" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>60</v>
+      <c r="C8" s="80" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="40"/>
       <c r="F8" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="33"/>
       <c r="F9" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="89" t="s">
-        <v>62</v>
+      <c r="C10" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="41"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="F11" s="81" t="s">
-        <v>60</v>
+      <c r="F11" s="80" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="216" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="125"/>
+      <c r="C12" s="167" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="124" t="s">
-        <v>79</v>
+      <c r="C13" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="167"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="123" t="s">
+        <v>71</v>
+      </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="166"/>
       <c r="F15" s="71"/>
       <c r="G15" s="75"/>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="52" t="s">
-        <v>79</v>
+      <c r="C16" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="52" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="53" t="s">
-        <v>80</v>
+      <c r="C18" s="112"/>
+      <c r="D18" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="46"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="89" t="s">
-        <v>62</v>
+        <v>134</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
       <c r="F22" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F23" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="46"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="111"/>
+      <c r="D24" s="110"/>
       <c r="F24" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="46"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46"/>
       <c r="F25" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F26" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="169" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
       <c r="F27" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F28" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="157" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="157"/>
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="B29" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="156"/>
       <c r="F29" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="160" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -3538,91 +3644,72 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="14">
         <v>4</v>
       </c>
-      <c r="C31" s="162" t="s">
+      <c r="C31" s="161" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="73" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F32" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="74" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="160"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F35" s="168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="157" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="158"/>
+      <c r="D34" s="159"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="14">
         <v>3</v>
       </c>
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="160" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="14">
         <v>4</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="161" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="14">
         <v>5</v>
       </c>
@@ -3630,135 +3717,120 @@
         <v>3</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="F38" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="14">
         <v>6</v>
       </c>
-      <c r="C39" s="163" t="s">
-        <v>60</v>
+      <c r="C39" s="162" t="s">
+        <v>54</v>
       </c>
       <c r="D39" s="40"/>
-      <c r="F39" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="14">
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="14">
         <v>8</v>
       </c>
-      <c r="C41" s="89" t="s">
-        <v>62</v>
+      <c r="C41" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="14">
         <v>9</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="32"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="14">
-        <v>10</v>
-      </c>
-      <c r="C43" s="216" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="123" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C43" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="122" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
-        <v>11</v>
-      </c>
-      <c r="C44" s="217"/>
-      <c r="D44" s="124" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C44" s="169"/>
+      <c r="D44" s="123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="14">
-        <v>12</v>
-      </c>
-      <c r="C45" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="167"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C45" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="166"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
-        <v>13</v>
-      </c>
-      <c r="C46" s="112" t="s">
-        <v>186</v>
+        <v>14</v>
+      </c>
+      <c r="C46" s="111" t="s">
+        <v>177</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
       <c r="H46" s="76"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="14">
-        <v>14</v>
-      </c>
-      <c r="C47" s="113"/>
+        <v>15</v>
+      </c>
+      <c r="C47" s="112"/>
       <c r="D47" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="14">
-        <v>15</v>
-      </c>
-      <c r="C48" s="113"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="112"/>
       <c r="D48" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="14">
-        <v>16</v>
-      </c>
-      <c r="C49" s="114"/>
+        <v>17</v>
+      </c>
+      <c r="C49" s="113"/>
       <c r="D49" s="53" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C43:C44"/>
+  <mergeCells count="5">
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3767,712 +3839,691 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W146"/>
+  <dimension ref="B3:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.6640625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="2" width="8.7109375" style="3"/>
+    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="3"/>
+    <col min="7" max="7" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="32" width="4.140625" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="177" t="s">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B3" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="175"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="H3" s="239" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="H4" s="88">
+        <v>1</v>
+      </c>
+      <c r="I4" s="88">
+        <v>2</v>
+      </c>
+      <c r="J4" s="88">
+        <v>3</v>
+      </c>
+      <c r="K4" s="88">
+        <v>4</v>
+      </c>
+      <c r="L4" s="88">
+        <v>5</v>
+      </c>
+      <c r="M4" s="88">
+        <v>6</v>
+      </c>
+      <c r="N4" s="88">
+        <v>7</v>
+      </c>
+      <c r="O4" s="88">
+        <v>8</v>
+      </c>
+      <c r="P4" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="G6" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="G7" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B4" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="172"/>
-      <c r="E4" s="71"/>
-      <c r="G4" s="223" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="14">
+      <c r="O7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B8" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B9" s="74"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B10" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B11" s="74"/>
+      <c r="F11" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="66">
+        <v>0</v>
+      </c>
+      <c r="C13" s="233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="F13" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B14" s="66">
+        <v>1</v>
+      </c>
+      <c r="C14" s="234"/>
+      <c r="D14" s="90"/>
+      <c r="F14" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="66">
+        <v>2</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="91"/>
+      <c r="F15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="79" t="s">
+      <c r="D16" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
+        <v>4</v>
+      </c>
+      <c r="C17" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="89">
-        <v>1</v>
-      </c>
-      <c r="H5" s="89">
-        <v>2</v>
-      </c>
-      <c r="I5" s="89">
-        <v>3</v>
-      </c>
-      <c r="J5" s="89">
-        <v>4</v>
-      </c>
-      <c r="K5" s="89">
+      <c r="D17" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
         <v>5</v>
       </c>
-      <c r="L5" s="89">
+      <c r="C18" s="231" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
         <v>6</v>
       </c>
-      <c r="M5" s="89">
+      <c r="C19" s="232"/>
+      <c r="D19" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
         <v>7</v>
       </c>
-      <c r="N5" s="89">
+      <c r="C20" s="232"/>
+      <c r="D20" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="14">
         <v>8</v>
       </c>
-      <c r="O5" s="89">
+      <c r="C21" s="232"/>
+      <c r="D21" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="14">
         <v>9</v>
       </c>
-      <c r="P5" s="89">
+      <c r="C22" s="231" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="14">
         <v>10</v>
       </c>
-      <c r="Q5" s="89">
+      <c r="C23" s="232"/>
+      <c r="D23" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="14">
         <v>11</v>
       </c>
-      <c r="R5" s="89">
+      <c r="C24" s="232"/>
+      <c r="D24" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="14">
         <v>12</v>
       </c>
-      <c r="S5" s="89">
+      <c r="C25" s="232"/>
+      <c r="D25" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="14">
         <v>13</v>
       </c>
-      <c r="T5" s="89">
+      <c r="C26" s="231" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="14">
         <v>14</v>
       </c>
-      <c r="U5" s="89">
+      <c r="C27" s="232"/>
+      <c r="D27" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="14">
         <v>15</v>
       </c>
-      <c r="V5" s="89">
+      <c r="C28" s="232"/>
+      <c r="D28" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F7" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F8" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="F9" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B10" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B11" s="74"/>
-      <c r="F11" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B12" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B13" s="74"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B14" s="78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="66">
-        <v>0</v>
-      </c>
-      <c r="C15" s="227" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="90"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B16" s="66">
-        <v>1</v>
-      </c>
-      <c r="C16" s="228"/>
-      <c r="D16" s="91"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B17" s="66">
-        <v>2</v>
-      </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="92"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B18" s="14">
-        <v>3</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B19" s="14">
-        <v>4</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B20" s="14">
-        <v>5</v>
-      </c>
-      <c r="C20" s="230" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B21" s="14">
-        <v>6</v>
-      </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B22" s="14">
-        <v>7</v>
-      </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B23" s="14">
-        <v>8</v>
-      </c>
-      <c r="C23" s="231"/>
-      <c r="D23" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B24" s="14">
-        <v>9</v>
-      </c>
-      <c r="C24" s="230" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B25" s="14">
-        <v>10</v>
-      </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B26" s="14">
-        <v>11</v>
-      </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B27" s="14">
-        <v>12</v>
-      </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B28" s="14">
-        <v>13</v>
-      </c>
-      <c r="C28" s="230" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B29" s="14">
-        <v>14</v>
-      </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C29" s="232"/>
+      <c r="D29" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
-        <v>15</v>
-      </c>
-      <c r="C30" s="231"/>
-      <c r="D30" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C30" s="231" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="14">
-        <v>16</v>
-      </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="C31" s="232"/>
+      <c r="D31" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="14">
-        <v>17</v>
-      </c>
-      <c r="C32" s="230" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C32" s="232"/>
+      <c r="D32" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="14">
-        <v>18</v>
-      </c>
-      <c r="C33" s="231"/>
-      <c r="D33" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C33" s="232"/>
+      <c r="D33" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="P33" s="71"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="14">
-        <v>19</v>
-      </c>
-      <c r="C34" s="231"/>
-      <c r="D34" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="71"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="231" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="H34" s="71"/>
       <c r="I34" s="71"/>
       <c r="J34" s="71"/>
       <c r="K34" s="71"/>
       <c r="L34" s="71"/>
       <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
       <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="14">
-        <v>20</v>
-      </c>
-      <c r="C35" s="231"/>
-      <c r="D35" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="71"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="232"/>
+      <c r="D35" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="H35" s="71"/>
       <c r="I35" s="71"/>
       <c r="J35" s="71"/>
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
       <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="14">
-        <v>21</v>
-      </c>
-      <c r="C36" s="230" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="C36" s="232"/>
+      <c r="D36" s="59" t="s">
+        <v>73</v>
+      </c>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
       <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="14">
-        <v>22</v>
-      </c>
-      <c r="C37" s="231"/>
-      <c r="D37" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="232"/>
+      <c r="D37" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
       <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="14">
-        <v>23</v>
-      </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="59" t="s">
-        <v>81</v>
+        <v>25</v>
+      </c>
+      <c r="C38" s="231" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
@@ -4480,69 +4531,51 @@
       <c r="N38" s="71"/>
       <c r="O38" s="71"/>
       <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="14">
-        <v>24</v>
-      </c>
-      <c r="C39" s="231"/>
-      <c r="D39" s="60" t="s">
-        <v>80</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C39" s="232"/>
+      <c r="D39" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
       <c r="N39" s="71"/>
       <c r="O39" s="71"/>
       <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="14">
-        <v>25</v>
-      </c>
-      <c r="C40" s="230" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>78</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C40" s="232"/>
+      <c r="D40" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
       <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="14">
-        <v>26</v>
-      </c>
-      <c r="C41" s="231"/>
-      <c r="D41" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="71"/>
+        <v>28</v>
+      </c>
+      <c r="C41" s="232"/>
+      <c r="D41" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="H41" s="71"/>
       <c r="I41" s="71"/>
       <c r="J41" s="71"/>
@@ -4552,23 +4585,17 @@
       <c r="N41" s="71"/>
       <c r="O41" s="71"/>
       <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="14">
-        <v>27</v>
-      </c>
-      <c r="C42" s="231"/>
-      <c r="D42" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="71"/>
+        <v>29</v>
+      </c>
+      <c r="C42" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" s="71"/>
       <c r="I42" s="71"/>
       <c r="J42" s="71"/>
@@ -4578,931 +4605,869 @@
       <c r="N42" s="71"/>
       <c r="O42" s="71"/>
       <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="14">
-        <v>28</v>
-      </c>
-      <c r="C43" s="231"/>
-      <c r="D43" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="C43" s="232"/>
+      <c r="D43" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
-        <v>29</v>
-      </c>
-      <c r="C44" s="230" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C44" s="232"/>
+      <c r="D44" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="14">
-        <v>30</v>
-      </c>
-      <c r="C45" s="231"/>
-      <c r="D45" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C45" s="232"/>
+      <c r="D45" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
-        <v>31</v>
-      </c>
-      <c r="C46" s="231"/>
-      <c r="D46" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C46" s="231" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="14">
-        <v>32</v>
-      </c>
-      <c r="C47" s="231"/>
-      <c r="D47" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="C47" s="232"/>
+      <c r="D47" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="14">
-        <v>33</v>
-      </c>
-      <c r="C48" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="C48" s="232"/>
+      <c r="D48" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="14">
-        <v>34</v>
-      </c>
-      <c r="C49" s="231"/>
-      <c r="D49" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="C49" s="232"/>
+      <c r="D49" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="14">
-        <v>35</v>
-      </c>
-      <c r="C50" s="231"/>
-      <c r="D50" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="C50" s="240" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="14">
-        <v>36</v>
-      </c>
-      <c r="C51" s="231"/>
-      <c r="D51" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="C51" s="241"/>
+      <c r="D51" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="14">
-        <v>37</v>
-      </c>
-      <c r="C52" s="232" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="C52" s="241"/>
+      <c r="D52" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="14">
-        <v>38</v>
-      </c>
-      <c r="C53" s="233"/>
-      <c r="D53" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="C53" s="242"/>
+      <c r="D53" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="14">
-        <v>39</v>
-      </c>
-      <c r="C54" s="233"/>
-      <c r="D54" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="C54" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="14">
-        <v>40</v>
-      </c>
-      <c r="C55" s="234"/>
-      <c r="D55" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="C55" s="232"/>
+      <c r="D55" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="14">
-        <v>41</v>
-      </c>
-      <c r="C56" s="230" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="232"/>
+      <c r="D56" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="14">
+        <v>44</v>
+      </c>
+      <c r="C57" s="232"/>
+      <c r="D57" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="14">
+        <v>45</v>
+      </c>
+      <c r="C58" s="231" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="14">
+        <v>46</v>
+      </c>
+      <c r="C59" s="232"/>
+      <c r="D59" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="14">
+        <v>47</v>
+      </c>
+      <c r="C60" s="232"/>
+      <c r="D60" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="14">
+        <v>48</v>
+      </c>
+      <c r="C61" s="232"/>
+      <c r="D61" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="14">
+        <v>49</v>
+      </c>
+      <c r="C62" s="231" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="14">
+        <v>50</v>
+      </c>
+      <c r="C63" s="232"/>
+      <c r="D63" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="14">
+        <v>51</v>
+      </c>
+      <c r="C64" s="232"/>
+      <c r="D64" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="14">
+        <v>52</v>
+      </c>
+      <c r="C65" s="232"/>
+      <c r="D65" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="14">
+        <v>53</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="14">
+        <v>54</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="14">
+        <v>55</v>
+      </c>
+      <c r="C68" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="14">
+        <v>56</v>
+      </c>
+      <c r="C69" s="237"/>
+      <c r="D69" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="14">
+        <v>57</v>
+      </c>
+      <c r="C70" s="237"/>
+      <c r="D70" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="14">
+        <v>58</v>
+      </c>
+      <c r="C71" s="238"/>
+      <c r="D71" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="14">
+        <v>59</v>
+      </c>
+      <c r="C72" s="226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="64"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="14">
+        <v>60</v>
+      </c>
+      <c r="C73" s="227"/>
+      <c r="D73" s="65"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="14">
+        <v>61</v>
+      </c>
+      <c r="C74" s="228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="14">
+        <v>62</v>
+      </c>
+      <c r="C75" s="229"/>
+      <c r="D75" s="62"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="14">
+        <v>63</v>
+      </c>
+      <c r="C76" s="230"/>
+      <c r="D76" s="63"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="14">
-        <v>42</v>
-      </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="14">
-        <v>43</v>
-      </c>
-      <c r="C58" s="231"/>
-      <c r="D58" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="14">
-        <v>44</v>
-      </c>
-      <c r="C59" s="231"/>
-      <c r="D59" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="14">
-        <v>45</v>
-      </c>
-      <c r="C60" s="230" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="14">
-        <v>46</v>
-      </c>
-      <c r="C61" s="231"/>
-      <c r="D61" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="14">
-        <v>47</v>
-      </c>
-      <c r="C62" s="231"/>
-      <c r="D62" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="14">
-        <v>48</v>
-      </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="14">
-        <v>49</v>
-      </c>
-      <c r="C64" s="230" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="14">
-        <v>50</v>
-      </c>
-      <c r="C65" s="231"/>
-      <c r="D65" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="14">
-        <v>51</v>
-      </c>
-      <c r="C66" s="231"/>
-      <c r="D66" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" s="14">
-        <v>52</v>
-      </c>
-      <c r="C67" s="231"/>
-      <c r="D67" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="14">
-        <v>53</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" s="14">
-        <v>54</v>
-      </c>
-      <c r="C69" s="67" t="s">
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="66">
+        <v>0</v>
+      </c>
+      <c r="C81" s="233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="61"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="66">
+        <v>1</v>
+      </c>
+      <c r="C82" s="234"/>
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="66">
+        <v>2</v>
+      </c>
+      <c r="C83" s="235"/>
+      <c r="D83" s="63"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="14">
+        <v>3</v>
+      </c>
+      <c r="C84" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="14">
+        <v>4</v>
+      </c>
+      <c r="C85" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="14">
+        <v>5</v>
+      </c>
+      <c r="C86" s="231" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="14">
+        <v>6</v>
+      </c>
+      <c r="C87" s="232"/>
+      <c r="D87" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="14">
+        <v>7</v>
+      </c>
+      <c r="C88" s="232"/>
+      <c r="D88" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="14">
+        <v>8</v>
+      </c>
+      <c r="C89" s="232"/>
+      <c r="D89" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="14">
         <v>9</v>
       </c>
-      <c r="D69" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B70" s="14">
-        <v>55</v>
-      </c>
-      <c r="C70" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" s="14">
-        <v>56</v>
-      </c>
-      <c r="C71" s="225"/>
-      <c r="D71" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" s="14">
-        <v>57</v>
-      </c>
-      <c r="C72" s="225"/>
-      <c r="D72" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B73" s="14">
-        <v>58</v>
-      </c>
-      <c r="C73" s="226"/>
-      <c r="D73" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B74" s="14">
-        <v>59</v>
-      </c>
-      <c r="C74" s="235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="64"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B75" s="14">
-        <v>60</v>
-      </c>
-      <c r="C75" s="236"/>
-      <c r="D75" s="65"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B76" s="14">
-        <v>61</v>
-      </c>
-      <c r="C76" s="237" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="61"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="14">
-        <v>62</v>
-      </c>
-      <c r="C77" s="238"/>
-      <c r="D77" s="62"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B78" s="14">
-        <v>63</v>
-      </c>
-      <c r="C78" s="239"/>
-      <c r="D78" s="63"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="66">
-        <v>0</v>
-      </c>
-      <c r="C83" s="227" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="61"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B84" s="66">
-        <v>1</v>
-      </c>
-      <c r="C84" s="228"/>
-      <c r="D84" s="62"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B85" s="66">
-        <v>2</v>
-      </c>
-      <c r="C85" s="229"/>
-      <c r="D85" s="63"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B86" s="14">
-        <v>3</v>
-      </c>
-      <c r="C86" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B87" s="14">
-        <v>4</v>
-      </c>
-      <c r="C87" s="85" t="s">
+      <c r="C90" s="231" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="14">
         <v>10</v>
       </c>
-      <c r="D87" s="73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B88" s="14">
-        <v>5</v>
-      </c>
-      <c r="C88" s="230" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B89" s="14">
-        <v>6</v>
-      </c>
-      <c r="C89" s="231"/>
-      <c r="D89" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B90" s="14">
-        <v>7</v>
-      </c>
-      <c r="C90" s="231"/>
-      <c r="D90" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B91" s="14">
-        <v>8</v>
-      </c>
-      <c r="C91" s="231"/>
-      <c r="D91" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C91" s="232"/>
+      <c r="D91" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="14">
-        <v>9</v>
-      </c>
-      <c r="C92" s="230" t="s">
-        <v>141</v>
-      </c>
-      <c r="D92" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C92" s="232"/>
+      <c r="D92" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="14">
-        <v>10</v>
-      </c>
-      <c r="C93" s="231"/>
-      <c r="D93" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C93" s="232"/>
+      <c r="D93" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="14">
-        <v>11</v>
-      </c>
-      <c r="C94" s="231"/>
-      <c r="D94" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C94" s="231" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="14">
-        <v>12</v>
-      </c>
-      <c r="C95" s="231"/>
-      <c r="D95" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C95" s="232"/>
+      <c r="D95" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="14">
-        <v>13</v>
-      </c>
-      <c r="C96" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C96" s="232"/>
+      <c r="D96" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="14">
-        <v>14</v>
-      </c>
-      <c r="C97" s="231"/>
-      <c r="D97" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C97" s="232"/>
+      <c r="D97" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="14">
-        <v>15</v>
-      </c>
-      <c r="C98" s="231"/>
-      <c r="D98" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C98" s="231" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="14">
-        <v>16</v>
-      </c>
-      <c r="C99" s="231"/>
-      <c r="D99" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="C99" s="232"/>
+      <c r="D99" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="14">
-        <v>17</v>
-      </c>
-      <c r="C100" s="230" t="s">
-        <v>143</v>
-      </c>
-      <c r="D100" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C100" s="232"/>
+      <c r="D100" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="14">
-        <v>18</v>
-      </c>
-      <c r="C101" s="231"/>
-      <c r="D101" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C101" s="232"/>
+      <c r="D101" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="14">
-        <v>19</v>
-      </c>
-      <c r="C102" s="231"/>
-      <c r="D102" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="C102" s="70"/>
+      <c r="D102" s="69"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="14">
-        <v>20</v>
-      </c>
-      <c r="C103" s="231"/>
-      <c r="D103" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="C103" s="70"/>
+      <c r="D103" s="69"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C104" s="70"/>
       <c r="D104" s="69"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C105" s="70"/>
       <c r="D105" s="69"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C106" s="70"/>
       <c r="D106" s="69"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C107" s="70"/>
       <c r="D107" s="69"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C108" s="70"/>
       <c r="D108" s="69"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C109" s="70"/>
       <c r="D109" s="69"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C110" s="70"/>
       <c r="D110" s="69"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C111" s="70"/>
       <c r="D111" s="69"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C112" s="70"/>
       <c r="D112" s="69"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C113" s="70"/>
       <c r="D113" s="69"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C114" s="70"/>
       <c r="D114" s="69"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C115" s="70"/>
       <c r="D115" s="69"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C116" s="70"/>
       <c r="D116" s="69"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C117" s="70"/>
       <c r="D117" s="69"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C118" s="70"/>
       <c r="D118" s="69"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C119" s="70"/>
       <c r="D119" s="69"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C120" s="70"/>
       <c r="D120" s="69"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C121" s="70"/>
       <c r="D121" s="69"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="14">
-        <v>39</v>
-      </c>
-      <c r="C122" s="70"/>
-      <c r="D122" s="69"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="14">
-        <v>40</v>
-      </c>
-      <c r="C123" s="70"/>
-      <c r="D123" s="69"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="14">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="14">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="14">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="14">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="14">
-        <v>52</v>
-      </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="14">
-        <v>53</v>
-      </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="C136" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="14">
-        <v>54</v>
-      </c>
-      <c r="C137" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="C137" s="237"/>
+      <c r="D137" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="14">
-        <v>55</v>
-      </c>
-      <c r="C138" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C138" s="237"/>
+      <c r="D138" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="14">
-        <v>56</v>
-      </c>
-      <c r="C139" s="225"/>
-      <c r="D139" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="C139" s="238"/>
+      <c r="D139" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="14">
-        <v>57</v>
-      </c>
-      <c r="C140" s="225"/>
-      <c r="D140" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C140" s="226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="64"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="14">
-        <v>58</v>
-      </c>
-      <c r="C141" s="226"/>
-      <c r="D141" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="C141" s="227"/>
+      <c r="D141" s="65"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="14">
-        <v>59</v>
-      </c>
-      <c r="C142" s="235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="64"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="C142" s="228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="61"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="14">
-        <v>60</v>
-      </c>
-      <c r="C143" s="236"/>
-      <c r="D143" s="65"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="C143" s="229"/>
+      <c r="D143" s="62"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="14">
-        <v>61</v>
-      </c>
-      <c r="C144" s="237" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="61"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="14">
-        <v>62</v>
-      </c>
-      <c r="C145" s="238"/>
-      <c r="D145" s="62"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="239"/>
-      <c r="D146" s="63"/>
+      <c r="C144" s="230"/>
+      <c r="D144" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
+  <mergeCells count="27">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C72:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5516,56 +5481,56 @@
       <selection activeCell="C4" sqref="C4:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="172" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="172"/>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="175"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="93"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="132" t="s">
+      <c r="D8" s="131" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="49">
         <v>4</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="39" t="s">
@@ -5573,96 +5538,96 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="74" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="17" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="131" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C18" s="49">
         <v>4</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="132" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C19" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="135" t="s">
-        <v>75</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>67</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="136"/>
+        <v>162</v>
+      </c>
+      <c r="D20" s="135"/>
       <c r="E20" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C21" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="134"/>
+        <v>162</v>
+      </c>
+      <c r="D21" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5682,127 +5647,127 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="169" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="172" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="74" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="176" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="176"/>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="179"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="177"/>
+      <c r="E9" s="178"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="14">
         <v>3</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="149" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="49">
         <v>4</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="150" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="25">
         <v>5</v>
       </c>
-      <c r="D13" s="152" t="s">
-        <v>75</v>
+      <c r="D13" s="151" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="25">
         <v>6</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>7</v>
       </c>
-      <c r="D15" s="144" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="145" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="143" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>7</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="145"/>
+      <c r="E16" s="146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>8</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>123</v>
+      <c r="D17" s="148" t="s">
+        <v>115</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5823,441 +5788,441 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="6" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9" max="54" width="2.6640625" style="5" customWidth="1"/>
-    <col min="55" max="57" width="2.6640625" style="4" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.6640625" style="4" customWidth="1"/>
-    <col min="68" max="16384" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="2.7109375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" style="4" customWidth="1"/>
+    <col min="9" max="54" width="2.7109375" style="5" customWidth="1"/>
+    <col min="55" max="57" width="2.7109375" style="4" customWidth="1"/>
+    <col min="58" max="58" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.7109375" style="4" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="180" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="187" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
-      <c r="W4" s="187"/>
-      <c r="X4" s="187"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
-      <c r="V5" s="187"/>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="189" t="s">
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="187" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="190" t="s">
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="180"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="184"/>
+      <c r="D7" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B8" s="169"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="185"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="191" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="172"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="187"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="185"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B10" s="169"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="185"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="188" t="s">
+      <c r="C9" s="189"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="187" t="s">
+      <c r="C11" s="195"/>
+      <c r="D11" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="182" t="s">
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="180"/>
+      <c r="V11" s="180"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="180"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="187" t="s">
+      <c r="C12" s="194"/>
+      <c r="D12" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="181" t="s">
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="180"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="180"/>
+      <c r="U12" s="180"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="180"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="193"/>
+      <c r="D13" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="180" t="s">
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="180"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="180"/>
+      <c r="U13" s="180"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="180"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="180"/>
+      <c r="V14" s="180"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="187" t="s">
+      <c r="C15" s="181"/>
+      <c r="D15" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-    </row>
-    <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="180" t="s">
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="180"/>
+      <c r="U15" s="180"/>
+      <c r="V15" s="180"/>
+      <c r="W15" s="180"/>
+      <c r="X15" s="180"/>
+    </row>
+    <row r="17" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="D17" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="84" t="s">
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="85" t="s">
+      <c r="H17" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="89"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="83" t="s">
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="88"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="88"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="88"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="88"/>
+      <c r="AZ17" s="88"/>
+      <c r="BA17" s="88"/>
+      <c r="BB17" s="88"/>
+      <c r="BC17" s="88"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="88"/>
+      <c r="BF17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="182" t="s">
+      <c r="BG17" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="182"/>
-      <c r="BI17" s="182"/>
-      <c r="BJ17" s="182"/>
-      <c r="BK17" s="181" t="s">
+      <c r="BH17" s="194"/>
+      <c r="BI17" s="194"/>
+      <c r="BJ17" s="194"/>
+      <c r="BK17" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="181"/>
-      <c r="BM17" s="180" t="s">
+      <c r="BL17" s="193"/>
+      <c r="BM17" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="180"/>
-      <c r="BO17" s="180"/>
-    </row>
-    <row r="18" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C18" s="95" t="s">
+      <c r="BN17" s="181"/>
+      <c r="BO17" s="181"/>
+    </row>
+    <row r="18" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="C18" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="7">
@@ -6453,224 +6418,210 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I20" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="170"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="170"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
-      <c r="AD20" s="170"/>
-      <c r="AE20" s="170"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="170"/>
-      <c r="AH20" s="170"/>
-      <c r="AI20" s="170"/>
-      <c r="AJ20" s="170"/>
-      <c r="AK20" s="170"/>
-      <c r="AL20" s="170"/>
-      <c r="AM20" s="170"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="170"/>
-      <c r="BD20" s="170"/>
-      <c r="BE20" s="171"/>
-    </row>
-    <row r="21" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="I21" s="126">
+    <row r="20" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="I20" s="172" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="173"/>
+      <c r="AM20" s="173"/>
+      <c r="AN20" s="173"/>
+      <c r="AO20" s="173"/>
+      <c r="AP20" s="173"/>
+      <c r="AQ20" s="173"/>
+      <c r="AR20" s="173"/>
+      <c r="AS20" s="173"/>
+      <c r="AT20" s="173"/>
+      <c r="AU20" s="173"/>
+      <c r="AV20" s="173"/>
+      <c r="AW20" s="173"/>
+      <c r="AX20" s="173"/>
+      <c r="AY20" s="173"/>
+      <c r="AZ20" s="173"/>
+      <c r="BA20" s="173"/>
+      <c r="BB20" s="173"/>
+      <c r="BC20" s="173"/>
+      <c r="BD20" s="173"/>
+      <c r="BE20" s="174"/>
+    </row>
+    <row r="21" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="I21" s="125">
         <v>1</v>
       </c>
-      <c r="J21" s="127">
+      <c r="J21" s="126">
         <v>2</v>
       </c>
-      <c r="K21" s="127">
+      <c r="K21" s="126">
         <v>3</v>
       </c>
-      <c r="L21" s="127">
+      <c r="L21" s="126">
         <v>4</v>
       </c>
-      <c r="M21" s="127">
+      <c r="M21" s="126">
         <v>5</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="126">
         <v>6</v>
       </c>
-      <c r="O21" s="127">
+      <c r="O21" s="126">
         <v>7</v>
       </c>
-      <c r="P21" s="127">
+      <c r="P21" s="126">
         <v>8</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="126">
         <v>9</v>
       </c>
-      <c r="R21" s="127">
+      <c r="R21" s="126">
         <v>10</v>
       </c>
-      <c r="S21" s="127">
+      <c r="S21" s="126">
         <v>11</v>
       </c>
-      <c r="T21" s="127">
+      <c r="T21" s="126">
         <v>12</v>
       </c>
-      <c r="U21" s="127">
+      <c r="U21" s="126">
         <v>13</v>
       </c>
-      <c r="V21" s="127">
+      <c r="V21" s="126">
         <v>14</v>
       </c>
-      <c r="W21" s="127">
+      <c r="W21" s="126">
         <v>15</v>
       </c>
-      <c r="X21" s="127">
+      <c r="X21" s="126">
         <v>16</v>
       </c>
-      <c r="Y21" s="127">
+      <c r="Y21" s="126">
         <v>17</v>
       </c>
-      <c r="Z21" s="127">
+      <c r="Z21" s="126">
         <v>18</v>
       </c>
-      <c r="AA21" s="127">
+      <c r="AA21" s="126">
         <v>19</v>
       </c>
-      <c r="AB21" s="127">
+      <c r="AB21" s="126">
         <v>20</v>
       </c>
-      <c r="AC21" s="127">
+      <c r="AC21" s="126">
         <v>21</v>
       </c>
-      <c r="AD21" s="127">
+      <c r="AD21" s="126">
         <v>22</v>
       </c>
-      <c r="AE21" s="127">
+      <c r="AE21" s="126">
         <v>23</v>
       </c>
-      <c r="AF21" s="127">
+      <c r="AF21" s="126">
         <v>24</v>
       </c>
-      <c r="AG21" s="127">
+      <c r="AG21" s="126">
         <v>25</v>
       </c>
-      <c r="AH21" s="127">
+      <c r="AH21" s="126">
         <v>26</v>
       </c>
-      <c r="AI21" s="127">
+      <c r="AI21" s="126">
         <v>27</v>
       </c>
-      <c r="AJ21" s="127">
+      <c r="AJ21" s="126">
         <v>28</v>
       </c>
-      <c r="AK21" s="127">
+      <c r="AK21" s="126">
         <v>29</v>
       </c>
-      <c r="AL21" s="127">
+      <c r="AL21" s="126">
         <v>30</v>
       </c>
-      <c r="AM21" s="127">
+      <c r="AM21" s="126">
         <v>31</v>
       </c>
-      <c r="AN21" s="127">
+      <c r="AN21" s="126">
         <v>32</v>
       </c>
-      <c r="AO21" s="127">
+      <c r="AO21" s="126">
         <v>33</v>
       </c>
-      <c r="AP21" s="127">
+      <c r="AP21" s="126">
         <v>34</v>
       </c>
-      <c r="AQ21" s="127">
+      <c r="AQ21" s="126">
         <v>35</v>
       </c>
-      <c r="AR21" s="127">
+      <c r="AR21" s="126">
         <v>36</v>
       </c>
-      <c r="AS21" s="127">
+      <c r="AS21" s="126">
         <v>37</v>
       </c>
-      <c r="AT21" s="127">
+      <c r="AT21" s="126">
         <v>38</v>
       </c>
-      <c r="AU21" s="127">
+      <c r="AU21" s="126">
         <v>39</v>
       </c>
-      <c r="AV21" s="127">
+      <c r="AV21" s="126">
         <v>40</v>
       </c>
-      <c r="AW21" s="127">
+      <c r="AW21" s="126">
         <v>41</v>
       </c>
-      <c r="AX21" s="127">
+      <c r="AX21" s="126">
         <v>42</v>
       </c>
-      <c r="AY21" s="127">
+      <c r="AY21" s="126">
         <v>43</v>
       </c>
-      <c r="AZ21" s="127">
+      <c r="AZ21" s="126">
         <v>44</v>
       </c>
-      <c r="BA21" s="127">
+      <c r="BA21" s="126">
         <v>45</v>
       </c>
-      <c r="BB21" s="127">
+      <c r="BB21" s="126">
         <v>46</v>
       </c>
-      <c r="BC21" s="127">
+      <c r="BC21" s="126">
         <v>47</v>
       </c>
-      <c r="BD21" s="127">
+      <c r="BD21" s="126">
         <v>48</v>
       </c>
-      <c r="BE21" s="128">
+      <c r="BE21" s="127">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6687,6 +6638,20 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6701,174 +6666,174 @@
       <selection activeCell="B2" sqref="B2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="20.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="169" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="E5" s="93"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="175"/>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="119" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>75</v>
+      <c r="C8" s="120" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="109"/>
+      <c r="C10" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="108"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="76"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="172"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="175"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="118" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="49">
         <v>4</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>5</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>167</v>
+      <c r="C15" s="120" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>6</v>
       </c>
-      <c r="C16" s="122"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>7</v>
       </c>
-      <c r="C17" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="109"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="108"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6889,53 +6854,53 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="193" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="196" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="89" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="47"/>
     </row>
-    <row r="8" spans="2:4" s="72" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:4" s="72" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -6952,27 +6917,27 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="4" width="11.83203125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="3"/>
-    <col min="8" max="8" width="14.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="4" width="11.85546875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="14">
         <v>4</v>
       </c>
@@ -6983,139 +6948,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="194" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="206" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="210"/>
+      <c r="H5" s="211"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="209" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="198"/>
+      <c r="D6" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="212" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="209" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="198"/>
+      <c r="D7" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="212" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>8</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="212" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="199"/>
+      <c r="D8" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="215" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="216"/>
+      <c r="H8" s="217"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="197" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="199"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D9" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="200" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="207"/>
+      <c r="D10" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="200"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="197"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="207"/>
+      <c r="D11" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="200"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>12</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="197"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="208"/>
+      <c r="D12" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="200"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="202"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>13</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D13" s="103"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="202"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>14</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="202"/>
+      <c r="D14" s="105"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7139,40 +7104,40 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="30.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="30.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="94"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="174"/>
+      <c r="D3" s="93"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -7183,177 +7148,177 @@
         <v>4</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D7" s="43"/>
       <c r="F7" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="138" t="s">
-        <v>174</v>
+      <c r="C8" s="137" t="s">
+        <v>164</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>7</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="138" t="s">
-        <v>175</v>
+      <c r="C10" s="137" t="s">
+        <v>165</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="139"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="46"/>
       <c r="F12" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="46"/>
       <c r="F13" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="F14" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="46"/>
       <c r="F15" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F16" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F17" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F20" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F21" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="7">
@@ -7376,60 +7341,60 @@
       <selection activeCell="B2" sqref="B2:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
     <col min="3" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
     <col min="6" max="7" width="19" style="3" customWidth="1"/>
     <col min="8" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="169" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="175"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="215" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="215"/>
+        <v>61</v>
+      </c>
+      <c r="F6" s="218" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="218"/>
       <c r="H6" s="4"/>
       <c r="I6" s="72"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="7">
@@ -7437,18 +7402,18 @@
       </c>
       <c r="I7" s="72"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>75</v>
+      <c r="C8" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7">
@@ -7456,16 +7421,16 @@
       </c>
       <c r="I8" s="72"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="7">
@@ -7473,9 +7438,9 @@
       </c>
       <c r="I9" s="72"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F10" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="7">
@@ -7483,112 +7448,112 @@
       </c>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="46"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="147" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="176" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="176"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="179"/>
       <c r="F13" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="49">
         <v>4</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>5</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>75</v>
+      <c r="C18" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>6</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <v>7</v>
       </c>
-      <c r="C20" s="144" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="145" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="143" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <v>7</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="145"/>
+      <c r="D21" s="146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <v>8</v>
       </c>
-      <c r="C22" s="149" t="s">
-        <v>123</v>
+      <c r="C22" s="148" t="s">
+        <v>115</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simone/Documents/Dropbox/Mind Music Lab AB/GIT/sensei/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.minto\Dropbox\PROROB\09 CLIENTI\Mind Music Lab AB\01 SENSEI\GIT\sensei-bitbucket\sensei\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804" activeTab="11"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -28,9 +28,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
   <si>
     <t>CMD</t>
   </si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>IMU_GET_DATA_LINEARACCELERATION</t>
+  </si>
+  <si>
+    <t>IMU_RESET_TO_FACTORY_SETTINGS</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1502,52 +1502,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,8 +1640,35 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,20 +1679,8 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,24 +1691,15 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2058,23 +2064,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>0</v>
       </c>
@@ -2102,7 +2108,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>1</v>
       </c>
@@ -2113,7 +2119,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -2124,7 +2130,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -2135,21 +2141,21 @@
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="82"/>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="82"/>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="20">
         <v>100</v>
       </c>
@@ -2164,7 +2170,7 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="20">
         <v>1</v>
@@ -2175,7 +2181,7 @@
       </c>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="20">
         <v>2</v>
@@ -2186,7 +2192,7 @@
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="20">
         <v>3</v>
@@ -2197,14 +2203,14 @@
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
         <v>101</v>
       </c>
@@ -2217,14 +2223,14 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="137"/>
       <c r="C15" s="137"/>
       <c r="D15" s="137"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <v>102</v>
       </c>
@@ -2237,14 +2243,14 @@
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
         <v>103</v>
       </c>
@@ -2259,7 +2265,7 @@
       </c>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20"/>
       <c r="C19" s="20">
         <v>1</v>
@@ -2270,14 +2276,14 @@
       </c>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
         <v>104</v>
       </c>
@@ -2292,14 +2298,14 @@
       </c>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
         <v>105</v>
       </c>
@@ -2314,7 +2320,7 @@
       </c>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="C24" s="20">
         <v>1</v>
@@ -2325,14 +2331,14 @@
       </c>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
       <c r="E25" s="129"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>200</v>
       </c>
@@ -2345,7 +2351,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>201</v>
       </c>
@@ -2358,7 +2364,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>202</v>
       </c>
@@ -2371,7 +2377,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
         <v>203</v>
       </c>
@@ -2384,7 +2390,7 @@
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="18">
         <v>204</v>
       </c>
@@ -2397,7 +2403,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="18">
         <v>205</v>
       </c>
@@ -2410,14 +2416,14 @@
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="82"/>
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <v>206</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="18">
         <v>1</v>
@@ -2447,7 +2453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="18">
         <v>2</v>
@@ -2460,7 +2466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="18">
         <v>3</v>
@@ -2473,63 +2479,83 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="130">
-        <v>250</v>
-      </c>
-      <c r="C39" s="130">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="240"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="240"/>
+      <c r="E37" s="240"/>
+      <c r="F37" s="241"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="18">
+        <v>207</v>
+      </c>
+      <c r="C38" s="18">
         <v>0</v>
       </c>
-      <c r="D39" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="131"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D38" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="82"/>
       <c r="C40" s="82"/>
       <c r="D40" s="82"/>
       <c r="E40" s="82"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="164">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="130">
+        <v>250</v>
+      </c>
+      <c r="C41" s="130">
+        <v>0</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="164">
         <v>254</v>
       </c>
-      <c r="C41" s="164">
+      <c r="C43" s="164">
         <v>0</v>
       </c>
-      <c r="D41" s="164" t="s">
+      <c r="D43" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="165"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="107">
+      <c r="E43" s="164"/>
+      <c r="F43" s="165"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="107">
         <v>255</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,32 +2571,32 @@
       <selection activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
+    <col min="3" max="4" width="19.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="3"/>
+    <col min="6" max="7" width="20.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="169" t="s">
         <v>158</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="171"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="172" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="172"/>
       <c r="E5" s="93"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -2585,7 +2611,7 @@
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>4</v>
       </c>
@@ -2603,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -2617,7 +2643,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -2629,7 +2655,7 @@
       <c r="G9" s="48"/>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -2643,7 +2669,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>7</v>
       </c>
@@ -2652,12 +2678,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="173" t="s">
         <v>152</v>
       </c>
@@ -2682,26 +2708,26 @@
       <selection activeCell="C29" sqref="C29:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="3"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="32.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" style="3"/>
+    <col min="7" max="8" width="30.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="169" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="171"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -2715,7 +2741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -2733,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>5</v>
       </c>
@@ -2754,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>6</v>
       </c>
@@ -2770,7 +2796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G9" s="13" t="s">
         <v>101</v>
       </c>
@@ -2779,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>3</v>
       </c>
@@ -2793,7 +2819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -2813,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>5</v>
       </c>
@@ -2836,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>6</v>
       </c>
@@ -2854,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>7</v>
       </c>
@@ -2875,7 +2901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>8</v>
       </c>
@@ -2898,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>9</v>
       </c>
@@ -2910,7 +2936,7 @@
       <c r="H17" s="36"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>3</v>
       </c>
@@ -2921,7 +2947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>4</v>
       </c>
@@ -2937,7 +2963,7 @@
       <c r="H21" s="219"/>
       <c r="I21" s="220"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>5</v>
       </c>
@@ -2951,7 +2977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>6</v>
       </c>
@@ -2963,7 +2989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>7</v>
       </c>
@@ -2982,7 +3008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>8</v>
       </c>
@@ -3003,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>9</v>
       </c>
@@ -3019,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>10</v>
       </c>
@@ -3035,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>11</v>
       </c>
@@ -3046,7 +3072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>12</v>
       </c>
@@ -3060,7 +3086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>13</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>14</v>
       </c>
@@ -3092,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>15</v>
       </c>
@@ -3101,7 +3127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>16</v>
       </c>
@@ -3110,7 +3136,7 @@
       </c>
       <c r="D33" s="51"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>17</v>
       </c>
@@ -3121,7 +3147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>18</v>
       </c>
@@ -3150,42 +3176,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="8" max="8" width="2.6328125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="169" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="171"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="172" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="172"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -3199,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -3219,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -3237,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -3255,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>7</v>
       </c>
@@ -3273,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -3283,7 +3309,7 @@
       <c r="D10" s="41"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -3296,7 +3322,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>10</v>
       </c>
@@ -3317,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>11</v>
       </c>
@@ -3333,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>12</v>
       </c>
@@ -3349,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>13</v>
       </c>
@@ -3363,7 +3389,7 @@
       <c r="G15" s="75"/>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>14</v>
       </c>
@@ -3376,7 +3402,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>15</v>
       </c>
@@ -3394,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>16</v>
       </c>
@@ -3410,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="46"/>
       <c r="F19" s="13" t="s">
         <v>39</v>
@@ -3420,10 +3446,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="74" t="s">
         <v>144</v>
       </c>
@@ -3432,7 +3458,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="173" t="s">
         <v>152</v>
       </c>
@@ -3448,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
@@ -3457,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="46"/>
       <c r="C24" s="42"/>
       <c r="D24" s="111"/>
@@ -3469,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="46"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46"/>
@@ -3481,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F26" s="13" t="s">
         <v>45</v>
       </c>
@@ -3490,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="169" t="s">
         <v>23</v>
       </c>
@@ -3504,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F28" s="13" t="s">
         <v>47</v>
       </c>
@@ -3513,7 +3539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B29" s="157" t="s">
         <v>145</v>
       </c>
@@ -3526,7 +3552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>3</v>
       </c>
@@ -3538,7 +3564,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>4</v>
       </c>
@@ -3553,7 +3579,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F32" s="13" t="s">
         <v>64</v>
       </c>
@@ -3562,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="74" t="s">
         <v>144</v>
       </c>
@@ -3574,19 +3600,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="158" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="159"/>
       <c r="D34" s="160"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F35" s="168" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>3</v>
       </c>
@@ -3604,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>4</v>
       </c>
@@ -3622,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>5</v>
       </c>
@@ -3638,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>6</v>
       </c>
@@ -3654,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>7</v>
       </c>
@@ -3663,7 +3689,7 @@
       </c>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>8</v>
       </c>
@@ -3672,7 +3698,7 @@
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>9</v>
       </c>
@@ -3681,7 +3707,7 @@
       </c>
       <c r="D42" s="32"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>10</v>
       </c>
@@ -3692,7 +3718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>11</v>
       </c>
@@ -3701,7 +3727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>12</v>
       </c>
@@ -3710,7 +3736,7 @@
       </c>
       <c r="D45" s="167"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>13</v>
       </c>
@@ -3724,7 +3750,7 @@
       <c r="G46" s="71"/>
       <c r="H46" s="76"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>14</v>
       </c>
@@ -3733,7 +3759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>15</v>
       </c>
@@ -3742,7 +3768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>16</v>
       </c>
@@ -3773,50 +3799,50 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.6640625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="2" width="8.6328125" style="3"/>
+    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="3"/>
+    <col min="6" max="6" width="37.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.6328125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="172" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="172"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="223" t="s">
+      <c r="G4" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="236"/>
+      <c r="M4" s="236"/>
+      <c r="N4" s="236"/>
+      <c r="O4" s="236"/>
+      <c r="P4" s="236"/>
+      <c r="Q4" s="236"/>
+      <c r="R4" s="236"/>
+      <c r="S4" s="236"/>
+      <c r="T4" s="236"/>
+      <c r="U4" s="236"/>
+      <c r="V4" s="236"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -3879,7 +3905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -3942,7 +3968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F7" s="77" t="s">
         <v>28</v>
       </c>
@@ -3981,7 +4007,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F8" s="77" t="s">
         <v>31</v>
       </c>
@@ -4020,7 +4046,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F9" s="77" t="s">
         <v>32</v>
       </c>
@@ -4049,7 +4075,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="74" t="s">
         <v>144</v>
       </c>
@@ -4079,7 +4105,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="74"/>
       <c r="F11" s="77" t="s">
         <v>29</v>
@@ -4115,7 +4141,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="173" t="s">
         <v>152</v>
       </c>
@@ -4139,7 +4165,7 @@
       <c r="U12" s="71"/>
       <c r="V12" s="71"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="74"/>
       <c r="F13" s="48"/>
       <c r="G13" s="71"/>
@@ -4159,35 +4185,35 @@
       <c r="U13" s="71"/>
       <c r="V13" s="71"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="78" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="227" t="s">
+      <c r="C15" s="230" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="228"/>
+      <c r="C16" s="231"/>
       <c r="D16" s="91"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="92"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>3</v>
       </c>
@@ -4198,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>4</v>
       </c>
@@ -4209,60 +4235,60 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="228" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="231"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="231"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="231"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="228" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="231"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="59" t="s">
         <v>79</v>
       </c>
@@ -4284,87 +4310,87 @@
       <c r="U25" s="72"/>
       <c r="V25" s="72"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="231"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="231"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="228" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="231"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="231"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="231"/>
+      <c r="C31" s="229"/>
       <c r="D31" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="230" t="s">
+      <c r="C32" s="228" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="231"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="231"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="59" t="s">
         <v>81</v>
       </c>
@@ -4386,11 +4412,11 @@
       <c r="V34" s="71"/>
       <c r="W34" s="71"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="231"/>
+      <c r="C35" s="229"/>
       <c r="D35" s="60" t="s">
         <v>80</v>
       </c>
@@ -4412,11 +4438,11 @@
       <c r="V35" s="71"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="230" t="s">
+      <c r="C36" s="228" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -4440,11 +4466,11 @@
       <c r="V36" s="71"/>
       <c r="W36" s="71"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="231"/>
+      <c r="C37" s="229"/>
       <c r="D37" s="59" t="s">
         <v>79</v>
       </c>
@@ -4466,11 +4492,11 @@
       <c r="V37" s="71"/>
       <c r="W37" s="71"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="231"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="59" t="s">
         <v>81</v>
       </c>
@@ -4488,11 +4514,11 @@
       <c r="V38" s="71"/>
       <c r="W38" s="71"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="231"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="60" t="s">
         <v>80</v>
       </c>
@@ -4510,11 +4536,11 @@
       <c r="V39" s="71"/>
       <c r="W39" s="71"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="230" t="s">
+      <c r="C40" s="228" t="s">
         <v>133</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -4534,11 +4560,11 @@
       <c r="V40" s="71"/>
       <c r="W40" s="71"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="231"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="59" t="s">
         <v>79</v>
       </c>
@@ -4560,11 +4586,11 @@
       <c r="V41" s="71"/>
       <c r="W41" s="71"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="231"/>
+      <c r="C42" s="229"/>
       <c r="D42" s="59" t="s">
         <v>81</v>
       </c>
@@ -4586,11 +4612,11 @@
       <c r="V42" s="71"/>
       <c r="W42" s="71"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="231"/>
+      <c r="C43" s="229"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -4612,11 +4638,11 @@
       <c r="V43" s="71"/>
       <c r="W43" s="71"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="228" t="s">
         <v>134</v>
       </c>
       <c r="D44" s="58" t="s">
@@ -4640,231 +4666,231 @@
       <c r="V44" s="71"/>
       <c r="W44" s="71"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="231"/>
+      <c r="C45" s="229"/>
       <c r="D45" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="231"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="231"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="230" t="s">
+      <c r="C48" s="228" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="231"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="231"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="231"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="232" t="s">
+      <c r="C52" s="237" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="233"/>
+      <c r="C53" s="238"/>
       <c r="D53" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="233"/>
+      <c r="C54" s="238"/>
       <c r="D54" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="234"/>
+      <c r="C55" s="239"/>
       <c r="D55" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="230" t="s">
+      <c r="C56" s="228" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="231"/>
+      <c r="C57" s="229"/>
       <c r="D57" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="231"/>
+      <c r="C58" s="229"/>
       <c r="D58" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="231"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="230" t="s">
+      <c r="C60" s="228" t="s">
         <v>138</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="231"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="231"/>
+      <c r="C62" s="229"/>
       <c r="D62" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="231"/>
+      <c r="C63" s="229"/>
       <c r="D63" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="230" t="s">
+      <c r="C64" s="228" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="231"/>
+      <c r="C65" s="229"/>
       <c r="D65" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="231"/>
+      <c r="C66" s="229"/>
       <c r="D66" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="231"/>
+      <c r="C67" s="229"/>
       <c r="D67" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>53</v>
       </c>
       <c r="C68" s="68"/>
       <c r="D68" s="68"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>54</v>
       </c>
@@ -4875,112 +4901,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="224" t="s">
+      <c r="C70" s="233" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="225"/>
+      <c r="C71" s="234"/>
       <c r="D71" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="225"/>
+      <c r="C72" s="234"/>
       <c r="D72" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="226"/>
+      <c r="C73" s="235"/>
       <c r="D73" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="235" t="s">
+      <c r="C74" s="223" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="236"/>
+      <c r="C75" s="224"/>
       <c r="D75" s="65"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="237" t="s">
+      <c r="C76" s="225" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="226"/>
       <c r="D77" s="62"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="239"/>
+      <c r="C78" s="227"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="78" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="227" t="s">
+      <c r="C83" s="230" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="228"/>
+      <c r="C84" s="231"/>
       <c r="D84" s="62"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="229"/>
+      <c r="C85" s="232"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="14">
         <v>3</v>
       </c>
@@ -4991,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="14">
         <v>4</v>
       </c>
@@ -5002,390 +5028,390 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="230" t="s">
+      <c r="C88" s="228" t="s">
         <v>140</v>
       </c>
       <c r="D88" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="231"/>
+      <c r="C89" s="229"/>
       <c r="D89" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="231"/>
+      <c r="C90" s="229"/>
       <c r="D90" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="231"/>
+      <c r="C91" s="229"/>
       <c r="D91" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="230" t="s">
+      <c r="C92" s="228" t="s">
         <v>141</v>
       </c>
       <c r="D92" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="231"/>
+      <c r="C93" s="229"/>
       <c r="D93" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="231"/>
+      <c r="C94" s="229"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="231"/>
+      <c r="C95" s="229"/>
       <c r="D95" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="230" t="s">
+      <c r="C96" s="228" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="231"/>
+      <c r="C97" s="229"/>
       <c r="D97" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="231"/>
+      <c r="C98" s="229"/>
       <c r="D98" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="231"/>
+      <c r="C99" s="229"/>
       <c r="D99" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="230" t="s">
+      <c r="C100" s="228" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="231"/>
+      <c r="C101" s="229"/>
       <c r="D101" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="231"/>
+      <c r="C102" s="229"/>
       <c r="D102" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="231"/>
+      <c r="C103" s="229"/>
       <c r="D103" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="14">
         <v>21</v>
       </c>
       <c r="C104" s="70"/>
       <c r="D104" s="69"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="14">
         <v>22</v>
       </c>
       <c r="C105" s="70"/>
       <c r="D105" s="69"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="14">
         <v>23</v>
       </c>
       <c r="C106" s="70"/>
       <c r="D106" s="69"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="14">
         <v>24</v>
       </c>
       <c r="C107" s="70"/>
       <c r="D107" s="69"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="14">
         <v>25</v>
       </c>
       <c r="C108" s="70"/>
       <c r="D108" s="69"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="14">
         <v>26</v>
       </c>
       <c r="C109" s="70"/>
       <c r="D109" s="69"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="14">
         <v>27</v>
       </c>
       <c r="C110" s="70"/>
       <c r="D110" s="69"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="14">
         <v>28</v>
       </c>
       <c r="C111" s="70"/>
       <c r="D111" s="69"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="14">
         <v>29</v>
       </c>
       <c r="C112" s="70"/>
       <c r="D112" s="69"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="14">
         <v>30</v>
       </c>
       <c r="C113" s="70"/>
       <c r="D113" s="69"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="14">
         <v>31</v>
       </c>
       <c r="C114" s="70"/>
       <c r="D114" s="69"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="14">
         <v>32</v>
       </c>
       <c r="C115" s="70"/>
       <c r="D115" s="69"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="14">
         <v>33</v>
       </c>
       <c r="C116" s="70"/>
       <c r="D116" s="69"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="14">
         <v>34</v>
       </c>
       <c r="C117" s="70"/>
       <c r="D117" s="69"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="14">
         <v>35</v>
       </c>
       <c r="C118" s="70"/>
       <c r="D118" s="69"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="14">
         <v>36</v>
       </c>
       <c r="C119" s="70"/>
       <c r="D119" s="69"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="14">
         <v>37</v>
       </c>
       <c r="C120" s="70"/>
       <c r="D120" s="69"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="14">
         <v>38</v>
       </c>
       <c r="C121" s="70"/>
       <c r="D121" s="69"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="14">
         <v>39</v>
       </c>
       <c r="C122" s="70"/>
       <c r="D122" s="69"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="14">
         <v>40</v>
       </c>
       <c r="C123" s="70"/>
       <c r="D123" s="69"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="14">
         <v>41</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="14">
         <v>42</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="14">
         <v>43</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="14">
         <v>44</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="14">
         <v>45</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="14">
         <v>46</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="14">
         <v>47</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="14">
         <v>48</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="14">
         <v>49</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="14">
         <v>50</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="14">
         <v>51</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="14">
         <v>52</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="14">
         <v>53</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="14">
         <v>54</v>
       </c>
@@ -5396,98 +5422,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="224" t="s">
+      <c r="C138" s="233" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="225"/>
+      <c r="C139" s="234"/>
       <c r="D139" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="225"/>
+      <c r="C140" s="234"/>
       <c r="D140" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="226"/>
+      <c r="C141" s="235"/>
       <c r="D141" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="235" t="s">
+      <c r="C142" s="223" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="236"/>
+      <c r="C143" s="224"/>
       <c r="D143" s="65"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="237" t="s">
+      <c r="C144" s="225" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="238"/>
+      <c r="C145" s="226"/>
       <c r="D145" s="62"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="239"/>
+      <c r="C146" s="227"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -5503,6 +5516,19 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5516,12 +5542,12 @@
       <selection activeCell="C4" sqref="C4:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="169" t="s">
         <v>171</v>
       </c>
@@ -5529,19 +5555,19 @@
       <c r="E4" s="171"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="172" t="s">
         <v>145</v>
       </c>
@@ -5549,7 +5575,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="93"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="14">
         <v>3</v>
       </c>
@@ -5561,7 +5587,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="49">
         <v>4</v>
       </c>
@@ -5573,25 +5599,25 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="74" t="s">
         <v>144</v>
       </c>
@@ -5599,7 +5625,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="173" t="s">
         <v>152</v>
       </c>
@@ -5607,13 +5633,13 @@
       <c r="E14" s="175"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="17" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>3</v>
       </c>
@@ -5624,7 +5650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C18" s="49">
         <v>4</v>
       </c>
@@ -5635,7 +5661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C19" s="25" t="s">
         <v>172</v>
       </c>
@@ -5646,7 +5672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C20" s="25" t="s">
         <v>172</v>
       </c>
@@ -5655,7 +5681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
         <v>172</v>
       </c>
@@ -5682,57 +5708,57 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4" s="169" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="170"/>
       <c r="E4" s="171"/>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C7" s="74" t="s">
         <v>144</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C8" s="176" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="176"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C9" s="173" t="s">
         <v>152</v>
       </c>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C11" s="14">
         <v>3</v>
       </c>
@@ -5743,7 +5769,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C12" s="49">
         <v>4</v>
       </c>
@@ -5754,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C13" s="25">
         <v>5</v>
       </c>
@@ -5765,7 +5791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C14" s="25">
         <v>6</v>
       </c>
@@ -5774,7 +5800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
         <v>7</v>
       </c>
@@ -5785,7 +5811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C16" s="14">
         <v>7</v>
       </c>
@@ -5794,7 +5820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="14">
         <v>8</v>
       </c>
@@ -5823,365 +5849,365 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="6" width="2.6640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9" max="54" width="2.6640625" style="5" customWidth="1"/>
-    <col min="55" max="57" width="2.6640625" style="4" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="67" width="2.6640625" style="4" customWidth="1"/>
-    <col min="68" max="16384" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="2.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="7.6328125" style="4" customWidth="1"/>
+    <col min="9" max="54" width="2.6328125" style="5" customWidth="1"/>
+    <col min="55" max="57" width="2.6328125" style="4" customWidth="1"/>
+    <col min="58" max="58" width="12.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="67" width="2.6328125" style="4" customWidth="1"/>
+    <col min="68" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="180" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="187" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
-      <c r="W4" s="187"/>
-      <c r="X4" s="187"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
-      <c r="V5" s="187"/>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B6" s="189" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="177"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="177"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="187" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B7" s="190" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="181"/>
+      <c r="D7" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="169"/>
       <c r="C8" s="171"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="185"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B9" s="191" t="s">
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="184"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="X9" s="185"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C9" s="186"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="184"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="169"/>
       <c r="C10" s="171"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="184"/>
-      <c r="W10" s="184"/>
-      <c r="X10" s="185"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="188" t="s">
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="184"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="187" t="s">
+      <c r="C11" s="192"/>
+      <c r="D11" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B12" s="182" t="s">
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="187" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B13" s="181" t="s">
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="180" t="s">
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="187" t="s">
+      <c r="C15" s="178"/>
+      <c r="D15" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-    </row>
-    <row r="17" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D17" s="180" t="s">
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+    </row>
+    <row r="17" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="D17" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
@@ -6240,23 +6266,23 @@
       <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="182" t="s">
+      <c r="BG17" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="182"/>
-      <c r="BI17" s="182"/>
-      <c r="BJ17" s="182"/>
-      <c r="BK17" s="181" t="s">
+      <c r="BH17" s="191"/>
+      <c r="BI17" s="191"/>
+      <c r="BJ17" s="191"/>
+      <c r="BK17" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="181"/>
-      <c r="BM17" s="180" t="s">
+      <c r="BL17" s="190"/>
+      <c r="BM17" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="180"/>
-      <c r="BO17" s="180"/>
-    </row>
-    <row r="18" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="BN17" s="178"/>
+      <c r="BO17" s="178"/>
+    </row>
+    <row r="18" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C18" s="95" t="s">
         <v>8</v>
       </c>
@@ -6453,7 +6479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:67" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:67" x14ac:dyDescent="0.3">
       <c r="I20" s="169" t="s">
         <v>168</v>
       </c>
@@ -6506,7 +6532,7 @@
       <c r="BD20" s="170"/>
       <c r="BE20" s="171"/>
     </row>
-    <row r="21" spans="3:67" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:67" x14ac:dyDescent="0.3">
       <c r="I21" s="126">
         <v>1</v>
       </c>
@@ -6657,20 +6683,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6687,6 +6699,20 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6701,32 +6727,32 @@
       <selection activeCell="B2" sqref="B2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="4" width="19.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="20.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
+    <col min="3" max="4" width="19.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="3"/>
+    <col min="6" max="7" width="20.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="169" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="171"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="172" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="172"/>
       <c r="E5" s="93"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -6741,7 +6767,7 @@
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>4</v>
       </c>
@@ -6759,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -6777,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -6789,7 +6815,7 @@
       <c r="G9" s="48"/>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -6801,13 +6827,13 @@
       <c r="G10" s="48"/>
       <c r="H10" s="76"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="172" t="s">
         <v>145</v>
       </c>
       <c r="C12" s="172"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>3</v>
       </c>
@@ -6818,7 +6844,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="49">
         <v>4</v>
       </c>
@@ -6829,7 +6855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>5</v>
       </c>
@@ -6840,7 +6866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>6</v>
       </c>
@@ -6849,7 +6875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>7</v>
       </c>
@@ -6858,12 +6884,12 @@
       </c>
       <c r="D17" s="109"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="173" t="s">
         <v>152</v>
       </c>
@@ -6889,22 +6915,22 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
+    <col min="3" max="3" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="193" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="193"/>
       <c r="D2" s="193"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="14">
         <v>3</v>
       </c>
@@ -6915,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>4</v>
       </c>
@@ -6926,7 +6952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="80" t="s">
         <v>148</v>
       </c>
@@ -6935,7 +6961,7 @@
       </c>
       <c r="D6" s="47"/>
     </row>
-    <row r="8" spans="2:4" s="72" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:4" s="72" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -6952,16 +6978,16 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="4" width="11.83203125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="3"/>
-    <col min="8" max="8" width="14.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.81640625" style="3"/>
+    <col min="2" max="4" width="11.81640625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="8.81640625" style="3"/>
+    <col min="8" max="8" width="14.81640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="14">
         <v>3</v>
       </c>
@@ -6972,7 +6998,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="14">
         <v>4</v>
       </c>
@@ -6983,7 +7009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>5</v>
       </c>
@@ -6999,7 +7025,7 @@
       <c r="G5" s="207"/>
       <c r="H5" s="208"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>6</v>
       </c>
@@ -7013,7 +7039,7 @@
       <c r="G6" s="210"/>
       <c r="H6" s="211"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>7</v>
       </c>
@@ -7027,7 +7053,7 @@
       <c r="G7" s="210"/>
       <c r="H7" s="211"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>8</v>
       </c>
@@ -7041,7 +7067,7 @@
       <c r="G8" s="213"/>
       <c r="H8" s="214"/>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>9</v>
       </c>
@@ -7057,7 +7083,7 @@
       <c r="G9" s="198"/>
       <c r="H9" s="199"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>10</v>
       </c>
@@ -7069,7 +7095,7 @@
       <c r="G10" s="198"/>
       <c r="H10" s="199"/>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>11</v>
       </c>
@@ -7081,7 +7107,7 @@
       <c r="G11" s="198"/>
       <c r="H11" s="199"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>12</v>
       </c>
@@ -7093,7 +7119,7 @@
       <c r="G12" s="198"/>
       <c r="H12" s="199"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>13</v>
       </c>
@@ -7105,7 +7131,7 @@
       <c r="G13" s="198"/>
       <c r="H13" s="199"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>14</v>
       </c>
@@ -7139,25 +7165,25 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="7" width="30.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
+    <col min="3" max="3" width="17.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="3"/>
+    <col min="6" max="7" width="30.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="169" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="171"/>
       <c r="D3" s="94"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -7172,7 +7198,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -7190,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>5</v>
       </c>
@@ -7208,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -7226,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>7</v>
       </c>
@@ -7242,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -7260,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -7276,7 +7302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
       <c r="F12" s="13" t="s">
         <v>118</v>
@@ -7284,7 +7310,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
       <c r="F13" s="13" t="s">
         <v>111</v>
@@ -7294,7 +7320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
       <c r="F14" s="13" t="s">
         <v>118</v>
@@ -7302,7 +7328,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="46"/>
       <c r="F15" s="13" t="s">
         <v>112</v>
@@ -7312,14 +7338,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" s="13" t="s">
         <v>114</v>
       </c>
@@ -7328,14 +7354,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" s="13" t="s">
         <v>115</v>
       </c>
@@ -7344,14 +7370,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" s="13" t="s">
         <v>116</v>
       </c>
@@ -7376,24 +7402,24 @@
       <selection activeCell="B2" sqref="B2:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
     <col min="3" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.81640625" style="3"/>
     <col min="6" max="7" width="19" style="3" customWidth="1"/>
     <col min="8" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="9" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="169" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="171"/>
     </row>
-    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="172" t="s">
         <v>145</v>
       </c>
@@ -7401,7 +7427,7 @@
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -7418,7 +7444,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="72"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>4</v>
       </c>
@@ -7437,7 +7463,7 @@
       </c>
       <c r="I7" s="72"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -7456,7 +7482,7 @@
       </c>
       <c r="I8" s="72"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -7473,7 +7499,7 @@
       </c>
       <c r="I9" s="72"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F10" s="13" t="s">
         <v>101</v>
       </c>
@@ -7483,13 +7509,13 @@
       </c>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="46"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="74" t="s">
         <v>144</v>
       </c>
@@ -7498,7 +7524,7 @@
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="176" t="s">
         <v>122</v>
       </c>
@@ -7511,14 +7537,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="173" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="175"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>3</v>
       </c>
@@ -7529,7 +7555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="49">
         <v>4</v>
       </c>
@@ -7540,7 +7566,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>5</v>
       </c>
@@ -7551,7 +7577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>6</v>
       </c>
@@ -7560,7 +7586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>7</v>
       </c>
@@ -7571,7 +7597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>7</v>
       </c>
@@ -7580,7 +7606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>8</v>
       </c>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="193">
   <si>
     <t>CMD</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>IMU_RESET_TO_FACTORY_SETTINGS</t>
+  </si>
+  <si>
+    <t>IMU_REBOOT</t>
   </si>
 </sst>
 </file>
@@ -1478,6 +1481,12 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1502,13 +1511,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,37 +1553,10 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,6 +1649,42 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,48 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,7 +2070,7 @@
   <dimension ref="B2:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2480,11 +2483,11 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="240"/>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-      <c r="F37" s="241"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="18">
@@ -2500,11 +2503,17 @@
       <c r="F38" s="19"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="2"/>
+      <c r="B39" s="18">
+        <v>208</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="82"/>
@@ -2583,17 +2592,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="174"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -2684,11 +2693,11 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2721,11 +2730,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
@@ -2763,7 +2772,7 @@
       <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="223" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2784,7 +2793,7 @@
       <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="222"/>
+      <c r="C8" s="224"/>
       <c r="D8" s="28" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2852,7 @@
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="223" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -2866,7 +2875,7 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="222"/>
+      <c r="C14" s="224"/>
       <c r="D14" s="28" t="s">
         <v>79</v>
       </c>
@@ -2905,7 +2914,7 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="216" t="s">
+      <c r="C16" s="218" t="s">
         <v>163</v>
       </c>
       <c r="D16" s="123" t="s">
@@ -2928,7 +2937,7 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="217"/>
+      <c r="C17" s="219"/>
       <c r="D17" s="124" t="s">
         <v>79</v>
       </c>
@@ -2957,17 +2966,17 @@
       <c r="D21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="218" t="s">
+      <c r="G21" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="219"/>
-      <c r="I21" s="220"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="222"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="221" t="s">
+      <c r="C22" s="223" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2981,7 +2990,7 @@
       <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="222"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="28" t="s">
         <v>79</v>
       </c>
@@ -3012,7 +3021,7 @@
       <c r="B25" s="14">
         <v>8</v>
       </c>
-      <c r="C25" s="216" t="s">
+      <c r="C25" s="218" t="s">
         <v>162</v>
       </c>
       <c r="D25" s="123" t="s">
@@ -3033,7 +3042,7 @@
       <c r="B26" s="14">
         <v>9</v>
       </c>
-      <c r="C26" s="217"/>
+      <c r="C26" s="219"/>
       <c r="D26" s="124" t="s">
         <v>79</v>
       </c>
@@ -3194,11 +3203,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="57"/>
@@ -3206,10 +3215,10 @@
       <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="172"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
@@ -3326,7 +3335,7 @@
       <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="218" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="123" t="s">
@@ -3347,7 +3356,7 @@
       <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="219"/>
       <c r="D13" s="124" t="s">
         <v>79</v>
       </c>
@@ -3459,11 +3468,11 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
       <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3517,11 +3526,11 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
       <c r="F27" s="13" t="s">
         <v>46</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="B43" s="14">
         <v>10</v>
       </c>
-      <c r="C43" s="216" t="s">
+      <c r="C43" s="218" t="s">
         <v>163</v>
       </c>
       <c r="D43" s="123" t="s">
@@ -3722,7 +3731,7 @@
       <c r="B44" s="14">
         <v>11</v>
       </c>
-      <c r="C44" s="217"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="124" t="s">
         <v>79</v>
       </c>
@@ -3811,36 +3820,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="172"/>
+      <c r="C4" s="174"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="236"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="236"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="225"/>
+      <c r="S4" s="225"/>
+      <c r="T4" s="225"/>
+      <c r="U4" s="225"/>
+      <c r="V4" s="225"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
@@ -4142,11 +4151,11 @@
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
       <c r="F12" s="48"/>
       <c r="G12" s="71"/>
       <c r="H12" s="71"/>
@@ -4194,7 +4203,7 @@
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="229" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
@@ -4203,14 +4212,14 @@
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="231"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="232"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -4239,7 +4248,7 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="232" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -4250,7 +4259,7 @@
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="229"/>
+      <c r="C21" s="233"/>
       <c r="D21" s="59" t="s">
         <v>79</v>
       </c>
@@ -4259,7 +4268,7 @@
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="229"/>
+      <c r="C22" s="233"/>
       <c r="D22" s="59" t="s">
         <v>81</v>
       </c>
@@ -4268,7 +4277,7 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="229"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="60" t="s">
         <v>80</v>
       </c>
@@ -4277,7 +4286,7 @@
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="228" t="s">
+      <c r="C24" s="232" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -4288,7 +4297,7 @@
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="229"/>
+      <c r="C25" s="233"/>
       <c r="D25" s="59" t="s">
         <v>79</v>
       </c>
@@ -4314,7 +4323,7 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="229"/>
+      <c r="C26" s="233"/>
       <c r="D26" s="59" t="s">
         <v>81</v>
       </c>
@@ -4323,7 +4332,7 @@
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="229"/>
+      <c r="C27" s="233"/>
       <c r="D27" s="60" t="s">
         <v>80</v>
       </c>
@@ -4332,7 +4341,7 @@
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="232" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -4343,7 +4352,7 @@
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="229"/>
+      <c r="C29" s="233"/>
       <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
@@ -4352,7 +4361,7 @@
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="229"/>
+      <c r="C30" s="233"/>
       <c r="D30" s="59" t="s">
         <v>81</v>
       </c>
@@ -4361,7 +4370,7 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="229"/>
+      <c r="C31" s="233"/>
       <c r="D31" s="60" t="s">
         <v>80</v>
       </c>
@@ -4370,7 +4379,7 @@
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="228" t="s">
+      <c r="C32" s="232" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -4381,7 +4390,7 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="229"/>
+      <c r="C33" s="233"/>
       <c r="D33" s="59" t="s">
         <v>79</v>
       </c>
@@ -4390,7 +4399,7 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="229"/>
+      <c r="C34" s="233"/>
       <c r="D34" s="59" t="s">
         <v>81</v>
       </c>
@@ -4416,7 +4425,7 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="229"/>
+      <c r="C35" s="233"/>
       <c r="D35" s="60" t="s">
         <v>80</v>
       </c>
@@ -4442,7 +4451,7 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="228" t="s">
+      <c r="C36" s="232" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -4470,7 +4479,7 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="229"/>
+      <c r="C37" s="233"/>
       <c r="D37" s="59" t="s">
         <v>79</v>
       </c>
@@ -4496,7 +4505,7 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="229"/>
+      <c r="C38" s="233"/>
       <c r="D38" s="59" t="s">
         <v>81</v>
       </c>
@@ -4518,7 +4527,7 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="233"/>
       <c r="D39" s="60" t="s">
         <v>80</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="228" t="s">
+      <c r="C40" s="232" t="s">
         <v>133</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -4564,7 +4573,7 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="229"/>
+      <c r="C41" s="233"/>
       <c r="D41" s="59" t="s">
         <v>79</v>
       </c>
@@ -4590,7 +4599,7 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="229"/>
+      <c r="C42" s="233"/>
       <c r="D42" s="59" t="s">
         <v>81</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="229"/>
+      <c r="C43" s="233"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -4642,7 +4651,7 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="228" t="s">
+      <c r="C44" s="232" t="s">
         <v>134</v>
       </c>
       <c r="D44" s="58" t="s">
@@ -4670,7 +4679,7 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="229"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="59" t="s">
         <v>79</v>
       </c>
@@ -4679,7 +4688,7 @@
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="229"/>
+      <c r="C46" s="233"/>
       <c r="D46" s="59" t="s">
         <v>81</v>
       </c>
@@ -4688,7 +4697,7 @@
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="229"/>
+      <c r="C47" s="233"/>
       <c r="D47" s="60" t="s">
         <v>80</v>
       </c>
@@ -4697,7 +4706,7 @@
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="228" t="s">
+      <c r="C48" s="232" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="58" t="s">
@@ -4708,7 +4717,7 @@
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="229"/>
+      <c r="C49" s="233"/>
       <c r="D49" s="59" t="s">
         <v>79</v>
       </c>
@@ -4717,7 +4726,7 @@
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="229"/>
+      <c r="C50" s="233"/>
       <c r="D50" s="59" t="s">
         <v>81</v>
       </c>
@@ -4726,7 +4735,7 @@
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="229"/>
+      <c r="C51" s="233"/>
       <c r="D51" s="60" t="s">
         <v>80</v>
       </c>
@@ -4735,7 +4744,7 @@
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="237" t="s">
+      <c r="C52" s="234" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -4746,7 +4755,7 @@
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="238"/>
+      <c r="C53" s="235"/>
       <c r="D53" s="59" t="s">
         <v>79</v>
       </c>
@@ -4755,7 +4764,7 @@
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="238"/>
+      <c r="C54" s="235"/>
       <c r="D54" s="59" t="s">
         <v>81</v>
       </c>
@@ -4764,7 +4773,7 @@
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="239"/>
+      <c r="C55" s="236"/>
       <c r="D55" s="60" t="s">
         <v>80</v>
       </c>
@@ -4773,7 +4782,7 @@
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="228" t="s">
+      <c r="C56" s="232" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -4784,7 +4793,7 @@
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="229"/>
+      <c r="C57" s="233"/>
       <c r="D57" s="59" t="s">
         <v>79</v>
       </c>
@@ -4793,7 +4802,7 @@
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="229"/>
+      <c r="C58" s="233"/>
       <c r="D58" s="59" t="s">
         <v>81</v>
       </c>
@@ -4802,7 +4811,7 @@
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="229"/>
+      <c r="C59" s="233"/>
       <c r="D59" s="60" t="s">
         <v>80</v>
       </c>
@@ -4811,7 +4820,7 @@
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="228" t="s">
+      <c r="C60" s="232" t="s">
         <v>138</v>
       </c>
       <c r="D60" s="58" t="s">
@@ -4822,7 +4831,7 @@
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="229"/>
+      <c r="C61" s="233"/>
       <c r="D61" s="59" t="s">
         <v>79</v>
       </c>
@@ -4831,7 +4840,7 @@
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="229"/>
+      <c r="C62" s="233"/>
       <c r="D62" s="59" t="s">
         <v>81</v>
       </c>
@@ -4840,7 +4849,7 @@
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="229"/>
+      <c r="C63" s="233"/>
       <c r="D63" s="60" t="s">
         <v>80</v>
       </c>
@@ -4849,7 +4858,7 @@
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="228" t="s">
+      <c r="C64" s="232" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="58" t="s">
@@ -4860,7 +4869,7 @@
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="229"/>
+      <c r="C65" s="233"/>
       <c r="D65" s="59" t="s">
         <v>79</v>
       </c>
@@ -4869,7 +4878,7 @@
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="229"/>
+      <c r="C66" s="233"/>
       <c r="D66" s="59" t="s">
         <v>81</v>
       </c>
@@ -4878,7 +4887,7 @@
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="229"/>
+      <c r="C67" s="233"/>
       <c r="D67" s="60" t="s">
         <v>80</v>
       </c>
@@ -4905,7 +4914,7 @@
       <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="233" t="s">
+      <c r="C70" s="226" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="54" t="s">
@@ -4916,7 +4925,7 @@
       <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="234"/>
+      <c r="C71" s="227"/>
       <c r="D71" s="55" t="s">
         <v>79</v>
       </c>
@@ -4925,7 +4934,7 @@
       <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="234"/>
+      <c r="C72" s="227"/>
       <c r="D72" s="55" t="s">
         <v>81</v>
       </c>
@@ -4934,7 +4943,7 @@
       <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="235"/>
+      <c r="C73" s="228"/>
       <c r="D73" s="56" t="s">
         <v>80</v>
       </c>
@@ -4943,7 +4952,7 @@
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="223" t="s">
+      <c r="C74" s="237" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
@@ -4952,14 +4961,14 @@
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="224"/>
+      <c r="C75" s="238"/>
       <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="225" t="s">
+      <c r="C76" s="239" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
@@ -4968,14 +4977,14 @@
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="226"/>
+      <c r="C77" s="240"/>
       <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="227"/>
+      <c r="C78" s="241"/>
       <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -4987,7 +4996,7 @@
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="230" t="s">
+      <c r="C83" s="229" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
@@ -4996,14 +5005,14 @@
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="231"/>
+      <c r="C84" s="230"/>
       <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="232"/>
+      <c r="C85" s="231"/>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -5032,7 +5041,7 @@
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="228" t="s">
+      <c r="C88" s="232" t="s">
         <v>140</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -5043,7 +5052,7 @@
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="229"/>
+      <c r="C89" s="233"/>
       <c r="D89" s="59" t="s">
         <v>79</v>
       </c>
@@ -5052,7 +5061,7 @@
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="229"/>
+      <c r="C90" s="233"/>
       <c r="D90" s="59" t="s">
         <v>81</v>
       </c>
@@ -5061,7 +5070,7 @@
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="229"/>
+      <c r="C91" s="233"/>
       <c r="D91" s="60" t="s">
         <v>80</v>
       </c>
@@ -5070,7 +5079,7 @@
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="228" t="s">
+      <c r="C92" s="232" t="s">
         <v>141</v>
       </c>
       <c r="D92" s="58" t="s">
@@ -5081,7 +5090,7 @@
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="229"/>
+      <c r="C93" s="233"/>
       <c r="D93" s="59" t="s">
         <v>79</v>
       </c>
@@ -5090,7 +5099,7 @@
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="229"/>
+      <c r="C94" s="233"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -5099,7 +5108,7 @@
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="229"/>
+      <c r="C95" s="233"/>
       <c r="D95" s="60" t="s">
         <v>80</v>
       </c>
@@ -5108,7 +5117,7 @@
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="228" t="s">
+      <c r="C96" s="232" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -5119,7 +5128,7 @@
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="229"/>
+      <c r="C97" s="233"/>
       <c r="D97" s="59" t="s">
         <v>79</v>
       </c>
@@ -5128,7 +5137,7 @@
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="229"/>
+      <c r="C98" s="233"/>
       <c r="D98" s="59" t="s">
         <v>81</v>
       </c>
@@ -5137,7 +5146,7 @@
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="229"/>
+      <c r="C99" s="233"/>
       <c r="D99" s="60" t="s">
         <v>80</v>
       </c>
@@ -5146,7 +5155,7 @@
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="228" t="s">
+      <c r="C100" s="232" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="58" t="s">
@@ -5157,7 +5166,7 @@
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="229"/>
+      <c r="C101" s="233"/>
       <c r="D101" s="59" t="s">
         <v>79</v>
       </c>
@@ -5166,7 +5175,7 @@
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="229"/>
+      <c r="C102" s="233"/>
       <c r="D102" s="59" t="s">
         <v>81</v>
       </c>
@@ -5175,7 +5184,7 @@
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="229"/>
+      <c r="C103" s="233"/>
       <c r="D103" s="60" t="s">
         <v>80</v>
       </c>
@@ -5426,7 +5435,7 @@
       <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="233" t="s">
+      <c r="C138" s="226" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -5437,7 +5446,7 @@
       <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="234"/>
+      <c r="C139" s="227"/>
       <c r="D139" s="55" t="s">
         <v>79</v>
       </c>
@@ -5446,7 +5455,7 @@
       <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="234"/>
+      <c r="C140" s="227"/>
       <c r="D140" s="55" t="s">
         <v>81</v>
       </c>
@@ -5455,7 +5464,7 @@
       <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="235"/>
+      <c r="C141" s="228"/>
       <c r="D141" s="56" t="s">
         <v>80</v>
       </c>
@@ -5464,7 +5473,7 @@
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="223" t="s">
+      <c r="C142" s="237" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
@@ -5473,14 +5482,14 @@
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="224"/>
+      <c r="C143" s="238"/>
       <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="225" t="s">
+      <c r="C144" s="239" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
@@ -5489,18 +5498,31 @@
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="226"/>
+      <c r="C145" s="240"/>
       <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="227"/>
+      <c r="C146" s="241"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -5516,19 +5538,6 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5548,11 +5557,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
@@ -5568,10 +5577,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="3"/>
       <c r="F7" s="93"/>
     </row>
@@ -5626,11 +5635,11 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
@@ -5716,11 +5725,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -5740,18 +5749,18 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="176"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
@@ -5864,350 +5873,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="177" t="s">
+      <c r="C4" s="182"/>
+      <c r="D4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="177"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="177" t="s">
+      <c r="C6" s="191"/>
+      <c r="D6" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
-      <c r="W6" s="177"/>
-      <c r="X6" s="177"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="177" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="169"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="183"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="184"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="187"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="184"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="169"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="184"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="192"/>
-      <c r="D11" s="177" t="s">
+      <c r="C11" s="190"/>
+      <c r="D11" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="177"/>
-      <c r="X11" s="177"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="177" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="177"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="177"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="177" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="177" t="s">
+      <c r="C15" s="182"/>
+      <c r="D15" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="177"/>
-      <c r="W15" s="177"/>
-      <c r="X15" s="177"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="189"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
@@ -6266,21 +6275,21 @@
       <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="191" t="s">
+      <c r="BG17" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="191"/>
-      <c r="BI17" s="191"/>
-      <c r="BJ17" s="191"/>
-      <c r="BK17" s="190" t="s">
+      <c r="BH17" s="184"/>
+      <c r="BI17" s="184"/>
+      <c r="BJ17" s="184"/>
+      <c r="BK17" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="190"/>
-      <c r="BM17" s="178" t="s">
+      <c r="BL17" s="183"/>
+      <c r="BM17" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="178"/>
-      <c r="BO17" s="178"/>
+      <c r="BN17" s="182"/>
+      <c r="BO17" s="182"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C18" s="95" t="s">
@@ -6480,57 +6489,57 @@
       </c>
     </row>
     <row r="20" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="I20" s="169" t="s">
+      <c r="I20" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="170"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="170"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
-      <c r="AD20" s="170"/>
-      <c r="AE20" s="170"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="170"/>
-      <c r="AH20" s="170"/>
-      <c r="AI20" s="170"/>
-      <c r="AJ20" s="170"/>
-      <c r="AK20" s="170"/>
-      <c r="AL20" s="170"/>
-      <c r="AM20" s="170"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="170"/>
-      <c r="BD20" s="170"/>
-      <c r="BE20" s="171"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="172"/>
+      <c r="AJ20" s="172"/>
+      <c r="AK20" s="172"/>
+      <c r="AL20" s="172"/>
+      <c r="AM20" s="172"/>
+      <c r="AN20" s="172"/>
+      <c r="AO20" s="172"/>
+      <c r="AP20" s="172"/>
+      <c r="AQ20" s="172"/>
+      <c r="AR20" s="172"/>
+      <c r="AS20" s="172"/>
+      <c r="AT20" s="172"/>
+      <c r="AU20" s="172"/>
+      <c r="AV20" s="172"/>
+      <c r="AW20" s="172"/>
+      <c r="AX20" s="172"/>
+      <c r="AY20" s="172"/>
+      <c r="AZ20" s="172"/>
+      <c r="BA20" s="172"/>
+      <c r="BB20" s="172"/>
+      <c r="BC20" s="172"/>
+      <c r="BD20" s="172"/>
+      <c r="BE20" s="173"/>
     </row>
     <row r="21" spans="3:67" x14ac:dyDescent="0.3">
       <c r="I21" s="126">
@@ -6683,6 +6692,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6699,20 +6722,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6739,17 +6748,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="174"/>
       <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -6828,10 +6837,10 @@
       <c r="H10" s="76"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="172"/>
+      <c r="C12" s="174"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
@@ -6890,11 +6899,11 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6924,11 +6933,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="14">
@@ -7013,111 +7022,111 @@
       <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="196" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="197"/>
       <c r="D6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="211" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="213"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="195"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="211" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>8</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="198"/>
       <c r="D8" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="212" t="s">
+      <c r="F8" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="216"/>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>9</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="205" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="197" t="s">
+      <c r="F9" s="199" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="199"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="201"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="204"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="204"/>
+      <c r="C11" s="206"/>
       <c r="D11" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="197"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="201"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>12</v>
       </c>
-      <c r="C12" s="205"/>
+      <c r="C12" s="207"/>
       <c r="D12" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="197"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
@@ -7127,9 +7136,9 @@
         <v>0</v>
       </c>
       <c r="D13" s="104"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="201"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
@@ -7139,9 +7148,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="106"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7177,10 +7186,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="94"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -7413,17 +7422,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="5" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="174"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
     </row>
@@ -7437,10 +7446,10 @@
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="215"/>
+      <c r="G6" s="217"/>
       <c r="H6" s="4"/>
       <c r="I6" s="72"/>
     </row>
@@ -7525,10 +7534,10 @@
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="176"/>
+      <c r="C13" s="178"/>
       <c r="F13" s="12" t="s">
         <v>182</v>
       </c>
@@ -7538,11 +7547,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14">

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="194">
   <si>
     <t>CMD</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>IMU_REBOOT</t>
+  </si>
+  <si>
+    <t>IMU_GET_TEMPERATURE</t>
   </si>
 </sst>
 </file>
@@ -1511,52 +1514,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,8 +1652,35 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,20 +1691,8 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1683,21 +1701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2067,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2516,55 +2519,68 @@
       <c r="F39" s="19"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="2"/>
+      <c r="B40" s="18">
+        <v>209</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="130">
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="130">
         <v>250</v>
       </c>
-      <c r="C41" s="130">
+      <c r="C42" s="130">
         <v>0</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D42" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="131"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="164">
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="164">
         <v>254</v>
       </c>
-      <c r="C43" s="164">
+      <c r="C44" s="164">
         <v>0</v>
       </c>
-      <c r="D43" s="164" t="s">
+      <c r="D44" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="164"/>
-      <c r="F43" s="165"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="107">
+      <c r="E44" s="164"/>
+      <c r="F44" s="165"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="107">
         <v>255</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3820,11 +3836,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="174" t="s">
@@ -3832,24 +3848,24 @@
       </c>
       <c r="C4" s="174"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="225" t="s">
+      <c r="G4" s="238" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="225"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="238"/>
+      <c r="U4" s="238"/>
+      <c r="V4" s="238"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
@@ -4203,7 +4219,7 @@
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="229" t="s">
+      <c r="C15" s="232" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
@@ -4212,14 +4228,14 @@
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="230"/>
+      <c r="C16" s="233"/>
       <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="231"/>
+      <c r="C17" s="234"/>
       <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -4248,7 +4264,7 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="230" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -4259,7 +4275,7 @@
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="233"/>
+      <c r="C21" s="231"/>
       <c r="D21" s="59" t="s">
         <v>79</v>
       </c>
@@ -4268,7 +4284,7 @@
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="233"/>
+      <c r="C22" s="231"/>
       <c r="D22" s="59" t="s">
         <v>81</v>
       </c>
@@ -4277,7 +4293,7 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="233"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="60" t="s">
         <v>80</v>
       </c>
@@ -4286,7 +4302,7 @@
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="230" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -4297,7 +4313,7 @@
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="233"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="59" t="s">
         <v>79</v>
       </c>
@@ -4323,7 +4339,7 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="233"/>
+      <c r="C26" s="231"/>
       <c r="D26" s="59" t="s">
         <v>81</v>
       </c>
@@ -4332,7 +4348,7 @@
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="233"/>
+      <c r="C27" s="231"/>
       <c r="D27" s="60" t="s">
         <v>80</v>
       </c>
@@ -4341,7 +4357,7 @@
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="232" t="s">
+      <c r="C28" s="230" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -4352,7 +4368,7 @@
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="233"/>
+      <c r="C29" s="231"/>
       <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
@@ -4361,7 +4377,7 @@
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="233"/>
+      <c r="C30" s="231"/>
       <c r="D30" s="59" t="s">
         <v>81</v>
       </c>
@@ -4370,7 +4386,7 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="233"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="60" t="s">
         <v>80</v>
       </c>
@@ -4379,7 +4395,7 @@
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="232" t="s">
+      <c r="C32" s="230" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -4390,7 +4406,7 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="233"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="59" t="s">
         <v>79</v>
       </c>
@@ -4399,7 +4415,7 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="233"/>
+      <c r="C34" s="231"/>
       <c r="D34" s="59" t="s">
         <v>81</v>
       </c>
@@ -4425,7 +4441,7 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="233"/>
+      <c r="C35" s="231"/>
       <c r="D35" s="60" t="s">
         <v>80</v>
       </c>
@@ -4451,7 +4467,7 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="232" t="s">
+      <c r="C36" s="230" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -4479,7 +4495,7 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="233"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="59" t="s">
         <v>79</v>
       </c>
@@ -4505,7 +4521,7 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="233"/>
+      <c r="C38" s="231"/>
       <c r="D38" s="59" t="s">
         <v>81</v>
       </c>
@@ -4527,7 +4543,7 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="233"/>
+      <c r="C39" s="231"/>
       <c r="D39" s="60" t="s">
         <v>80</v>
       </c>
@@ -4549,7 +4565,7 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="232" t="s">
+      <c r="C40" s="230" t="s">
         <v>133</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -4573,7 +4589,7 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="233"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="59" t="s">
         <v>79</v>
       </c>
@@ -4599,7 +4615,7 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="233"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="59" t="s">
         <v>81</v>
       </c>
@@ -4625,7 +4641,7 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="233"/>
+      <c r="C43" s="231"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -4651,7 +4667,7 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="232" t="s">
+      <c r="C44" s="230" t="s">
         <v>134</v>
       </c>
       <c r="D44" s="58" t="s">
@@ -4679,7 +4695,7 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="233"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="59" t="s">
         <v>79</v>
       </c>
@@ -4688,7 +4704,7 @@
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="233"/>
+      <c r="C46" s="231"/>
       <c r="D46" s="59" t="s">
         <v>81</v>
       </c>
@@ -4697,7 +4713,7 @@
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="233"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="60" t="s">
         <v>80</v>
       </c>
@@ -4706,7 +4722,7 @@
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="232" t="s">
+      <c r="C48" s="230" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="58" t="s">
@@ -4717,7 +4733,7 @@
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="233"/>
+      <c r="C49" s="231"/>
       <c r="D49" s="59" t="s">
         <v>79</v>
       </c>
@@ -4726,7 +4742,7 @@
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="233"/>
+      <c r="C50" s="231"/>
       <c r="D50" s="59" t="s">
         <v>81</v>
       </c>
@@ -4735,7 +4751,7 @@
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="233"/>
+      <c r="C51" s="231"/>
       <c r="D51" s="60" t="s">
         <v>80</v>
       </c>
@@ -4744,7 +4760,7 @@
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="234" t="s">
+      <c r="C52" s="239" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -4755,7 +4771,7 @@
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="235"/>
+      <c r="C53" s="240"/>
       <c r="D53" s="59" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4780,7 @@
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="235"/>
+      <c r="C54" s="240"/>
       <c r="D54" s="59" t="s">
         <v>81</v>
       </c>
@@ -4773,7 +4789,7 @@
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="236"/>
+      <c r="C55" s="241"/>
       <c r="D55" s="60" t="s">
         <v>80</v>
       </c>
@@ -4782,7 +4798,7 @@
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="232" t="s">
+      <c r="C56" s="230" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -4793,7 +4809,7 @@
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="233"/>
+      <c r="C57" s="231"/>
       <c r="D57" s="59" t="s">
         <v>79</v>
       </c>
@@ -4802,7 +4818,7 @@
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="233"/>
+      <c r="C58" s="231"/>
       <c r="D58" s="59" t="s">
         <v>81</v>
       </c>
@@ -4811,7 +4827,7 @@
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="233"/>
+      <c r="C59" s="231"/>
       <c r="D59" s="60" t="s">
         <v>80</v>
       </c>
@@ -4820,7 +4836,7 @@
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="232" t="s">
+      <c r="C60" s="230" t="s">
         <v>138</v>
       </c>
       <c r="D60" s="58" t="s">
@@ -4831,7 +4847,7 @@
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="233"/>
+      <c r="C61" s="231"/>
       <c r="D61" s="59" t="s">
         <v>79</v>
       </c>
@@ -4840,7 +4856,7 @@
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="233"/>
+      <c r="C62" s="231"/>
       <c r="D62" s="59" t="s">
         <v>81</v>
       </c>
@@ -4849,7 +4865,7 @@
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="233"/>
+      <c r="C63" s="231"/>
       <c r="D63" s="60" t="s">
         <v>80</v>
       </c>
@@ -4858,7 +4874,7 @@
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="232" t="s">
+      <c r="C64" s="230" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="58" t="s">
@@ -4869,7 +4885,7 @@
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="233"/>
+      <c r="C65" s="231"/>
       <c r="D65" s="59" t="s">
         <v>79</v>
       </c>
@@ -4878,7 +4894,7 @@
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="233"/>
+      <c r="C66" s="231"/>
       <c r="D66" s="59" t="s">
         <v>81</v>
       </c>
@@ -4887,7 +4903,7 @@
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="233"/>
+      <c r="C67" s="231"/>
       <c r="D67" s="60" t="s">
         <v>80</v>
       </c>
@@ -4914,7 +4930,7 @@
       <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="226" t="s">
+      <c r="C70" s="235" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="54" t="s">
@@ -4925,7 +4941,7 @@
       <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="227"/>
+      <c r="C71" s="236"/>
       <c r="D71" s="55" t="s">
         <v>79</v>
       </c>
@@ -4934,7 +4950,7 @@
       <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="227"/>
+      <c r="C72" s="236"/>
       <c r="D72" s="55" t="s">
         <v>81</v>
       </c>
@@ -4943,7 +4959,7 @@
       <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="228"/>
+      <c r="C73" s="237"/>
       <c r="D73" s="56" t="s">
         <v>80</v>
       </c>
@@ -4952,7 +4968,7 @@
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="237" t="s">
+      <c r="C74" s="225" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
@@ -4961,14 +4977,14 @@
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="238"/>
+      <c r="C75" s="226"/>
       <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="239" t="s">
+      <c r="C76" s="227" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
@@ -4977,14 +4993,14 @@
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="240"/>
+      <c r="C77" s="228"/>
       <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="241"/>
+      <c r="C78" s="229"/>
       <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -4996,7 +5012,7 @@
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="229" t="s">
+      <c r="C83" s="232" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
@@ -5005,14 +5021,14 @@
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="230"/>
+      <c r="C84" s="233"/>
       <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="231"/>
+      <c r="C85" s="234"/>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -5041,7 +5057,7 @@
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="232" t="s">
+      <c r="C88" s="230" t="s">
         <v>140</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -5052,7 +5068,7 @@
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="233"/>
+      <c r="C89" s="231"/>
       <c r="D89" s="59" t="s">
         <v>79</v>
       </c>
@@ -5061,7 +5077,7 @@
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="233"/>
+      <c r="C90" s="231"/>
       <c r="D90" s="59" t="s">
         <v>81</v>
       </c>
@@ -5070,7 +5086,7 @@
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="233"/>
+      <c r="C91" s="231"/>
       <c r="D91" s="60" t="s">
         <v>80</v>
       </c>
@@ -5079,7 +5095,7 @@
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="232" t="s">
+      <c r="C92" s="230" t="s">
         <v>141</v>
       </c>
       <c r="D92" s="58" t="s">
@@ -5090,7 +5106,7 @@
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="233"/>
+      <c r="C93" s="231"/>
       <c r="D93" s="59" t="s">
         <v>79</v>
       </c>
@@ -5099,7 +5115,7 @@
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="233"/>
+      <c r="C94" s="231"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -5108,7 +5124,7 @@
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="233"/>
+      <c r="C95" s="231"/>
       <c r="D95" s="60" t="s">
         <v>80</v>
       </c>
@@ -5117,7 +5133,7 @@
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="232" t="s">
+      <c r="C96" s="230" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -5128,7 +5144,7 @@
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="233"/>
+      <c r="C97" s="231"/>
       <c r="D97" s="59" t="s">
         <v>79</v>
       </c>
@@ -5137,7 +5153,7 @@
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="233"/>
+      <c r="C98" s="231"/>
       <c r="D98" s="59" t="s">
         <v>81</v>
       </c>
@@ -5146,7 +5162,7 @@
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="233"/>
+      <c r="C99" s="231"/>
       <c r="D99" s="60" t="s">
         <v>80</v>
       </c>
@@ -5155,7 +5171,7 @@
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="232" t="s">
+      <c r="C100" s="230" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="58" t="s">
@@ -5166,7 +5182,7 @@
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="233"/>
+      <c r="C101" s="231"/>
       <c r="D101" s="59" t="s">
         <v>79</v>
       </c>
@@ -5175,7 +5191,7 @@
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="233"/>
+      <c r="C102" s="231"/>
       <c r="D102" s="59" t="s">
         <v>81</v>
       </c>
@@ -5184,7 +5200,7 @@
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="233"/>
+      <c r="C103" s="231"/>
       <c r="D103" s="60" t="s">
         <v>80</v>
       </c>
@@ -5435,7 +5451,7 @@
       <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="226" t="s">
+      <c r="C138" s="235" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -5446,7 +5462,7 @@
       <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="227"/>
+      <c r="C139" s="236"/>
       <c r="D139" s="55" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5471,7 @@
       <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="227"/>
+      <c r="C140" s="236"/>
       <c r="D140" s="55" t="s">
         <v>81</v>
       </c>
@@ -5464,7 +5480,7 @@
       <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="228"/>
+      <c r="C141" s="237"/>
       <c r="D141" s="56" t="s">
         <v>80</v>
       </c>
@@ -5473,7 +5489,7 @@
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="237" t="s">
+      <c r="C142" s="225" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
@@ -5482,14 +5498,14 @@
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="238"/>
+      <c r="C143" s="226"/>
       <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="239" t="s">
+      <c r="C144" s="227" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
@@ -5498,31 +5514,18 @@
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="240"/>
+      <c r="C145" s="228"/>
       <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="241"/>
+      <c r="C146" s="229"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -5538,6 +5541,19 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5873,350 +5889,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="189" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="189"/>
-      <c r="X4" s="189"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="189"/>
-      <c r="S5" s="189"/>
-      <c r="T5" s="189"/>
-      <c r="U5" s="189"/>
-      <c r="V5" s="189"/>
-      <c r="W5" s="189"/>
-      <c r="X5" s="189"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="189" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
-      <c r="W6" s="189"/>
-      <c r="X6" s="189"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="179"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="183"/>
+      <c r="D7" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="171"/>
       <c r="C8" s="173"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="187"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
+      <c r="U8" s="185"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="186"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="186"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="171"/>
       <c r="C10" s="173"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="186"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="189" t="s">
+      <c r="C11" s="194"/>
+      <c r="D11" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="189"/>
-      <c r="S11" s="189"/>
-      <c r="T11" s="189"/>
-      <c r="U11" s="189"/>
-      <c r="V11" s="189"/>
-      <c r="W11" s="189"/>
-      <c r="X11" s="189"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="179"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="179"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="189" t="s">
+      <c r="C12" s="193"/>
+      <c r="D12" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="189"/>
-      <c r="V12" s="189"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="179"/>
+      <c r="X12" s="179"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="189" t="s">
+      <c r="C13" s="192"/>
+      <c r="D13" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189"/>
-      <c r="S13" s="189"/>
-      <c r="T13" s="189"/>
-      <c r="U13" s="189"/>
-      <c r="V13" s="189"/>
-      <c r="W13" s="189"/>
-      <c r="X13" s="189"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="179"/>
+      <c r="T13" s="179"/>
+      <c r="U13" s="179"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="179"/>
+      <c r="X13" s="179"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="189"/>
-      <c r="T14" s="189"/>
-      <c r="U14" s="189"/>
-      <c r="V14" s="189"/>
-      <c r="W14" s="189"/>
-      <c r="X14" s="189"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="179"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="189" t="s">
+      <c r="C15" s="180"/>
+      <c r="D15" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="189"/>
-      <c r="V15" s="189"/>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="179"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="179"/>
     </row>
     <row r="17" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="D17" s="182" t="s">
+      <c r="D17" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="84" t="s">
         <v>0</v>
       </c>
@@ -6275,21 +6291,21 @@
       <c r="BF17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="BG17" s="184" t="s">
+      <c r="BG17" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="BH17" s="184"/>
-      <c r="BI17" s="184"/>
-      <c r="BJ17" s="184"/>
-      <c r="BK17" s="183" t="s">
+      <c r="BH17" s="193"/>
+      <c r="BI17" s="193"/>
+      <c r="BJ17" s="193"/>
+      <c r="BK17" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="BL17" s="183"/>
-      <c r="BM17" s="182" t="s">
+      <c r="BL17" s="192"/>
+      <c r="BM17" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="BN17" s="182"/>
-      <c r="BO17" s="182"/>
+      <c r="BN17" s="180"/>
+      <c r="BO17" s="180"/>
     </row>
     <row r="18" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C18" s="95" t="s">
@@ -6692,20 +6708,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I20:BE20"/>
-    <mergeCell ref="D13:X13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:X4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:X7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:X8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:X9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="BK17:BL17"/>
@@ -6722,6 +6724,20 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:X12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I20:BE20"/>
+    <mergeCell ref="D13:X13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:X4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:X9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -27,11 +27,7 @@
     <sheet name="IMU_DATA" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2072,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -7423,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>

--- a/doc/DATA_PROTOCOL_SENSUS.xlsx
+++ b/doc/DATA_PROTOCOL_SENSUS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804" activeTab="8"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="LIST_CMD" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,11 @@
     <sheet name="IMU_DATA" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="195">
   <si>
     <t>CMD</t>
   </si>
@@ -614,6 +613,9 @@
   </si>
   <si>
     <t>IMU_GET_TEMPERATURE</t>
+  </si>
+  <si>
+    <t>IMU_COMMIT_SETTINGS</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1512,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,37 +1554,10 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,6 +1650,42 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,42 +1699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2066,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2528,55 +2530,68 @@
       <c r="F40" s="19"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="18">
+        <v>210</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="130">
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="130">
         <v>250</v>
       </c>
-      <c r="C42" s="130">
+      <c r="C43" s="130">
         <v>0</v>
       </c>
-      <c r="D42" s="130" t="s">
+      <c r="D43" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="131"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="164">
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="164">
         <v>254</v>
       </c>
-      <c r="C44" s="164">
+      <c r="C45" s="164">
         <v>0</v>
       </c>
-      <c r="D44" s="164" t="s">
+      <c r="D45" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="165"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="107">
+      <c r="E45" s="164"/>
+      <c r="F45" s="165"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="107">
         <v>255</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,11 +3847,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="191"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="174" t="s">
@@ -3844,24 +3859,24 @@
       </c>
       <c r="C4" s="174"/>
       <c r="E4" s="71"/>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="238"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="238"/>
-      <c r="U4" s="238"/>
-      <c r="V4" s="238"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="225"/>
+      <c r="S4" s="225"/>
+      <c r="T4" s="225"/>
+      <c r="U4" s="225"/>
+      <c r="V4" s="225"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
@@ -4215,7 +4230,7 @@
       <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15" s="232" t="s">
+      <c r="C15" s="229" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="90"/>
@@ -4224,14 +4239,14 @@
       <c r="B16" s="66">
         <v>1</v>
       </c>
-      <c r="C16" s="233"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="91"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="66">
         <v>2</v>
       </c>
-      <c r="C17" s="234"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="92"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -4260,7 +4275,7 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="232" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -4271,7 +4286,7 @@
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="231"/>
+      <c r="C21" s="233"/>
       <c r="D21" s="59" t="s">
         <v>79</v>
       </c>
@@ -4280,7 +4295,7 @@
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="231"/>
+      <c r="C22" s="233"/>
       <c r="D22" s="59" t="s">
         <v>81</v>
       </c>
@@ -4289,7 +4304,7 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="231"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="60" t="s">
         <v>80</v>
       </c>
@@ -4298,7 +4313,7 @@
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="232" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -4309,7 +4324,7 @@
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="231"/>
+      <c r="C25" s="233"/>
       <c r="D25" s="59" t="s">
         <v>79</v>
       </c>
@@ -4335,7 +4350,7 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="231"/>
+      <c r="C26" s="233"/>
       <c r="D26" s="59" t="s">
         <v>81</v>
       </c>
@@ -4344,7 +4359,7 @@
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="231"/>
+      <c r="C27" s="233"/>
       <c r="D27" s="60" t="s">
         <v>80</v>
       </c>
@@ -4353,7 +4368,7 @@
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="232" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -4364,7 +4379,7 @@
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="231"/>
+      <c r="C29" s="233"/>
       <c r="D29" s="59" t="s">
         <v>79</v>
       </c>
@@ -4373,7 +4388,7 @@
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="231"/>
+      <c r="C30" s="233"/>
       <c r="D30" s="59" t="s">
         <v>81</v>
       </c>
@@ -4382,7 +4397,7 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="231"/>
+      <c r="C31" s="233"/>
       <c r="D31" s="60" t="s">
         <v>80</v>
       </c>
@@ -4391,7 +4406,7 @@
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="230" t="s">
+      <c r="C32" s="232" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -4402,7 +4417,7 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="231"/>
+      <c r="C33" s="233"/>
       <c r="D33" s="59" t="s">
         <v>79</v>
       </c>
@@ -4411,7 +4426,7 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="231"/>
+      <c r="C34" s="233"/>
       <c r="D34" s="59" t="s">
         <v>81</v>
       </c>
@@ -4437,7 +4452,7 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="231"/>
+      <c r="C35" s="233"/>
       <c r="D35" s="60" t="s">
         <v>80</v>
       </c>
@@ -4463,7 +4478,7 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="230" t="s">
+      <c r="C36" s="232" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -4491,7 +4506,7 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="231"/>
+      <c r="C37" s="233"/>
       <c r="D37" s="59" t="s">
         <v>79</v>
       </c>
@@ -4517,7 +4532,7 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="231"/>
+      <c r="C38" s="233"/>
       <c r="D38" s="59" t="s">
         <v>81</v>
       </c>
@@ -4539,7 +4554,7 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="231"/>
+      <c r="C39" s="233"/>
       <c r="D39" s="60" t="s">
         <v>80</v>
       </c>
@@ -4561,7 +4576,7 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="230" t="s">
+      <c r="C40" s="232" t="s">
         <v>133</v>
       </c>
       <c r="D40" s="58" t="s">
@@ -4585,7 +4600,7 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="231"/>
+      <c r="C41" s="233"/>
       <c r="D41" s="59" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4626,7 @@
       <c r="B42" s="14">
         <v>27</v>
       </c>
-      <c r="C42" s="231"/>
+      <c r="C42" s="233"/>
       <c r="D42" s="59" t="s">
         <v>81</v>
       </c>
@@ -4637,7 +4652,7 @@
       <c r="B43" s="14">
         <v>28</v>
       </c>
-      <c r="C43" s="231"/>
+      <c r="C43" s="233"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -4663,7 +4678,7 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="232" t="s">
         <v>134</v>
       </c>
       <c r="D44" s="58" t="s">
@@ -4691,7 +4706,7 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="231"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="59" t="s">
         <v>79</v>
       </c>
@@ -4700,7 +4715,7 @@
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="231"/>
+      <c r="C46" s="233"/>
       <c r="D46" s="59" t="s">
         <v>81</v>
       </c>
@@ -4709,7 +4724,7 @@
       <c r="B47" s="14">
         <v>32</v>
       </c>
-      <c r="C47" s="231"/>
+      <c r="C47" s="233"/>
       <c r="D47" s="60" t="s">
         <v>80</v>
       </c>
@@ -4718,7 +4733,7 @@
       <c r="B48" s="14">
         <v>33</v>
       </c>
-      <c r="C48" s="230" t="s">
+      <c r="C48" s="232" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="58" t="s">
@@ -4729,7 +4744,7 @@
       <c r="B49" s="14">
         <v>34</v>
       </c>
-      <c r="C49" s="231"/>
+      <c r="C49" s="233"/>
       <c r="D49" s="59" t="s">
         <v>79</v>
       </c>
@@ -4738,7 +4753,7 @@
       <c r="B50" s="14">
         <v>35</v>
       </c>
-      <c r="C50" s="231"/>
+      <c r="C50" s="233"/>
       <c r="D50" s="59" t="s">
         <v>81</v>
       </c>
@@ -4747,7 +4762,7 @@
       <c r="B51" s="14">
         <v>36</v>
       </c>
-      <c r="C51" s="231"/>
+      <c r="C51" s="233"/>
       <c r="D51" s="60" t="s">
         <v>80</v>
       </c>
@@ -4756,7 +4771,7 @@
       <c r="B52" s="14">
         <v>37</v>
       </c>
-      <c r="C52" s="239" t="s">
+      <c r="C52" s="234" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -4767,7 +4782,7 @@
       <c r="B53" s="14">
         <v>38</v>
       </c>
-      <c r="C53" s="240"/>
+      <c r="C53" s="235"/>
       <c r="D53" s="59" t="s">
         <v>79</v>
       </c>
@@ -4776,7 +4791,7 @@
       <c r="B54" s="14">
         <v>39</v>
       </c>
-      <c r="C54" s="240"/>
+      <c r="C54" s="235"/>
       <c r="D54" s="59" t="s">
         <v>81</v>
       </c>
@@ -4785,7 +4800,7 @@
       <c r="B55" s="14">
         <v>40</v>
       </c>
-      <c r="C55" s="241"/>
+      <c r="C55" s="236"/>
       <c r="D55" s="60" t="s">
         <v>80</v>
       </c>
@@ -4794,7 +4809,7 @@
       <c r="B56" s="14">
         <v>41</v>
       </c>
-      <c r="C56" s="230" t="s">
+      <c r="C56" s="232" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -4805,7 +4820,7 @@
       <c r="B57" s="14">
         <v>42</v>
       </c>
-      <c r="C57" s="231"/>
+      <c r="C57" s="233"/>
       <c r="D57" s="59" t="s">
         <v>79</v>
       </c>
@@ -4814,7 +4829,7 @@
       <c r="B58" s="14">
         <v>43</v>
       </c>
-      <c r="C58" s="231"/>
+      <c r="C58" s="233"/>
       <c r="D58" s="59" t="s">
         <v>81</v>
       </c>
@@ -4823,7 +4838,7 @@
       <c r="B59" s="14">
         <v>44</v>
       </c>
-      <c r="C59" s="231"/>
+      <c r="C59" s="233"/>
       <c r="D59" s="60" t="s">
         <v>80</v>
       </c>
@@ -4832,7 +4847,7 @@
       <c r="B60" s="14">
         <v>45</v>
       </c>
-      <c r="C60" s="230" t="s">
+      <c r="C60" s="232" t="s">
         <v>138</v>
       </c>
       <c r="D60" s="58" t="s">
@@ -4843,7 +4858,7 @@
       <c r="B61" s="14">
         <v>46</v>
       </c>
-      <c r="C61" s="231"/>
+      <c r="C61" s="233"/>
       <c r="D61" s="59" t="s">
         <v>79</v>
       </c>
@@ -4852,7 +4867,7 @@
       <c r="B62" s="14">
         <v>47</v>
       </c>
-      <c r="C62" s="231"/>
+      <c r="C62" s="233"/>
       <c r="D62" s="59" t="s">
         <v>81</v>
       </c>
@@ -4861,7 +4876,7 @@
       <c r="B63" s="14">
         <v>48</v>
       </c>
-      <c r="C63" s="231"/>
+      <c r="C63" s="233"/>
       <c r="D63" s="60" t="s">
         <v>80</v>
       </c>
@@ -4870,7 +4885,7 @@
       <c r="B64" s="14">
         <v>49</v>
       </c>
-      <c r="C64" s="230" t="s">
+      <c r="C64" s="232" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="58" t="s">
@@ -4881,7 +4896,7 @@
       <c r="B65" s="14">
         <v>50</v>
       </c>
-      <c r="C65" s="231"/>
+      <c r="C65" s="233"/>
       <c r="D65" s="59" t="s">
         <v>79</v>
       </c>
@@ -4890,7 +4905,7 @@
       <c r="B66" s="14">
         <v>51</v>
       </c>
-      <c r="C66" s="231"/>
+      <c r="C66" s="233"/>
       <c r="D66" s="59" t="s">
         <v>81</v>
       </c>
@@ -4899,7 +4914,7 @@
       <c r="B67" s="14">
         <v>52</v>
       </c>
-      <c r="C67" s="231"/>
+      <c r="C67" s="233"/>
       <c r="D67" s="60" t="s">
         <v>80</v>
       </c>
@@ -4926,7 +4941,7 @@
       <c r="B70" s="14">
         <v>55</v>
       </c>
-      <c r="C70" s="235" t="s">
+      <c r="C70" s="226" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="54" t="s">
@@ -4937,7 +4952,7 @@
       <c r="B71" s="14">
         <v>56</v>
       </c>
-      <c r="C71" s="236"/>
+      <c r="C71" s="227"/>
       <c r="D71" s="55" t="s">
         <v>79</v>
       </c>
@@ -4946,7 +4961,7 @@
       <c r="B72" s="14">
         <v>57</v>
       </c>
-      <c r="C72" s="236"/>
+      <c r="C72" s="227"/>
       <c r="D72" s="55" t="s">
         <v>81</v>
       </c>
@@ -4955,7 +4970,7 @@
       <c r="B73" s="14">
         <v>58</v>
       </c>
-      <c r="C73" s="237"/>
+      <c r="C73" s="228"/>
       <c r="D73" s="56" t="s">
         <v>80</v>
       </c>
@@ -4964,7 +4979,7 @@
       <c r="B74" s="14">
         <v>59</v>
       </c>
-      <c r="C74" s="225" t="s">
+      <c r="C74" s="237" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="64"/>
@@ -4973,14 +4988,14 @@
       <c r="B75" s="14">
         <v>60</v>
       </c>
-      <c r="C75" s="226"/>
+      <c r="C75" s="238"/>
       <c r="D75" s="65"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>61</v>
       </c>
-      <c r="C76" s="227" t="s">
+      <c r="C76" s="239" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="61"/>
@@ -4989,14 +5004,14 @@
       <c r="B77" s="14">
         <v>62</v>
       </c>
-      <c r="C77" s="228"/>
+      <c r="C77" s="240"/>
       <c r="D77" s="62"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>63</v>
       </c>
-      <c r="C78" s="229"/>
+      <c r="C78" s="241"/>
       <c r="D78" s="63"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -5008,7 +5023,7 @@
       <c r="B83" s="66">
         <v>0</v>
       </c>
-      <c r="C83" s="232" t="s">
+      <c r="C83" s="229" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="61"/>
@@ -5017,14 +5032,14 @@
       <c r="B84" s="66">
         <v>1</v>
       </c>
-      <c r="C84" s="233"/>
+      <c r="C84" s="230"/>
       <c r="D84" s="62"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="66">
         <v>2</v>
       </c>
-      <c r="C85" s="234"/>
+      <c r="C85" s="231"/>
       <c r="D85" s="63"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -5053,7 +5068,7 @@
       <c r="B88" s="14">
         <v>5</v>
       </c>
-      <c r="C88" s="230" t="s">
+      <c r="C88" s="232" t="s">
         <v>140</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -5064,7 +5079,7 @@
       <c r="B89" s="14">
         <v>6</v>
       </c>
-      <c r="C89" s="231"/>
+      <c r="C89" s="233"/>
       <c r="D89" s="59" t="s">
         <v>79</v>
       </c>
@@ -5073,7 +5088,7 @@
       <c r="B90" s="14">
         <v>7</v>
       </c>
-      <c r="C90" s="231"/>
+      <c r="C90" s="233"/>
       <c r="D90" s="59" t="s">
         <v>81</v>
       </c>
@@ -5082,7 +5097,7 @@
       <c r="B91" s="14">
         <v>8</v>
       </c>
-      <c r="C91" s="231"/>
+      <c r="C91" s="233"/>
       <c r="D91" s="60" t="s">
         <v>80</v>
       </c>
@@ -5091,7 +5106,7 @@
       <c r="B92" s="14">
         <v>9</v>
       </c>
-      <c r="C92" s="230" t="s">
+      <c r="C92" s="232" t="s">
         <v>141</v>
       </c>
       <c r="D92" s="58" t="s">
@@ -5102,7 +5117,7 @@
       <c r="B93" s="14">
         <v>10</v>
       </c>
-      <c r="C93" s="231"/>
+      <c r="C93" s="233"/>
       <c r="D93" s="59" t="s">
         <v>79</v>
       </c>
@@ -5111,7 +5126,7 @@
       <c r="B94" s="14">
         <v>11</v>
       </c>
-      <c r="C94" s="231"/>
+      <c r="C94" s="233"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -5120,7 +5135,7 @@
       <c r="B95" s="14">
         <v>12</v>
       </c>
-      <c r="C95" s="231"/>
+      <c r="C95" s="233"/>
       <c r="D95" s="60" t="s">
         <v>80</v>
       </c>
@@ -5129,7 +5144,7 @@
       <c r="B96" s="14">
         <v>13</v>
       </c>
-      <c r="C96" s="230" t="s">
+      <c r="C96" s="232" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -5140,7 +5155,7 @@
       <c r="B97" s="14">
         <v>14</v>
       </c>
-      <c r="C97" s="231"/>
+      <c r="C97" s="233"/>
       <c r="D97" s="59" t="s">
         <v>79</v>
       </c>
@@ -5149,7 +5164,7 @@
       <c r="B98" s="14">
         <v>15</v>
       </c>
-      <c r="C98" s="231"/>
+      <c r="C98" s="233"/>
       <c r="D98" s="59" t="s">
         <v>81</v>
       </c>
@@ -5158,7 +5173,7 @@
       <c r="B99" s="14">
         <v>16</v>
       </c>
-      <c r="C99" s="231"/>
+      <c r="C99" s="233"/>
       <c r="D99" s="60" t="s">
         <v>80</v>
       </c>
@@ -5167,7 +5182,7 @@
       <c r="B100" s="14">
         <v>17</v>
       </c>
-      <c r="C100" s="230" t="s">
+      <c r="C100" s="232" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="58" t="s">
@@ -5178,7 +5193,7 @@
       <c r="B101" s="14">
         <v>18</v>
       </c>
-      <c r="C101" s="231"/>
+      <c r="C101" s="233"/>
       <c r="D101" s="59" t="s">
         <v>79</v>
       </c>
@@ -5187,7 +5202,7 @@
       <c r="B102" s="14">
         <v>19</v>
       </c>
-      <c r="C102" s="231"/>
+      <c r="C102" s="233"/>
       <c r="D102" s="59" t="s">
         <v>81</v>
       </c>
@@ -5196,7 +5211,7 @@
       <c r="B103" s="14">
         <v>20</v>
       </c>
-      <c r="C103" s="231"/>
+      <c r="C103" s="233"/>
       <c r="D103" s="60" t="s">
         <v>80</v>
       </c>
@@ -5447,7 +5462,7 @@
       <c r="B138" s="14">
         <v>55</v>
       </c>
-      <c r="C138" s="235" t="s">
+      <c r="C138" s="226" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -5458,7 +5473,7 @@
       <c r="B139" s="14">
         <v>56</v>
       </c>
-      <c r="C139" s="236"/>
+      <c r="C139" s="227"/>
       <c r="D139" s="55" t="s">
         <v>79</v>
       </c>
@@ -5467,7 +5482,7 @@
       <c r="B140" s="14">
         <v>57</v>
       </c>
-      <c r="C140" s="236"/>
+      <c r="C140" s="227"/>
       <c r="D140" s="55" t="s">
         <v>81</v>
       </c>
@@ -5476,7 +5491,7 @@
       <c r="B141" s="14">
         <v>58</v>
       </c>
-      <c r="C141" s="237"/>
+      <c r="C141" s="228"/>
       <c r="D141" s="56" t="s">
         <v>80</v>
       </c>
@@ -5485,7 +5500,7 @@
       <c r="B142" s="14">
         <v>59</v>
       </c>
-      <c r="C142" s="225" t="s">
+      <c r="C142" s="237" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="64"/>
@@ -5494,14 +5509,14 @@
       <c r="B143" s="14">
         <v>60</v>
       </c>
-      <c r="C143" s="226"/>
+      <c r="C143" s="238"/>
       <c r="D143" s="65"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>61</v>
       </c>
-      <c r="C144" s="227" t="s">
+      <c r="C144" s="239" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="61"/>
@@ -5510,18 +5525,31 @@
       <c r="B145" s="14">
         <v>62</v>
       </c>
-      <c r="C145" s="228"/>
+      <c r="C145" s="240"/>
       <c r="D145" s="62"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>63</v>
       </c>
-      <c r="C146" s="229"/>
+      <c r="C146" s="241"/>
       <c r="D146" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
@@ -5537,19 +5565,6 @@
     <mergeCell ref="C44:C47"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5885,350 +5900,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="179" t="s">
+      <c r="C4" s="182"/>
+      <c r="D4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="189"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="179" t="s">
+      <c r="C6" s="191"/>
+      <c r="D6" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="179"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="189"/>
+      <c r="X6" s="189"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="171"/>
       <c r="C8" s="173"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="186"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="187"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="186"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="171"/>
       <c r="C10" s="173"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="186"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="179" t="s">
+      <c r="C11" s="190"/>
+      <c r="D11" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="179"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="179"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="179"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="179" t="s">
+      <c r="C12" s="184"/>
+      <c r="D12" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="179"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="179"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="179"/>
-      <c r="X12" s="179"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="192"/>
-      <c r="D13" s="179" t="s">
+      <c r="C13" s="183"/>
+      <c 